--- a/input/reg_socialcare.xlsx
+++ b/input/reg_socialcare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4644D9BA-3823-4A18-85D6-63AD8B597F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBAE4DE-76AA-4275-8AE6-5881B189ACBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="551" firstSheet="19" activeTab="19" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="551" firstSheet="18" activeTab="19" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="403">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -926,9 +926,6 @@
     <t>S3c</t>
   </si>
   <si>
-    <t>Linear regression estimates of log hours informal care to anyone</t>
-  </si>
-  <si>
     <t>RSME</t>
   </si>
   <si>
@@ -1023,9 +1020,6 @@
   </si>
   <si>
     <t>Social care provided (Ref = care only for partner)</t>
-  </si>
-  <si>
-    <t>Social care provided (lag, Ref = no care)</t>
   </si>
   <si>
     <t>Notes: Sample limited to individuals aged 18 and over supplying some social care and without missing variables. See table A.17 for further details.</t>
@@ -1281,6 +1275,9 @@
   </si>
   <si>
     <t>CareToOtherOnly</t>
+  </si>
+  <si>
+    <t>Linear regression estimates of log hours informal care provided to anyone</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +1856,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,7 +1887,7 @@
         <v>124</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2055,7 +2052,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B22" s="9" t="str">
         <f>'Process S3d'!A1</f>
@@ -2064,11 +2061,11 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B23" s="9" t="str">
         <f>'Process S3e'!A1</f>
-        <v>Linear regression estimates of log hours informal care to anyone</v>
+        <v>Linear regression estimates of log hours informal care provided to anyone</v>
       </c>
     </row>
   </sheetData>
@@ -8982,13 +8979,13 @@
         <v>74</v>
       </c>
       <c r="J1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L1" t="s">
         <v>390</v>
-      </c>
-      <c r="K1" t="s">
-        <v>391</v>
-      </c>
-      <c r="L1" t="s">
-        <v>392</v>
       </c>
       <c r="M1" t="s">
         <v>269</v>
@@ -9859,7 +9856,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B9">
         <v>-0.13468015449712439</v>
@@ -9972,7 +9969,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B10">
         <v>1.2360594696402825</v>
@@ -10085,7 +10082,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B11">
         <v>1.2526743455656943</v>
@@ -13069,13 +13066,13 @@
         <v>74</v>
       </c>
       <c r="J1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L1" t="s">
         <v>390</v>
-      </c>
-      <c r="K1" t="s">
-        <v>391</v>
-      </c>
-      <c r="L1" t="s">
-        <v>392</v>
       </c>
       <c r="M1" t="s">
         <v>145</v>
@@ -13120,7 +13117,7 @@
         <v>281</v>
       </c>
       <c r="AA1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AB1" t="s">
         <v>28</v>
@@ -13994,7 +13991,7 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B9">
         <v>0.25869233445896295</v>
@@ -14113,7 +14110,7 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B10">
         <v>1.5142504338202676</v>
@@ -14232,7 +14229,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B11">
         <v>1.8060831570926916</v>
@@ -17606,13 +17603,13 @@
         <v>74</v>
       </c>
       <c r="J1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L1" t="s">
         <v>390</v>
-      </c>
-      <c r="K1" t="s">
-        <v>391</v>
-      </c>
-      <c r="L1" t="s">
-        <v>392</v>
       </c>
       <c r="M1" t="s">
         <v>269</v>
@@ -17654,7 +17651,7 @@
         <v>281</v>
       </c>
       <c r="Z1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AA1" t="s">
         <v>28</v>
@@ -18507,7 +18504,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B9">
         <v>0.39977195757379846</v>
@@ -18623,7 +18620,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B10">
         <v>1.1982019384889886</v>
@@ -18739,7 +18736,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B11">
         <v>1.7782700768396966</v>
@@ -21892,243 +21889,243 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" t="s">
         <v>321</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>322</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>323</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>324</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>325</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L1" t="s">
+        <v>391</v>
+      </c>
+      <c r="M1" t="s">
         <v>326</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>327</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
+        <v>328</v>
+      </c>
+      <c r="P1" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>330</v>
+      </c>
+      <c r="R1" t="s">
+        <v>331</v>
+      </c>
+      <c r="S1" t="s">
+        <v>332</v>
+      </c>
+      <c r="T1" t="s">
+        <v>333</v>
+      </c>
+      <c r="U1" t="s">
+        <v>334</v>
+      </c>
+      <c r="V1" t="s">
+        <v>335</v>
+      </c>
+      <c r="W1" t="s">
+        <v>336</v>
+      </c>
+      <c r="X1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>385</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>386</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>387</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>342</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>343</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>344</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>346</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>347</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>396</v>
       </c>
-      <c r="K1" t="s">
+      <c r="BK1" t="s">
         <v>399</v>
       </c>
-      <c r="L1" t="s">
+      <c r="BL1" t="s">
         <v>393</v>
       </c>
-      <c r="M1" t="s">
-        <v>328</v>
-      </c>
-      <c r="N1" t="s">
-        <v>329</v>
-      </c>
-      <c r="O1" t="s">
-        <v>330</v>
-      </c>
-      <c r="P1" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>332</v>
-      </c>
-      <c r="R1" t="s">
-        <v>333</v>
-      </c>
-      <c r="S1" t="s">
-        <v>334</v>
-      </c>
-      <c r="T1" t="s">
-        <v>335</v>
-      </c>
-      <c r="U1" t="s">
-        <v>336</v>
-      </c>
-      <c r="V1" t="s">
-        <v>337</v>
-      </c>
-      <c r="W1" t="s">
-        <v>338</v>
-      </c>
-      <c r="X1" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>343</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>370</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>397</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>400</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>394</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>383</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>384</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>387</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>388</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>389</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>344</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>347</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>348</v>
-      </c>
-      <c r="BH1" t="s">
+      <c r="BM1" t="s">
         <v>349</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BN1" t="s">
         <v>350</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>398</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>401</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>395</v>
-      </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>351</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>352</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>353</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>354</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>355</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>356</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>357</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>358</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
         <v>359</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BX1" t="s">
         <v>360</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BY1" t="s">
         <v>361</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>362</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CA1" t="s">
         <v>363</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CB1" t="s">
         <v>364</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>365</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B2">
         <v>-2.7616936035943316E-2</v>
@@ -22370,7 +22367,7 @@
     </row>
     <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B3">
         <v>0.36572065914342194</v>
@@ -22612,7 +22609,7 @@
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B4">
         <v>0.63249987889921022</v>
@@ -22854,7 +22851,7 @@
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B5">
         <v>4.5050375271087191E-2</v>
@@ -23096,7 +23093,7 @@
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B6">
         <v>0.19127315884644083</v>
@@ -23338,7 +23335,7 @@
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B7">
         <v>0.52237795163905199</v>
@@ -23580,7 +23577,7 @@
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B8">
         <v>0.60648409798777547</v>
@@ -23822,7 +23819,7 @@
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B9">
         <v>4.7066360608284494</v>
@@ -24064,7 +24061,7 @@
     </row>
     <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B10">
         <v>4.5486352195460649</v>
@@ -24306,7 +24303,7 @@
     </row>
     <row r="11" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B11">
         <v>0.40359882407003134</v>
@@ -24548,7 +24545,7 @@
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B12">
         <v>6.9353846669294644E-2</v>
@@ -24790,7 +24787,7 @@
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B13">
         <v>0.25054488755056825</v>
@@ -25032,7 +25029,7 @@
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B14">
         <v>0.65086612397210797</v>
@@ -25274,7 +25271,7 @@
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B15">
         <v>1.2029721772231932</v>
@@ -25516,7 +25513,7 @@
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B16">
         <v>9.4063102729240983E-2</v>
@@ -25758,7 +25755,7 @@
     </row>
     <row r="17" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B17">
         <v>5.1828069397896019E-2</v>
@@ -26000,7 +25997,7 @@
     </row>
     <row r="18" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B18">
         <v>-4.3892655459313028E-2</v>
@@ -26242,7 +26239,7 @@
     </row>
     <row r="19" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B19">
         <v>-0.10932274568152381</v>
@@ -26484,7 +26481,7 @@
     </row>
     <row r="20" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B20">
         <v>5.0318700087640784E-2</v>
@@ -26726,7 +26723,7 @@
     </row>
     <row r="21" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B21">
         <v>-0.1958766561888905</v>
@@ -26968,7 +26965,7 @@
     </row>
     <row r="22" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B22">
         <v>-0.15028726206222104</v>
@@ -27210,7 +27207,7 @@
     </row>
     <row r="23" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B23">
         <v>-2.075337886545384E-2</v>
@@ -27452,7 +27449,7 @@
     </row>
     <row r="24" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B24">
         <v>-6.1394087335860971E-2</v>
@@ -27694,7 +27691,7 @@
     </row>
     <row r="25" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B25">
         <v>1.9097163456355717E-2</v>
@@ -27936,7 +27933,7 @@
     </row>
     <row r="26" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B26">
         <v>2.3156367556155012E-2</v>
@@ -28178,7 +28175,7 @@
     </row>
     <row r="27" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B27">
         <v>-5.0683019630344219</v>
@@ -28420,7 +28417,7 @@
     </row>
     <row r="28" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B28">
         <v>-0.19427060041754729</v>
@@ -28662,7 +28659,7 @@
     </row>
     <row r="29" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B29">
         <v>0.41033740945659852</v>
@@ -28904,7 +28901,7 @@
     </row>
     <row r="30" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B30">
         <v>0.41509811723840584</v>
@@ -29146,7 +29143,7 @@
     </row>
     <row r="31" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B31">
         <v>9.4035667733039882E-2</v>
@@ -29388,7 +29385,7 @@
     </row>
     <row r="32" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B32">
         <v>0.21808131413650544</v>
@@ -29630,7 +29627,7 @@
     </row>
     <row r="33" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B33">
         <v>0.61063844466657813</v>
@@ -29872,7 +29869,7 @@
     </row>
     <row r="34" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B34">
         <v>0.72216771794884582</v>
@@ -30114,7 +30111,7 @@
     </row>
     <row r="35" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B35">
         <v>4.6005819611151235</v>
@@ -30356,7 +30353,7 @@
     </row>
     <row r="36" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B36">
         <v>6.7710410126570704</v>
@@ -30598,7 +30595,7 @@
     </row>
     <row r="37" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B37">
         <v>2.5612786702436328</v>
@@ -30840,7 +30837,7 @@
     </row>
     <row r="38" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B38">
         <v>0.29158463003193269</v>
@@ -31082,7 +31079,7 @@
     </row>
     <row r="39" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B39">
         <v>0.5723585772773</v>
@@ -31324,7 +31321,7 @@
     </row>
     <row r="40" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B40">
         <v>0.55389710257385616</v>
@@ -31566,7 +31563,7 @@
     </row>
     <row r="41" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B41">
         <v>0.47248412475356</v>
@@ -31808,7 +31805,7 @@
     </row>
     <row r="42" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B42">
         <v>0.20046270789397441</v>
@@ -32050,7 +32047,7 @@
     </row>
     <row r="43" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B43">
         <v>-5.982223562122968E-2</v>
@@ -32292,7 +32289,7 @@
     </row>
     <row r="44" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B44">
         <v>2.788450425966656E-2</v>
@@ -32534,7 +32531,7 @@
     </row>
     <row r="45" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B45">
         <v>-0.2024158744828643</v>
@@ -32776,7 +32773,7 @@
     </row>
     <row r="46" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B46">
         <v>8.976515647364712E-2</v>
@@ -33018,7 +33015,7 @@
     </row>
     <row r="47" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B47">
         <v>-0.22431341765199117</v>
@@ -33260,7 +33257,7 @@
     </row>
     <row r="48" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B48">
         <v>-9.071014613384254E-2</v>
@@ -33502,7 +33499,7 @@
     </row>
     <row r="49" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B49">
         <v>-0.20165909911584196</v>
@@ -33744,7 +33741,7 @@
     </row>
     <row r="50" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B50">
         <v>5.2161914649696883E-2</v>
@@ -33986,7 +33983,7 @@
     </row>
     <row r="51" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B51">
         <v>-0.12347447645867128</v>
@@ -34228,7 +34225,7 @@
     </row>
     <row r="52" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B52">
         <v>0.26340465623408549</v>
@@ -34470,7 +34467,7 @@
     </row>
     <row r="53" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B53">
         <v>-6.6225720056532262</v>
@@ -34712,7 +34709,7 @@
     </row>
     <row r="54" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B54">
         <v>-0.33644637713360609</v>
@@ -34954,7 +34951,7 @@
     </row>
     <row r="55" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B55">
         <v>0.15706283607648713</v>
@@ -35196,7 +35193,7 @@
     </row>
     <row r="56" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B56">
         <v>-5.8575600742218438E-2</v>
@@ -35438,7 +35435,7 @@
     </row>
     <row r="57" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B57">
         <v>0.15454424673129313</v>
@@ -35680,7 +35677,7 @@
     </row>
     <row r="58" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B58">
         <v>0.15692009996394987</v>
@@ -35922,7 +35919,7 @@
     </row>
     <row r="59" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B59">
         <v>0.14018074080866927</v>
@@ -36164,7 +36161,7 @@
     </row>
     <row r="60" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B60">
         <v>-2.5751444609815557E-2</v>
@@ -36406,7 +36403,7 @@
     </row>
     <row r="61" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B61">
         <v>0.31668775133088661</v>
@@ -36648,7 +36645,7 @@
     </row>
     <row r="62" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B62">
         <v>2.7420880310071145</v>
@@ -36890,7 +36887,7 @@
     </row>
     <row r="63" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B63">
         <v>3.1975522647774861</v>
@@ -37132,7 +37129,7 @@
     </row>
     <row r="64" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B64">
         <v>0.29580631817527459</v>
@@ -37374,7 +37371,7 @@
     </row>
     <row r="65" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B65">
         <v>0.62620538085393518</v>
@@ -37616,7 +37613,7 @@
     </row>
     <row r="66" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B66">
         <v>0.70125323720227739</v>
@@ -37858,7 +37855,7 @@
     </row>
     <row r="67" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B67">
         <v>0.19889900775965319</v>
@@ -38100,7 +38097,7 @@
     </row>
     <row r="68" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B68">
         <v>0.12540892712839397</v>
@@ -38342,7 +38339,7 @@
     </row>
     <row r="69" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B69">
         <v>-2.3529997307720506E-2</v>
@@ -38584,7 +38581,7 @@
     </row>
     <row r="70" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B70">
         <v>-4.6636374503210218E-2</v>
@@ -38826,7 +38823,7 @@
     </row>
     <row r="71" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B71">
         <v>0.13530141963088171</v>
@@ -39068,7 +39065,7 @@
     </row>
     <row r="72" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B72">
         <v>0.13170490222608633</v>
@@ -39310,7 +39307,7 @@
     </row>
     <row r="73" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B73">
         <v>4.8176817755592301E-2</v>
@@ -39552,7 +39549,7 @@
     </row>
     <row r="74" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B74">
         <v>-5.3460760277513871E-3</v>
@@ -39794,7 +39791,7 @@
     </row>
     <row r="75" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B75">
         <v>4.9216064484720545E-2</v>
@@ -40036,7 +40033,7 @@
     </row>
     <row r="76" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B76">
         <v>5.5205410832971362E-2</v>
@@ -40278,7 +40275,7 @@
     </row>
     <row r="77" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B77">
         <v>1.0680771598910515E-2</v>
@@ -40520,7 +40517,7 @@
     </row>
     <row r="78" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B78">
         <v>6.8960412749350206E-2</v>
@@ -40762,7 +40759,7 @@
     </row>
     <row r="79" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B79">
         <v>-3.2735627176095972</v>
@@ -41009,15 +41006,15 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E2885-1496-4017-B81A-099287847BCB}">
-  <dimension ref="A1:AO40"/>
+  <dimension ref="A1:AL37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="A26" sqref="A26:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -41046,4975 +41043,4267 @@
         <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L1" t="s">
-        <v>390</v>
+        <v>145</v>
       </c>
       <c r="M1" t="s">
-        <v>391</v>
+        <v>269</v>
       </c>
       <c r="N1" t="s">
-        <v>392</v>
+        <v>270</v>
       </c>
       <c r="O1" t="s">
-        <v>145</v>
+        <v>271</v>
       </c>
       <c r="P1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="R1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="S1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="T1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="U1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="V1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="W1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="X1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Y1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Z1" t="s">
-        <v>279</v>
+        <v>142</v>
       </c>
       <c r="AA1" t="s">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="AB1" t="s">
-        <v>281</v>
+        <v>29</v>
       </c>
       <c r="AC1" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AH1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AJ1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AK1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AL1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2">
-        <v>-0.22003118680381706</v>
+        <v>-0.2602326878222726</v>
       </c>
       <c r="C2">
-        <v>3.212762453126329E-4</v>
+        <v>3.1893028024846802E-4</v>
       </c>
       <c r="D2">
-        <v>7.1784248430621868E-6</v>
+        <v>7.6139006538161753E-6</v>
       </c>
       <c r="E2">
-        <v>1.658685410337412E-5</v>
+        <v>1.0247754946285193E-5</v>
       </c>
       <c r="F2">
-        <v>-1.5328593507015794E-5</v>
+        <v>-1.737024226725385E-5</v>
       </c>
       <c r="G2">
-        <v>-1.8646154849925875E-5</v>
+        <v>-2.1301748713557317E-5</v>
       </c>
       <c r="H2">
-        <v>-7.1290709206035089E-6</v>
+        <v>-1.2058372107189207E-5</v>
       </c>
       <c r="I2">
-        <v>-1.4620935857606446E-5</v>
+        <v>-2.0304023184406994E-5</v>
       </c>
       <c r="J2">
-        <v>1.8998583435643527E-5</v>
+        <v>1.61688307088844E-5</v>
       </c>
       <c r="K2">
-        <v>2.3851835175529503E-5</v>
+        <v>2.3116964776674691E-5</v>
       </c>
       <c r="L2">
-        <v>2.5969896226338373E-5</v>
+        <v>-3.5634197376242904E-5</v>
       </c>
       <c r="M2">
-        <v>1.4454619612848581E-5</v>
+        <v>-1.6343857806748277E-5</v>
       </c>
       <c r="N2">
-        <v>2.3579913660332239E-5</v>
+        <v>-1.6901163805631033E-5</v>
       </c>
       <c r="O2">
-        <v>-3.5423089010863312E-5</v>
+        <v>7.6910773289428009E-7</v>
       </c>
       <c r="P2">
-        <v>-2.2982533889368168E-5</v>
+        <v>2.6092138762992789E-5</v>
       </c>
       <c r="Q2">
-        <v>-4.0401639364666565E-5</v>
+        <v>2.1548979704820007E-5</v>
       </c>
       <c r="R2">
-        <v>-6.1796214712850475E-6</v>
+        <v>2.5625074512765725E-5</v>
       </c>
       <c r="S2">
-        <v>2.9624619761817482E-5</v>
+        <v>3.2671217418860719E-5</v>
       </c>
       <c r="T2">
-        <v>8.235658330861452E-6</v>
+        <v>2.8902216760968352E-5</v>
       </c>
       <c r="U2">
-        <v>1.7944761797988802E-5</v>
+        <v>2.0593169360085398E-5</v>
       </c>
       <c r="V2">
-        <v>1.9739422648162523E-5</v>
+        <v>6.5722503032915796E-6</v>
       </c>
       <c r="W2">
-        <v>1.7443215104446091E-5</v>
+        <v>5.0865915059098571E-6</v>
       </c>
       <c r="X2">
-        <v>6.4954863972335706E-6</v>
+        <v>-1.072608192535742E-5</v>
       </c>
       <c r="Y2">
-        <v>-7.8910449060608538E-6</v>
+        <v>4.1960199330861284E-6</v>
       </c>
       <c r="Z2">
-        <v>-5.0694139026066348E-6</v>
+        <v>-1.297676505022334E-5</v>
       </c>
       <c r="AA2">
-        <v>-2.2146109745456708E-5</v>
+        <v>4.1895611971410624E-5</v>
       </c>
       <c r="AB2">
-        <v>-1.3890804440191425E-5</v>
+        <v>2.4563083127241122E-5</v>
       </c>
       <c r="AC2">
-        <v>-1.5514908773648037E-5</v>
+        <v>2.6698893383887932E-5</v>
       </c>
       <c r="AD2">
-        <v>2.9029459487408784E-5</v>
+        <v>2.0307364416989471E-5</v>
       </c>
       <c r="AE2">
-        <v>1.3857636970194617E-5</v>
+        <v>1.7350054166062167E-5</v>
       </c>
       <c r="AF2">
-        <v>1.4063822162069328E-5</v>
+        <v>1.6683177887779583E-5</v>
       </c>
       <c r="AG2">
-        <v>1.1876428623531856E-5</v>
+        <v>2.9656962507331502E-5</v>
       </c>
       <c r="AH2">
-        <v>5.7617631373338039E-6</v>
+        <v>3.3684799323053681E-5</v>
       </c>
       <c r="AI2">
-        <v>9.2514747293645464E-6</v>
+        <v>2.697921093370918E-5</v>
       </c>
       <c r="AJ2">
-        <v>2.1540225044437902E-5</v>
+        <v>2.3631257633146016E-5</v>
       </c>
       <c r="AK2">
-        <v>2.6021813166215462E-5</v>
+        <v>1.4845070971291491E-5</v>
       </c>
       <c r="AL2">
-        <v>1.3998993699769453E-5</v>
-      </c>
-      <c r="AM2">
-        <v>1.0307359654925601E-5</v>
-      </c>
-      <c r="AN2">
-        <v>7.0196594540846368E-7</v>
-      </c>
-      <c r="AO2">
-        <v>-1.4927993588349987E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-1.5161963558943479E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
       <c r="B3">
-        <v>0.23475979216883436</v>
+        <v>0.25005253717729198</v>
       </c>
       <c r="C3">
-        <v>7.1784248430621868E-6</v>
+        <v>7.6139006538161753E-6</v>
       </c>
       <c r="D3">
-        <v>4.3693801624102127E-4</v>
+        <v>4.3384553997605977E-4</v>
       </c>
       <c r="E3">
-        <v>3.1874102436161081E-4</v>
+        <v>3.1479779594036035E-4</v>
       </c>
       <c r="F3">
-        <v>-5.5805017715320888E-5</v>
+        <v>-5.4223279645300669E-5</v>
       </c>
       <c r="G3">
-        <v>-9.2225415249481941E-5</v>
+        <v>-8.5903780528580944E-5</v>
       </c>
       <c r="H3">
-        <v>-1.0307445953565303E-4</v>
+        <v>-9.9624436733388244E-5</v>
       </c>
       <c r="I3">
-        <v>-1.2205402244187301E-4</v>
+        <v>-1.170612374005657E-4</v>
       </c>
       <c r="J3">
-        <v>2.2684472137133045E-5</v>
+        <v>5.5621822628887528E-6</v>
       </c>
       <c r="K3">
-        <v>6.2156054084134041E-6</v>
+        <v>7.3975128972065011E-6</v>
       </c>
       <c r="L3">
-        <v>-1.1863784593929E-5</v>
+        <v>-3.7831762980319736E-6</v>
       </c>
       <c r="M3">
-        <v>-7.5926753239167282E-6</v>
+        <v>1.0589468007454484E-4</v>
       </c>
       <c r="N3">
-        <v>-4.8302773230600031E-6</v>
+        <v>1.5392381866469906E-4</v>
       </c>
       <c r="O3">
-        <v>-4.0884457166902869E-6</v>
+        <v>1.2347036943590912E-4</v>
       </c>
       <c r="P3">
-        <v>1.0403846004703832E-4</v>
+        <v>1.629982603613333E-4</v>
       </c>
       <c r="Q3">
-        <v>1.3260360503520951E-4</v>
+        <v>1.3061134217213789E-4</v>
       </c>
       <c r="R3">
-        <v>1.2596208060887488E-4</v>
+        <v>1.1839183827552378E-4</v>
       </c>
       <c r="S3">
-        <v>1.6100794797099533E-4</v>
+        <v>1.3786442965494288E-4</v>
       </c>
       <c r="T3">
-        <v>1.3139734399249177E-4</v>
+        <v>1.337003672544704E-4</v>
       </c>
       <c r="U3">
-        <v>1.1202499078437247E-4</v>
+        <v>1.4176652784357859E-4</v>
       </c>
       <c r="V3">
-        <v>1.3216324787917061E-4</v>
+        <v>1.2780146499668304E-4</v>
       </c>
       <c r="W3">
-        <v>1.3251459649100063E-4</v>
+        <v>1.2373234067029399E-4</v>
       </c>
       <c r="X3">
-        <v>1.4056047491092981E-4</v>
+        <v>1.1475072728519822E-4</v>
       </c>
       <c r="Y3">
-        <v>1.2909958448030157E-4</v>
+        <v>1.2582942074605057E-4</v>
       </c>
       <c r="Z3">
-        <v>1.2116753790899657E-4</v>
+        <v>7.0720489417369167E-5</v>
       </c>
       <c r="AA3">
-        <v>1.1439807818424383E-4</v>
+        <v>-3.5865346186383511E-5</v>
       </c>
       <c r="AB3">
-        <v>1.1971044314242933E-4</v>
+        <v>-4.8744272756002442E-5</v>
       </c>
       <c r="AC3">
-        <v>5.8309234684501542E-5</v>
+        <v>-6.2099478804501028E-5</v>
       </c>
       <c r="AD3">
-        <v>-1.724876834878963E-5</v>
+        <v>-7.1297879352225779E-5</v>
       </c>
       <c r="AE3">
-        <v>-3.4992357467633015E-5</v>
+        <v>-5.1099349167855145E-5</v>
       </c>
       <c r="AF3">
-        <v>-4.4611377872752386E-5</v>
+        <v>-6.3572706232375159E-5</v>
       </c>
       <c r="AG3">
-        <v>-5.2896485052297701E-5</v>
+        <v>-2.9571319083766467E-5</v>
       </c>
       <c r="AH3">
-        <v>-3.5629651516162655E-5</v>
+        <v>-2.7904118687969686E-5</v>
       </c>
       <c r="AI3">
-        <v>-5.2369074476395238E-5</v>
+        <v>-7.4341187189047315E-5</v>
       </c>
       <c r="AJ3">
-        <v>-1.2057380473725859E-5</v>
+        <v>-6.6627143354428437E-5</v>
       </c>
       <c r="AK3">
-        <v>-1.506642818523451E-5</v>
+        <v>-4.3730925570996707E-5</v>
       </c>
       <c r="AL3">
-        <v>-5.9053621636553965E-5</v>
-      </c>
-      <c r="AM3">
-        <v>-5.1106199899040851E-5</v>
-      </c>
-      <c r="AN3">
-        <v>-2.5740200965608637E-5</v>
-      </c>
-      <c r="AO3">
-        <v>-3.2362266178484348E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-3.1720775961498502E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="B4">
-        <v>0.50650202231611896</v>
+        <v>0.52315631429057541</v>
       </c>
       <c r="C4">
-        <v>1.658685410337412E-5</v>
+        <v>1.0247754946285193E-5</v>
       </c>
       <c r="D4">
-        <v>3.1874102436161081E-4</v>
+        <v>3.1479779594036035E-4</v>
       </c>
       <c r="E4">
-        <v>8.077717071081073E-4</v>
+        <v>8.1319356058850382E-4</v>
       </c>
       <c r="F4">
-        <v>-5.4124291601396606E-5</v>
+        <v>-5.6348199731886151E-5</v>
       </c>
       <c r="G4">
-        <v>-8.8449077144287411E-5</v>
+        <v>-8.3695934945368904E-5</v>
       </c>
       <c r="H4">
-        <v>-1.4078707558426448E-4</v>
+        <v>-1.4222090847597807E-4</v>
       </c>
       <c r="I4">
-        <v>-1.7717808238448747E-4</v>
+        <v>-1.7830329920499291E-4</v>
       </c>
       <c r="J4">
-        <v>3.3806616329554749E-5</v>
+        <v>2.2159286901782824E-5</v>
       </c>
       <c r="K4">
-        <v>6.0876252380133303E-5</v>
+        <v>9.4147040882001118E-5</v>
       </c>
       <c r="L4">
-        <v>-5.0675282504163439E-5</v>
+        <v>3.4604923107775369E-6</v>
       </c>
       <c r="M4">
-        <v>-3.0595578321577301E-5</v>
+        <v>7.2059731888161373E-5</v>
       </c>
       <c r="N4">
-        <v>5.7931950715155037E-6</v>
+        <v>1.1816147992489034E-4</v>
       </c>
       <c r="O4">
-        <v>5.5388903395837161E-6</v>
+        <v>9.2328176813924505E-5</v>
       </c>
       <c r="P4">
-        <v>7.4406420471525225E-5</v>
+        <v>1.1916446142731527E-4</v>
       </c>
       <c r="Q4">
-        <v>1.0592214113505668E-4</v>
+        <v>9.3586742913781947E-5</v>
       </c>
       <c r="R4">
-        <v>9.6873820792848055E-5</v>
+        <v>8.1516269670793342E-5</v>
       </c>
       <c r="S4">
-        <v>1.1634786592594034E-4</v>
+        <v>8.1367153364576147E-5</v>
       </c>
       <c r="T4">
-        <v>9.2939146734332678E-5</v>
+        <v>7.0819997354622407E-5</v>
       </c>
       <c r="U4">
-        <v>7.7812774158245111E-5</v>
+        <v>4.8795425257358085E-5</v>
       </c>
       <c r="V4">
-        <v>8.1291956677499635E-5</v>
+        <v>-6.4739376361626724E-6</v>
       </c>
       <c r="W4">
-        <v>6.862607818302241E-5</v>
+        <v>-4.2708284011536808E-5</v>
       </c>
       <c r="X4">
-        <v>4.3510453453369114E-5</v>
+        <v>-5.4025033599901499E-5</v>
       </c>
       <c r="Y4">
-        <v>-5.2030410584556915E-6</v>
+        <v>-7.4156437783404064E-5</v>
       </c>
       <c r="Z4">
-        <v>-3.97191435230144E-5</v>
+        <v>-1.3718747143861437E-4</v>
       </c>
       <c r="AA4">
-        <v>-4.7180522230451339E-5</v>
+        <v>-3.3325525080037701E-5</v>
       </c>
       <c r="AB4">
-        <v>-7.0626074827390118E-5</v>
+        <v>-7.7909425685264411E-5</v>
       </c>
       <c r="AC4">
-        <v>-1.5840829562723568E-4</v>
+        <v>-9.2647272953858676E-5</v>
       </c>
       <c r="AD4">
-        <v>-2.1400348378638578E-5</v>
+        <v>-1.0818218040412086E-4</v>
       </c>
       <c r="AE4">
-        <v>-6.5419978005751462E-5</v>
+        <v>-8.5133631346100209E-5</v>
       </c>
       <c r="AF4">
-        <v>-8.6010355132616563E-5</v>
+        <v>-7.9468060711323805E-5</v>
       </c>
       <c r="AG4">
-        <v>-9.6492516339621853E-5</v>
+        <v>-4.1130630208218755E-5</v>
       </c>
       <c r="AH4">
-        <v>-8.12316318080274E-5</v>
+        <v>-3.3590325577287022E-5</v>
       </c>
       <c r="AI4">
-        <v>-7.1561520302835987E-5</v>
+        <v>-1.0656455151084957E-4</v>
       </c>
       <c r="AJ4">
-        <v>-3.1585027287894427E-5</v>
+        <v>-8.3284843758776942E-5</v>
       </c>
       <c r="AK4">
-        <v>-2.5720842226577533E-5</v>
+        <v>-1.1819961194698352E-4</v>
       </c>
       <c r="AL4">
-        <v>-9.7917197528448829E-5</v>
-      </c>
-      <c r="AM4">
-        <v>-7.5963584201371623E-5</v>
-      </c>
-      <c r="AN4">
-        <v>-1.0545836402423096E-4</v>
-      </c>
-      <c r="AO4">
-        <v>-2.7758530734016938E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-2.9543257956978977E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
       <c r="B5">
-        <v>5.0925861388380527E-3</v>
+        <v>1.0911917506517427E-2</v>
       </c>
       <c r="C5">
-        <v>-1.5328593507015794E-5</v>
+        <v>-1.737024226725385E-5</v>
       </c>
       <c r="D5">
-        <v>-5.5805017715320888E-5</v>
+        <v>-5.4223279645300669E-5</v>
       </c>
       <c r="E5">
-        <v>-5.4124291601396606E-5</v>
+        <v>-5.6348199731886151E-5</v>
       </c>
       <c r="F5">
-        <v>1.0915567228526285E-3</v>
+        <v>1.0740550475819052E-3</v>
       </c>
       <c r="G5">
-        <v>8.8353037763091058E-4</v>
+        <v>8.6450954595499189E-4</v>
       </c>
       <c r="H5">
-        <v>8.8565366577677673E-4</v>
+        <v>8.6808765925032861E-4</v>
       </c>
       <c r="I5">
-        <v>8.8580781735842341E-4</v>
+        <v>8.6803488257724323E-4</v>
       </c>
       <c r="J5">
-        <v>-3.6515790166890986E-6</v>
+        <v>-5.8080284392729255E-6</v>
       </c>
       <c r="K5">
-        <v>-1.511633395416686E-5</v>
+        <v>-5.9141891948704208E-6</v>
       </c>
       <c r="L5">
-        <v>2.7680929929180658E-6</v>
+        <v>-1.38164843378985E-6</v>
       </c>
       <c r="M5">
-        <v>1.091580862237817E-5</v>
+        <v>7.0545155413062759E-5</v>
       </c>
       <c r="N5">
-        <v>1.5292243799542703E-5</v>
+        <v>8.5080906382420797E-5</v>
       </c>
       <c r="O5">
-        <v>2.2501611359774186E-6</v>
+        <v>1.189653488403551E-5</v>
       </c>
       <c r="P5">
-        <v>1.2166467995153454E-4</v>
+        <v>4.5947723791104917E-5</v>
       </c>
       <c r="Q5">
-        <v>1.1825900859543058E-4</v>
+        <v>5.0924208305407417E-5</v>
       </c>
       <c r="R5">
-        <v>3.9557446427087315E-5</v>
+        <v>2.6548269184668022E-5</v>
       </c>
       <c r="S5">
-        <v>8.7782043477916316E-5</v>
+        <v>2.7958318435326534E-5</v>
       </c>
       <c r="T5">
-        <v>8.9920927529459969E-5</v>
+        <v>3.8412217649902669E-5</v>
       </c>
       <c r="U5">
-        <v>6.6000026544759654E-5</v>
+        <v>3.1819979949121837E-5</v>
       </c>
       <c r="V5">
-        <v>6.7280920436992961E-5</v>
+        <v>2.3476469975217818E-5</v>
       </c>
       <c r="W5">
-        <v>7.8915741044519868E-5</v>
+        <v>3.8017867680040148E-5</v>
       </c>
       <c r="X5">
-        <v>6.4779359149427914E-5</v>
+        <v>4.4798821974241412E-5</v>
       </c>
       <c r="Y5">
-        <v>5.9096266510937578E-5</v>
+        <v>3.4282349388339185E-5</v>
       </c>
       <c r="Z5">
-        <v>7.016455949135372E-5</v>
+        <v>4.7010511961930517E-5</v>
       </c>
       <c r="AA5">
-        <v>8.178337696414966E-5</v>
+        <v>6.7026244445761028E-6</v>
       </c>
       <c r="AB5">
-        <v>7.8141400970599832E-5</v>
+        <v>2.2818434802474486E-5</v>
       </c>
       <c r="AC5">
-        <v>1.1150928733364031E-4</v>
+        <v>-9.5726398327173625E-7</v>
       </c>
       <c r="AD5">
-        <v>1.4638323880446745E-5</v>
+        <v>-2.0322323448845479E-5</v>
       </c>
       <c r="AE5">
-        <v>3.0657752426798752E-5</v>
+        <v>-1.1783894104481959E-5</v>
       </c>
       <c r="AF5">
-        <v>2.4824500853028706E-6</v>
+        <v>-4.1580664268767045E-6</v>
       </c>
       <c r="AG5">
-        <v>-9.6790751687717198E-6</v>
+        <v>1.0286019551872385E-6</v>
       </c>
       <c r="AH5">
-        <v>-4.9124170200302798E-6</v>
+        <v>-1.7010073458637856E-5</v>
       </c>
       <c r="AI5">
-        <v>7.8484058701135833E-6</v>
+        <v>3.8867219231715619E-6</v>
       </c>
       <c r="AJ5">
-        <v>1.14905779142452E-5</v>
+        <v>1.27084026077412E-5</v>
       </c>
       <c r="AK5">
-        <v>-1.0351517119999297E-6</v>
+        <v>2.7922553967306158E-6</v>
       </c>
       <c r="AL5">
-        <v>1.3362057402858236E-5</v>
-      </c>
-      <c r="AM5">
-        <v>2.2133581811530295E-5</v>
-      </c>
-      <c r="AN5">
-        <v>1.0279463388746077E-5</v>
-      </c>
-      <c r="AO5">
-        <v>-9.1258657088527173E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-8.4314920084291637E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
       <c r="B6">
-        <v>0.15339294558223374</v>
+        <v>0.17207398133728127</v>
       </c>
       <c r="C6">
-        <v>-1.8646154849925875E-5</v>
+        <v>-2.1301748713557317E-5</v>
       </c>
       <c r="D6">
-        <v>-9.2225415249481941E-5</v>
+        <v>-8.5903780528580944E-5</v>
       </c>
       <c r="E6">
-        <v>-8.8449077144287411E-5</v>
+        <v>-8.3695934945368904E-5</v>
       </c>
       <c r="F6">
-        <v>8.8353037763091058E-4</v>
+        <v>8.6450954595499189E-4</v>
       </c>
       <c r="G6">
-        <v>1.1184078616464396E-3</v>
+        <v>1.0975215341820859E-3</v>
       </c>
       <c r="H6">
-        <v>9.0486725349736433E-4</v>
+        <v>8.8508752304799316E-4</v>
       </c>
       <c r="I6">
-        <v>9.0809117375627237E-4</v>
+        <v>8.8746871022185527E-4</v>
       </c>
       <c r="J6">
-        <v>-1.8301805935030897E-5</v>
+        <v>-1.4297636094181846E-5</v>
       </c>
       <c r="K6">
-        <v>7.57062261689921E-6</v>
+        <v>1.874348171572763E-5</v>
       </c>
       <c r="L6">
-        <v>-2.1063168516417104E-6</v>
+        <v>2.1039091969884358E-5</v>
       </c>
       <c r="M6">
-        <v>-5.8002500274047846E-6</v>
+        <v>6.4933156945115971E-5</v>
       </c>
       <c r="N6">
-        <v>7.5185960332472309E-6</v>
+        <v>5.172820251170149E-5</v>
       </c>
       <c r="O6">
-        <v>2.6262627957224943E-5</v>
+        <v>-1.7971663113175516E-5</v>
       </c>
       <c r="P6">
-        <v>1.1414621853070406E-4</v>
+        <v>-1.2689121089886192E-5</v>
       </c>
       <c r="Q6">
-        <v>7.7425931472348308E-5</v>
+        <v>3.5536081374070209E-6</v>
       </c>
       <c r="R6">
-        <v>1.0136893320611331E-5</v>
+        <v>-1.2036754051598551E-6</v>
       </c>
       <c r="S6">
-        <v>2.5487248079621985E-5</v>
+        <v>-2.5041630938472942E-5</v>
       </c>
       <c r="T6">
-        <v>4.0659457758408956E-5</v>
+        <v>-7.6774745051306641E-6</v>
       </c>
       <c r="U6">
-        <v>3.5504094791291445E-5</v>
+        <v>-2.1929045715268877E-5</v>
       </c>
       <c r="V6">
-        <v>1.0687397718766505E-5</v>
+        <v>-2.4383808960596237E-5</v>
       </c>
       <c r="W6">
-        <v>2.8593705583485372E-5</v>
+        <v>-2.9263412332720913E-5</v>
       </c>
       <c r="X6">
-        <v>5.4565949788926344E-6</v>
+        <v>-8.8861626378133283E-6</v>
       </c>
       <c r="Y6">
-        <v>6.6047404676187593E-6</v>
+        <v>-2.8640985603851487E-5</v>
       </c>
       <c r="Z6">
-        <v>-2.5354517855670348E-6</v>
+        <v>-7.2460439118886429E-6</v>
       </c>
       <c r="AA6">
-        <v>1.9893202516052451E-5</v>
+        <v>-6.9154857394571447E-6</v>
       </c>
       <c r="AB6">
-        <v>1.1221688685094419E-5</v>
+        <v>3.9807688148138672E-6</v>
       </c>
       <c r="AC6">
-        <v>4.3698413445658596E-5</v>
+        <v>-8.6961647629090312E-6</v>
       </c>
       <c r="AD6">
-        <v>-5.918407241907209E-6</v>
+        <v>1.8391609181882328E-6</v>
       </c>
       <c r="AE6">
-        <v>2.4307677194023618E-6</v>
+        <v>-1.3820307372798194E-5</v>
       </c>
       <c r="AF6">
-        <v>-1.2351636956474751E-5</v>
+        <v>4.0792824664784158E-6</v>
       </c>
       <c r="AG6">
-        <v>-1.4050640669460886E-7</v>
+        <v>8.9118849254602443E-6</v>
       </c>
       <c r="AH6">
-        <v>-1.8078743548313427E-5</v>
+        <v>-1.3325001188869463E-5</v>
       </c>
       <c r="AI6">
-        <v>2.6481561845839079E-6</v>
+        <v>-7.1999331501417354E-6</v>
       </c>
       <c r="AJ6">
-        <v>8.2302638189257109E-6</v>
+        <v>2.1327214389321042E-5</v>
       </c>
       <c r="AK6">
-        <v>-4.8207554737439992E-6</v>
+        <v>1.348923856217966E-5</v>
       </c>
       <c r="AL6">
-        <v>-1.1668537702577719E-5</v>
-      </c>
-      <c r="AM6">
-        <v>2.033631844742406E-5</v>
-      </c>
-      <c r="AN6">
-        <v>1.2138898423891026E-5</v>
-      </c>
-      <c r="AO6">
-        <v>-8.6513806874523942E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-8.1852621149696727E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
       <c r="B7">
-        <v>0.30508299839238906</v>
+        <v>0.32923064830035548</v>
       </c>
       <c r="C7">
-        <v>-7.1290709206035089E-6</v>
+        <v>-1.2058372107189207E-5</v>
       </c>
       <c r="D7">
-        <v>-1.0307445953565303E-4</v>
+        <v>-9.9624436733388244E-5</v>
       </c>
       <c r="E7">
-        <v>-1.4078707558426448E-4</v>
+        <v>-1.4222090847597807E-4</v>
       </c>
       <c r="F7">
-        <v>8.8565366577677673E-4</v>
+        <v>8.6808765925032861E-4</v>
       </c>
       <c r="G7">
-        <v>9.0486725349736433E-4</v>
+        <v>8.8508752304799316E-4</v>
       </c>
       <c r="H7">
-        <v>1.3585345764349104E-3</v>
+        <v>1.34402798756171E-3</v>
       </c>
       <c r="I7">
-        <v>9.4126367451007216E-4</v>
+        <v>9.2242890167195399E-4</v>
       </c>
       <c r="J7">
-        <v>1.370241060131349E-5</v>
+        <v>5.2328071794301242E-6</v>
       </c>
       <c r="K7">
-        <v>8.0309163278634299E-5</v>
+        <v>9.7956677411523043E-5</v>
       </c>
       <c r="L7">
-        <v>-1.2748584088512215E-5</v>
+        <v>4.9503757492318955E-5</v>
       </c>
       <c r="M7">
-        <v>-1.9965543552222322E-5</v>
+        <v>5.1776872697304789E-5</v>
       </c>
       <c r="N7">
-        <v>4.4586494284417049E-6</v>
+        <v>5.3730217887621671E-5</v>
       </c>
       <c r="O7">
-        <v>5.0716933181129233E-5</v>
+        <v>-5.0875429052425671E-5</v>
       </c>
       <c r="P7">
-        <v>8.5445799694092866E-5</v>
+        <v>-6.1102747032917783E-5</v>
       </c>
       <c r="Q7">
-        <v>7.3249428346697253E-5</v>
+        <v>-4.9796195244210728E-5</v>
       </c>
       <c r="R7">
-        <v>-3.8129669846044762E-5</v>
+        <v>-7.4908814592627735E-5</v>
       </c>
       <c r="S7">
-        <v>-3.7765811114001745E-5</v>
+        <v>-7.8903532611757825E-5</v>
       </c>
       <c r="T7">
-        <v>-1.8440014707478487E-5</v>
+        <v>-4.1014839342845807E-5</v>
       </c>
       <c r="U7">
-        <v>-3.9490564889969595E-5</v>
+        <v>-5.3171845851943795E-5</v>
       </c>
       <c r="V7">
-        <v>-5.0031104519488709E-5</v>
+        <v>-5.7855839325854987E-5</v>
       </c>
       <c r="W7">
-        <v>-1.110192297741432E-5</v>
+        <v>-4.7208212009531376E-5</v>
       </c>
       <c r="X7">
-        <v>-3.4063996303112902E-5</v>
+        <v>-1.9943734058301715E-5</v>
       </c>
       <c r="Y7">
-        <v>-3.5163163153329173E-5</v>
+        <v>-9.7186430515772569E-5</v>
       </c>
       <c r="Z7">
-        <v>-2.3805366417291968E-5</v>
+        <v>-7.3797130092237504E-5</v>
       </c>
       <c r="AA7">
-        <v>-6.7019316606371359E-6</v>
+        <v>-1.1536824511295996E-5</v>
       </c>
       <c r="AB7">
-        <v>-6.9500952546326113E-5</v>
+        <v>1.4479559712468506E-5</v>
       </c>
       <c r="AC7">
-        <v>-2.189300033358341E-5</v>
+        <v>-1.2039917408297615E-5</v>
       </c>
       <c r="AD7">
-        <v>-1.034022279351439E-5</v>
+        <v>-8.4408890690740247E-6</v>
       </c>
       <c r="AE7">
-        <v>1.3627625655111483E-5</v>
+        <v>-8.1633472585186759E-6</v>
       </c>
       <c r="AF7">
-        <v>-1.4421980798880456E-5</v>
+        <v>1.7963775977742095E-5</v>
       </c>
       <c r="AG7">
-        <v>-1.7474086453416002E-6</v>
+        <v>3.4328311532951861E-5</v>
       </c>
       <c r="AH7">
-        <v>-4.4794712988256724E-6</v>
+        <v>-1.8306954061352921E-6</v>
       </c>
       <c r="AI7">
-        <v>2.4583949977945217E-5</v>
+        <v>-2.3746076619781699E-5</v>
       </c>
       <c r="AJ7">
-        <v>3.8302989526308237E-5</v>
+        <v>1.4039198603878764E-5</v>
       </c>
       <c r="AK7">
-        <v>1.3690275539693261E-5</v>
+        <v>-1.2834370736512974E-5</v>
       </c>
       <c r="AL7">
-        <v>-2.4471227056963268E-5</v>
-      </c>
-      <c r="AM7">
-        <v>2.126685853241024E-5</v>
-      </c>
-      <c r="AN7">
-        <v>-7.0361949241790978E-6</v>
-      </c>
-      <c r="AO7">
-        <v>-9.0173198048189556E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-8.6630468662490876E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>74</v>
       </c>
       <c r="B8">
-        <v>0.53269633906052671</v>
+        <v>0.55290453547519991</v>
       </c>
       <c r="C8">
-        <v>-1.4620935857606446E-5</v>
+        <v>-2.0304023184406994E-5</v>
       </c>
       <c r="D8">
-        <v>-1.2205402244187301E-4</v>
+        <v>-1.170612374005657E-4</v>
       </c>
       <c r="E8">
-        <v>-1.7717808238448747E-4</v>
+        <v>-1.7830329920499291E-4</v>
       </c>
       <c r="F8">
-        <v>8.8580781735842341E-4</v>
+        <v>8.6803488257724323E-4</v>
       </c>
       <c r="G8">
-        <v>9.0809117375627237E-4</v>
+        <v>8.8746871022185527E-4</v>
       </c>
       <c r="H8">
-        <v>9.4126367451007216E-4</v>
+        <v>9.2242890167195399E-4</v>
       </c>
       <c r="I8">
-        <v>2.2761201890155666E-3</v>
+        <v>2.2771890230964863E-3</v>
       </c>
       <c r="J8">
-        <v>1.2538241468733085E-5</v>
+        <v>1.4939292910397911E-5</v>
       </c>
       <c r="K8">
-        <v>1.138058890063583E-4</v>
+        <v>1.3826981636613713E-4</v>
       </c>
       <c r="L8">
-        <v>-2.3947370279533187E-5</v>
+        <v>8.4569702389116077E-5</v>
       </c>
       <c r="M8">
-        <v>-6.4881669523393653E-5</v>
+        <v>5.3657732623397784E-5</v>
       </c>
       <c r="N8">
-        <v>8.672622352277529E-6</v>
+        <v>-3.242832444076254E-5</v>
       </c>
       <c r="O8">
-        <v>8.4768286865800712E-5</v>
+        <v>-9.727753829974462E-5</v>
       </c>
       <c r="P8">
-        <v>9.8631905754882512E-5</v>
+        <v>-1.1264641005470972E-4</v>
       </c>
       <c r="Q8">
-        <v>1.4397460762376798E-6</v>
+        <v>-8.5052970459107929E-5</v>
       </c>
       <c r="R8">
-        <v>-8.2024191664428617E-5</v>
+        <v>-1.0087288057082423E-4</v>
       </c>
       <c r="S8">
-        <v>-7.8208627854898247E-5</v>
+        <v>-1.23262047975453E-4</v>
       </c>
       <c r="T8">
-        <v>-6.069491160523978E-5</v>
+        <v>-8.1040055970187303E-5</v>
       </c>
       <c r="U8">
-        <v>-6.3055934883955717E-5</v>
+        <v>-9.6497850041285185E-5</v>
       </c>
       <c r="V8">
-        <v>-9.3621419228641822E-5</v>
+        <v>-5.2839274934761725E-5</v>
       </c>
       <c r="W8">
-        <v>-5.3749137903839162E-5</v>
+        <v>-3.4548824344598681E-5</v>
       </c>
       <c r="X8">
-        <v>-7.2446228442180636E-5</v>
+        <v>-1.3066192050126941E-5</v>
       </c>
       <c r="Y8">
-        <v>-1.9077461461831631E-5</v>
+        <v>-3.5411665043035904E-5</v>
       </c>
       <c r="Z8">
-        <v>-1.659180639559211E-5</v>
+        <v>-1.0288963324650417E-5</v>
       </c>
       <c r="AA8">
-        <v>1.3398781764351763E-5</v>
+        <v>-6.3802271020847701E-5</v>
       </c>
       <c r="AB8">
-        <v>-1.7306199240575129E-5</v>
+        <v>-1.9905291782433169E-5</v>
       </c>
       <c r="AC8">
-        <v>4.1730555821247747E-5</v>
+        <v>-5.8221915962594222E-5</v>
       </c>
       <c r="AD8">
-        <v>-4.112229011929197E-5</v>
+        <v>-4.5482425751259154E-5</v>
       </c>
       <c r="AE8">
-        <v>-1.0604933116556593E-5</v>
+        <v>-4.0873635151258628E-5</v>
       </c>
       <c r="AF8">
-        <v>-5.1180751430895082E-5</v>
+        <v>-3.4747290402491968E-5</v>
       </c>
       <c r="AG8">
-        <v>-3.2916586479835583E-5</v>
+        <v>-2.1522674375175563E-5</v>
       </c>
       <c r="AH8">
-        <v>-2.5455612845037297E-5</v>
+        <v>-6.0187833600147363E-5</v>
       </c>
       <c r="AI8">
-        <v>-3.0670353887290216E-5</v>
+        <v>-6.4262520452632477E-5</v>
       </c>
       <c r="AJ8">
-        <v>-5.0725980469860466E-6</v>
+        <v>-3.6771384772237242E-5</v>
       </c>
       <c r="AK8">
-        <v>-4.0124633398933045E-5</v>
+        <v>-3.9091911852503114E-5</v>
       </c>
       <c r="AL8">
-        <v>-5.9029659481177831E-5</v>
-      </c>
-      <c r="AM8">
-        <v>-3.0728972076616786E-5</v>
-      </c>
-      <c r="AN8">
-        <v>-3.1146451195801007E-5</v>
-      </c>
-      <c r="AO8">
-        <v>-8.798667730642981E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-8.4282870934449319E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B9">
-        <v>-0.27894178999226288</v>
+        <v>-0.20462041162760941</v>
       </c>
       <c r="C9">
-        <v>1.8998583435643527E-5</v>
+        <v>1.61688307088844E-5</v>
       </c>
       <c r="D9">
-        <v>2.2684472137133045E-5</v>
+        <v>5.5621822628887528E-6</v>
       </c>
       <c r="E9">
-        <v>3.3806616329554749E-5</v>
+        <v>2.2159286901782824E-5</v>
       </c>
       <c r="F9">
-        <v>-3.6515790166890986E-6</v>
+        <v>-5.8080284392729255E-6</v>
       </c>
       <c r="G9">
-        <v>-1.8301805935030897E-5</v>
+        <v>-1.4297636094181846E-5</v>
       </c>
       <c r="H9">
-        <v>1.370241060131349E-5</v>
+        <v>5.2328071794301242E-6</v>
       </c>
       <c r="I9">
-        <v>1.2538241468733085E-5</v>
+        <v>1.4939292910397911E-5</v>
       </c>
       <c r="J9">
-        <v>2.9092596533175094E-3</v>
+        <v>2.5198266921950276E-3</v>
       </c>
       <c r="K9">
-        <v>7.7486314142644053E-4</v>
+        <v>5.646545211218728E-4</v>
       </c>
       <c r="L9">
-        <v>3.9232035883112387E-4</v>
+        <v>1.9316308729318602E-5</v>
       </c>
       <c r="M9">
-        <v>-7.8378137944213016E-4</v>
+        <v>4.9767095998382949E-6</v>
       </c>
       <c r="N9">
-        <v>-7.1677448066794969E-5</v>
+        <v>-2.6011605606926714E-5</v>
       </c>
       <c r="O9">
-        <v>2.4918618952851586E-5</v>
+        <v>-8.3053852616332441E-5</v>
       </c>
       <c r="P9">
-        <v>-3.1866411527425374E-6</v>
+        <v>-3.2235213540306699E-5</v>
       </c>
       <c r="Q9">
-        <v>-1.8178528088487532E-5</v>
+        <v>-3.0899628548742924E-6</v>
       </c>
       <c r="R9">
-        <v>-8.5951735350284263E-5</v>
+        <v>-3.3330192455887226E-5</v>
       </c>
       <c r="S9">
-        <v>-5.9774215737951335E-6</v>
+        <v>-4.4448187410789285E-5</v>
       </c>
       <c r="T9">
-        <v>2.4786145920654889E-5</v>
+        <v>-2.6384677465021971E-5</v>
       </c>
       <c r="U9">
-        <v>-4.508102311262924E-5</v>
+        <v>-2.2316444588218407E-5</v>
       </c>
       <c r="V9">
-        <v>-3.5582828384018159E-5</v>
+        <v>8.5585241117652267E-6</v>
       </c>
       <c r="W9">
-        <v>-1.6799965544789209E-5</v>
+        <v>5.4014684294744771E-5</v>
       </c>
       <c r="X9">
-        <v>-1.3532524650789791E-5</v>
+        <v>9.7406643930732895E-5</v>
       </c>
       <c r="Y9">
-        <v>1.8070783804134411E-5</v>
+        <v>1.4799416617854223E-4</v>
       </c>
       <c r="Z9">
-        <v>5.466697698846762E-5</v>
+        <v>1.0414783804653485E-4</v>
       </c>
       <c r="AA9">
-        <v>8.6910538913637409E-5</v>
+        <v>-4.5888002681759388E-5</v>
       </c>
       <c r="AB9">
-        <v>1.0967692805865451E-4</v>
+        <v>-2.9431493566585995E-5</v>
       </c>
       <c r="AC9">
-        <v>4.6733626353136893E-5</v>
+        <v>-1.9621805420219906E-5</v>
       </c>
       <c r="AD9">
-        <v>-7.4333190053408173E-5</v>
+        <v>-3.1860718226186895E-5</v>
       </c>
       <c r="AE9">
-        <v>-6.2224838059657498E-5</v>
+        <v>-4.9951532596741486E-5</v>
       </c>
       <c r="AF9">
-        <v>-5.8982671368262184E-5</v>
+        <v>-4.0385746411613764E-5</v>
       </c>
       <c r="AG9">
-        <v>-5.4035277842179189E-5</v>
+        <v>-5.5561018088449621E-5</v>
       </c>
       <c r="AH9">
-        <v>-7.9877565631460379E-5</v>
+        <v>-3.3584960841603353E-5</v>
       </c>
       <c r="AI9">
-        <v>-7.2740201826220895E-5</v>
+        <v>-5.3416849827134856E-5</v>
       </c>
       <c r="AJ9">
-        <v>-7.9109781763394584E-5</v>
+        <v>-1.260539566971675E-5</v>
       </c>
       <c r="AK9">
-        <v>-4.4753501032596186E-5</v>
+        <v>-2.8375542218098734E-5</v>
       </c>
       <c r="AL9">
-        <v>-9.1022916565211326E-5</v>
-      </c>
-      <c r="AM9">
-        <v>-4.3391356000260621E-5</v>
-      </c>
-      <c r="AN9">
-        <v>-6.3324518146707092E-5</v>
-      </c>
-      <c r="AO9">
-        <v>-7.0314643570563041E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-5.4116356788655321E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B10">
-        <v>-1.0744066392824514</v>
+        <v>-1.2723230033686566</v>
       </c>
       <c r="C10">
-        <v>2.3851835175529503E-5</v>
+        <v>2.3116964776674691E-5</v>
       </c>
       <c r="D10">
-        <v>6.2156054084134041E-6</v>
+        <v>7.3975128972065011E-6</v>
       </c>
       <c r="E10">
-        <v>6.0876252380133303E-5</v>
+        <v>9.4147040882001118E-5</v>
       </c>
       <c r="F10">
-        <v>-1.511633395416686E-5</v>
+        <v>-5.9141891948704208E-6</v>
       </c>
       <c r="G10">
-        <v>7.57062261689921E-6</v>
+        <v>1.874348171572763E-5</v>
       </c>
       <c r="H10">
-        <v>8.0309163278634299E-5</v>
+        <v>9.7956677411523043E-5</v>
       </c>
       <c r="I10">
-        <v>1.138058890063583E-4</v>
+        <v>1.3826981636613713E-4</v>
       </c>
       <c r="J10">
-        <v>7.7486314142644053E-4</v>
+        <v>5.646545211218728E-4</v>
       </c>
       <c r="K10">
-        <v>1.5788216308906672E-3</v>
+        <v>7.7091785134927968E-4</v>
       </c>
       <c r="L10">
-        <v>1.15103482171373E-3</v>
+        <v>1.7632459000248581E-4</v>
       </c>
       <c r="M10">
-        <v>6.6785515886869388E-4</v>
+        <v>-1.1813726399045654E-5</v>
       </c>
       <c r="N10">
-        <v>-1.3445291783942628E-4</v>
+        <v>-2.5771606532437564E-5</v>
       </c>
       <c r="O10">
-        <v>1.7790976037445767E-4</v>
+        <v>-4.6975909924662626E-5</v>
       </c>
       <c r="P10">
-        <v>-3.1257350197664733E-5</v>
+        <v>-4.9105371055777438E-5</v>
       </c>
       <c r="Q10">
-        <v>-2.3400009945393494E-5</v>
+        <v>-6.7375986796960942E-5</v>
       </c>
       <c r="R10">
-        <v>-5.7458136305941826E-5</v>
+        <v>-8.1006252090669469E-5</v>
       </c>
       <c r="S10">
-        <v>-7.2980880366665848E-5</v>
+        <v>-9.4394729400264178E-5</v>
       </c>
       <c r="T10">
-        <v>-8.0811691402636704E-5</v>
+        <v>-8.5022368010215455E-5</v>
       </c>
       <c r="U10">
-        <v>-9.7329585661527863E-5</v>
+        <v>-6.4565944445531183E-5</v>
       </c>
       <c r="V10">
-        <v>-1.0943757668387707E-4</v>
+        <v>-1.5713832990547541E-5</v>
       </c>
       <c r="W10">
-        <v>-9.554690160654952E-5</v>
+        <v>5.8145745972068981E-5</v>
       </c>
       <c r="X10">
-        <v>-6.7603530339147445E-5</v>
+        <v>1.6707449833265294E-4</v>
       </c>
       <c r="Y10">
-        <v>-7.8731760826875313E-6</v>
+        <v>1.92078480321169E-4</v>
       </c>
       <c r="Z10">
-        <v>4.1568681700113695E-5</v>
+        <v>2.005566033438495E-4</v>
       </c>
       <c r="AA10">
-        <v>1.2593047302307151E-4</v>
+        <v>1.5622385674930598E-5</v>
       </c>
       <c r="AB10">
-        <v>1.3693032140473448E-4</v>
+        <v>1.3573655437098165E-5</v>
       </c>
       <c r="AC10">
-        <v>1.5402798610442413E-4</v>
+        <v>2.608176721894141E-5</v>
       </c>
       <c r="AD10">
-        <v>8.0472160791313801E-6</v>
+        <v>-1.4114919690924919E-5</v>
       </c>
       <c r="AE10">
-        <v>-4.6932290089080867E-6</v>
+        <v>-1.493553846566834E-5</v>
       </c>
       <c r="AF10">
-        <v>-2.7702161649815061E-6</v>
+        <v>-3.0262553701545906E-5</v>
       </c>
       <c r="AG10">
-        <v>-8.0946140899083125E-6</v>
+        <v>-4.5261030356875473E-5</v>
       </c>
       <c r="AH10">
-        <v>-1.7578370155890016E-5</v>
+        <v>-1.347837823344292E-5</v>
       </c>
       <c r="AI10">
-        <v>-3.8919269398902381E-5</v>
+        <v>-2.5569097482434477E-6</v>
       </c>
       <c r="AJ10">
-        <v>-4.6088422622492622E-5</v>
+        <v>5.8216413591479031E-6</v>
       </c>
       <c r="AK10">
-        <v>-1.4853912076988969E-5</v>
+        <v>2.4248693707158708E-5</v>
       </c>
       <c r="AL10">
-        <v>7.0521850297660445E-6</v>
-      </c>
-      <c r="AM10">
-        <v>1.0108188567504485E-5</v>
-      </c>
-      <c r="AN10">
-        <v>3.2019490824617379E-5</v>
-      </c>
-      <c r="AO10">
-        <v>-1.5174457648221651E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-8.0765190636813153E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>390</v>
+        <v>145</v>
       </c>
       <c r="B11">
-        <v>0.82536461772095204</v>
+        <v>-0.23398774166299932</v>
       </c>
       <c r="C11">
-        <v>2.5969896226338373E-5</v>
+        <v>-3.5634197376242904E-5</v>
       </c>
       <c r="D11">
-        <v>-1.1863784593929E-5</v>
+        <v>-3.7831762980319736E-6</v>
       </c>
       <c r="E11">
-        <v>-5.0675282504163439E-5</v>
+        <v>3.4604923107775369E-6</v>
       </c>
       <c r="F11">
-        <v>2.7680929929180658E-6</v>
+        <v>-1.38164843378985E-6</v>
       </c>
       <c r="G11">
-        <v>-2.1063168516417104E-6</v>
+        <v>2.1039091969884358E-5</v>
       </c>
       <c r="H11">
-        <v>-1.2748584088512215E-5</v>
+        <v>4.9503757492318955E-5</v>
       </c>
       <c r="I11">
-        <v>-2.3947370279533187E-5</v>
+        <v>8.4569702389116077E-5</v>
       </c>
       <c r="J11">
-        <v>3.9232035883112387E-4</v>
+        <v>1.9316308729318602E-5</v>
       </c>
       <c r="K11">
-        <v>1.15103482171373E-3</v>
+        <v>1.7632459000248581E-4</v>
       </c>
       <c r="L11">
-        <v>1.8553538843306466E-3</v>
+        <v>4.7951252410604255E-4</v>
       </c>
       <c r="M11">
-        <v>8.3465328614860631E-4</v>
+        <v>-4.6335473228943089E-5</v>
       </c>
       <c r="N11">
-        <v>8.1261509702606788E-5</v>
+        <v>-1.5453805438233454E-4</v>
       </c>
       <c r="O11">
-        <v>-1.8280664191198237E-5</v>
+        <v>-2.5953705927967948E-4</v>
       </c>
       <c r="P11">
-        <v>7.4935203041857809E-6</v>
+        <v>-3.0303991363968822E-4</v>
       </c>
       <c r="Q11">
-        <v>1.3317609822572046E-5</v>
+        <v>-3.4655344736798021E-4</v>
       </c>
       <c r="R11">
-        <v>1.1084496002741501E-5</v>
+        <v>-3.6067622521350186E-4</v>
       </c>
       <c r="S11">
-        <v>3.4736799072231724E-6</v>
+        <v>-3.6640207747538255E-4</v>
       </c>
       <c r="T11">
-        <v>9.3277803999754775E-6</v>
+        <v>-3.5752454330250039E-4</v>
       </c>
       <c r="U11">
-        <v>-2.5140689956456734E-6</v>
+        <v>-3.3478728341894437E-4</v>
       </c>
       <c r="V11">
-        <v>-5.7489079110031058E-6</v>
+        <v>-3.3735477817800689E-4</v>
       </c>
       <c r="W11">
-        <v>-1.4818667361237282E-5</v>
+        <v>-2.8639747823325104E-4</v>
       </c>
       <c r="X11">
-        <v>-3.3883149320507633E-6</v>
+        <v>-2.4508003523201268E-4</v>
       </c>
       <c r="Y11">
-        <v>1.0680559523196709E-5</v>
+        <v>-2.3736718928134444E-4</v>
       </c>
       <c r="Z11">
-        <v>-1.5256576082400429E-5</v>
+        <v>-1.9386569327469575E-4</v>
       </c>
       <c r="AA11">
-        <v>-2.9753691256563422E-5</v>
+        <v>-4.6746611215854082E-5</v>
       </c>
       <c r="AB11">
-        <v>-5.9047088750350065E-5</v>
+        <v>-5.2984826924853882E-5</v>
       </c>
       <c r="AC11">
-        <v>-1.3183571384528612E-5</v>
+        <v>-4.9101194675213819E-5</v>
       </c>
       <c r="AD11">
-        <v>-2.3810013888702231E-6</v>
+        <v>-2.990358524307222E-5</v>
       </c>
       <c r="AE11">
-        <v>-3.1556796350655308E-6</v>
+        <v>-4.5333669054373787E-5</v>
       </c>
       <c r="AF11">
-        <v>-9.631832084819195E-6</v>
+        <v>-4.3341007832107661E-5</v>
       </c>
       <c r="AG11">
-        <v>2.3593453243999762E-5</v>
+        <v>-4.7388055516834803E-5</v>
       </c>
       <c r="AH11">
-        <v>-7.1514882771814368E-8</v>
+        <v>-4.6787148384400061E-5</v>
       </c>
       <c r="AI11">
-        <v>6.380921775305258E-6</v>
+        <v>-5.4266822175767218E-5</v>
       </c>
       <c r="AJ11">
-        <v>2.5192166669236218E-5</v>
+        <v>-1.5871123604536529E-5</v>
       </c>
       <c r="AK11">
-        <v>2.0973531183519564E-5</v>
+        <v>1.1611138311862961E-6</v>
       </c>
       <c r="AL11">
-        <v>2.7859274918365503E-5</v>
-      </c>
-      <c r="AM11">
-        <v>1.3404405511492612E-5</v>
-      </c>
-      <c r="AN11">
-        <v>-1.5095865377493748E-6</v>
-      </c>
-      <c r="AO11">
-        <v>-1.1939889543496397E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-1.5080934199593671E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>391</v>
+        <v>269</v>
       </c>
       <c r="B12">
-        <v>0.83703547952843482</v>
+        <v>0.16516844659580046</v>
       </c>
       <c r="C12">
-        <v>1.4454619612848581E-5</v>
+        <v>-1.6343857806748277E-5</v>
       </c>
       <c r="D12">
-        <v>-7.5926753239167282E-6</v>
+        <v>1.0589468007454484E-4</v>
       </c>
       <c r="E12">
-        <v>-3.0595578321577301E-5</v>
+        <v>7.2059731888161373E-5</v>
       </c>
       <c r="F12">
-        <v>1.091580862237817E-5</v>
+        <v>7.0545155413062759E-5</v>
       </c>
       <c r="G12">
-        <v>-5.8002500274047846E-6</v>
+        <v>6.4933156945115971E-5</v>
       </c>
       <c r="H12">
-        <v>-1.9965543552222322E-5</v>
+        <v>5.1776872697304789E-5</v>
       </c>
       <c r="I12">
-        <v>-6.4881669523393653E-5</v>
+        <v>5.3657732623397784E-5</v>
       </c>
       <c r="J12">
-        <v>-7.8378137944213016E-4</v>
+        <v>4.9767095998382949E-6</v>
       </c>
       <c r="K12">
-        <v>6.6785515886869388E-4</v>
+        <v>-1.1813726399045654E-5</v>
       </c>
       <c r="L12">
-        <v>8.3465328614860631E-4</v>
+        <v>-4.6335473228943089E-5</v>
       </c>
       <c r="M12">
-        <v>3.3602296963688547E-3</v>
+        <v>8.3377060042639159E-3</v>
       </c>
       <c r="N12">
-        <v>1.373135927025435E-4</v>
+        <v>5.8674546988741905E-3</v>
       </c>
       <c r="O12">
-        <v>-2.7156319515242493E-5</v>
+        <v>5.8705539372374124E-3</v>
       </c>
       <c r="P12">
-        <v>1.4181299796658519E-5</v>
+        <v>5.880972499051047E-3</v>
       </c>
       <c r="Q12">
-        <v>3.7327482155390297E-6</v>
+        <v>5.8729196850274097E-3</v>
       </c>
       <c r="R12">
-        <v>2.8771230627100072E-5</v>
+        <v>5.8708814916986277E-3</v>
       </c>
       <c r="S12">
-        <v>-2.083041194706457E-5</v>
+        <v>5.8780566352018256E-3</v>
       </c>
       <c r="T12">
-        <v>-3.2767487317729511E-5</v>
+        <v>5.8749669635424408E-3</v>
       </c>
       <c r="U12">
-        <v>-9.9000163643947264E-6</v>
+        <v>5.8747968458370357E-3</v>
       </c>
       <c r="V12">
-        <v>-2.7420832400281155E-5</v>
+        <v>5.8695104137357909E-3</v>
       </c>
       <c r="W12">
-        <v>-3.3939198112318408E-5</v>
+        <v>5.8657623780882552E-3</v>
       </c>
       <c r="X12">
-        <v>-1.2549747904863791E-5</v>
+        <v>5.8633246319656374E-3</v>
       </c>
       <c r="Y12">
-        <v>-1.5670013907829496E-6</v>
+        <v>5.8636515543524703E-3</v>
       </c>
       <c r="Z12">
-        <v>6.3021146752113518E-6</v>
+        <v>5.8471690759331471E-3</v>
       </c>
       <c r="AA12">
-        <v>2.6745884673440166E-5</v>
+        <v>1.5839668875595883E-5</v>
       </c>
       <c r="AB12">
-        <v>2.4935855694619766E-5</v>
+        <v>6.4696646281498307E-5</v>
       </c>
       <c r="AC12">
-        <v>8.8640885904370687E-5</v>
+        <v>-4.3022691149492004E-5</v>
       </c>
       <c r="AD12">
-        <v>-1.3401756188805735E-5</v>
+        <v>8.5873304163548714E-6</v>
       </c>
       <c r="AE12">
-        <v>-9.2472344016337246E-7</v>
+        <v>2.2697700632362365E-5</v>
       </c>
       <c r="AF12">
-        <v>2.3757852087961397E-6</v>
+        <v>6.9495348981031936E-5</v>
       </c>
       <c r="AG12">
-        <v>-1.4288092088103252E-6</v>
+        <v>1.3035414574757011E-5</v>
       </c>
       <c r="AH12">
-        <v>2.0280157468390285E-6</v>
+        <v>5.4307110069353988E-5</v>
       </c>
       <c r="AI12">
-        <v>1.3762235250923622E-5</v>
+        <v>-3.0168527762404213E-5</v>
       </c>
       <c r="AJ12">
-        <v>5.1555939442377192E-6</v>
+        <v>3.4333945945744584E-5</v>
       </c>
       <c r="AK12">
-        <v>-2.2904982840109424E-5</v>
+        <v>-1.399703635481496E-4</v>
       </c>
       <c r="AL12">
-        <v>2.2832455448547936E-5</v>
-      </c>
-      <c r="AM12">
-        <v>1.6324688550866458E-6</v>
-      </c>
-      <c r="AN12">
-        <v>-1.0619938902071448E-5</v>
-      </c>
-      <c r="AO12">
-        <v>-7.3741885956119511E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-5.9709498863847327E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>392</v>
+        <v>270</v>
       </c>
       <c r="B13">
-        <v>0.57401859187242765</v>
+        <v>0.27893091012436277</v>
       </c>
       <c r="C13">
-        <v>2.3579913660332239E-5</v>
+        <v>-1.6901163805631033E-5</v>
       </c>
       <c r="D13">
-        <v>-4.8302773230600031E-6</v>
+        <v>1.5392381866469906E-4</v>
       </c>
       <c r="E13">
-        <v>5.7931950715155037E-6</v>
+        <v>1.1816147992489034E-4</v>
       </c>
       <c r="F13">
-        <v>1.5292243799542703E-5</v>
+        <v>8.5080906382420797E-5</v>
       </c>
       <c r="G13">
-        <v>7.5185960332472309E-6</v>
+        <v>5.172820251170149E-5</v>
       </c>
       <c r="H13">
-        <v>4.4586494284417049E-6</v>
+        <v>5.3730217887621671E-5</v>
       </c>
       <c r="I13">
-        <v>8.672622352277529E-6</v>
+        <v>-3.242832444076254E-5</v>
       </c>
       <c r="J13">
-        <v>-7.1677448066794969E-5</v>
+        <v>-2.6011605606926714E-5</v>
       </c>
       <c r="K13">
-        <v>-1.3445291783942628E-4</v>
+        <v>-2.5771606532437564E-5</v>
       </c>
       <c r="L13">
-        <v>8.1261509702606788E-5</v>
+        <v>-1.5453805438233454E-4</v>
       </c>
       <c r="M13">
-        <v>1.373135927025435E-4</v>
+        <v>5.8674546988741905E-3</v>
       </c>
       <c r="N13">
-        <v>3.6735065754040473E-4</v>
+        <v>8.7630430309874555E-3</v>
       </c>
       <c r="O13">
-        <v>-1.652411000070152E-5</v>
+        <v>5.9406283337383285E-3</v>
       </c>
       <c r="P13">
-        <v>4.1288576837762555E-5</v>
+        <v>5.9682592084367124E-3</v>
       </c>
       <c r="Q13">
-        <v>2.9228136609371221E-5</v>
+        <v>5.9671280846556934E-3</v>
       </c>
       <c r="R13">
-        <v>8.8717376069001025E-7</v>
+        <v>5.971902379904595E-3</v>
       </c>
       <c r="S13">
-        <v>1.431032223476184E-5</v>
+        <v>5.9788933107060953E-3</v>
       </c>
       <c r="T13">
-        <v>4.5257887834513157E-6</v>
+        <v>5.9723520239773707E-3</v>
       </c>
       <c r="U13">
-        <v>1.2063102279721172E-5</v>
+        <v>5.9686791984233057E-3</v>
       </c>
       <c r="V13">
-        <v>4.9592917454924236E-6</v>
+        <v>5.9625624740118118E-3</v>
       </c>
       <c r="W13">
-        <v>-2.4309172909139396E-5</v>
+        <v>5.9478913947915522E-3</v>
       </c>
       <c r="X13">
-        <v>-1.5450420766438655E-5</v>
+        <v>5.9378455410204626E-3</v>
       </c>
       <c r="Y13">
-        <v>-1.4205752601244512E-5</v>
+        <v>5.9393927308276657E-3</v>
       </c>
       <c r="Z13">
-        <v>1.1606599078065261E-5</v>
+        <v>5.9121304011534705E-3</v>
       </c>
       <c r="AA13">
-        <v>2.7988452144810047E-5</v>
+        <v>8.1179028431592167E-5</v>
       </c>
       <c r="AB13">
-        <v>2.5616556798999655E-5</v>
+        <v>6.7974434998796258E-5</v>
       </c>
       <c r="AC13">
-        <v>5.6512908829494528E-5</v>
+        <v>1.8328358970698616E-5</v>
       </c>
       <c r="AD13">
-        <v>-6.4232655641662971E-6</v>
+        <v>-2.3745596852426569E-5</v>
       </c>
       <c r="AE13">
-        <v>1.4316973254483281E-5</v>
+        <v>2.0383822375185431E-5</v>
       </c>
       <c r="AF13">
-        <v>1.1783678864973702E-5</v>
+        <v>4.4262541183331429E-5</v>
       </c>
       <c r="AG13">
-        <v>-8.3479477649951047E-6</v>
+        <v>2.1227486182048253E-5</v>
       </c>
       <c r="AH13">
-        <v>-1.474669419729258E-5</v>
+        <v>5.4539532735177086E-5</v>
       </c>
       <c r="AI13">
-        <v>8.5578237500681908E-7</v>
+        <v>-5.8223775936774944E-5</v>
       </c>
       <c r="AJ13">
-        <v>1.7423840897621119E-5</v>
+        <v>-6.8899862460569845E-6</v>
       </c>
       <c r="AK13">
-        <v>7.1074182601050817E-6</v>
+        <v>-1.5773330626141311E-4</v>
       </c>
       <c r="AL13">
-        <v>-5.8531594159253623E-6</v>
-      </c>
-      <c r="AM13">
-        <v>-1.1485360399390167E-5</v>
-      </c>
-      <c r="AN13">
-        <v>-2.2721414948728964E-5</v>
-      </c>
-      <c r="AO13">
-        <v>-8.2399127610048933E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-5.9965139996238145E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>271</v>
       </c>
       <c r="B14">
-        <v>-0.22523984912125186</v>
+        <v>0.52550538644708211</v>
       </c>
       <c r="C14">
-        <v>-3.5423089010863312E-5</v>
+        <v>7.6910773289428009E-7</v>
       </c>
       <c r="D14">
-        <v>-4.0884457166902869E-6</v>
+        <v>1.2347036943590912E-4</v>
       </c>
       <c r="E14">
-        <v>5.5388903395837161E-6</v>
+        <v>9.2328176813924505E-5</v>
       </c>
       <c r="F14">
-        <v>2.2501611359774186E-6</v>
+        <v>1.189653488403551E-5</v>
       </c>
       <c r="G14">
-        <v>2.6262627957224943E-5</v>
+        <v>-1.7971663113175516E-5</v>
       </c>
       <c r="H14">
-        <v>5.0716933181129233E-5</v>
+        <v>-5.0875429052425671E-5</v>
       </c>
       <c r="I14">
-        <v>8.4768286865800712E-5</v>
+        <v>-9.727753829974462E-5</v>
       </c>
       <c r="J14">
-        <v>2.4918618952851586E-5</v>
+        <v>-8.3053852616332441E-5</v>
       </c>
       <c r="K14">
-        <v>1.7790976037445767E-4</v>
+        <v>-4.6975909924662626E-5</v>
       </c>
       <c r="L14">
-        <v>-1.8280664191198237E-5</v>
+        <v>-2.5953705927967948E-4</v>
       </c>
       <c r="M14">
-        <v>-2.7156319515242493E-5</v>
+        <v>5.8705539372374124E-3</v>
       </c>
       <c r="N14">
-        <v>-1.652411000070152E-5</v>
+        <v>5.9406283337383285E-3</v>
       </c>
       <c r="O14">
-        <v>4.7827586465367907E-4</v>
+        <v>8.5679895670224306E-3</v>
       </c>
       <c r="P14">
-        <v>-4.6819649147042218E-5</v>
+        <v>6.0363285963433641E-3</v>
       </c>
       <c r="Q14">
-        <v>-1.5858507783033168E-4</v>
+        <v>6.0422180832637104E-3</v>
       </c>
       <c r="R14">
-        <v>-2.6583267383369297E-4</v>
+        <v>6.0477145706912434E-3</v>
       </c>
       <c r="S14">
-        <v>-3.0448913715444971E-4</v>
+        <v>6.0554557300694957E-3</v>
       </c>
       <c r="T14">
-        <v>-3.4018937356279188E-4</v>
+        <v>6.0443582858860333E-3</v>
       </c>
       <c r="U14">
-        <v>-3.5685539500409231E-4</v>
+        <v>6.0403314062242378E-3</v>
       </c>
       <c r="V14">
-        <v>-3.6308868036133473E-4</v>
+        <v>6.0407321764493213E-3</v>
       </c>
       <c r="W14">
-        <v>-3.6332497790435655E-4</v>
+        <v>6.0199533995589968E-3</v>
       </c>
       <c r="X14">
-        <v>-3.3586080898909631E-4</v>
+        <v>6.001527262899274E-3</v>
       </c>
       <c r="Y14">
-        <v>-3.3889798001293615E-4</v>
+        <v>6.006166070334577E-3</v>
       </c>
       <c r="Z14">
-        <v>-2.9079755055759645E-4</v>
+        <v>5.970935068996569E-3</v>
       </c>
       <c r="AA14">
-        <v>-2.4488224983058854E-4</v>
+        <v>6.4837823162139244E-5</v>
       </c>
       <c r="AB14">
-        <v>-2.3635809880072819E-4</v>
+        <v>2.0365494746509873E-5</v>
       </c>
       <c r="AC14">
-        <v>-1.9614300826839261E-4</v>
+        <v>-2.8754242399077349E-5</v>
       </c>
       <c r="AD14">
-        <v>-4.3321092615760229E-5</v>
+        <v>3.1940576523996128E-5</v>
       </c>
       <c r="AE14">
-        <v>-5.9596256773586236E-5</v>
+        <v>-3.316514388268391E-5</v>
       </c>
       <c r="AF14">
-        <v>-5.4484311483759679E-5</v>
+        <v>3.3323288980428162E-5</v>
       </c>
       <c r="AG14">
-        <v>-3.0058761620115021E-5</v>
+        <v>2.822970341885599E-6</v>
       </c>
       <c r="AH14">
-        <v>-4.5917068697149085E-5</v>
+        <v>4.2365805473517032E-5</v>
       </c>
       <c r="AI14">
-        <v>-5.2485418765515885E-5</v>
+        <v>-4.8886420350152844E-5</v>
       </c>
       <c r="AJ14">
-        <v>-4.6077741107266599E-5</v>
+        <v>5.9330203711346636E-5</v>
       </c>
       <c r="AK14">
-        <v>-4.8688685535907994E-5</v>
+        <v>-1.2791516646767226E-4</v>
       </c>
       <c r="AL14">
-        <v>-5.5484312611692161E-5</v>
-      </c>
-      <c r="AM14">
-        <v>-1.3490401370465734E-5</v>
-      </c>
-      <c r="AN14">
-        <v>2.4508579324388554E-6</v>
-      </c>
-      <c r="AO14">
-        <v>-1.386073303267753E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-5.875671894861911E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B15">
-        <v>0.18507484397488227</v>
+        <v>0.59696514012270785</v>
       </c>
       <c r="C15">
-        <v>-2.2982533889368168E-5</v>
+        <v>2.6092138762992789E-5</v>
       </c>
       <c r="D15">
-        <v>1.0403846004703832E-4</v>
+        <v>1.629982603613333E-4</v>
       </c>
       <c r="E15">
-        <v>7.4406420471525225E-5</v>
+        <v>1.1916446142731527E-4</v>
       </c>
       <c r="F15">
-        <v>1.2166467995153454E-4</v>
+        <v>4.5947723791104917E-5</v>
       </c>
       <c r="G15">
-        <v>1.1414621853070406E-4</v>
+        <v>-1.2689121089886192E-5</v>
       </c>
       <c r="H15">
-        <v>8.5445799694092866E-5</v>
+        <v>-6.1102747032917783E-5</v>
       </c>
       <c r="I15">
-        <v>9.8631905754882512E-5</v>
+        <v>-1.1264641005470972E-4</v>
       </c>
       <c r="J15">
-        <v>-3.1866411527425374E-6</v>
+        <v>-3.2235213540306699E-5</v>
       </c>
       <c r="K15">
-        <v>-3.1257350197664733E-5</v>
+        <v>-4.9105371055777438E-5</v>
       </c>
       <c r="L15">
-        <v>7.4935203041857809E-6</v>
+        <v>-3.0303991363968822E-4</v>
       </c>
       <c r="M15">
-        <v>1.4181299796658519E-5</v>
+        <v>5.880972499051047E-3</v>
       </c>
       <c r="N15">
-        <v>4.1288576837762555E-5</v>
+        <v>5.9682592084367124E-3</v>
       </c>
       <c r="O15">
-        <v>-4.6819649147042218E-5</v>
+        <v>6.0363285963433641E-3</v>
       </c>
       <c r="P15">
-        <v>9.4626032063422853E-3</v>
+        <v>7.8773200477913006E-3</v>
       </c>
       <c r="Q15">
-        <v>6.7108774986690562E-3</v>
+        <v>6.0882997937155405E-3</v>
       </c>
       <c r="R15">
-        <v>6.7083306994518907E-3</v>
+        <v>6.0957689716271916E-3</v>
       </c>
       <c r="S15">
-        <v>6.7219776033073482E-3</v>
+        <v>6.1039834999617043E-3</v>
       </c>
       <c r="T15">
-        <v>6.713344502719599E-3</v>
+        <v>6.0932204973303877E-3</v>
       </c>
       <c r="U15">
-        <v>6.7091433047846878E-3</v>
+        <v>6.0857779675138517E-3</v>
       </c>
       <c r="V15">
-        <v>6.7174308499551375E-3</v>
+        <v>6.0822547533054099E-3</v>
       </c>
       <c r="W15">
-        <v>6.7129802174192271E-3</v>
+        <v>6.0600510764406562E-3</v>
       </c>
       <c r="X15">
-        <v>6.7133277368704343E-3</v>
+        <v>6.0408206562049269E-3</v>
       </c>
       <c r="Y15">
-        <v>6.7072198525310357E-3</v>
+        <v>6.0459189364459685E-3</v>
       </c>
       <c r="Z15">
-        <v>6.7055435185034012E-3</v>
+        <v>6.0034968848296181E-3</v>
       </c>
       <c r="AA15">
-        <v>6.7018618762117385E-3</v>
+        <v>-1.4590819943706987E-5</v>
       </c>
       <c r="AB15">
-        <v>6.7037939628948632E-3</v>
+        <v>3.380464973773813E-5</v>
       </c>
       <c r="AC15">
-        <v>6.6905964675597843E-3</v>
+        <v>-4.9596540973027717E-5</v>
       </c>
       <c r="AD15">
-        <v>-5.4314095784048413E-5</v>
+        <v>1.3255490499562619E-6</v>
       </c>
       <c r="AE15">
-        <v>4.1277681184296406E-5</v>
+        <v>-2.6822905580136834E-5</v>
       </c>
       <c r="AF15">
-        <v>-5.7608325348300175E-5</v>
+        <v>4.2259593868390665E-5</v>
       </c>
       <c r="AG15">
-        <v>-1.792693100554992E-5</v>
+        <v>-1.3864025855921613E-5</v>
       </c>
       <c r="AH15">
-        <v>7.8568715652280706E-6</v>
+        <v>-1.6154862308536203E-5</v>
       </c>
       <c r="AI15">
-        <v>6.7197884512753582E-5</v>
+        <v>-6.3455298145164828E-5</v>
       </c>
       <c r="AJ15">
-        <v>-5.0976965025429245E-5</v>
+        <v>-1.7343150745330674E-5</v>
       </c>
       <c r="AK15">
-        <v>1.9249655253120689E-5</v>
+        <v>-1.6912877402468912E-4</v>
       </c>
       <c r="AL15">
-        <v>-4.764206617513967E-5</v>
-      </c>
-      <c r="AM15">
-        <v>4.7388805054678074E-6</v>
-      </c>
-      <c r="AN15">
-        <v>-2.3987112500503151E-4</v>
-      </c>
-      <c r="AO15">
-        <v>-6.8271975552689724E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-5.9113149313285472E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B16">
-        <v>0.27960964672584476</v>
+        <v>0.56353713906657932</v>
       </c>
       <c r="C16">
-        <v>-4.0401639364666565E-5</v>
+        <v>2.1548979704820007E-5</v>
       </c>
       <c r="D16">
-        <v>1.3260360503520951E-4</v>
+        <v>1.3061134217213789E-4</v>
       </c>
       <c r="E16">
-        <v>1.0592214113505668E-4</v>
+        <v>9.3586742913781947E-5</v>
       </c>
       <c r="F16">
-        <v>1.1825900859543058E-4</v>
+        <v>5.0924208305407417E-5</v>
       </c>
       <c r="G16">
-        <v>7.7425931472348308E-5</v>
+        <v>3.5536081374070209E-6</v>
       </c>
       <c r="H16">
-        <v>7.3249428346697253E-5</v>
+        <v>-4.9796195244210728E-5</v>
       </c>
       <c r="I16">
-        <v>1.4397460762376798E-6</v>
+        <v>-8.5052970459107929E-5</v>
       </c>
       <c r="J16">
-        <v>-1.8178528088487532E-5</v>
+        <v>-3.0899628548742924E-6</v>
       </c>
       <c r="K16">
-        <v>-2.3400009945393494E-5</v>
+        <v>-6.7375986796960942E-5</v>
       </c>
       <c r="L16">
-        <v>1.3317609822572046E-5</v>
+        <v>-3.4655344736798021E-4</v>
       </c>
       <c r="M16">
-        <v>3.7327482155390297E-6</v>
+        <v>5.8729196850274097E-3</v>
       </c>
       <c r="N16">
-        <v>2.9228136609371221E-5</v>
+        <v>5.9671280846556934E-3</v>
       </c>
       <c r="O16">
-        <v>-1.5858507783033168E-4</v>
+        <v>6.0422180832637104E-3</v>
       </c>
       <c r="P16">
-        <v>6.7108774986690562E-3</v>
+        <v>6.0882997937155405E-3</v>
       </c>
       <c r="Q16">
-        <v>1.0005173297553002E-2</v>
+        <v>7.4721850086930802E-3</v>
       </c>
       <c r="R16">
-        <v>6.7780530609054743E-3</v>
+        <v>6.1070706468762271E-3</v>
       </c>
       <c r="S16">
-        <v>6.8061501052108057E-3</v>
+        <v>6.117671878768262E-3</v>
       </c>
       <c r="T16">
-        <v>6.8056228227763279E-3</v>
+        <v>6.108609942619166E-3</v>
       </c>
       <c r="U16">
-        <v>6.8097381853131382E-3</v>
+        <v>6.0986469975574109E-3</v>
       </c>
       <c r="V16">
-        <v>6.817976706837113E-3</v>
+        <v>6.0962357233302622E-3</v>
       </c>
       <c r="W16">
-        <v>6.8118466614705787E-3</v>
+        <v>6.070116653206367E-3</v>
       </c>
       <c r="X16">
-        <v>6.8081087188970654E-3</v>
+        <v>6.0474935616635448E-3</v>
       </c>
       <c r="Y16">
-        <v>6.8038111603297077E-3</v>
+        <v>6.0521755180406788E-3</v>
       </c>
       <c r="Z16">
-        <v>6.7925655881332083E-3</v>
+        <v>6.0084703285204419E-3</v>
       </c>
       <c r="AA16">
-        <v>6.7820882650552871E-3</v>
+        <v>-3.3439999677651547E-5</v>
       </c>
       <c r="AB16">
-        <v>6.7864234524247693E-3</v>
+        <v>2.0592634159345095E-5</v>
       </c>
       <c r="AC16">
-        <v>6.7623124742198244E-3</v>
+        <v>-7.7614983148295135E-6</v>
       </c>
       <c r="AD16">
-        <v>3.5525156848673599E-5</v>
+        <v>-2.2475675957935775E-5</v>
       </c>
       <c r="AE16">
-        <v>6.6613378061161676E-5</v>
+        <v>-7.5625369853771912E-6</v>
       </c>
       <c r="AF16">
-        <v>6.2310294472739912E-5</v>
+        <v>3.956380535712848E-5</v>
       </c>
       <c r="AG16">
-        <v>-2.0776887758497268E-5</v>
+        <v>-9.3358914735760211E-6</v>
       </c>
       <c r="AH16">
-        <v>2.2000635034641943E-5</v>
+        <v>1.7695114403258648E-5</v>
       </c>
       <c r="AI16">
-        <v>5.582386494816364E-5</v>
+        <v>-3.1551660690410689E-5</v>
       </c>
       <c r="AJ16">
-        <v>-3.682855771110021E-5</v>
+        <v>-2.2748271360888139E-5</v>
       </c>
       <c r="AK16">
-        <v>1.4894320679758027E-5</v>
+        <v>-1.5460101633549619E-4</v>
       </c>
       <c r="AL16">
-        <v>-7.3598105140350225E-5</v>
-      </c>
-      <c r="AM16">
-        <v>-3.1244108679821803E-5</v>
-      </c>
-      <c r="AN16">
-        <v>-2.3347957627118353E-4</v>
-      </c>
-      <c r="AO16">
-        <v>-6.8412192556440814E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-5.8716191680177401E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B17">
-        <v>0.45341178095945606</v>
+        <v>0.30933714929870226</v>
       </c>
       <c r="C17">
-        <v>-6.1796214712850475E-6</v>
+        <v>2.5625074512765725E-5</v>
       </c>
       <c r="D17">
-        <v>1.2596208060887488E-4</v>
+        <v>1.1839183827552378E-4</v>
       </c>
       <c r="E17">
-        <v>9.6873820792848055E-5</v>
+        <v>8.1516269670793342E-5</v>
       </c>
       <c r="F17">
-        <v>3.9557446427087315E-5</v>
+        <v>2.6548269184668022E-5</v>
       </c>
       <c r="G17">
-        <v>1.0136893320611331E-5</v>
+        <v>-1.2036754051598551E-6</v>
       </c>
       <c r="H17">
-        <v>-3.8129669846044762E-5</v>
+        <v>-7.4908814592627735E-5</v>
       </c>
       <c r="I17">
-        <v>-8.2024191664428617E-5</v>
+        <v>-1.0087288057082423E-4</v>
       </c>
       <c r="J17">
-        <v>-8.5951735350284263E-5</v>
+        <v>-3.3330192455887226E-5</v>
       </c>
       <c r="K17">
-        <v>-5.7458136305941826E-5</v>
+        <v>-8.1006252090669469E-5</v>
       </c>
       <c r="L17">
-        <v>1.1084496002741501E-5</v>
+        <v>-3.6067622521350186E-4</v>
       </c>
       <c r="M17">
-        <v>2.8771230627100072E-5</v>
+        <v>5.8708814916986277E-3</v>
       </c>
       <c r="N17">
-        <v>8.8717376069001025E-7</v>
+        <v>5.971902379904595E-3</v>
       </c>
       <c r="O17">
-        <v>-2.6583267383369297E-4</v>
+        <v>6.0477145706912434E-3</v>
       </c>
       <c r="P17">
-        <v>6.7083306994518907E-3</v>
+        <v>6.0957689716271916E-3</v>
       </c>
       <c r="Q17">
-        <v>6.7780530609054743E-3</v>
+        <v>6.1070706468762271E-3</v>
       </c>
       <c r="R17">
-        <v>9.5583948964126954E-3</v>
+        <v>6.9974228975254989E-3</v>
       </c>
       <c r="S17">
-        <v>6.8785809312783136E-3</v>
+        <v>6.1255610121524352E-3</v>
       </c>
       <c r="T17">
-        <v>6.8814722516080638E-3</v>
+        <v>6.1160741319642746E-3</v>
       </c>
       <c r="U17">
-        <v>6.8852707493550378E-3</v>
+        <v>6.1074239044372194E-3</v>
       </c>
       <c r="V17">
-        <v>6.8947734634128106E-3</v>
+        <v>6.1044614229642151E-3</v>
       </c>
       <c r="W17">
-        <v>6.8902041771914582E-3</v>
+        <v>6.078054068924239E-3</v>
       </c>
       <c r="X17">
-        <v>6.8825997488814843E-3</v>
+        <v>6.0525180442519873E-3</v>
       </c>
       <c r="Y17">
-        <v>6.8812878786016565E-3</v>
+        <v>6.0580399756686902E-3</v>
       </c>
       <c r="Z17">
-        <v>6.8588343092964117E-3</v>
+        <v>6.015331372995811E-3</v>
       </c>
       <c r="AA17">
-        <v>6.83584967027523E-3</v>
+        <v>-5.6118633127075473E-5</v>
       </c>
       <c r="AB17">
-        <v>6.8366736708868926E-3</v>
+        <v>-1.5182163868547073E-5</v>
       </c>
       <c r="AC17">
-        <v>6.8015217221381423E-3</v>
+        <v>-7.8339879019963124E-5</v>
       </c>
       <c r="AD17">
-        <v>4.5736534248498302E-5</v>
+        <v>-8.5314138535651013E-5</v>
       </c>
       <c r="AE17">
-        <v>1.60820390921895E-5</v>
+        <v>-7.6958993259397925E-5</v>
       </c>
       <c r="AF17">
-        <v>-9.6870285065625387E-6</v>
+        <v>-5.451957367284474E-5</v>
       </c>
       <c r="AG17">
-        <v>4.907857183413856E-5</v>
+        <v>-6.6199029408025244E-5</v>
       </c>
       <c r="AH17">
-        <v>-1.6835869926838231E-5</v>
+        <v>-4.0740166876684827E-5</v>
       </c>
       <c r="AI17">
-        <v>7.2041997896531802E-5</v>
+        <v>-9.4498835439181094E-5</v>
       </c>
       <c r="AJ17">
-        <v>-3.918779860883877E-6</v>
+        <v>-9.0436373701817917E-5</v>
       </c>
       <c r="AK17">
-        <v>4.9641914279916106E-6</v>
+        <v>-2.0585226192297752E-4</v>
       </c>
       <c r="AL17">
-        <v>-2.793205734433115E-5</v>
-      </c>
-      <c r="AM17">
-        <v>6.9801531589753097E-5</v>
-      </c>
-      <c r="AN17">
-        <v>-1.9495985185587379E-4</v>
-      </c>
-      <c r="AO17">
-        <v>-6.7332678207771661E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-5.7789634587358633E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B18">
-        <v>0.56564932217620378</v>
+        <v>0.22312300106712393</v>
       </c>
       <c r="C18">
-        <v>2.9624619761817482E-5</v>
+        <v>3.2671217418860719E-5</v>
       </c>
       <c r="D18">
-        <v>1.6100794797099533E-4</v>
+        <v>1.3786442965494288E-4</v>
       </c>
       <c r="E18">
-        <v>1.1634786592594034E-4</v>
+        <v>8.1367153364576147E-5</v>
       </c>
       <c r="F18">
-        <v>8.7782043477916316E-5</v>
+        <v>2.7958318435326534E-5</v>
       </c>
       <c r="G18">
-        <v>2.5487248079621985E-5</v>
+        <v>-2.5041630938472942E-5</v>
       </c>
       <c r="H18">
-        <v>-3.7765811114001745E-5</v>
+        <v>-7.8903532611757825E-5</v>
       </c>
       <c r="I18">
-        <v>-7.8208627854898247E-5</v>
+        <v>-1.23262047975453E-4</v>
       </c>
       <c r="J18">
-        <v>-5.9774215737951335E-6</v>
+        <v>-4.4448187410789285E-5</v>
       </c>
       <c r="K18">
-        <v>-7.2980880366665848E-5</v>
+        <v>-9.4394729400264178E-5</v>
       </c>
       <c r="L18">
-        <v>3.4736799072231724E-6</v>
+        <v>-3.6640207747538255E-4</v>
       </c>
       <c r="M18">
-        <v>-2.083041194706457E-5</v>
+        <v>5.8780566352018256E-3</v>
       </c>
       <c r="N18">
-        <v>1.431032223476184E-5</v>
+        <v>5.9788933107060953E-3</v>
       </c>
       <c r="O18">
-        <v>-3.0448913715444971E-4</v>
+        <v>6.0554557300694957E-3</v>
       </c>
       <c r="P18">
-        <v>6.7219776033073482E-3</v>
+        <v>6.1039834999617043E-3</v>
       </c>
       <c r="Q18">
-        <v>6.8061501052108057E-3</v>
+        <v>6.117671878768262E-3</v>
       </c>
       <c r="R18">
-        <v>6.8785809312783136E-3</v>
+        <v>6.1255610121524352E-3</v>
       </c>
       <c r="S18">
-        <v>8.8503923100595374E-3</v>
+        <v>6.6856135597546064E-3</v>
       </c>
       <c r="T18">
-        <v>6.9232251504587269E-3</v>
+        <v>6.1271090641375793E-3</v>
       </c>
       <c r="U18">
-        <v>6.9287154729564112E-3</v>
+        <v>6.116312293196949E-3</v>
       </c>
       <c r="V18">
-        <v>6.9393846447207029E-3</v>
+        <v>6.1139267291662738E-3</v>
       </c>
       <c r="W18">
-        <v>6.9351305025412719E-3</v>
+        <v>6.0837463657934772E-3</v>
       </c>
       <c r="X18">
-        <v>6.9249383558351446E-3</v>
+        <v>6.0575983803554121E-3</v>
       </c>
       <c r="Y18">
-        <v>6.9198917528927092E-3</v>
+        <v>6.0636296895159418E-3</v>
       </c>
       <c r="Z18">
-        <v>6.8984645962977299E-3</v>
+        <v>6.0187982738154561E-3</v>
       </c>
       <c r="AA18">
-        <v>6.8705580106028282E-3</v>
+        <v>1.2389654499693394E-5</v>
       </c>
       <c r="AB18">
-        <v>6.8757876499291673E-3</v>
+        <v>9.9697615792488118E-5</v>
       </c>
       <c r="AC18">
-        <v>6.8321962732050901E-3</v>
+        <v>2.6503650809273646E-5</v>
       </c>
       <c r="AD18">
-        <v>-6.3825726180137933E-5</v>
+        <v>1.2400262607724496E-5</v>
       </c>
       <c r="AE18">
-        <v>1.3169155475612794E-6</v>
+        <v>1.442786270844528E-5</v>
       </c>
       <c r="AF18">
-        <v>-7.9659487510818543E-5</v>
+        <v>5.868631596896612E-5</v>
       </c>
       <c r="AG18">
-        <v>-1.7987215763075499E-5</v>
+        <v>1.2492390749394553E-5</v>
       </c>
       <c r="AH18">
-        <v>-4.5976128717762667E-5</v>
+        <v>6.7846637889600178E-5</v>
       </c>
       <c r="AI18">
-        <v>2.7075099183619319E-5</v>
+        <v>1.9970588056682139E-5</v>
       </c>
       <c r="AJ18">
-        <v>-8.4176234606565337E-5</v>
+        <v>-5.4990825114355733E-6</v>
       </c>
       <c r="AK18">
-        <v>-7.2435402669775379E-5</v>
+        <v>-9.8325652263780983E-5</v>
       </c>
       <c r="AL18">
-        <v>-9.5425919651903786E-5</v>
-      </c>
-      <c r="AM18">
-        <v>-5.2755216745152024E-5</v>
-      </c>
-      <c r="AN18">
-        <v>-2.7385232080746023E-4</v>
-      </c>
-      <c r="AO18">
-        <v>-6.7366714220884628E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-5.8673261315125031E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B19">
-        <v>0.46318059101117809</v>
+        <v>0.19616201682020309</v>
       </c>
       <c r="C19">
-        <v>8.235658330861452E-6</v>
+        <v>2.8902216760968352E-5</v>
       </c>
       <c r="D19">
-        <v>1.3139734399249177E-4</v>
+        <v>1.337003672544704E-4</v>
       </c>
       <c r="E19">
-        <v>9.2939146734332678E-5</v>
+        <v>7.0819997354622407E-5</v>
       </c>
       <c r="F19">
-        <v>8.9920927529459969E-5</v>
+        <v>3.8412217649902669E-5</v>
       </c>
       <c r="G19">
-        <v>4.0659457758408956E-5</v>
+        <v>-7.6774745051306641E-6</v>
       </c>
       <c r="H19">
-        <v>-1.8440014707478487E-5</v>
+        <v>-4.1014839342845807E-5</v>
       </c>
       <c r="I19">
-        <v>-6.069491160523978E-5</v>
+        <v>-8.1040055970187303E-5</v>
       </c>
       <c r="J19">
-        <v>2.4786145920654889E-5</v>
+        <v>-2.6384677465021971E-5</v>
       </c>
       <c r="K19">
-        <v>-8.0811691402636704E-5</v>
+        <v>-8.5022368010215455E-5</v>
       </c>
       <c r="L19">
-        <v>9.3277803999754775E-6</v>
+        <v>-3.5752454330250039E-4</v>
       </c>
       <c r="M19">
-        <v>-3.2767487317729511E-5</v>
+        <v>5.8749669635424408E-3</v>
       </c>
       <c r="N19">
-        <v>4.5257887834513157E-6</v>
+        <v>5.9723520239773707E-3</v>
       </c>
       <c r="O19">
-        <v>-3.4018937356279188E-4</v>
+        <v>6.0443582858860333E-3</v>
       </c>
       <c r="P19">
-        <v>6.713344502719599E-3</v>
+        <v>6.0932204973303877E-3</v>
       </c>
       <c r="Q19">
-        <v>6.8056228227763279E-3</v>
+        <v>6.108609942619166E-3</v>
       </c>
       <c r="R19">
-        <v>6.8814722516080638E-3</v>
+        <v>6.1160741319642746E-3</v>
       </c>
       <c r="S19">
-        <v>6.9232251504587269E-3</v>
+        <v>6.1271090641375793E-3</v>
       </c>
       <c r="T19">
-        <v>8.3131483543527548E-3</v>
+        <v>6.5785078592363192E-3</v>
       </c>
       <c r="U19">
-        <v>6.9364540520700643E-3</v>
+        <v>6.10551880088743E-3</v>
       </c>
       <c r="V19">
-        <v>6.9493924566269875E-3</v>
+        <v>6.105085049905026E-3</v>
       </c>
       <c r="W19">
-        <v>6.9483054082128525E-3</v>
+        <v>6.0760488279934469E-3</v>
       </c>
       <c r="X19">
-        <v>6.9349939832460822E-3</v>
+        <v>6.0497404045353935E-3</v>
       </c>
       <c r="Y19">
-        <v>6.9321025001645026E-3</v>
+        <v>6.0557725411971653E-3</v>
       </c>
       <c r="Z19">
-        <v>6.9052717472039369E-3</v>
+        <v>6.009442199065968E-3</v>
       </c>
       <c r="AA19">
-        <v>6.8740346601054566E-3</v>
+        <v>-1.1118653074760785E-5</v>
       </c>
       <c r="AB19">
-        <v>6.8785266717655861E-3</v>
+        <v>6.1949857256123238E-5</v>
       </c>
       <c r="AC19">
-        <v>6.8362248801367995E-3</v>
+        <v>-8.023882366666726E-6</v>
       </c>
       <c r="AD19">
-        <v>-8.2957926126556994E-5</v>
+        <v>-2.5530360027782063E-6</v>
       </c>
       <c r="AE19">
-        <v>-1.470570870660149E-7</v>
+        <v>3.2406161428316258E-5</v>
       </c>
       <c r="AF19">
-        <v>-1.2456813286020442E-5</v>
+        <v>4.5825410152214047E-5</v>
       </c>
       <c r="AG19">
-        <v>-2.9097162901490538E-5</v>
+        <v>-1.3282304255387146E-5</v>
       </c>
       <c r="AH19">
-        <v>-1.5957685718206646E-5</v>
+        <v>4.1966019828983993E-5</v>
       </c>
       <c r="AI19">
-        <v>5.2042739435533827E-5</v>
+        <v>-4.2112515844889772E-6</v>
       </c>
       <c r="AJ19">
-        <v>-5.991646864176442E-5</v>
+        <v>-2.0719004235337981E-5</v>
       </c>
       <c r="AK19">
-        <v>-2.9444843458756179E-5</v>
+        <v>-1.0237628674545328E-4</v>
       </c>
       <c r="AL19">
-        <v>-3.659011452879701E-5</v>
-      </c>
-      <c r="AM19">
-        <v>-4.6658710120855117E-5</v>
-      </c>
-      <c r="AN19">
-        <v>-2.2804433539569575E-4</v>
-      </c>
-      <c r="AO19">
-        <v>-6.7142322845807996E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-5.8670656044955052E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B20">
-        <v>0.24509281001896377</v>
+        <v>0.15153975512082307</v>
       </c>
       <c r="C20">
-        <v>1.7944761797988802E-5</v>
+        <v>2.0593169360085398E-5</v>
       </c>
       <c r="D20">
-        <v>1.1202499078437247E-4</v>
+        <v>1.4176652784357859E-4</v>
       </c>
       <c r="E20">
-        <v>7.7812774158245111E-5</v>
+        <v>4.8795425257358085E-5</v>
       </c>
       <c r="F20">
-        <v>6.6000026544759654E-5</v>
+        <v>3.1819979949121837E-5</v>
       </c>
       <c r="G20">
-        <v>3.5504094791291445E-5</v>
+        <v>-2.1929045715268877E-5</v>
       </c>
       <c r="H20">
-        <v>-3.9490564889969595E-5</v>
+        <v>-5.3171845851943795E-5</v>
       </c>
       <c r="I20">
-        <v>-6.3055934883955717E-5</v>
+        <v>-9.6497850041285185E-5</v>
       </c>
       <c r="J20">
-        <v>-4.508102311262924E-5</v>
+        <v>-2.2316444588218407E-5</v>
       </c>
       <c r="K20">
-        <v>-9.7329585661527863E-5</v>
+        <v>-6.4565944445531183E-5</v>
       </c>
       <c r="L20">
-        <v>-2.5140689956456734E-6</v>
+        <v>-3.3478728341894437E-4</v>
       </c>
       <c r="M20">
-        <v>-9.9000163643947264E-6</v>
+        <v>5.8747968458370357E-3</v>
       </c>
       <c r="N20">
-        <v>1.2063102279721172E-5</v>
+        <v>5.9686791984233057E-3</v>
       </c>
       <c r="O20">
-        <v>-3.5685539500409231E-4</v>
+        <v>6.0403314062242378E-3</v>
       </c>
       <c r="P20">
-        <v>6.7091433047846878E-3</v>
+        <v>6.0857779675138517E-3</v>
       </c>
       <c r="Q20">
-        <v>6.8097381853131382E-3</v>
+        <v>6.0986469975574109E-3</v>
       </c>
       <c r="R20">
-        <v>6.8852707493550378E-3</v>
+        <v>6.1074239044372194E-3</v>
       </c>
       <c r="S20">
-        <v>6.9287154729564112E-3</v>
+        <v>6.116312293196949E-3</v>
       </c>
       <c r="T20">
-        <v>6.9364540520700643E-3</v>
+        <v>6.10551880088743E-3</v>
       </c>
       <c r="U20">
-        <v>7.84109470274366E-3</v>
+        <v>6.5858548221850166E-3</v>
       </c>
       <c r="V20">
-        <v>6.9550752887284524E-3</v>
+        <v>6.1039531675146086E-3</v>
       </c>
       <c r="W20">
-        <v>6.9534087221373884E-3</v>
+        <v>6.0811076695744372E-3</v>
       </c>
       <c r="X20">
-        <v>6.9425153828889218E-3</v>
+        <v>6.0585295396394911E-3</v>
       </c>
       <c r="Y20">
-        <v>6.9389844242465932E-3</v>
+        <v>6.0666233406864098E-3</v>
       </c>
       <c r="Z20">
-        <v>6.913940121763917E-3</v>
+        <v>6.0238768229958972E-3</v>
       </c>
       <c r="AA20">
-        <v>6.8814595539928112E-3</v>
+        <v>-1.4321926277451741E-5</v>
       </c>
       <c r="AB20">
-        <v>6.8871688437416225E-3</v>
+        <v>2.4491550383272777E-5</v>
       </c>
       <c r="AC20">
-        <v>6.8441480277215173E-3</v>
+        <v>-3.3255059647776131E-5</v>
       </c>
       <c r="AD20">
-        <v>-9.6951215426513502E-5</v>
+        <v>-3.4946143434759838E-5</v>
       </c>
       <c r="AE20">
-        <v>-4.8062987721451912E-5</v>
+        <v>-7.5328025328808435E-6</v>
       </c>
       <c r="AF20">
-        <v>-8.8627858830623999E-5</v>
+        <v>1.2614072848806616E-5</v>
       </c>
       <c r="AG20">
-        <v>-1.0537139316521018E-4</v>
+        <v>-5.162933347900914E-5</v>
       </c>
       <c r="AH20">
-        <v>-1.0482878225310968E-4</v>
+        <v>1.5826950159464597E-6</v>
       </c>
       <c r="AI20">
-        <v>-5.4375927254398217E-5</v>
+        <v>-3.9825443318772594E-5</v>
       </c>
       <c r="AJ20">
-        <v>-1.2506038877748717E-4</v>
+        <v>-3.9045425781989232E-5</v>
       </c>
       <c r="AK20">
-        <v>-1.0072870214457557E-4</v>
+        <v>-1.2209317477868912E-4</v>
       </c>
       <c r="AL20">
-        <v>-1.1772439915232712E-4</v>
-      </c>
-      <c r="AM20">
-        <v>-1.290422234345636E-4</v>
-      </c>
-      <c r="AN20">
-        <v>-2.9907257925898371E-4</v>
-      </c>
-      <c r="AO20">
-        <v>-6.6060392209243649E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-5.8538658144997322E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B21">
-        <v>0.13101626182835324</v>
+        <v>6.5108250382756042E-2</v>
       </c>
       <c r="C21">
-        <v>1.9739422648162523E-5</v>
+        <v>6.5722503032915796E-6</v>
       </c>
       <c r="D21">
-        <v>1.3216324787917061E-4</v>
+        <v>1.2780146499668304E-4</v>
       </c>
       <c r="E21">
-        <v>8.1291956677499635E-5</v>
+        <v>-6.4739376361626724E-6</v>
       </c>
       <c r="F21">
-        <v>6.7280920436992961E-5</v>
+        <v>2.3476469975217818E-5</v>
       </c>
       <c r="G21">
-        <v>1.0687397718766505E-5</v>
+        <v>-2.4383808960596237E-5</v>
       </c>
       <c r="H21">
-        <v>-5.0031104519488709E-5</v>
+        <v>-5.7855839325854987E-5</v>
       </c>
       <c r="I21">
-        <v>-9.3621419228641822E-5</v>
+        <v>-5.2839274934761725E-5</v>
       </c>
       <c r="J21">
-        <v>-3.5582828384018159E-5</v>
+        <v>8.5585241117652267E-6</v>
       </c>
       <c r="K21">
-        <v>-1.0943757668387707E-4</v>
+        <v>-1.5713832990547541E-5</v>
       </c>
       <c r="L21">
-        <v>-5.7489079110031058E-6</v>
+        <v>-3.3735477817800689E-4</v>
       </c>
       <c r="M21">
-        <v>-2.7420832400281155E-5</v>
+        <v>5.8695104137357909E-3</v>
       </c>
       <c r="N21">
-        <v>4.9592917454924236E-6</v>
+        <v>5.9625624740118118E-3</v>
       </c>
       <c r="O21">
-        <v>-3.6308868036133473E-4</v>
+        <v>6.0407321764493213E-3</v>
       </c>
       <c r="P21">
-        <v>6.7174308499551375E-3</v>
+        <v>6.0822547533054099E-3</v>
       </c>
       <c r="Q21">
-        <v>6.817976706837113E-3</v>
+        <v>6.0962357233302622E-3</v>
       </c>
       <c r="R21">
-        <v>6.8947734634128106E-3</v>
+        <v>6.1044614229642151E-3</v>
       </c>
       <c r="S21">
-        <v>6.9393846447207029E-3</v>
+        <v>6.1139267291662738E-3</v>
       </c>
       <c r="T21">
-        <v>6.9493924566269875E-3</v>
+        <v>6.105085049905026E-3</v>
       </c>
       <c r="U21">
-        <v>6.9550752887284524E-3</v>
+        <v>6.1039531675146086E-3</v>
       </c>
       <c r="V21">
-        <v>7.5189026970973426E-3</v>
+        <v>6.7231953508767525E-3</v>
       </c>
       <c r="W21">
-        <v>6.9679139350666674E-3</v>
+        <v>6.1034011876384686E-3</v>
       </c>
       <c r="X21">
-        <v>6.9542525832066247E-3</v>
+        <v>6.0903935925597005E-3</v>
       </c>
       <c r="Y21">
-        <v>6.9513591343995755E-3</v>
+        <v>6.1026582337538769E-3</v>
       </c>
       <c r="Z21">
-        <v>6.9218618719752989E-3</v>
+        <v>6.0623976086980275E-3</v>
       </c>
       <c r="AA21">
-        <v>6.8879982371842343E-3</v>
+        <v>2.7536809736893953E-5</v>
       </c>
       <c r="AB21">
-        <v>6.8951446427279739E-3</v>
+        <v>4.4242982727133286E-5</v>
       </c>
       <c r="AC21">
-        <v>6.8511556623863891E-3</v>
+        <v>1.7252189772147802E-6</v>
       </c>
       <c r="AD21">
-        <v>-4.1039111906021218E-5</v>
+        <v>-2.1507480662290388E-5</v>
       </c>
       <c r="AE21">
-        <v>6.9126739936022693E-5</v>
+        <v>2.8836073695540304E-5</v>
       </c>
       <c r="AF21">
-        <v>1.7019173944372639E-5</v>
+        <v>1.4322779242852742E-5</v>
       </c>
       <c r="AG21">
-        <v>-6.2120006060586205E-6</v>
+        <v>-4.3875859525250856E-5</v>
       </c>
       <c r="AH21">
-        <v>-8.3685129459399807E-6</v>
+        <v>9.7619815447140545E-6</v>
       </c>
       <c r="AI21">
-        <v>5.3255443904834648E-5</v>
+        <v>-6.9112773333095991E-6</v>
       </c>
       <c r="AJ21">
-        <v>-4.6493664767607813E-5</v>
+        <v>1.9381030988164898E-5</v>
       </c>
       <c r="AK21">
-        <v>1.6355415527878831E-5</v>
+        <v>-7.9474786074093355E-5</v>
       </c>
       <c r="AL21">
-        <v>-3.076864074013589E-6</v>
-      </c>
-      <c r="AM21">
-        <v>-3.4835736500412728E-5</v>
-      </c>
-      <c r="AN21">
-        <v>-1.9008205042857131E-4</v>
-      </c>
-      <c r="AO21">
-        <v>-6.6927097713156318E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-5.8964600033803213E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B22">
-        <v>8.4885355480177685E-2</v>
+        <v>6.8036194293389168E-2</v>
       </c>
       <c r="C22">
-        <v>1.7443215104446091E-5</v>
+        <v>5.0865915059098571E-6</v>
       </c>
       <c r="D22">
-        <v>1.3251459649100063E-4</v>
+        <v>1.2373234067029399E-4</v>
       </c>
       <c r="E22">
-        <v>6.862607818302241E-5</v>
+        <v>-4.2708284011536808E-5</v>
       </c>
       <c r="F22">
-        <v>7.8915741044519868E-5</v>
+        <v>3.8017867680040148E-5</v>
       </c>
       <c r="G22">
-        <v>2.8593705583485372E-5</v>
+        <v>-2.9263412332720913E-5</v>
       </c>
       <c r="H22">
-        <v>-1.110192297741432E-5</v>
+        <v>-4.7208212009531376E-5</v>
       </c>
       <c r="I22">
-        <v>-5.3749137903839162E-5</v>
+        <v>-3.4548824344598681E-5</v>
       </c>
       <c r="J22">
-        <v>-1.6799965544789209E-5</v>
+        <v>5.4014684294744771E-5</v>
       </c>
       <c r="K22">
-        <v>-9.554690160654952E-5</v>
+        <v>5.8145745972068981E-5</v>
       </c>
       <c r="L22">
-        <v>-1.4818667361237282E-5</v>
+        <v>-2.8639747823325104E-4</v>
       </c>
       <c r="M22">
-        <v>-3.3939198112318408E-5</v>
+        <v>5.8657623780882552E-3</v>
       </c>
       <c r="N22">
-        <v>-2.4309172909139396E-5</v>
+        <v>5.9478913947915522E-3</v>
       </c>
       <c r="O22">
-        <v>-3.6332497790435655E-4</v>
+        <v>6.0199533995589968E-3</v>
       </c>
       <c r="P22">
-        <v>6.7129802174192271E-3</v>
+        <v>6.0600510764406562E-3</v>
       </c>
       <c r="Q22">
-        <v>6.8118466614705787E-3</v>
+        <v>6.070116653206367E-3</v>
       </c>
       <c r="R22">
-        <v>6.8902041771914582E-3</v>
+        <v>6.078054068924239E-3</v>
       </c>
       <c r="S22">
-        <v>6.9351305025412719E-3</v>
+        <v>6.0837463657934772E-3</v>
       </c>
       <c r="T22">
-        <v>6.9483054082128525E-3</v>
+        <v>6.0760488279934469E-3</v>
       </c>
       <c r="U22">
-        <v>6.9534087221373884E-3</v>
+        <v>6.0811076695744372E-3</v>
       </c>
       <c r="V22">
-        <v>6.9679139350666674E-3</v>
+        <v>6.1034011876384686E-3</v>
       </c>
       <c r="W22">
-        <v>7.4318014291168593E-3</v>
+        <v>6.936784883210036E-3</v>
       </c>
       <c r="X22">
-        <v>6.9529173387647934E-3</v>
+        <v>6.0999392602641422E-3</v>
       </c>
       <c r="Y22">
-        <v>6.9514662608525573E-3</v>
+        <v>6.1182371379110614E-3</v>
       </c>
       <c r="Z22">
-        <v>6.9213956527810067E-3</v>
+        <v>6.0839973616340611E-3</v>
       </c>
       <c r="AA22">
-        <v>6.8858915353786397E-3</v>
+        <v>-3.3400242978943225E-5</v>
       </c>
       <c r="AB22">
-        <v>6.8920298886215123E-3</v>
+        <v>-4.0607299077216781E-6</v>
       </c>
       <c r="AC22">
-        <v>6.843830176402237E-3</v>
+        <v>-5.3526236041521753E-5</v>
       </c>
       <c r="AD22">
-        <v>-5.2899266603383815E-5</v>
+        <v>-5.9787758238587316E-5</v>
       </c>
       <c r="AE22">
-        <v>3.4762490487061587E-5</v>
+        <v>-4.4248457977633235E-5</v>
       </c>
       <c r="AF22">
-        <v>-9.1372503788615146E-6</v>
+        <v>-4.6477020848544525E-5</v>
       </c>
       <c r="AG22">
-        <v>-9.0127429190356174E-6</v>
+        <v>-9.0785595506986407E-5</v>
       </c>
       <c r="AH22">
-        <v>1.2493316245851911E-5</v>
+        <v>-4.7475249192583399E-5</v>
       </c>
       <c r="AI22">
-        <v>4.9722043313101677E-5</v>
+        <v>-7.724960197661758E-5</v>
       </c>
       <c r="AJ22">
-        <v>-6.6249822653996135E-5</v>
+        <v>-4.3639648146176317E-5</v>
       </c>
       <c r="AK22">
-        <v>-5.4855338264304943E-6</v>
+        <v>-1.2374447730116242E-4</v>
       </c>
       <c r="AL22">
-        <v>-2.2266228262664365E-5</v>
-      </c>
-      <c r="AM22">
-        <v>-4.8893330226659759E-5</v>
-      </c>
-      <c r="AN22">
-        <v>-1.8596595544597468E-4</v>
-      </c>
-      <c r="AO22">
-        <v>-6.6902432108077777E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-5.9235372899932148E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B23">
-        <v>5.4492780145091166E-2</v>
+        <v>7.1242830408701385E-2</v>
       </c>
       <c r="C23">
-        <v>6.4954863972335706E-6</v>
+        <v>-1.072608192535742E-5</v>
       </c>
       <c r="D23">
-        <v>1.4056047491092981E-4</v>
+        <v>1.1475072728519822E-4</v>
       </c>
       <c r="E23">
-        <v>4.3510453453369114E-5</v>
+        <v>-5.4025033599901499E-5</v>
       </c>
       <c r="F23">
-        <v>6.4779359149427914E-5</v>
+        <v>4.4798821974241412E-5</v>
       </c>
       <c r="G23">
-        <v>5.4565949788926344E-6</v>
+        <v>-8.8861626378133283E-6</v>
       </c>
       <c r="H23">
-        <v>-3.4063996303112902E-5</v>
+        <v>-1.9943734058301715E-5</v>
       </c>
       <c r="I23">
-        <v>-7.2446228442180636E-5</v>
+        <v>-1.3066192050126941E-5</v>
       </c>
       <c r="J23">
-        <v>-1.3532524650789791E-5</v>
+        <v>9.7406643930732895E-5</v>
       </c>
       <c r="K23">
-        <v>-6.7603530339147445E-5</v>
+        <v>1.6707449833265294E-4</v>
       </c>
       <c r="L23">
-        <v>-3.3883149320507633E-6</v>
+        <v>-2.4508003523201268E-4</v>
       </c>
       <c r="M23">
-        <v>-1.2549747904863791E-5</v>
+        <v>5.8633246319656374E-3</v>
       </c>
       <c r="N23">
-        <v>-1.5450420766438655E-5</v>
+        <v>5.9378455410204626E-3</v>
       </c>
       <c r="O23">
-        <v>-3.3586080898909631E-4</v>
+        <v>6.001527262899274E-3</v>
       </c>
       <c r="P23">
-        <v>6.7133277368704343E-3</v>
+        <v>6.0408206562049269E-3</v>
       </c>
       <c r="Q23">
-        <v>6.8081087188970654E-3</v>
+        <v>6.0474935616635448E-3</v>
       </c>
       <c r="R23">
-        <v>6.8825997488814843E-3</v>
+        <v>6.0525180442519873E-3</v>
       </c>
       <c r="S23">
-        <v>6.9249383558351446E-3</v>
+        <v>6.0575983803554121E-3</v>
       </c>
       <c r="T23">
-        <v>6.9349939832460822E-3</v>
+        <v>6.0497404045353935E-3</v>
       </c>
       <c r="U23">
-        <v>6.9425153828889218E-3</v>
+        <v>6.0585295396394911E-3</v>
       </c>
       <c r="V23">
-        <v>6.9542525832066247E-3</v>
+        <v>6.0903935925597005E-3</v>
       </c>
       <c r="W23">
-        <v>6.9529173387647934E-3</v>
+        <v>6.0999392602641422E-3</v>
       </c>
       <c r="X23">
-        <v>7.4097246771751869E-3</v>
+        <v>7.6393239830604047E-3</v>
       </c>
       <c r="Y23">
-        <v>6.9479543378585373E-3</v>
+        <v>6.1395874324403797E-3</v>
       </c>
       <c r="Z23">
-        <v>6.9252290635534236E-3</v>
+        <v>6.1128099100776221E-3</v>
       </c>
       <c r="AA23">
-        <v>6.8952325792703984E-3</v>
+        <v>-3.3440726624832601E-5</v>
       </c>
       <c r="AB23">
-        <v>6.903225911116073E-3</v>
+        <v>3.4215161545430662E-5</v>
       </c>
       <c r="AC23">
-        <v>6.8620048838805171E-3</v>
+        <v>-2.1007454220208725E-5</v>
       </c>
       <c r="AD23">
-        <v>-5.4672494482018233E-5</v>
+        <v>-4.2012718808210345E-5</v>
       </c>
       <c r="AE23">
-        <v>8.8256022687668249E-6</v>
+        <v>-1.6296850517966447E-5</v>
       </c>
       <c r="AF23">
-        <v>-2.1916050019532649E-5</v>
+        <v>-6.2560028887327125E-6</v>
       </c>
       <c r="AG23">
-        <v>-3.1965373383153724E-5</v>
+        <v>-5.5667962260392049E-5</v>
       </c>
       <c r="AH23">
-        <v>-1.762398240686032E-5</v>
+        <v>-3.5728840650074353E-5</v>
       </c>
       <c r="AI23">
-        <v>2.778694492369259E-5</v>
+        <v>-7.6209902073230175E-5</v>
       </c>
       <c r="AJ23">
-        <v>-8.8261464397059288E-5</v>
+        <v>-3.0005399269186772E-5</v>
       </c>
       <c r="AK23">
-        <v>-3.7009169630959626E-5</v>
+        <v>-1.0299098100214916E-4</v>
       </c>
       <c r="AL23">
-        <v>-4.4647413268617767E-5</v>
-      </c>
-      <c r="AM23">
-        <v>-5.2859780459403854E-5</v>
-      </c>
-      <c r="AN23">
-        <v>-1.9575586079618405E-4</v>
-      </c>
-      <c r="AO23">
-        <v>-6.6913464370849194E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-6.0532994874101277E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B24">
-        <v>-2.2334901693205643E-2</v>
+        <v>6.7698844165096403E-2</v>
       </c>
       <c r="C24">
-        <v>-7.8910449060608538E-6</v>
+        <v>4.1960199330861284E-6</v>
       </c>
       <c r="D24">
-        <v>1.2909958448030157E-4</v>
+        <v>1.2582942074605057E-4</v>
       </c>
       <c r="E24">
-        <v>-5.2030410584556915E-6</v>
+        <v>-7.4156437783404064E-5</v>
       </c>
       <c r="F24">
-        <v>5.9096266510937578E-5</v>
+        <v>3.4282349388339185E-5</v>
       </c>
       <c r="G24">
-        <v>6.6047404676187593E-6</v>
+        <v>-2.8640985603851487E-5</v>
       </c>
       <c r="H24">
-        <v>-3.5163163153329173E-5</v>
+        <v>-9.7186430515772569E-5</v>
       </c>
       <c r="I24">
-        <v>-1.9077461461831631E-5</v>
+        <v>-3.5411665043035904E-5</v>
       </c>
       <c r="J24">
-        <v>1.8070783804134411E-5</v>
+        <v>1.4799416617854223E-4</v>
       </c>
       <c r="K24">
-        <v>-7.8731760826875313E-6</v>
+        <v>1.92078480321169E-4</v>
       </c>
       <c r="L24">
-        <v>1.0680559523196709E-5</v>
+        <v>-2.3736718928134444E-4</v>
       </c>
       <c r="M24">
-        <v>-1.5670013907829496E-6</v>
+        <v>5.8636515543524703E-3</v>
       </c>
       <c r="N24">
-        <v>-1.4205752601244512E-5</v>
+        <v>5.9393927308276657E-3</v>
       </c>
       <c r="O24">
-        <v>-3.3889798001293615E-4</v>
+        <v>6.006166070334577E-3</v>
       </c>
       <c r="P24">
-        <v>6.7072198525310357E-3</v>
+        <v>6.0459189364459685E-3</v>
       </c>
       <c r="Q24">
-        <v>6.8038111603297077E-3</v>
+        <v>6.0521755180406788E-3</v>
       </c>
       <c r="R24">
-        <v>6.8812878786016565E-3</v>
+        <v>6.0580399756686902E-3</v>
       </c>
       <c r="S24">
-        <v>6.9198917528927092E-3</v>
+        <v>6.0636296895159418E-3</v>
       </c>
       <c r="T24">
-        <v>6.9321025001645026E-3</v>
+        <v>6.0557725411971653E-3</v>
       </c>
       <c r="U24">
-        <v>6.9389844242465932E-3</v>
+        <v>6.0666233406864098E-3</v>
       </c>
       <c r="V24">
-        <v>6.9513591343995755E-3</v>
+        <v>6.1026582337538769E-3</v>
       </c>
       <c r="W24">
-        <v>6.9514662608525573E-3</v>
+        <v>6.1182371379110614E-3</v>
       </c>
       <c r="X24">
-        <v>6.9479543378585373E-3</v>
+        <v>6.1395874324403797E-3</v>
       </c>
       <c r="Y24">
-        <v>7.5432600034525711E-3</v>
+        <v>8.9456709161198408E-3</v>
       </c>
       <c r="Z24">
-        <v>6.9468480997151192E-3</v>
+        <v>6.1414521797574098E-3</v>
       </c>
       <c r="AA24">
-        <v>6.9256157332376958E-3</v>
+        <v>-5.4935412306050943E-5</v>
       </c>
       <c r="AB24">
-        <v>6.9385335188750022E-3</v>
+        <v>5.0519332603969928E-5</v>
       </c>
       <c r="AC24">
-        <v>6.8982837953797576E-3</v>
+        <v>-2.2089820623792536E-5</v>
       </c>
       <c r="AD24">
-        <v>-1.859723735389107E-5</v>
+        <v>-3.9350534931392213E-5</v>
       </c>
       <c r="AE24">
-        <v>2.544980457545973E-5</v>
+        <v>-6.0841791171073814E-6</v>
       </c>
       <c r="AF24">
-        <v>4.7600336689789836E-6</v>
+        <v>-2.0310576432162799E-5</v>
       </c>
       <c r="AG24">
-        <v>-2.2898999862305727E-5</v>
+        <v>-1.0180930657896449E-4</v>
       </c>
       <c r="AH24">
-        <v>2.5661318602921779E-5</v>
+        <v>-3.9974084031248018E-5</v>
       </c>
       <c r="AI24">
-        <v>2.2423539499643675E-5</v>
+        <v>-7.9212912256858108E-5</v>
       </c>
       <c r="AJ24">
-        <v>-8.3319893456906E-5</v>
+        <v>-2.2734839988509253E-5</v>
       </c>
       <c r="AK24">
-        <v>-3.0089354062483612E-5</v>
+        <v>-8.1766096958656859E-5</v>
       </c>
       <c r="AL24">
-        <v>-1.3970592144507774E-5</v>
-      </c>
-      <c r="AM24">
-        <v>-3.9662873757314969E-6</v>
-      </c>
-      <c r="AN24">
-        <v>-1.5691112430641415E-4</v>
-      </c>
-      <c r="AO24">
-        <v>-6.7466289349769389E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-6.0712196808524075E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>279</v>
+        <v>142</v>
       </c>
       <c r="B25">
-        <v>4.9472913034134579E-3</v>
+        <v>-7.2208296510200498E-2</v>
       </c>
       <c r="C25">
-        <v>-5.0694139026066348E-6</v>
+        <v>-1.297676505022334E-5</v>
       </c>
       <c r="D25">
-        <v>1.2116753790899657E-4</v>
+        <v>7.0720489417369167E-5</v>
       </c>
       <c r="E25">
-        <v>-3.97191435230144E-5</v>
+        <v>-1.3718747143861437E-4</v>
       </c>
       <c r="F25">
-        <v>7.016455949135372E-5</v>
+        <v>4.7010511961930517E-5</v>
       </c>
       <c r="G25">
-        <v>-2.5354517855670348E-6</v>
+        <v>-7.2460439118886429E-6</v>
       </c>
       <c r="H25">
-        <v>-2.3805366417291968E-5</v>
+        <v>-7.3797130092237504E-5</v>
       </c>
       <c r="I25">
-        <v>-1.659180639559211E-5</v>
+        <v>-1.0288963324650417E-5</v>
       </c>
       <c r="J25">
-        <v>5.466697698846762E-5</v>
+        <v>1.0414783804653485E-4</v>
       </c>
       <c r="K25">
-        <v>4.1568681700113695E-5</v>
+        <v>2.005566033438495E-4</v>
       </c>
       <c r="L25">
-        <v>-1.5256576082400429E-5</v>
+        <v>-1.9386569327469575E-4</v>
       </c>
       <c r="M25">
-        <v>6.3021146752113518E-6</v>
+        <v>5.8471690759331471E-3</v>
       </c>
       <c r="N25">
-        <v>1.1606599078065261E-5</v>
+        <v>5.9121304011534705E-3</v>
       </c>
       <c r="O25">
-        <v>-2.9079755055759645E-4</v>
+        <v>5.970935068996569E-3</v>
       </c>
       <c r="P25">
-        <v>6.7055435185034012E-3</v>
+        <v>6.0034968848296181E-3</v>
       </c>
       <c r="Q25">
-        <v>6.7925655881332083E-3</v>
+        <v>6.0084703285204419E-3</v>
       </c>
       <c r="R25">
-        <v>6.8588343092964117E-3</v>
+        <v>6.015331372995811E-3</v>
       </c>
       <c r="S25">
-        <v>6.8984645962977299E-3</v>
+        <v>6.0187982738154561E-3</v>
       </c>
       <c r="T25">
-        <v>6.9052717472039369E-3</v>
+        <v>6.009442199065968E-3</v>
       </c>
       <c r="U25">
-        <v>6.913940121763917E-3</v>
+        <v>6.0238768229958972E-3</v>
       </c>
       <c r="V25">
-        <v>6.9218618719752989E-3</v>
+        <v>6.0623976086980275E-3</v>
       </c>
       <c r="W25">
-        <v>6.9213956527810067E-3</v>
+        <v>6.0839973616340611E-3</v>
       </c>
       <c r="X25">
-        <v>6.9252290635534236E-3</v>
+        <v>6.1128099100776221E-3</v>
       </c>
       <c r="Y25">
-        <v>6.9468480997151192E-3</v>
+        <v>6.1414521797574098E-3</v>
       </c>
       <c r="Z25">
-        <v>7.7264675190022725E-3</v>
+        <v>1.179246387783037E-2</v>
       </c>
       <c r="AA25">
-        <v>6.9390077904333668E-3</v>
+        <v>-5.4160388113137043E-5</v>
       </c>
       <c r="AB25">
-        <v>6.9578927970186388E-3</v>
+        <v>6.6368744053861301E-5</v>
       </c>
       <c r="AC25">
-        <v>6.9297176625118988E-3</v>
+        <v>1.283601683972754E-6</v>
       </c>
       <c r="AD25">
-        <v>-8.3602903760224105E-5</v>
+        <v>-8.1768329883727398E-5</v>
       </c>
       <c r="AE25">
-        <v>-2.9258294910894204E-5</v>
+        <v>-5.229262897347574E-5</v>
       </c>
       <c r="AF25">
-        <v>-5.0734023030193833E-5</v>
+        <v>-4.3635285962384616E-5</v>
       </c>
       <c r="AG25">
-        <v>-6.7889210753624852E-5</v>
+        <v>-8.7150471015057717E-5</v>
       </c>
       <c r="AH25">
-        <v>-5.737907697502681E-5</v>
+        <v>-4.881139540414514E-5</v>
       </c>
       <c r="AI25">
-        <v>-4.1751554751961193E-5</v>
+        <v>-6.3719058524857111E-5</v>
       </c>
       <c r="AJ25">
-        <v>-1.3696937454103016E-4</v>
+        <v>-2.411979571316893E-5</v>
       </c>
       <c r="AK25">
-        <v>-9.142374794049511E-5</v>
+        <v>-7.5231648775936875E-5</v>
       </c>
       <c r="AL25">
-        <v>-9.0425890137879085E-5</v>
-      </c>
-      <c r="AM25">
-        <v>-7.2980745665608953E-5</v>
-      </c>
-      <c r="AN25">
-        <v>-2.0309943825120007E-4</v>
-      </c>
-      <c r="AO25">
-        <v>-6.7538619149704049E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-6.0317558393695441E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>5.8111993479681243E-3</v>
+        <v>0.13317982158680947</v>
       </c>
       <c r="C26">
-        <v>-2.2146109745456708E-5</v>
+        <v>4.1895611971410624E-5</v>
       </c>
       <c r="D26">
-        <v>1.1439807818424383E-4</v>
+        <v>-3.5865346186383511E-5</v>
       </c>
       <c r="E26">
-        <v>-4.7180522230451339E-5</v>
+        <v>-3.3325525080037701E-5</v>
       </c>
       <c r="F26">
-        <v>8.178337696414966E-5</v>
+        <v>6.7026244445761028E-6</v>
       </c>
       <c r="G26">
-        <v>1.9893202516052451E-5</v>
+        <v>-6.9154857394571447E-6</v>
       </c>
       <c r="H26">
-        <v>-6.7019316606371359E-6</v>
+        <v>-1.1536824511295996E-5</v>
       </c>
       <c r="I26">
-        <v>1.3398781764351763E-5</v>
+        <v>-6.3802271020847701E-5</v>
       </c>
       <c r="J26">
-        <v>8.6910538913637409E-5</v>
+        <v>-4.5888002681759388E-5</v>
       </c>
       <c r="K26">
-        <v>1.2593047302307151E-4</v>
+        <v>1.5622385674930598E-5</v>
       </c>
       <c r="L26">
-        <v>-2.9753691256563422E-5</v>
+        <v>-4.6746611215854082E-5</v>
       </c>
       <c r="M26">
-        <v>2.6745884673440166E-5</v>
+        <v>1.5839668875595883E-5</v>
       </c>
       <c r="N26">
-        <v>2.7988452144810047E-5</v>
+        <v>8.1179028431592167E-5</v>
       </c>
       <c r="O26">
-        <v>-2.4488224983058854E-4</v>
+        <v>6.4837823162139244E-5</v>
       </c>
       <c r="P26">
-        <v>6.7018618762117385E-3</v>
+        <v>-1.4590819943706987E-5</v>
       </c>
       <c r="Q26">
-        <v>6.7820882650552871E-3</v>
+        <v>-3.3439999677651547E-5</v>
       </c>
       <c r="R26">
-        <v>6.83584967027523E-3</v>
+        <v>-5.6118633127075473E-5</v>
       </c>
       <c r="S26">
-        <v>6.8705580106028282E-3</v>
+        <v>1.2389654499693394E-5</v>
       </c>
       <c r="T26">
-        <v>6.8740346601054566E-3</v>
+        <v>-1.1118653074760785E-5</v>
       </c>
       <c r="U26">
-        <v>6.8814595539928112E-3</v>
+        <v>-1.4321926277451741E-5</v>
       </c>
       <c r="V26">
-        <v>6.8879982371842343E-3</v>
+        <v>2.7536809736893953E-5</v>
       </c>
       <c r="W26">
-        <v>6.8858915353786397E-3</v>
+        <v>-3.3400242978943225E-5</v>
       </c>
       <c r="X26">
-        <v>6.8952325792703984E-3</v>
+        <v>-3.3440726624832601E-5</v>
       </c>
       <c r="Y26">
-        <v>6.9256157332376958E-3</v>
+        <v>-5.4935412306050943E-5</v>
       </c>
       <c r="Z26">
-        <v>6.9390077904333668E-3</v>
+        <v>-5.4160388113137043E-5</v>
       </c>
       <c r="AA26">
-        <v>8.36045463504137E-3</v>
+        <v>2.769869998131687E-3</v>
       </c>
       <c r="AB26">
-        <v>6.9734448178431357E-3</v>
+        <v>1.1219311688358778E-3</v>
       </c>
       <c r="AC26">
-        <v>6.9507686975186951E-3</v>
+        <v>1.1251928404204361E-3</v>
       </c>
       <c r="AD26">
-        <v>-7.9646299840885901E-5</v>
+        <v>1.1199993276707746E-3</v>
       </c>
       <c r="AE26">
-        <v>8.0314129629708176E-6</v>
+        <v>1.1197715830725901E-3</v>
       </c>
       <c r="AF26">
-        <v>-2.6664807809347437E-5</v>
+        <v>1.1216324744284453E-3</v>
       </c>
       <c r="AG26">
-        <v>-4.997078707231822E-5</v>
+        <v>1.1186302524811903E-3</v>
       </c>
       <c r="AH26">
-        <v>-3.9753249938545131E-5</v>
+        <v>1.1214790743064714E-3</v>
       </c>
       <c r="AI26">
-        <v>-3.6534993435319643E-6</v>
+        <v>1.1276435873257781E-3</v>
       </c>
       <c r="AJ26">
-        <v>-9.6803851476706107E-5</v>
+        <v>1.1236278809832159E-3</v>
       </c>
       <c r="AK26">
-        <v>-8.2299854821404721E-5</v>
+        <v>1.1153825038058274E-3</v>
       </c>
       <c r="AL26">
-        <v>-9.1894934763812712E-5</v>
-      </c>
-      <c r="AM26">
-        <v>-5.5917680503072241E-5</v>
-      </c>
-      <c r="AN26">
-        <v>-1.8231477435159266E-4</v>
-      </c>
-      <c r="AO26">
-        <v>-6.8679288157507783E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-1.0730576112658297E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>281</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>2.9404417819576763E-2</v>
+        <v>6.2610376221116079E-2</v>
       </c>
       <c r="C27">
-        <v>-1.3890804440191425E-5</v>
+        <v>2.4563083127241122E-5</v>
       </c>
       <c r="D27">
-        <v>1.1971044314242933E-4</v>
+        <v>-4.8744272756002442E-5</v>
       </c>
       <c r="E27">
-        <v>-7.0626074827390118E-5</v>
+        <v>-7.7909425685264411E-5</v>
       </c>
       <c r="F27">
-        <v>7.8141400970599832E-5</v>
+        <v>2.2818434802474486E-5</v>
       </c>
       <c r="G27">
-        <v>1.1221688685094419E-5</v>
+        <v>3.9807688148138672E-6</v>
       </c>
       <c r="H27">
-        <v>-6.9500952546326113E-5</v>
+        <v>1.4479559712468506E-5</v>
       </c>
       <c r="I27">
-        <v>-1.7306199240575129E-5</v>
+        <v>-1.9905291782433169E-5</v>
       </c>
       <c r="J27">
-        <v>1.0967692805865451E-4</v>
+        <v>-2.9431493566585995E-5</v>
       </c>
       <c r="K27">
-        <v>1.3693032140473448E-4</v>
+        <v>1.3573655437098165E-5</v>
       </c>
       <c r="L27">
-        <v>-5.9047088750350065E-5</v>
+        <v>-5.2984826924853882E-5</v>
       </c>
       <c r="M27">
-        <v>2.4935855694619766E-5</v>
+        <v>6.4696646281498307E-5</v>
       </c>
       <c r="N27">
-        <v>2.5616556798999655E-5</v>
+        <v>6.7974434998796258E-5</v>
       </c>
       <c r="O27">
-        <v>-2.3635809880072819E-4</v>
+        <v>2.0365494746509873E-5</v>
       </c>
       <c r="P27">
-        <v>6.7037939628948632E-3</v>
+        <v>3.380464973773813E-5</v>
       </c>
       <c r="Q27">
-        <v>6.7864234524247693E-3</v>
+        <v>2.0592634159345095E-5</v>
       </c>
       <c r="R27">
-        <v>6.8366736708868926E-3</v>
+        <v>-1.5182163868547073E-5</v>
       </c>
       <c r="S27">
-        <v>6.8757876499291673E-3</v>
+        <v>9.9697615792488118E-5</v>
       </c>
       <c r="T27">
-        <v>6.8785266717655861E-3</v>
+        <v>6.1949857256123238E-5</v>
       </c>
       <c r="U27">
-        <v>6.8871688437416225E-3</v>
+        <v>2.4491550383272777E-5</v>
       </c>
       <c r="V27">
-        <v>6.8951446427279739E-3</v>
+        <v>4.4242982727133286E-5</v>
       </c>
       <c r="W27">
-        <v>6.8920298886215123E-3</v>
+        <v>-4.0607299077216781E-6</v>
       </c>
       <c r="X27">
-        <v>6.903225911116073E-3</v>
+        <v>3.4215161545430662E-5</v>
       </c>
       <c r="Y27">
-        <v>6.9385335188750022E-3</v>
+        <v>5.0519332603969928E-5</v>
       </c>
       <c r="Z27">
-        <v>6.9578927970186388E-3</v>
+        <v>6.6368744053861301E-5</v>
       </c>
       <c r="AA27">
-        <v>6.9734448178431357E-3</v>
+        <v>1.1219311688358778E-3</v>
       </c>
       <c r="AB27">
-        <v>9.6008546655125225E-3</v>
+        <v>1.8300764816786767E-3</v>
       </c>
       <c r="AC27">
-        <v>6.9822170740626221E-3</v>
+        <v>1.1281429623026847E-3</v>
       </c>
       <c r="AD27">
-        <v>-8.5637817085498823E-5</v>
+        <v>1.123631951100251E-3</v>
       </c>
       <c r="AE27">
-        <v>4.6259565030547841E-5</v>
+        <v>1.1223216154019244E-3</v>
       </c>
       <c r="AF27">
-        <v>-8.6098637858162286E-6</v>
+        <v>1.1228083338668338E-3</v>
       </c>
       <c r="AG27">
-        <v>-5.2499850160208847E-5</v>
+        <v>1.1172412922006384E-3</v>
       </c>
       <c r="AH27">
-        <v>-6.4676537931578678E-6</v>
+        <v>1.1225147092230091E-3</v>
       </c>
       <c r="AI27">
-        <v>-1.485981285260997E-5</v>
+        <v>1.1294408230743634E-3</v>
       </c>
       <c r="AJ27">
-        <v>-1.3121946398751694E-4</v>
+        <v>1.1200251764014212E-3</v>
       </c>
       <c r="AK27">
-        <v>-7.9807242094762088E-5</v>
+        <v>1.1189127364203914E-3</v>
       </c>
       <c r="AL27">
-        <v>-8.3080668810981122E-5</v>
-      </c>
-      <c r="AM27">
-        <v>-4.0184702383201047E-5</v>
-      </c>
-      <c r="AN27">
-        <v>-1.5374251134418846E-4</v>
-      </c>
-      <c r="AO27">
-        <v>-6.8811781271164805E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-1.1120526474098728E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>-9.4043368582044845E-2</v>
+        <v>0.19431474474006388</v>
       </c>
       <c r="C28">
-        <v>-1.5514908773648037E-5</v>
+        <v>2.6698893383887932E-5</v>
       </c>
       <c r="D28">
-        <v>5.8309234684501542E-5</v>
+        <v>-6.2099478804501028E-5</v>
       </c>
       <c r="E28">
-        <v>-1.5840829562723568E-4</v>
+        <v>-9.2647272953858676E-5</v>
       </c>
       <c r="F28">
-        <v>1.1150928733364031E-4</v>
+        <v>-9.5726398327173625E-7</v>
       </c>
       <c r="G28">
-        <v>4.3698413445658596E-5</v>
+        <v>-8.6961647629090312E-6</v>
       </c>
       <c r="H28">
-        <v>-2.189300033358341E-5</v>
+        <v>-1.2039917408297615E-5</v>
       </c>
       <c r="I28">
-        <v>4.1730555821247747E-5</v>
+        <v>-5.8221915962594222E-5</v>
       </c>
       <c r="J28">
-        <v>4.6733626353136893E-5</v>
+        <v>-1.9621805420219906E-5</v>
       </c>
       <c r="K28">
-        <v>1.5402798610442413E-4</v>
+        <v>2.608176721894141E-5</v>
       </c>
       <c r="L28">
-        <v>-1.3183571384528612E-5</v>
+        <v>-4.9101194675213819E-5</v>
       </c>
       <c r="M28">
-        <v>8.8640885904370687E-5</v>
+        <v>-4.3022691149492004E-5</v>
       </c>
       <c r="N28">
-        <v>5.6512908829494528E-5</v>
+        <v>1.8328358970698616E-5</v>
       </c>
       <c r="O28">
-        <v>-1.9614300826839261E-4</v>
+        <v>-2.8754242399077349E-5</v>
       </c>
       <c r="P28">
-        <v>6.6905964675597843E-3</v>
+        <v>-4.9596540973027717E-5</v>
       </c>
       <c r="Q28">
-        <v>6.7623124742198244E-3</v>
+        <v>-7.7614983148295135E-6</v>
       </c>
       <c r="R28">
-        <v>6.8015217221381423E-3</v>
+        <v>-7.8339879019963124E-5</v>
       </c>
       <c r="S28">
-        <v>6.8321962732050901E-3</v>
+        <v>2.6503650809273646E-5</v>
       </c>
       <c r="T28">
-        <v>6.8362248801367995E-3</v>
+        <v>-8.023882366666726E-6</v>
       </c>
       <c r="U28">
-        <v>6.8441480277215173E-3</v>
+        <v>-3.3255059647776131E-5</v>
       </c>
       <c r="V28">
-        <v>6.8511556623863891E-3</v>
+        <v>1.7252189772147802E-6</v>
       </c>
       <c r="W28">
-        <v>6.843830176402237E-3</v>
+        <v>-5.3526236041521753E-5</v>
       </c>
       <c r="X28">
-        <v>6.8620048838805171E-3</v>
+        <v>-2.1007454220208725E-5</v>
       </c>
       <c r="Y28">
-        <v>6.8982837953797576E-3</v>
+        <v>-2.2089820623792536E-5</v>
       </c>
       <c r="Z28">
-        <v>6.9297176625118988E-3</v>
+        <v>1.283601683972754E-6</v>
       </c>
       <c r="AA28">
-        <v>6.9507686975186951E-3</v>
+        <v>1.1251928404204361E-3</v>
       </c>
       <c r="AB28">
-        <v>6.9822170740626221E-3</v>
+        <v>1.1281429623026847E-3</v>
       </c>
       <c r="AC28">
-        <v>1.2034121729659248E-2</v>
+        <v>2.0833670787625976E-3</v>
       </c>
       <c r="AD28">
-        <v>-1.3596256267392037E-4</v>
+        <v>1.1263581844386118E-3</v>
       </c>
       <c r="AE28">
-        <v>-2.3394650299748878E-6</v>
+        <v>1.1253894781719526E-3</v>
       </c>
       <c r="AF28">
-        <v>-2.4211715501104656E-5</v>
+        <v>1.1264437201712056E-3</v>
       </c>
       <c r="AG28">
-        <v>-1.2051508284128686E-4</v>
+        <v>1.1179667568719804E-3</v>
       </c>
       <c r="AH28">
-        <v>-8.7629660798891392E-5</v>
+        <v>1.1234846973058965E-3</v>
       </c>
       <c r="AI28">
-        <v>-6.3947574354510529E-5</v>
+        <v>1.135706912645016E-3</v>
       </c>
       <c r="AJ28">
-        <v>-1.7186208697321926E-4</v>
+        <v>1.1227579041725654E-3</v>
       </c>
       <c r="AK28">
-        <v>-1.302714919775873E-4</v>
+        <v>1.1228534505425779E-3</v>
       </c>
       <c r="AL28">
-        <v>-1.0329832664659208E-4</v>
-      </c>
-      <c r="AM28">
-        <v>-7.3489654905059369E-5</v>
-      </c>
-      <c r="AN28">
-        <v>-1.7978693060194308E-4</v>
-      </c>
-      <c r="AO28">
-        <v>-6.8461555642651915E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-1.0380223001176451E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>0.12033438674177652</v>
+        <v>5.6789697771276723E-2</v>
       </c>
       <c r="C29">
-        <v>2.9029459487408784E-5</v>
+        <v>2.0307364416989471E-5</v>
       </c>
       <c r="D29">
-        <v>-1.724876834878963E-5</v>
+        <v>-7.1297879352225779E-5</v>
       </c>
       <c r="E29">
-        <v>-2.1400348378638578E-5</v>
+        <v>-1.0818218040412086E-4</v>
       </c>
       <c r="F29">
-        <v>1.4638323880446745E-5</v>
+        <v>-2.0322323448845479E-5</v>
       </c>
       <c r="G29">
-        <v>-5.918407241907209E-6</v>
+        <v>1.8391609181882328E-6</v>
       </c>
       <c r="H29">
-        <v>-1.034022279351439E-5</v>
+        <v>-8.4408890690740247E-6</v>
       </c>
       <c r="I29">
-        <v>-4.112229011929197E-5</v>
+        <v>-4.5482425751259154E-5</v>
       </c>
       <c r="J29">
-        <v>-7.4333190053408173E-5</v>
+        <v>-3.1860718226186895E-5</v>
       </c>
       <c r="K29">
-        <v>8.0472160791313801E-6</v>
+        <v>-1.4114919690924919E-5</v>
       </c>
       <c r="L29">
-        <v>-2.3810013888702231E-6</v>
+        <v>-2.990358524307222E-5</v>
       </c>
       <c r="M29">
-        <v>-1.3401756188805735E-5</v>
+        <v>8.5873304163548714E-6</v>
       </c>
       <c r="N29">
-        <v>-6.4232655641662971E-6</v>
+        <v>-2.3745596852426569E-5</v>
       </c>
       <c r="O29">
-        <v>-4.3321092615760229E-5</v>
+        <v>3.1940576523996128E-5</v>
       </c>
       <c r="P29">
-        <v>-5.4314095784048413E-5</v>
+        <v>1.3255490499562619E-6</v>
       </c>
       <c r="Q29">
-        <v>3.5525156848673599E-5</v>
+        <v>-2.2475675957935775E-5</v>
       </c>
       <c r="R29">
-        <v>4.5736534248498302E-5</v>
+        <v>-8.5314138535651013E-5</v>
       </c>
       <c r="S29">
-        <v>-6.3825726180137933E-5</v>
+        <v>1.2400262607724496E-5</v>
       </c>
       <c r="T29">
-        <v>-8.2957926126556994E-5</v>
+        <v>-2.5530360027782063E-6</v>
       </c>
       <c r="U29">
-        <v>-9.6951215426513502E-5</v>
+        <v>-3.4946143434759838E-5</v>
       </c>
       <c r="V29">
-        <v>-4.1039111906021218E-5</v>
+        <v>-2.1507480662290388E-5</v>
       </c>
       <c r="W29">
-        <v>-5.2899266603383815E-5</v>
+        <v>-5.9787758238587316E-5</v>
       </c>
       <c r="X29">
-        <v>-5.4672494482018233E-5</v>
+        <v>-4.2012718808210345E-5</v>
       </c>
       <c r="Y29">
-        <v>-1.859723735389107E-5</v>
+        <v>-3.9350534931392213E-5</v>
       </c>
       <c r="Z29">
-        <v>-8.3602903760224105E-5</v>
+        <v>-8.1768329883727398E-5</v>
       </c>
       <c r="AA29">
-        <v>-7.9646299840885901E-5</v>
+        <v>1.1199993276707746E-3</v>
       </c>
       <c r="AB29">
-        <v>-8.5637817085498823E-5</v>
+        <v>1.123631951100251E-3</v>
       </c>
       <c r="AC29">
-        <v>-1.3596256267392037E-4</v>
+        <v>1.1263581844386118E-3</v>
       </c>
       <c r="AD29">
-        <v>2.782841983547777E-3</v>
+        <v>1.9868045761816133E-3</v>
       </c>
       <c r="AE29">
-        <v>1.1450587093623805E-3</v>
+        <v>1.1228222882091676E-3</v>
       </c>
       <c r="AF29">
-        <v>1.1469644170291177E-3</v>
+        <v>1.1285653549424754E-3</v>
       </c>
       <c r="AG29">
-        <v>1.1409228278829772E-3</v>
+        <v>1.120759793446233E-3</v>
       </c>
       <c r="AH29">
-        <v>1.1432880495799598E-3</v>
+        <v>1.1214248087913293E-3</v>
       </c>
       <c r="AI29">
-        <v>1.1460450013897972E-3</v>
+        <v>1.1320248068052902E-3</v>
       </c>
       <c r="AJ29">
-        <v>1.1425284270238925E-3</v>
+        <v>1.1251790477818748E-3</v>
       </c>
       <c r="AK29">
-        <v>1.1445149138899695E-3</v>
+        <v>1.1203402522726776E-3</v>
       </c>
       <c r="AL29">
-        <v>1.1505033756377923E-3</v>
-      </c>
-      <c r="AM29">
-        <v>1.1461135032911946E-3</v>
-      </c>
-      <c r="AN29">
-        <v>1.1392806297676559E-3</v>
-      </c>
-      <c r="AO29">
-        <v>-1.0542385529553723E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-1.0020773361826343E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>5.831261400886318E-2</v>
+        <v>-6.986227772411078E-3</v>
       </c>
       <c r="C30">
-        <v>1.3857636970194617E-5</v>
+        <v>1.7350054166062167E-5</v>
       </c>
       <c r="D30">
-        <v>-3.4992357467633015E-5</v>
+        <v>-5.1099349167855145E-5</v>
       </c>
       <c r="E30">
-        <v>-6.5419978005751462E-5</v>
+        <v>-8.5133631346100209E-5</v>
       </c>
       <c r="F30">
-        <v>3.0657752426798752E-5</v>
+        <v>-1.1783894104481959E-5</v>
       </c>
       <c r="G30">
-        <v>2.4307677194023618E-6</v>
+        <v>-1.3820307372798194E-5</v>
       </c>
       <c r="H30">
-        <v>1.3627625655111483E-5</v>
+        <v>-8.1633472585186759E-6</v>
       </c>
       <c r="I30">
-        <v>-1.0604933116556593E-5</v>
+        <v>-4.0873635151258628E-5</v>
       </c>
       <c r="J30">
-        <v>-6.2224838059657498E-5</v>
+        <v>-4.9951532596741486E-5</v>
       </c>
       <c r="K30">
-        <v>-4.6932290089080867E-6</v>
+        <v>-1.493553846566834E-5</v>
       </c>
       <c r="L30">
-        <v>-3.1556796350655308E-6</v>
+        <v>-4.5333669054373787E-5</v>
       </c>
       <c r="M30">
-        <v>-9.2472344016337246E-7</v>
+        <v>2.2697700632362365E-5</v>
       </c>
       <c r="N30">
-        <v>1.4316973254483281E-5</v>
+        <v>2.0383822375185431E-5</v>
       </c>
       <c r="O30">
-        <v>-5.9596256773586236E-5</v>
+        <v>-3.316514388268391E-5</v>
       </c>
       <c r="P30">
-        <v>4.1277681184296406E-5</v>
+        <v>-2.6822905580136834E-5</v>
       </c>
       <c r="Q30">
-        <v>6.6613378061161676E-5</v>
+        <v>-7.5625369853771912E-6</v>
       </c>
       <c r="R30">
-        <v>1.60820390921895E-5</v>
+        <v>-7.6958993259397925E-5</v>
       </c>
       <c r="S30">
-        <v>1.3169155475612794E-6</v>
+        <v>1.442786270844528E-5</v>
       </c>
       <c r="T30">
-        <v>-1.470570870660149E-7</v>
+        <v>3.2406161428316258E-5</v>
       </c>
       <c r="U30">
-        <v>-4.8062987721451912E-5</v>
+        <v>-7.5328025328808435E-6</v>
       </c>
       <c r="V30">
-        <v>6.9126739936022693E-5</v>
+        <v>2.8836073695540304E-5</v>
       </c>
       <c r="W30">
-        <v>3.4762490487061587E-5</v>
+        <v>-4.4248457977633235E-5</v>
       </c>
       <c r="X30">
-        <v>8.8256022687668249E-6</v>
+        <v>-1.6296850517966447E-5</v>
       </c>
       <c r="Y30">
-        <v>2.544980457545973E-5</v>
+        <v>-6.0841791171073814E-6</v>
       </c>
       <c r="Z30">
-        <v>-2.9258294910894204E-5</v>
+        <v>-5.229262897347574E-5</v>
       </c>
       <c r="AA30">
-        <v>8.0314129629708176E-6</v>
+        <v>1.1197715830725901E-3</v>
       </c>
       <c r="AB30">
-        <v>4.6259565030547841E-5</v>
+        <v>1.1223216154019244E-3</v>
       </c>
       <c r="AC30">
-        <v>-2.3394650299748878E-6</v>
+        <v>1.1253894781719526E-3</v>
       </c>
       <c r="AD30">
-        <v>1.1450587093623805E-3</v>
+        <v>1.1228222882091676E-3</v>
       </c>
       <c r="AE30">
-        <v>1.8498977232985702E-3</v>
+        <v>1.9219909596834433E-3</v>
       </c>
       <c r="AF30">
-        <v>1.1480686719889893E-3</v>
+        <v>1.1226267597099881E-3</v>
       </c>
       <c r="AG30">
-        <v>1.1419942771192294E-3</v>
+        <v>1.116189075564669E-3</v>
       </c>
       <c r="AH30">
-        <v>1.143976058668888E-3</v>
+        <v>1.1194458806580044E-3</v>
       </c>
       <c r="AI30">
-        <v>1.1453700578295625E-3</v>
+        <v>1.1281139324547914E-3</v>
       </c>
       <c r="AJ30">
-        <v>1.1375486479236682E-3</v>
+        <v>1.1188159415273973E-3</v>
       </c>
       <c r="AK30">
-        <v>1.1446794566203466E-3</v>
+        <v>1.1197993018747406E-3</v>
       </c>
       <c r="AL30">
-        <v>1.1492731326092549E-3</v>
-      </c>
-      <c r="AM30">
-        <v>1.1407385441146885E-3</v>
-      </c>
-      <c r="AN30">
-        <v>1.1395798517450045E-3</v>
-      </c>
-      <c r="AO30">
-        <v>-1.1052489851109408E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-1.0181398901097168E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>0.1933239081502679</v>
+        <v>-0.10954280840304602</v>
       </c>
       <c r="C31">
-        <v>1.4063822162069328E-5</v>
+        <v>1.6683177887779583E-5</v>
       </c>
       <c r="D31">
-        <v>-4.4611377872752386E-5</v>
+        <v>-6.3572706232375159E-5</v>
       </c>
       <c r="E31">
-        <v>-8.6010355132616563E-5</v>
+        <v>-7.9468060711323805E-5</v>
       </c>
       <c r="F31">
-        <v>2.4824500853028706E-6</v>
+        <v>-4.1580664268767045E-6</v>
       </c>
       <c r="G31">
-        <v>-1.2351636956474751E-5</v>
+        <v>4.0792824664784158E-6</v>
       </c>
       <c r="H31">
-        <v>-1.4421980798880456E-5</v>
+        <v>1.7963775977742095E-5</v>
       </c>
       <c r="I31">
-        <v>-5.1180751430895082E-5</v>
+        <v>-3.4747290402491968E-5</v>
       </c>
       <c r="J31">
-        <v>-5.8982671368262184E-5</v>
+        <v>-4.0385746411613764E-5</v>
       </c>
       <c r="K31">
-        <v>-2.7702161649815061E-6</v>
+        <v>-3.0262553701545906E-5</v>
       </c>
       <c r="L31">
-        <v>-9.631832084819195E-6</v>
+        <v>-4.3341007832107661E-5</v>
       </c>
       <c r="M31">
-        <v>2.3757852087961397E-6</v>
+        <v>6.9495348981031936E-5</v>
       </c>
       <c r="N31">
-        <v>1.1783678864973702E-5</v>
+        <v>4.4262541183331429E-5</v>
       </c>
       <c r="O31">
-        <v>-5.4484311483759679E-5</v>
+        <v>3.3323288980428162E-5</v>
       </c>
       <c r="P31">
-        <v>-5.7608325348300175E-5</v>
+        <v>4.2259593868390665E-5</v>
       </c>
       <c r="Q31">
-        <v>6.2310294472739912E-5</v>
+        <v>3.956380535712848E-5</v>
       </c>
       <c r="R31">
-        <v>-9.6870285065625387E-6</v>
+        <v>-5.451957367284474E-5</v>
       </c>
       <c r="S31">
-        <v>-7.9659487510818543E-5</v>
+        <v>5.868631596896612E-5</v>
       </c>
       <c r="T31">
-        <v>-1.2456813286020442E-5</v>
+        <v>4.5825410152214047E-5</v>
       </c>
       <c r="U31">
-        <v>-8.8627858830623999E-5</v>
+        <v>1.2614072848806616E-5</v>
       </c>
       <c r="V31">
-        <v>1.7019173944372639E-5</v>
+        <v>1.4322779242852742E-5</v>
       </c>
       <c r="W31">
-        <v>-9.1372503788615146E-6</v>
+        <v>-4.6477020848544525E-5</v>
       </c>
       <c r="X31">
-        <v>-2.1916050019532649E-5</v>
+        <v>-6.2560028887327125E-6</v>
       </c>
       <c r="Y31">
-        <v>4.7600336689789836E-6</v>
+        <v>-2.0310576432162799E-5</v>
       </c>
       <c r="Z31">
-        <v>-5.0734023030193833E-5</v>
+        <v>-4.3635285962384616E-5</v>
       </c>
       <c r="AA31">
-        <v>-2.6664807809347437E-5</v>
+        <v>1.1216324744284453E-3</v>
       </c>
       <c r="AB31">
-        <v>-8.6098637858162286E-6</v>
+        <v>1.1228083338668338E-3</v>
       </c>
       <c r="AC31">
-        <v>-2.4211715501104656E-5</v>
+        <v>1.1264437201712056E-3</v>
       </c>
       <c r="AD31">
-        <v>1.1469644170291177E-3</v>
+        <v>1.1285653549424754E-3</v>
       </c>
       <c r="AE31">
-        <v>1.1480686719889893E-3</v>
+        <v>1.1226267597099881E-3</v>
       </c>
       <c r="AF31">
-        <v>2.0956732784265936E-3</v>
+        <v>1.9156513679785569E-3</v>
       </c>
       <c r="AG31">
-        <v>1.1439843993897546E-3</v>
+        <v>1.122806331412825E-3</v>
       </c>
       <c r="AH31">
-        <v>1.1454121995842729E-3</v>
+        <v>1.1246321631732919E-3</v>
       </c>
       <c r="AI31">
-        <v>1.1487481609059574E-3</v>
+        <v>1.1280577950638685E-3</v>
       </c>
       <c r="AJ31">
-        <v>1.1375442901259203E-3</v>
+        <v>1.1226600871318897E-3</v>
       </c>
       <c r="AK31">
-        <v>1.1437603448454727E-3</v>
+        <v>1.1146305920659999E-3</v>
       </c>
       <c r="AL31">
-        <v>1.1545783984463951E-3</v>
-      </c>
-      <c r="AM31">
-        <v>1.1416596438188322E-3</v>
-      </c>
-      <c r="AN31">
-        <v>1.1441214164540213E-3</v>
-      </c>
-      <c r="AO31">
-        <v>-1.0405315742779359E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-1.0371425473684984E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>5.2880249542589068E-2</v>
+        <v>-1.9930363233183274E-2</v>
       </c>
       <c r="C32">
-        <v>1.1876428623531856E-5</v>
+        <v>2.9656962507331502E-5</v>
       </c>
       <c r="D32">
-        <v>-5.2896485052297701E-5</v>
+        <v>-2.9571319083766467E-5</v>
       </c>
       <c r="E32">
-        <v>-9.6492516339621853E-5</v>
+        <v>-4.1130630208218755E-5</v>
       </c>
       <c r="F32">
-        <v>-9.6790751687717198E-6</v>
+        <v>1.0286019551872385E-6</v>
       </c>
       <c r="G32">
-        <v>-1.4050640669460886E-7</v>
+        <v>8.9118849254602443E-6</v>
       </c>
       <c r="H32">
-        <v>-1.7474086453416002E-6</v>
+        <v>3.4328311532951861E-5</v>
       </c>
       <c r="I32">
-        <v>-3.2916586479835583E-5</v>
+        <v>-2.1522674375175563E-5</v>
       </c>
       <c r="J32">
-        <v>-5.4035277842179189E-5</v>
+        <v>-5.5561018088449621E-5</v>
       </c>
       <c r="K32">
-        <v>-8.0946140899083125E-6</v>
+        <v>-4.5261030356875473E-5</v>
       </c>
       <c r="L32">
-        <v>2.3593453243999762E-5</v>
+        <v>-4.7388055516834803E-5</v>
       </c>
       <c r="M32">
-        <v>-1.4288092088103252E-6</v>
+        <v>1.3035414574757011E-5</v>
       </c>
       <c r="N32">
-        <v>-8.3479477649951047E-6</v>
+        <v>2.1227486182048253E-5</v>
       </c>
       <c r="O32">
-        <v>-3.0058761620115021E-5</v>
+        <v>2.822970341885599E-6</v>
       </c>
       <c r="P32">
-        <v>-1.792693100554992E-5</v>
+        <v>-1.3864025855921613E-5</v>
       </c>
       <c r="Q32">
-        <v>-2.0776887758497268E-5</v>
+        <v>-9.3358914735760211E-6</v>
       </c>
       <c r="R32">
-        <v>4.907857183413856E-5</v>
+        <v>-6.6199029408025244E-5</v>
       </c>
       <c r="S32">
-        <v>-1.7987215763075499E-5</v>
+        <v>1.2492390749394553E-5</v>
       </c>
       <c r="T32">
-        <v>-2.9097162901490538E-5</v>
+        <v>-1.3282304255387146E-5</v>
       </c>
       <c r="U32">
-        <v>-1.0537139316521018E-4</v>
+        <v>-5.162933347900914E-5</v>
       </c>
       <c r="V32">
-        <v>-6.2120006060586205E-6</v>
+        <v>-4.3875859525250856E-5</v>
       </c>
       <c r="W32">
-        <v>-9.0127429190356174E-6</v>
+        <v>-9.0785595506986407E-5</v>
       </c>
       <c r="X32">
-        <v>-3.1965373383153724E-5</v>
+        <v>-5.5667962260392049E-5</v>
       </c>
       <c r="Y32">
-        <v>-2.2898999862305727E-5</v>
+        <v>-1.0180930657896449E-4</v>
       </c>
       <c r="Z32">
-        <v>-6.7889210753624852E-5</v>
+        <v>-8.7150471015057717E-5</v>
       </c>
       <c r="AA32">
-        <v>-4.997078707231822E-5</v>
+        <v>1.1186302524811903E-3</v>
       </c>
       <c r="AB32">
-        <v>-5.2499850160208847E-5</v>
+        <v>1.1172412922006384E-3</v>
       </c>
       <c r="AC32">
-        <v>-1.2051508284128686E-4</v>
+        <v>1.1179667568719804E-3</v>
       </c>
       <c r="AD32">
-        <v>1.1409228278829772E-3</v>
+        <v>1.120759793446233E-3</v>
       </c>
       <c r="AE32">
-        <v>1.1419942771192294E-3</v>
+        <v>1.116189075564669E-3</v>
       </c>
       <c r="AF32">
-        <v>1.1439843993897546E-3</v>
+        <v>1.122806331412825E-3</v>
       </c>
       <c r="AG32">
-        <v>1.9864164452705778E-3</v>
+        <v>1.772705104700599E-3</v>
       </c>
       <c r="AH32">
-        <v>1.1436931776043695E-3</v>
+        <v>1.1213572051798151E-3</v>
       </c>
       <c r="AI32">
-        <v>1.1500696248701076E-3</v>
+        <v>1.1202761319522676E-3</v>
       </c>
       <c r="AJ32">
-        <v>1.1405188675324672E-3</v>
+        <v>1.1171694884010953E-3</v>
       </c>
       <c r="AK32">
-        <v>1.1419284727973672E-3</v>
+        <v>1.1073780590107429E-3</v>
       </c>
       <c r="AL32">
-        <v>1.151042831903312E-3</v>
-      </c>
-      <c r="AM32">
-        <v>1.1455822348748509E-3</v>
-      </c>
-      <c r="AN32">
-        <v>1.1410612515734117E-3</v>
-      </c>
-      <c r="AO32">
-        <v>-1.0306421706206504E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-1.0087505819091575E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>-1.8531773500195161E-2</v>
+        <v>-7.1125759313288572E-2</v>
       </c>
       <c r="C33">
-        <v>5.7617631373338039E-6</v>
+        <v>3.3684799323053681E-5</v>
       </c>
       <c r="D33">
-        <v>-3.5629651516162655E-5</v>
+        <v>-2.7904118687969686E-5</v>
       </c>
       <c r="E33">
-        <v>-8.12316318080274E-5</v>
+        <v>-3.3590325577287022E-5</v>
       </c>
       <c r="F33">
-        <v>-4.9124170200302798E-6</v>
+        <v>-1.7010073458637856E-5</v>
       </c>
       <c r="G33">
-        <v>-1.8078743548313427E-5</v>
+        <v>-1.3325001188869463E-5</v>
       </c>
       <c r="H33">
-        <v>-4.4794712988256724E-6</v>
+        <v>-1.8306954061352921E-6</v>
       </c>
       <c r="I33">
-        <v>-2.5455612845037297E-5</v>
+        <v>-6.0187833600147363E-5</v>
       </c>
       <c r="J33">
-        <v>-7.9877565631460379E-5</v>
+        <v>-3.3584960841603353E-5</v>
       </c>
       <c r="K33">
-        <v>-1.7578370155890016E-5</v>
+        <v>-1.347837823344292E-5</v>
       </c>
       <c r="L33">
-        <v>-7.1514882771814368E-8</v>
+        <v>-4.6787148384400061E-5</v>
       </c>
       <c r="M33">
-        <v>2.0280157468390285E-6</v>
+        <v>5.4307110069353988E-5</v>
       </c>
       <c r="N33">
-        <v>-1.474669419729258E-5</v>
+        <v>5.4539532735177086E-5</v>
       </c>
       <c r="O33">
-        <v>-4.5917068697149085E-5</v>
+        <v>4.2365805473517032E-5</v>
       </c>
       <c r="P33">
-        <v>7.8568715652280706E-6</v>
+        <v>-1.6154862308536203E-5</v>
       </c>
       <c r="Q33">
-        <v>2.2000635034641943E-5</v>
+        <v>1.7695114403258648E-5</v>
       </c>
       <c r="R33">
-        <v>-1.6835869926838231E-5</v>
+        <v>-4.0740166876684827E-5</v>
       </c>
       <c r="S33">
-        <v>-4.5976128717762667E-5</v>
+        <v>6.7846637889600178E-5</v>
       </c>
       <c r="T33">
-        <v>-1.5957685718206646E-5</v>
+        <v>4.1966019828983993E-5</v>
       </c>
       <c r="U33">
-        <v>-1.0482878225310968E-4</v>
+        <v>1.5826950159464597E-6</v>
       </c>
       <c r="V33">
-        <v>-8.3685129459399807E-6</v>
+        <v>9.7619815447140545E-6</v>
       </c>
       <c r="W33">
-        <v>1.2493316245851911E-5</v>
+        <v>-4.7475249192583399E-5</v>
       </c>
       <c r="X33">
-        <v>-1.762398240686032E-5</v>
+        <v>-3.5728840650074353E-5</v>
       </c>
       <c r="Y33">
-        <v>2.5661318602921779E-5</v>
+        <v>-3.9974084031248018E-5</v>
       </c>
       <c r="Z33">
-        <v>-5.737907697502681E-5</v>
+        <v>-4.881139540414514E-5</v>
       </c>
       <c r="AA33">
-        <v>-3.9753249938545131E-5</v>
+        <v>1.1214790743064714E-3</v>
       </c>
       <c r="AB33">
-        <v>-6.4676537931578678E-6</v>
+        <v>1.1225147092230091E-3</v>
       </c>
       <c r="AC33">
-        <v>-8.7629660798891392E-5</v>
+        <v>1.1234846973058965E-3</v>
       </c>
       <c r="AD33">
-        <v>1.1432880495799598E-3</v>
+        <v>1.1214248087913293E-3</v>
       </c>
       <c r="AE33">
-        <v>1.143976058668888E-3</v>
+        <v>1.1194458806580044E-3</v>
       </c>
       <c r="AF33">
-        <v>1.1454121995842729E-3</v>
+        <v>1.1246321631732919E-3</v>
       </c>
       <c r="AG33">
-        <v>1.1436931776043695E-3</v>
+        <v>1.1213572051798151E-3</v>
       </c>
       <c r="AH33">
-        <v>1.964264086941855E-3</v>
+        <v>1.9298045634442615E-3</v>
       </c>
       <c r="AI33">
-        <v>1.1466338592226789E-3</v>
+        <v>1.1265293055084898E-3</v>
       </c>
       <c r="AJ33">
-        <v>1.1378327284631111E-3</v>
+        <v>1.1183934666354014E-3</v>
       </c>
       <c r="AK33">
-        <v>1.1418819894951542E-3</v>
+        <v>1.1126254315320494E-3</v>
       </c>
       <c r="AL33">
-        <v>1.1497343608187474E-3</v>
-      </c>
-      <c r="AM33">
-        <v>1.1417948472753122E-3</v>
-      </c>
-      <c r="AN33">
-        <v>1.1426754011838215E-3</v>
-      </c>
-      <c r="AO33">
-        <v>-1.0233798220221127E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-1.0608682192001617E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>-0.10405699829517086</v>
+        <v>0.13434776730216652</v>
       </c>
       <c r="C34">
-        <v>9.2514747293645464E-6</v>
+        <v>2.697921093370918E-5</v>
       </c>
       <c r="D34">
-        <v>-5.2369074476395238E-5</v>
+        <v>-7.4341187189047315E-5</v>
       </c>
       <c r="E34">
-        <v>-7.1561520302835987E-5</v>
+        <v>-1.0656455151084957E-4</v>
       </c>
       <c r="F34">
-        <v>7.8484058701135833E-6</v>
+        <v>3.8867219231715619E-6</v>
       </c>
       <c r="G34">
-        <v>2.6481561845839079E-6</v>
+        <v>-7.1999331501417354E-6</v>
       </c>
       <c r="H34">
-        <v>2.4583949977945217E-5</v>
+        <v>-2.3746076619781699E-5</v>
       </c>
       <c r="I34">
-        <v>-3.0670353887290216E-5</v>
+        <v>-6.4262520452632477E-5</v>
       </c>
       <c r="J34">
-        <v>-7.2740201826220895E-5</v>
+        <v>-5.3416849827134856E-5</v>
       </c>
       <c r="K34">
-        <v>-3.8919269398902381E-5</v>
+        <v>-2.5569097482434477E-6</v>
       </c>
       <c r="L34">
-        <v>6.380921775305258E-6</v>
+        <v>-5.4266822175767218E-5</v>
       </c>
       <c r="M34">
-        <v>1.3762235250923622E-5</v>
+        <v>-3.0168527762404213E-5</v>
       </c>
       <c r="N34">
-        <v>8.5578237500681908E-7</v>
+        <v>-5.8223775936774944E-5</v>
       </c>
       <c r="O34">
-        <v>-5.2485418765515885E-5</v>
+        <v>-4.8886420350152844E-5</v>
       </c>
       <c r="P34">
-        <v>6.7197884512753582E-5</v>
+        <v>-6.3455298145164828E-5</v>
       </c>
       <c r="Q34">
-        <v>5.582386494816364E-5</v>
+        <v>-3.1551660690410689E-5</v>
       </c>
       <c r="R34">
-        <v>7.2041997896531802E-5</v>
+        <v>-9.4498835439181094E-5</v>
       </c>
       <c r="S34">
-        <v>2.7075099183619319E-5</v>
+        <v>1.9970588056682139E-5</v>
       </c>
       <c r="T34">
-        <v>5.2042739435533827E-5</v>
+        <v>-4.2112515844889772E-6</v>
       </c>
       <c r="U34">
-        <v>-5.4375927254398217E-5</v>
+        <v>-3.9825443318772594E-5</v>
       </c>
       <c r="V34">
-        <v>5.3255443904834648E-5</v>
+        <v>-6.9112773333095991E-6</v>
       </c>
       <c r="W34">
-        <v>4.9722043313101677E-5</v>
+        <v>-7.724960197661758E-5</v>
       </c>
       <c r="X34">
-        <v>2.778694492369259E-5</v>
+        <v>-7.6209902073230175E-5</v>
       </c>
       <c r="Y34">
-        <v>2.2423539499643675E-5</v>
+        <v>-7.9212912256858108E-5</v>
       </c>
       <c r="Z34">
-        <v>-4.1751554751961193E-5</v>
+        <v>-6.3719058524857111E-5</v>
       </c>
       <c r="AA34">
-        <v>-3.6534993435319643E-6</v>
+        <v>1.1276435873257781E-3</v>
       </c>
       <c r="AB34">
-        <v>-1.485981285260997E-5</v>
+        <v>1.1294408230743634E-3</v>
       </c>
       <c r="AC34">
-        <v>-6.3947574354510529E-5</v>
+        <v>1.135706912645016E-3</v>
       </c>
       <c r="AD34">
-        <v>1.1460450013897972E-3</v>
+        <v>1.1320248068052902E-3</v>
       </c>
       <c r="AE34">
-        <v>1.1453700578295625E-3</v>
+        <v>1.1281139324547914E-3</v>
       </c>
       <c r="AF34">
-        <v>1.1487481609059574E-3</v>
+        <v>1.1280577950638685E-3</v>
       </c>
       <c r="AG34">
-        <v>1.1500696248701076E-3</v>
+        <v>1.1202761319522676E-3</v>
       </c>
       <c r="AH34">
-        <v>1.1466338592226789E-3</v>
+        <v>1.1265293055084898E-3</v>
       </c>
       <c r="AI34">
-        <v>1.9560269590239493E-3</v>
+        <v>2.20196756126815E-3</v>
       </c>
       <c r="AJ34">
-        <v>1.1453723455122761E-3</v>
+        <v>1.1252094685718973E-3</v>
       </c>
       <c r="AK34">
-        <v>1.1484885136445293E-3</v>
+        <v>1.1257694614169524E-3</v>
       </c>
       <c r="AL34">
-        <v>1.1502982254077505E-3</v>
-      </c>
-      <c r="AM34">
-        <v>1.1461128948659267E-3</v>
-      </c>
-      <c r="AN34">
-        <v>1.1371713855586943E-3</v>
-      </c>
-      <c r="AO34">
-        <v>-1.0618718020133761E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-9.8609083159044756E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>-3.8016974129096923E-2</v>
+        <v>0.13404634121610112</v>
       </c>
       <c r="C35">
-        <v>2.1540225044437902E-5</v>
+        <v>2.3631257633146016E-5</v>
       </c>
       <c r="D35">
-        <v>-1.2057380473725859E-5</v>
+        <v>-6.6627143354428437E-5</v>
       </c>
       <c r="E35">
-        <v>-3.1585027287894427E-5</v>
+        <v>-8.3284843758776942E-5</v>
       </c>
       <c r="F35">
-        <v>1.14905779142452E-5</v>
+        <v>1.27084026077412E-5</v>
       </c>
       <c r="G35">
-        <v>8.2302638189257109E-6</v>
+        <v>2.1327214389321042E-5</v>
       </c>
       <c r="H35">
-        <v>3.8302989526308237E-5</v>
+        <v>1.4039198603878764E-5</v>
       </c>
       <c r="I35">
-        <v>-5.0725980469860466E-6</v>
+        <v>-3.6771384772237242E-5</v>
       </c>
       <c r="J35">
-        <v>-7.9109781763394584E-5</v>
+        <v>-1.260539566971675E-5</v>
       </c>
       <c r="K35">
-        <v>-4.6088422622492622E-5</v>
+        <v>5.8216413591479031E-6</v>
       </c>
       <c r="L35">
-        <v>2.5192166669236218E-5</v>
+        <v>-1.5871123604536529E-5</v>
       </c>
       <c r="M35">
-        <v>5.1555939442377192E-6</v>
+        <v>3.4333945945744584E-5</v>
       </c>
       <c r="N35">
-        <v>1.7423840897621119E-5</v>
+        <v>-6.8899862460569845E-6</v>
       </c>
       <c r="O35">
-        <v>-4.6077741107266599E-5</v>
+        <v>5.9330203711346636E-5</v>
       </c>
       <c r="P35">
-        <v>-5.0976965025429245E-5</v>
+        <v>-1.7343150745330674E-5</v>
       </c>
       <c r="Q35">
-        <v>-3.682855771110021E-5</v>
+        <v>-2.2748271360888139E-5</v>
       </c>
       <c r="R35">
-        <v>-3.918779860883877E-6</v>
+        <v>-9.0436373701817917E-5</v>
       </c>
       <c r="S35">
-        <v>-8.4176234606565337E-5</v>
+        <v>-5.4990825114355733E-6</v>
       </c>
       <c r="T35">
-        <v>-5.991646864176442E-5</v>
+        <v>-2.0719004235337981E-5</v>
       </c>
       <c r="U35">
-        <v>-1.2506038877748717E-4</v>
+        <v>-3.9045425781989232E-5</v>
       </c>
       <c r="V35">
-        <v>-4.6493664767607813E-5</v>
+        <v>1.9381030988164898E-5</v>
       </c>
       <c r="W35">
-        <v>-6.6249822653996135E-5</v>
+        <v>-4.3639648146176317E-5</v>
       </c>
       <c r="X35">
-        <v>-8.8261464397059288E-5</v>
+        <v>-3.0005399269186772E-5</v>
       </c>
       <c r="Y35">
-        <v>-8.3319893456906E-5</v>
+        <v>-2.2734839988509253E-5</v>
       </c>
       <c r="Z35">
-        <v>-1.3696937454103016E-4</v>
+        <v>-2.411979571316893E-5</v>
       </c>
       <c r="AA35">
-        <v>-9.6803851476706107E-5</v>
+        <v>1.1236278809832159E-3</v>
       </c>
       <c r="AB35">
-        <v>-1.3121946398751694E-4</v>
+        <v>1.1200251764014212E-3</v>
       </c>
       <c r="AC35">
-        <v>-1.7186208697321926E-4</v>
+        <v>1.1227579041725654E-3</v>
       </c>
       <c r="AD35">
-        <v>1.1425284270238925E-3</v>
+        <v>1.1251790477818748E-3</v>
       </c>
       <c r="AE35">
-        <v>1.1375486479236682E-3</v>
+        <v>1.1188159415273973E-3</v>
       </c>
       <c r="AF35">
-        <v>1.1375442901259203E-3</v>
+        <v>1.1226600871318897E-3</v>
       </c>
       <c r="AG35">
-        <v>1.1405188675324672E-3</v>
+        <v>1.1171694884010953E-3</v>
       </c>
       <c r="AH35">
-        <v>1.1378327284631111E-3</v>
+        <v>1.1183934666354014E-3</v>
       </c>
       <c r="AI35">
-        <v>1.1453723455122761E-3</v>
+        <v>1.1252094685718973E-3</v>
       </c>
       <c r="AJ35">
-        <v>1.7705167958193785E-3</v>
+        <v>1.827240982035977E-3</v>
       </c>
       <c r="AK35">
-        <v>1.143268581609017E-3</v>
+        <v>1.1192225599434397E-3</v>
       </c>
       <c r="AL35">
-        <v>1.140701317518654E-3</v>
-      </c>
-      <c r="AM35">
-        <v>1.1386303589978578E-3</v>
-      </c>
-      <c r="AN35">
-        <v>1.1311041612611682E-3</v>
-      </c>
-      <c r="AO35">
-        <v>-1.0074475608234409E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-1.0574478334724727E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>-8.1716707292232543E-2</v>
+        <v>0.24384481421950752</v>
       </c>
       <c r="C36">
-        <v>2.6021813166215462E-5</v>
+        <v>1.4845070971291491E-5</v>
       </c>
       <c r="D36">
-        <v>-1.506642818523451E-5</v>
+        <v>-4.3730925570996707E-5</v>
       </c>
       <c r="E36">
-        <v>-2.5720842226577533E-5</v>
+        <v>-1.1819961194698352E-4</v>
       </c>
       <c r="F36">
-        <v>-1.0351517119999297E-6</v>
+        <v>2.7922553967306158E-6</v>
       </c>
       <c r="G36">
-        <v>-4.8207554737439992E-6</v>
+        <v>1.348923856217966E-5</v>
       </c>
       <c r="H36">
-        <v>1.3690275539693261E-5</v>
+        <v>-1.2834370736512974E-5</v>
       </c>
       <c r="I36">
-        <v>-4.0124633398933045E-5</v>
+        <v>-3.9091911852503114E-5</v>
       </c>
       <c r="J36">
-        <v>-4.4753501032596186E-5</v>
+        <v>-2.8375542218098734E-5</v>
       </c>
       <c r="K36">
-        <v>-1.4853912076988969E-5</v>
+        <v>2.4248693707158708E-5</v>
       </c>
       <c r="L36">
-        <v>2.0973531183519564E-5</v>
+        <v>1.1611138311862961E-6</v>
       </c>
       <c r="M36">
-        <v>-2.2904982840109424E-5</v>
+        <v>-1.399703635481496E-4</v>
       </c>
       <c r="N36">
-        <v>7.1074182601050817E-6</v>
+        <v>-1.5773330626141311E-4</v>
       </c>
       <c r="O36">
-        <v>-4.8688685535907994E-5</v>
+        <v>-1.2791516646767226E-4</v>
       </c>
       <c r="P36">
-        <v>1.9249655253120689E-5</v>
+        <v>-1.6912877402468912E-4</v>
       </c>
       <c r="Q36">
-        <v>1.4894320679758027E-5</v>
+        <v>-1.5460101633549619E-4</v>
       </c>
       <c r="R36">
-        <v>4.9641914279916106E-6</v>
+        <v>-2.0585226192297752E-4</v>
       </c>
       <c r="S36">
-        <v>-7.2435402669775379E-5</v>
+        <v>-9.8325652263780983E-5</v>
       </c>
       <c r="T36">
-        <v>-2.9444843458756179E-5</v>
+        <v>-1.0237628674545328E-4</v>
       </c>
       <c r="U36">
-        <v>-1.0072870214457557E-4</v>
+        <v>-1.2209317477868912E-4</v>
       </c>
       <c r="V36">
-        <v>1.6355415527878831E-5</v>
+        <v>-7.9474786074093355E-5</v>
       </c>
       <c r="W36">
-        <v>-5.4855338264304943E-6</v>
+        <v>-1.2374447730116242E-4</v>
       </c>
       <c r="X36">
-        <v>-3.7009169630959626E-5</v>
+        <v>-1.0299098100214916E-4</v>
       </c>
       <c r="Y36">
-        <v>-3.0089354062483612E-5</v>
+        <v>-8.1766096958656859E-5</v>
       </c>
       <c r="Z36">
-        <v>-9.142374794049511E-5</v>
+        <v>-7.5231648775936875E-5</v>
       </c>
       <c r="AA36">
-        <v>-8.2299854821404721E-5</v>
+        <v>1.1153825038058274E-3</v>
       </c>
       <c r="AB36">
-        <v>-7.9807242094762088E-5</v>
+        <v>1.1189127364203914E-3</v>
       </c>
       <c r="AC36">
-        <v>-1.302714919775873E-4</v>
+        <v>1.1228534505425779E-3</v>
       </c>
       <c r="AD36">
-        <v>1.1445149138899695E-3</v>
+        <v>1.1203402522726776E-3</v>
       </c>
       <c r="AE36">
-        <v>1.1446794566203466E-3</v>
+        <v>1.1197993018747406E-3</v>
       </c>
       <c r="AF36">
-        <v>1.1437603448454727E-3</v>
+        <v>1.1146305920659999E-3</v>
       </c>
       <c r="AG36">
-        <v>1.1419284727973672E-3</v>
+        <v>1.1073780590107429E-3</v>
       </c>
       <c r="AH36">
-        <v>1.1418819894951542E-3</v>
+        <v>1.1126254315320494E-3</v>
       </c>
       <c r="AI36">
-        <v>1.1484885136445293E-3</v>
+        <v>1.1257694614169524E-3</v>
       </c>
       <c r="AJ36">
-        <v>1.143268581609017E-3</v>
+        <v>1.1192225599434397E-3</v>
       </c>
       <c r="AK36">
-        <v>1.9393501595120078E-3</v>
+        <v>2.1918812794215455E-3</v>
       </c>
       <c r="AL36">
-        <v>1.1473007767337988E-3</v>
-      </c>
-      <c r="AM36">
-        <v>1.1406118144936229E-3</v>
-      </c>
-      <c r="AN36">
-        <v>1.1351251190802505E-3</v>
-      </c>
-      <c r="AO36">
-        <v>-1.0576999022551079E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+        <v>-9.7317096735158879E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B37">
-        <v>0.10758257890444821</v>
+        <v>2.7039166499696443</v>
       </c>
       <c r="C37">
-        <v>1.3998993699769453E-5</v>
+        <v>-1.5161963558943479E-4</v>
       </c>
       <c r="D37">
-        <v>-5.9053621636553965E-5</v>
+        <v>-3.1720775961498502E-4</v>
       </c>
       <c r="E37">
-        <v>-9.7917197528448829E-5</v>
+        <v>-2.9543257956978977E-4</v>
       </c>
       <c r="F37">
-        <v>1.3362057402858236E-5</v>
+        <v>-8.4314920084291637E-4</v>
       </c>
       <c r="G37">
-        <v>-1.1668537702577719E-5</v>
+        <v>-8.1852621149696727E-4</v>
       </c>
       <c r="H37">
-        <v>-2.4471227056963268E-5</v>
+        <v>-8.6630468662490876E-4</v>
       </c>
       <c r="I37">
-        <v>-5.9029659481177831E-5</v>
+        <v>-8.4282870934449319E-4</v>
       </c>
       <c r="J37">
-        <v>-9.1022916565211326E-5</v>
+        <v>-5.4116356788655321E-4</v>
       </c>
       <c r="K37">
-        <v>7.0521850297660445E-6</v>
+        <v>-8.0765190636813153E-4</v>
       </c>
       <c r="L37">
-        <v>2.7859274918365503E-5</v>
+        <v>-1.5080934199593671E-4</v>
       </c>
       <c r="M37">
-        <v>2.2832455448547936E-5</v>
+        <v>-5.9709498863847327E-3</v>
       </c>
       <c r="N37">
-        <v>-5.8531594159253623E-6</v>
+        <v>-5.9965139996238145E-3</v>
       </c>
       <c r="O37">
-        <v>-5.5484312611692161E-5</v>
+        <v>-5.875671894861911E-3</v>
       </c>
       <c r="P37">
-        <v>-4.764206617513967E-5</v>
+        <v>-5.9113149313285472E-3</v>
       </c>
       <c r="Q37">
-        <v>-7.3598105140350225E-5</v>
+        <v>-5.8716191680177401E-3</v>
       </c>
       <c r="R37">
-        <v>-2.793205734433115E-5</v>
+        <v>-5.7789634587358633E-3</v>
       </c>
       <c r="S37">
-        <v>-9.5425919651903786E-5</v>
+        <v>-5.8673261315125031E-3</v>
       </c>
       <c r="T37">
-        <v>-3.659011452879701E-5</v>
+        <v>-5.8670656044955052E-3</v>
       </c>
       <c r="U37">
-        <v>-1.1772439915232712E-4</v>
+        <v>-5.8538658144997322E-3</v>
       </c>
       <c r="V37">
-        <v>-3.076864074013589E-6</v>
+        <v>-5.8964600033803213E-3</v>
       </c>
       <c r="W37">
-        <v>-2.2266228262664365E-5</v>
+        <v>-5.9235372899932148E-3</v>
       </c>
       <c r="X37">
-        <v>-4.4647413268617767E-5</v>
+        <v>-6.0532994874101277E-3</v>
       </c>
       <c r="Y37">
-        <v>-1.3970592144507774E-5</v>
+        <v>-6.0712196808524075E-3</v>
       </c>
       <c r="Z37">
-        <v>-9.0425890137879085E-5</v>
+        <v>-6.0317558393695441E-3</v>
       </c>
       <c r="AA37">
-        <v>-9.1894934763812712E-5</v>
+        <v>-1.0730576112658297E-3</v>
       </c>
       <c r="AB37">
-        <v>-8.3080668810981122E-5</v>
+        <v>-1.1120526474098728E-3</v>
       </c>
       <c r="AC37">
-        <v>-1.0329832664659208E-4</v>
+        <v>-1.0380223001176451E-3</v>
       </c>
       <c r="AD37">
-        <v>1.1505033756377923E-3</v>
+        <v>-1.0020773361826343E-3</v>
       </c>
       <c r="AE37">
-        <v>1.1492731326092549E-3</v>
+        <v>-1.0181398901097168E-3</v>
       </c>
       <c r="AF37">
-        <v>1.1545783984463951E-3</v>
+        <v>-1.0371425473684984E-3</v>
       </c>
       <c r="AG37">
-        <v>1.151042831903312E-3</v>
+        <v>-1.0087505819091575E-3</v>
       </c>
       <c r="AH37">
-        <v>1.1497343608187474E-3</v>
+        <v>-1.0608682192001617E-3</v>
       </c>
       <c r="AI37">
-        <v>1.1502982254077505E-3</v>
+        <v>-9.8609083159044756E-4</v>
       </c>
       <c r="AJ37">
-        <v>1.140701317518654E-3</v>
+        <v>-1.0574478334724727E-3</v>
       </c>
       <c r="AK37">
-        <v>1.1473007767337988E-3</v>
+        <v>-9.7317096735158879E-4</v>
       </c>
       <c r="AL37">
-        <v>2.2179116490126287E-3</v>
-      </c>
-      <c r="AM37">
-        <v>1.1471687689432477E-3</v>
-      </c>
-      <c r="AN37">
-        <v>1.1477120405953421E-3</v>
-      </c>
-      <c r="AO37">
-        <v>-1.0072370184023621E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>0.12313692138382487</v>
-      </c>
-      <c r="C38">
-        <v>1.0307359654925601E-5</v>
-      </c>
-      <c r="D38">
-        <v>-5.1106199899040851E-5</v>
-      </c>
-      <c r="E38">
-        <v>-7.5963584201371623E-5</v>
-      </c>
-      <c r="F38">
-        <v>2.2133581811530295E-5</v>
-      </c>
-      <c r="G38">
-        <v>2.033631844742406E-5</v>
-      </c>
-      <c r="H38">
-        <v>2.126685853241024E-5</v>
-      </c>
-      <c r="I38">
-        <v>-3.0728972076616786E-5</v>
-      </c>
-      <c r="J38">
-        <v>-4.3391356000260621E-5</v>
-      </c>
-      <c r="K38">
-        <v>1.0108188567504485E-5</v>
-      </c>
-      <c r="L38">
-        <v>1.3404405511492612E-5</v>
-      </c>
-      <c r="M38">
-        <v>1.6324688550866458E-6</v>
-      </c>
-      <c r="N38">
-        <v>-1.1485360399390167E-5</v>
-      </c>
-      <c r="O38">
-        <v>-1.3490401370465734E-5</v>
-      </c>
-      <c r="P38">
-        <v>4.7388805054678074E-6</v>
-      </c>
-      <c r="Q38">
-        <v>-3.1244108679821803E-5</v>
-      </c>
-      <c r="R38">
-        <v>6.9801531589753097E-5</v>
-      </c>
-      <c r="S38">
-        <v>-5.2755216745152024E-5</v>
-      </c>
-      <c r="T38">
-        <v>-4.6658710120855117E-5</v>
-      </c>
-      <c r="U38">
-        <v>-1.290422234345636E-4</v>
-      </c>
-      <c r="V38">
-        <v>-3.4835736500412728E-5</v>
-      </c>
-      <c r="W38">
-        <v>-4.8893330226659759E-5</v>
-      </c>
-      <c r="X38">
-        <v>-5.2859780459403854E-5</v>
-      </c>
-      <c r="Y38">
-        <v>-3.9662873757314969E-6</v>
-      </c>
-      <c r="Z38">
-        <v>-7.2980745665608953E-5</v>
-      </c>
-      <c r="AA38">
-        <v>-5.5917680503072241E-5</v>
-      </c>
-      <c r="AB38">
-        <v>-4.0184702383201047E-5</v>
-      </c>
-      <c r="AC38">
-        <v>-7.3489654905059369E-5</v>
-      </c>
-      <c r="AD38">
-        <v>1.1461135032911946E-3</v>
-      </c>
-      <c r="AE38">
-        <v>1.1407385441146885E-3</v>
-      </c>
-      <c r="AF38">
-        <v>1.1416596438188322E-3</v>
-      </c>
-      <c r="AG38">
-        <v>1.1455822348748509E-3</v>
-      </c>
-      <c r="AH38">
-        <v>1.1417948472753122E-3</v>
-      </c>
-      <c r="AI38">
-        <v>1.1461128948659267E-3</v>
-      </c>
-      <c r="AJ38">
-        <v>1.1386303589978578E-3</v>
-      </c>
-      <c r="AK38">
-        <v>1.1406118144936229E-3</v>
-      </c>
-      <c r="AL38">
-        <v>1.1471687689432477E-3</v>
-      </c>
-      <c r="AM38">
-        <v>1.8446535997085913E-3</v>
-      </c>
-      <c r="AN38">
-        <v>1.1427091101856883E-3</v>
-      </c>
-      <c r="AO38">
-        <v>-1.0641434660691282E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>0.24183599370353775</v>
-      </c>
-      <c r="C39">
-        <v>7.0196594540846368E-7</v>
-      </c>
-      <c r="D39">
-        <v>-2.5740200965608637E-5</v>
-      </c>
-      <c r="E39">
-        <v>-1.0545836402423096E-4</v>
-      </c>
-      <c r="F39">
-        <v>1.0279463388746077E-5</v>
-      </c>
-      <c r="G39">
-        <v>1.2138898423891026E-5</v>
-      </c>
-      <c r="H39">
-        <v>-7.0361949241790978E-6</v>
-      </c>
-      <c r="I39">
-        <v>-3.1146451195801007E-5</v>
-      </c>
-      <c r="J39">
-        <v>-6.3324518146707092E-5</v>
-      </c>
-      <c r="K39">
-        <v>3.2019490824617379E-5</v>
-      </c>
-      <c r="L39">
-        <v>-1.5095865377493748E-6</v>
-      </c>
-      <c r="M39">
-        <v>-1.0619938902071448E-5</v>
-      </c>
-      <c r="N39">
-        <v>-2.2721414948728964E-5</v>
-      </c>
-      <c r="O39">
-        <v>2.4508579324388554E-6</v>
-      </c>
-      <c r="P39">
-        <v>-2.3987112500503151E-4</v>
-      </c>
-      <c r="Q39">
-        <v>-2.3347957627118353E-4</v>
-      </c>
-      <c r="R39">
-        <v>-1.9495985185587379E-4</v>
-      </c>
-      <c r="S39">
-        <v>-2.7385232080746023E-4</v>
-      </c>
-      <c r="T39">
-        <v>-2.2804433539569575E-4</v>
-      </c>
-      <c r="U39">
-        <v>-2.9907257925898371E-4</v>
-      </c>
-      <c r="V39">
-        <v>-1.9008205042857131E-4</v>
-      </c>
-      <c r="W39">
-        <v>-1.8596595544597468E-4</v>
-      </c>
-      <c r="X39">
-        <v>-1.9575586079618405E-4</v>
-      </c>
-      <c r="Y39">
-        <v>-1.5691112430641415E-4</v>
-      </c>
-      <c r="Z39">
-        <v>-2.0309943825120007E-4</v>
-      </c>
-      <c r="AA39">
-        <v>-1.8231477435159266E-4</v>
-      </c>
-      <c r="AB39">
-        <v>-1.5374251134418846E-4</v>
-      </c>
-      <c r="AC39">
-        <v>-1.7978693060194308E-4</v>
-      </c>
-      <c r="AD39">
-        <v>1.1392806297676559E-3</v>
-      </c>
-      <c r="AE39">
-        <v>1.1395798517450045E-3</v>
-      </c>
-      <c r="AF39">
-        <v>1.1441214164540213E-3</v>
-      </c>
-      <c r="AG39">
-        <v>1.1410612515734117E-3</v>
-      </c>
-      <c r="AH39">
-        <v>1.1426754011838215E-3</v>
-      </c>
-      <c r="AI39">
-        <v>1.1371713855586943E-3</v>
-      </c>
-      <c r="AJ39">
-        <v>1.1311041612611682E-3</v>
-      </c>
-      <c r="AK39">
-        <v>1.1351251190802505E-3</v>
-      </c>
-      <c r="AL39">
-        <v>1.1477120405953421E-3</v>
-      </c>
-      <c r="AM39">
-        <v>1.1427091101856883E-3</v>
-      </c>
-      <c r="AN39">
-        <v>2.2781079182088689E-3</v>
-      </c>
-      <c r="AO39">
-        <v>-9.1866569804804215E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40">
-        <v>2.2097252979231596</v>
-      </c>
-      <c r="C40">
-        <v>-1.4927993588349987E-4</v>
-      </c>
-      <c r="D40">
-        <v>-3.2362266178484348E-4</v>
-      </c>
-      <c r="E40">
-        <v>-2.7758530734016938E-4</v>
-      </c>
-      <c r="F40">
-        <v>-9.1258657088527173E-4</v>
-      </c>
-      <c r="G40">
-        <v>-8.6513806874523942E-4</v>
-      </c>
-      <c r="H40">
-        <v>-9.0173198048189556E-4</v>
-      </c>
-      <c r="I40">
-        <v>-8.798667730642981E-4</v>
-      </c>
-      <c r="J40">
-        <v>-7.0314643570563041E-4</v>
-      </c>
-      <c r="K40">
-        <v>-1.5174457648221651E-3</v>
-      </c>
-      <c r="L40">
-        <v>-1.1939889543496397E-3</v>
-      </c>
-      <c r="M40">
-        <v>-7.3741885956119511E-4</v>
-      </c>
-      <c r="N40">
-        <v>-8.2399127610048933E-5</v>
-      </c>
-      <c r="O40">
-        <v>-1.386073303267753E-4</v>
-      </c>
-      <c r="P40">
-        <v>-6.8271975552689724E-3</v>
-      </c>
-      <c r="Q40">
-        <v>-6.8412192556440814E-3</v>
-      </c>
-      <c r="R40">
-        <v>-6.7332678207771661E-3</v>
-      </c>
-      <c r="S40">
-        <v>-6.7366714220884628E-3</v>
-      </c>
-      <c r="T40">
-        <v>-6.7142322845807996E-3</v>
-      </c>
-      <c r="U40">
-        <v>-6.6060392209243649E-3</v>
-      </c>
-      <c r="V40">
-        <v>-6.6927097713156318E-3</v>
-      </c>
-      <c r="W40">
-        <v>-6.6902432108077777E-3</v>
-      </c>
-      <c r="X40">
-        <v>-6.6913464370849194E-3</v>
-      </c>
-      <c r="Y40">
-        <v>-6.7466289349769389E-3</v>
-      </c>
-      <c r="Z40">
-        <v>-6.7538619149704049E-3</v>
-      </c>
-      <c r="AA40">
-        <v>-6.8679288157507783E-3</v>
-      </c>
-      <c r="AB40">
-        <v>-6.8811781271164805E-3</v>
-      </c>
-      <c r="AC40">
-        <v>-6.8461555642651915E-3</v>
-      </c>
-      <c r="AD40">
-        <v>-1.0542385529553723E-3</v>
-      </c>
-      <c r="AE40">
-        <v>-1.1052489851109408E-3</v>
-      </c>
-      <c r="AF40">
-        <v>-1.0405315742779359E-3</v>
-      </c>
-      <c r="AG40">
-        <v>-1.0306421706206504E-3</v>
-      </c>
-      <c r="AH40">
-        <v>-1.0233798220221127E-3</v>
-      </c>
-      <c r="AI40">
-        <v>-1.0618718020133761E-3</v>
-      </c>
-      <c r="AJ40">
-        <v>-1.0074475608234409E-3</v>
-      </c>
-      <c r="AK40">
-        <v>-1.0576999022551079E-3</v>
-      </c>
-      <c r="AL40">
-        <v>-1.0072370184023621E-3</v>
-      </c>
-      <c r="AM40">
-        <v>-1.0641434660691282E-3</v>
-      </c>
-      <c r="AN40">
-        <v>-9.1866569804804215E-4</v>
-      </c>
-      <c r="AO40">
-        <v>1.0361730877615421E-2</v>
+        <v>8.7099024698480271E-3</v>
       </c>
     </row>
   </sheetData>
@@ -46996,21 +46285,23 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5542939-065A-4FA3-92F5-CDF246AE73E4}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30" t="s">
         <v>2</v>
@@ -47022,26 +46313,26 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.22003120000000001</v>
+        <v>-0.26023269999999998</v>
       </c>
       <c r="C5" s="7">
-        <v>1.7924200000000001E-2</v>
+        <v>1.7858599999999999E-2</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -47049,35 +46340,38 @@
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="8">
-        <v>0.23475979999999999</v>
+        <v>0.25005250000000001</v>
       </c>
       <c r="C7" s="7">
-        <v>2.0903100000000001E-2</v>
+        <v>2.0829E-2</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="8">
-        <v>0.50650200000000001</v>
+        <v>0.52315630000000002</v>
       </c>
       <c r="C8" s="7">
-        <v>2.84213E-2</v>
+        <v>2.85165E-2</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -47085,583 +46379,592 @@
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="8">
-        <v>5.0926000000000001E-3</v>
+        <v>1.09119E-2</v>
       </c>
       <c r="C10" s="7">
-        <v>3.3038699999999997E-2</v>
+        <v>3.2772799999999998E-2</v>
       </c>
       <c r="D10" s="8">
-        <v>0.878</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.73899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="8">
-        <v>0.1533929</v>
+        <v>0.172074</v>
       </c>
       <c r="C11" s="7">
-        <v>3.3442600000000003E-2</v>
+        <v>3.3128900000000003E-2</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="8">
-        <v>0.30508299999999999</v>
+        <v>0.32923059999999998</v>
       </c>
       <c r="C12" s="7">
-        <v>3.6858299999999997E-2</v>
+        <v>3.6660999999999999E-2</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="8">
-        <v>0.53269630000000001</v>
+        <v>0.55290450000000002</v>
       </c>
       <c r="C13" s="7">
-        <v>4.77087E-2</v>
+        <v>4.7719900000000003E-2</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B15" s="8">
-        <v>-0.27894180000000002</v>
+        <v>-0.20462040000000001</v>
       </c>
       <c r="C15" s="7">
-        <v>5.3937600000000002E-2</v>
+        <v>5.0197899999999997E-2</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B16" s="8">
-        <v>-1.0744069999999999</v>
+        <v>-1.2723230000000001</v>
       </c>
       <c r="C16" s="7">
-        <v>3.9734400000000003E-2</v>
+        <v>2.7765399999999999E-2</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>318</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B18" s="8">
-        <v>0.8253646</v>
-      </c>
-      <c r="C18" s="7">
-        <v>4.3073800000000002E-2</v>
-      </c>
-      <c r="D18" s="8">
+        <v>102</v>
+      </c>
+      <c r="B17" s="8">
+        <v>-0.23398769999999999</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2.1897799999999999E-2</v>
+      </c>
+      <c r="D17" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="B19" s="8">
-        <v>0.83703550000000004</v>
+        <v>0.16516839999999999</v>
       </c>
       <c r="C19" s="7">
-        <v>5.7967499999999998E-2</v>
+        <v>9.1311000000000003E-2</v>
       </c>
       <c r="D19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B20" s="8">
-        <v>0.57401860000000005</v>
+        <v>0.27893089999999998</v>
       </c>
       <c r="C20" s="7">
-        <v>1.91664E-2</v>
+        <v>9.3611100000000003E-2</v>
       </c>
       <c r="D20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>102</v>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="B21" s="8">
-        <v>-0.22523979999999999</v>
+        <v>0.52550540000000001</v>
       </c>
       <c r="C21" s="7">
-        <v>2.18695E-2</v>
+        <v>9.2563400000000004E-2</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>254</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.59696510000000003</v>
+      </c>
+      <c r="C22" s="7">
+        <v>8.8754299999999994E-2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B23" s="8">
-        <v>0.18507480000000001</v>
+        <v>0.56353710000000001</v>
       </c>
       <c r="C23" s="7">
-        <v>9.7275899999999998E-2</v>
+        <v>8.6441799999999999E-2</v>
       </c>
       <c r="D23" s="8">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B24" s="8">
-        <v>0.27960960000000001</v>
+        <v>0.30933709999999998</v>
       </c>
       <c r="C24" s="7">
-        <v>0.1000259</v>
+        <v>8.3650600000000006E-2</v>
       </c>
       <c r="D24" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B25" s="8">
-        <v>0.45341179999999998</v>
+        <v>0.22312299999999999</v>
       </c>
       <c r="C25" s="7">
-        <v>9.7767000000000007E-2</v>
+        <v>8.1765599999999994E-2</v>
       </c>
       <c r="D25" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.196162</v>
+      </c>
+      <c r="C26" s="7">
+        <v>8.1108E-2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.1515398</v>
+      </c>
+      <c r="C27" s="7">
+        <v>8.1153299999999998E-2</v>
+      </c>
+      <c r="D27" s="8">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" s="8">
+        <v>6.5108299999999994E-2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>8.1995100000000001E-2</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B29" s="8">
+        <v>6.8036200000000005E-2</v>
+      </c>
+      <c r="C29" s="7">
+        <v>8.3287399999999998E-2</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B30" s="8">
+        <v>7.1242799999999995E-2</v>
+      </c>
+      <c r="C30" s="7">
+        <v>8.74032E-2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" s="8">
+        <v>6.7698800000000003E-2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>9.4581600000000002E-2</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="8">
+        <v>-7.2208300000000003E-2</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.1085931</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="32">
+        <v>2.7039170000000001</v>
+      </c>
+      <c r="C33" s="33">
+        <v>9.3326900000000004E-2</v>
+      </c>
+      <c r="D33" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B26" s="8">
-        <v>0.56564930000000002</v>
-      </c>
-      <c r="C26" s="7">
-        <v>9.4076499999999993E-2</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34">
+        <v>31490</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35">
+        <v>1.2788999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="B36" s="35">
+        <v>0.17829999999999999</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f>SUMPRODUCT(F5:F33,B5:B33)+SUMPRODUCT(F46:F56,B46:B56)</f>
+        <v>3.6708159999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f>EXP(F37+(B35^2)/2)</f>
+        <v>88.997528973143375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="27"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>0.13317979999999999</v>
+      </c>
+      <c r="C46">
+        <v>5.2629599999999999E-2</v>
+      </c>
+      <c r="D46">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>6.2610399999999997E-2</v>
+      </c>
+      <c r="C47">
+        <v>4.2779400000000002E-2</v>
+      </c>
+      <c r="D47">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>0.19431470000000001</v>
+      </c>
+      <c r="C48">
+        <v>4.5643900000000001E-2</v>
+      </c>
+      <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B27" s="8">
-        <v>0.4631806</v>
-      </c>
-      <c r="C27" s="7">
-        <v>9.1176499999999994E-2</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>5.6789699999999999E-2</v>
+      </c>
+      <c r="C49">
+        <v>4.4573599999999998E-2</v>
+      </c>
+      <c r="D49">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50">
+        <v>-6.9861999999999997E-3</v>
+      </c>
+      <c r="C50">
+        <v>4.3840499999999998E-2</v>
+      </c>
+      <c r="D50">
+        <v>0.873</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>-0.1095428</v>
+      </c>
+      <c r="C51">
+        <v>4.37682E-2</v>
+      </c>
+      <c r="D51">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52">
+        <v>-1.9930400000000001E-2</v>
+      </c>
+      <c r="C52">
+        <v>4.2103500000000002E-2</v>
+      </c>
+      <c r="D52">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53">
+        <v>-7.1125800000000003E-2</v>
+      </c>
+      <c r="C53">
+        <v>4.3929500000000003E-2</v>
+      </c>
+      <c r="D53">
+        <v>0.105</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54">
+        <v>0.13434779999999999</v>
+      </c>
+      <c r="C54">
+        <v>4.6925099999999997E-2</v>
+      </c>
+      <c r="D54">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>0.13404630000000001</v>
+      </c>
+      <c r="C55">
+        <v>4.2746199999999998E-2</v>
+      </c>
+      <c r="D55">
+        <v>2E-3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56">
+        <v>0.2438448</v>
+      </c>
+      <c r="C56">
+        <v>4.6817499999999998E-2</v>
+      </c>
+      <c r="D56">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B28" s="8">
-        <v>0.2450928</v>
-      </c>
-      <c r="C28" s="7">
-        <v>8.8550000000000004E-2</v>
-      </c>
-      <c r="D28" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B29" s="8">
-        <v>0.1310163</v>
-      </c>
-      <c r="C29" s="7">
-        <v>8.67116E-2</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0.13100000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B30" s="8">
-        <v>8.48854E-2</v>
-      </c>
-      <c r="C30" s="7">
-        <v>8.6207900000000004E-2</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B31" s="8">
-        <v>5.4492800000000001E-2</v>
-      </c>
-      <c r="C31" s="7">
-        <v>8.6079799999999998E-2</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0.52700000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B32" s="8">
-        <v>-2.2334900000000001E-2</v>
-      </c>
-      <c r="C32" s="7">
-        <v>8.6851899999999996E-2</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0.79700000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B33" s="8">
-        <v>4.9473E-3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>8.7900300000000001E-2</v>
-      </c>
-      <c r="D33" s="8">
-        <v>0.95499999999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B34" s="8">
-        <v>5.8111999999999999E-3</v>
-      </c>
-      <c r="C34" s="7">
-        <v>9.1435500000000003E-2</v>
-      </c>
-      <c r="D34" s="8">
-        <v>0.94899999999999995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B35" s="8">
-        <v>2.9404400000000001E-2</v>
-      </c>
-      <c r="C35" s="7">
-        <v>9.7984000000000002E-2</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0.76400000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="8">
-        <v>-9.4043399999999999E-2</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0.10970009999999999</v>
-      </c>
-      <c r="D36" s="8">
-        <v>0.39100000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="32">
-        <v>2.2097250000000002</v>
-      </c>
-      <c r="C37" s="33">
-        <v>0.1017926</v>
-      </c>
-      <c r="D37" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38">
-        <v>29484</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>286</v>
-      </c>
-      <c r="B39">
-        <v>1.2428999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="B40" s="35">
-        <v>0.223</v>
-      </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50">
-        <v>0.12033439999999999</v>
-      </c>
-      <c r="C50">
-        <v>5.2752599999999997E-2</v>
-      </c>
-      <c r="D50">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51">
-        <v>5.8312599999999999E-2</v>
-      </c>
-      <c r="C51">
-        <v>4.3010399999999997E-2</v>
-      </c>
-      <c r="D51">
-        <v>0.17499999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52">
-        <v>0.19332389999999999</v>
-      </c>
-      <c r="C52">
-        <v>4.57785E-2</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53">
-        <v>5.2880200000000002E-2</v>
-      </c>
-      <c r="C53">
-        <v>4.4569200000000003E-2</v>
-      </c>
-      <c r="D53">
-        <v>0.23499999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54">
-        <v>-1.8531800000000001E-2</v>
-      </c>
-      <c r="C54">
-        <v>4.4319999999999998E-2</v>
-      </c>
-      <c r="D54">
-        <v>0.67600000000000005</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55">
-        <v>-0.104057</v>
-      </c>
-      <c r="C55">
-        <v>4.4227000000000002E-2</v>
-      </c>
-      <c r="D55">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56">
-        <v>-3.8017000000000002E-2</v>
-      </c>
-      <c r="C56">
-        <v>4.2077499999999997E-2</v>
-      </c>
-      <c r="D56">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57">
-        <v>-8.1716700000000003E-2</v>
-      </c>
-      <c r="C57">
-        <v>4.4038099999999997E-2</v>
-      </c>
-      <c r="D57">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58">
-        <v>0.1075826</v>
-      </c>
-      <c r="C58">
-        <v>4.7094700000000003E-2</v>
-      </c>
-      <c r="D58">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B59">
-        <v>0.12313689999999999</v>
-      </c>
-      <c r="C59">
-        <v>4.2949399999999999E-2</v>
-      </c>
-      <c r="D59">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60">
-        <v>0.241836</v>
-      </c>
-      <c r="C60">
-        <v>4.7729500000000001E-2</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
+      <c r="E56" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -47685,23 +46988,23 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="E2" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
       <c r="H2" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
@@ -47856,7 +47159,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="8"/>
@@ -47870,7 +47173,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B10" s="42">
         <v>4.7066359999999996</v>
@@ -47902,7 +47205,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" s="42">
         <v>4.548635</v>
@@ -47934,7 +47237,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="42">
         <v>0.40359879999999998</v>
@@ -48108,7 +47411,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="8"/>
@@ -48122,7 +47425,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B19" s="42">
         <v>6.9353799999999993E-2</v>
@@ -48154,7 +47457,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B20" s="42">
         <v>0.25054490000000001</v>
@@ -48186,7 +47489,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B21" s="42">
         <v>0.6508661</v>
@@ -48218,7 +47521,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B22" s="42">
         <v>1.2029719999999999</v>
@@ -48286,17 +47589,17 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -48671,12 +47974,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -48748,7 +48051,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
@@ -48756,7 +48059,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B10" s="8">
         <v>0.39977200000000002</v>
@@ -48770,7 +48073,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" s="8">
         <v>1.198202</v>
@@ -48784,7 +48087,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="8">
         <v>1.77827</v>
@@ -49109,12 +48412,12 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -49297,12 +48600,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -49374,7 +48677,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
@@ -49382,7 +48685,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B10" s="8">
         <v>0.25869229999999999</v>
@@ -49396,7 +48699,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" s="8">
         <v>1.5142500000000001</v>
@@ -49410,7 +48713,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="8">
         <v>1.8060830000000001</v>
@@ -49749,12 +49052,12 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -49939,12 +49242,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -50016,7 +49319,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
@@ -50024,7 +49327,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B10" s="8">
         <v>-0.1346802</v>
@@ -50038,7 +49341,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" s="8">
         <v>1.236059</v>
@@ -50052,7 +49355,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="8">
         <v>1.2526740000000001</v>
@@ -50324,7 +49627,7 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D32" s="8"/>
     </row>
@@ -50373,12 +49676,12 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -59460,10 +58763,10 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DC16F1-B546-4B1B-A7F9-5AE1E00B2BEA}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:Q31"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59472,7 +58775,7 @@
     <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>244</v>
       </c>
@@ -59480,7 +58783,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -59500,12 +58803,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -59527,13 +58830,16 @@
       <c r="G4">
         <v>0.38664179999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -59556,7 +58862,7 @@
         <v>0.19654360000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -59578,13 +58884,16 @@
       <c r="G7">
         <v>0.39636130000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>249</v>
       </c>
@@ -59606,8 +58915,11 @@
       <c r="G9">
         <v>0.3350071</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -59629,13 +58941,16 @@
       <c r="G10">
         <v>0.4776165</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -59658,7 +58973,7 @@
         <v>0.54957049999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -59681,7 +58996,7 @@
         <v>0.38164029999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -59704,7 +59019,7 @@
         <v>0.27280720000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -59726,8 +59041,11 @@
       <c r="G15">
         <v>0.60685009999999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -59911,6 +59229,9 @@
       <c r="G23">
         <v>1.6447210000000001</v>
       </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -59935,6 +59256,18 @@
       </c>
       <c r="B26" s="7">
         <v>6.8099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f>SUMPRODUCT(I4:I23,B4:B23)</f>
+        <v>2.3804315999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f>EXP(I27+(B25^2)/2)</f>
+        <v>16.866185279046146</v>
       </c>
     </row>
   </sheetData>

--- a/input/reg_socialcare.xlsx
+++ b/input/reg_socialcare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\regression models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A773C52-44DF-4760-A27F-F3CDEBF3CFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88695655-2479-49A3-B118-BD522AF67ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="551" firstSheet="5" activeTab="8" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="551" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -411,9 +411,6 @@
   </si>
   <si>
     <t>Description:</t>
-  </si>
-  <si>
-    <t>Model parameters governing projection of demand for social care</t>
   </si>
   <si>
     <t>First edit:</t>
@@ -1327,6 +1324,9 @@
   <si>
     <t>Carer(s) (lag, ref: none)</t>
   </si>
+  <si>
+    <t>Model parameters governing projection of demand for social care and supply of informal care</t>
+  </si>
 </sst>
 </file>
 
@@ -1521,7 +1521,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1601,9 +1601,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1621,7 +1618,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1643,9 +1642,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1683,7 +1682,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1789,7 +1788,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1931,7 +1930,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1941,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F25AC8-F3A4-45E4-B3D4-29D900575D65}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,12 +1956,12 @@
         <v>113</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>114</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
@@ -1970,10 +1969,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2111,7 +2110,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B19" s="9" t="str">
         <f>'Process 3a'!A1</f>
@@ -2120,7 +2119,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B20" s="9" t="str">
         <f>'Process 3b'!A1</f>
@@ -2129,7 +2128,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B21" s="9" t="str">
         <f>'Process S3c'!A1</f>
@@ -2138,7 +2137,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B22" s="9" t="str">
         <f>'Process S3d'!A1</f>
@@ -2147,7 +2146,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B23" s="9" t="str">
         <f>'Process S3e'!A1</f>
@@ -2189,16 +2188,16 @@
         <v>41</v>
       </c>
       <c r="F1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" t="s">
         <v>221</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>222</v>
       </c>
-      <c r="H1" t="s">
-        <v>223</v>
-      </c>
       <c r="I1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J1" t="s">
         <v>74</v>
@@ -2446,7 +2445,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B5">
         <v>0.35533554145171109</v>
@@ -2514,7 +2513,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6">
         <v>0.28018090961419573</v>
@@ -2582,7 +2581,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7">
         <v>0.52218538837839523</v>
@@ -2650,7 +2649,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8">
         <v>0.26360134512948974</v>
@@ -3635,16 +3634,16 @@
         <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" t="s">
         <v>222</v>
       </c>
-      <c r="H1" t="s">
-        <v>223</v>
-      </c>
       <c r="I1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J1" t="s">
         <v>74</v>
@@ -3892,7 +3891,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5">
         <v>-0.28165436560092671</v>
@@ -3960,7 +3959,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6">
         <v>-1.7052824546023269E-3</v>
@@ -4028,7 +4027,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7">
         <v>-0.1235709699055489</v>
@@ -4096,7 +4095,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8">
         <v>0.1757836073659991</v>
@@ -5081,16 +5080,16 @@
         <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J1" t="s">
         <v>74</v>
@@ -5338,7 +5337,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5">
         <v>-0.25524537664026964</v>
@@ -5406,7 +5405,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6">
         <v>-7.0373245995186393E-2</v>
@@ -5474,7 +5473,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7">
         <v>-0.14480073276974093</v>
@@ -5542,7 +5541,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8">
         <v>-4.5235044773563854E-2</v>
@@ -6527,16 +6526,16 @@
         <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" t="s">
         <v>221</v>
       </c>
-      <c r="H1" t="s">
-        <v>222</v>
-      </c>
       <c r="I1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J1" t="s">
         <v>74</v>
@@ -6784,7 +6783,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5">
         <v>-0.18558528013258829</v>
@@ -6852,7 +6851,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6">
         <v>6.0310576263088896E-3</v>
@@ -6920,7 +6919,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B7">
         <v>-8.8451418870808138E-2</v>
@@ -6988,7 +6987,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8">
         <v>0.112527971676043</v>
@@ -7973,7 +7972,7 @@
         <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G1" t="s">
         <v>74</v>
@@ -8194,7 +8193,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5">
         <v>0.19649246101674164</v>
@@ -9065,52 +9064,52 @@
         <v>74</v>
       </c>
       <c r="J1" t="s">
+        <v>370</v>
+      </c>
+      <c r="K1" t="s">
         <v>371</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>372</v>
       </c>
-      <c r="L1" t="s">
-        <v>373</v>
-      </c>
       <c r="M1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N1" t="s">
         <v>252</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>253</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>254</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>255</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>256</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>257</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>258</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>259</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>260</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>261</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>262</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>263</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>264</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -9942,7 +9941,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B9">
         <v>-0.13468015449712439</v>
@@ -10055,7 +10054,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B10">
         <v>1.2360594696402825</v>
@@ -10168,7 +10167,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B11">
         <v>1.2526743455656943</v>
@@ -10281,7 +10280,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B12">
         <v>0.47168261141923579</v>
@@ -10394,7 +10393,7 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B13">
         <v>0.34429751093083105</v>
@@ -10507,7 +10506,7 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B14">
         <v>0.59245645697628968</v>
@@ -10620,7 +10619,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B15">
         <v>0.78085864011255157</v>
@@ -10733,7 +10732,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B16">
         <v>0.64115800910671294</v>
@@ -10846,7 +10845,7 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B17">
         <v>0.7751706310443891</v>
@@ -10959,7 +10958,7 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B18">
         <v>0.74084178821461222</v>
@@ -11072,7 +11071,7 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B19">
         <v>0.58973812124483305</v>
@@ -11185,7 +11184,7 @@
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B20">
         <v>0.43628276189181064</v>
@@ -11298,7 +11297,7 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B21">
         <v>0.27490868154277004</v>
@@ -11411,7 +11410,7 @@
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B22">
         <v>0.18063832789838222</v>
@@ -11524,7 +11523,7 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B23">
         <v>0.16388261019586942</v>
@@ -11637,7 +11636,7 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B24">
         <v>-3.1210328952464336E-2</v>
@@ -13152,58 +13151,58 @@
         <v>74</v>
       </c>
       <c r="J1" t="s">
+        <v>370</v>
+      </c>
+      <c r="K1" t="s">
         <v>371</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>372</v>
       </c>
-      <c r="L1" t="s">
-        <v>373</v>
-      </c>
       <c r="M1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N1" t="s">
+        <v>251</v>
+      </c>
+      <c r="O1" t="s">
         <v>252</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>253</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>254</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>255</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>256</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>257</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>258</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>259</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>260</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>261</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>262</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>263</v>
       </c>
-      <c r="Z1" t="s">
-        <v>264</v>
-      </c>
       <c r="AA1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AB1" t="s">
         <v>28</v>
@@ -14077,7 +14076,7 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B9">
         <v>0.25869233445896295</v>
@@ -14196,7 +14195,7 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B10">
         <v>1.5142504338202676</v>
@@ -14315,7 +14314,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B11">
         <v>1.8060831570926916</v>
@@ -14434,7 +14433,7 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12">
         <v>-0.10735732742929881</v>
@@ -14553,7 +14552,7 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13">
         <v>0.10559867884746151</v>
@@ -14672,7 +14671,7 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B14">
         <v>0.17312040904060755</v>
@@ -14791,7 +14790,7 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B15">
         <v>0.216097894329877</v>
@@ -14910,7 +14909,7 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B16">
         <v>0.32046628979961045</v>
@@ -15029,7 +15028,7 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B17">
         <v>0.34158881285455861</v>
@@ -15148,7 +15147,7 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B18">
         <v>0.43431686566326705</v>
@@ -15267,7 +15266,7 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B19">
         <v>0.53355335561897799</v>
@@ -15386,7 +15385,7 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B20">
         <v>0.52563920613191195</v>
@@ -15505,7 +15504,7 @@
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B21">
         <v>0.48333161427178029</v>
@@ -15624,7 +15623,7 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B22">
         <v>0.39454810012735869</v>
@@ -15743,7 +15742,7 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B23">
         <v>0.25491627380715731</v>
@@ -15862,7 +15861,7 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B24">
         <v>0.10614513944844824</v>
@@ -15981,7 +15980,7 @@
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B25">
         <v>4.9113030625864496E-3</v>
@@ -16100,7 +16099,7 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B26">
         <v>-0.18829314163183661</v>
@@ -17689,55 +17688,55 @@
         <v>74</v>
       </c>
       <c r="J1" t="s">
+        <v>370</v>
+      </c>
+      <c r="K1" t="s">
         <v>371</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>372</v>
       </c>
-      <c r="L1" t="s">
-        <v>373</v>
-      </c>
       <c r="M1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N1" t="s">
         <v>252</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>253</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>254</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>255</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>256</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>257</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>258</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>259</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>260</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>261</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>262</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>263</v>
       </c>
-      <c r="Y1" t="s">
-        <v>264</v>
-      </c>
       <c r="Z1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AA1" t="s">
         <v>28</v>
@@ -18590,7 +18589,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B9">
         <v>0.39977195757379846</v>
@@ -18706,7 +18705,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B10">
         <v>1.1982019384889886</v>
@@ -18822,7 +18821,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B11">
         <v>1.7782700768396966</v>
@@ -18938,7 +18937,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B12">
         <v>0.10961493749519757</v>
@@ -19054,7 +19053,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B13">
         <v>0.19078781534303726</v>
@@ -19170,7 +19169,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B14">
         <v>0.26097551355840587</v>
@@ -19286,7 +19285,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B15">
         <v>0.35086970282697039</v>
@@ -19402,7 +19401,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B16">
         <v>0.42262077111856577</v>
@@ -19518,7 +19517,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B17">
         <v>0.47204232880501473</v>
@@ -19634,7 +19633,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B18">
         <v>0.49925208716711711</v>
@@ -19750,7 +19749,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B19">
         <v>0.44557389487782656</v>
@@ -19866,7 +19865,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B20">
         <v>0.45266314928401735</v>
@@ -19982,7 +19981,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B21">
         <v>0.36086439905256024</v>
@@ -20098,7 +20097,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B22">
         <v>0.2905485186403472</v>
@@ -20214,7 +20213,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B23">
         <v>0.15634966390158592</v>
@@ -20330,7 +20329,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B24">
         <v>2.5008592317754961E-2</v>
@@ -20446,7 +20445,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25">
         <v>-0.15967161301456678</v>
@@ -21975,243 +21974,243 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" t="s">
         <v>302</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>303</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>304</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>305</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>306</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>307</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L1" t="s">
+        <v>373</v>
+      </c>
+      <c r="M1" t="s">
         <v>308</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
+        <v>309</v>
+      </c>
+      <c r="O1" t="s">
+        <v>310</v>
+      </c>
+      <c r="P1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1" t="s">
+        <v>313</v>
+      </c>
+      <c r="S1" t="s">
+        <v>314</v>
+      </c>
+      <c r="T1" t="s">
+        <v>315</v>
+      </c>
+      <c r="U1" t="s">
+        <v>316</v>
+      </c>
+      <c r="V1" t="s">
+        <v>317</v>
+      </c>
+      <c r="W1" t="s">
+        <v>318</v>
+      </c>
+      <c r="X1" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>377</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AK1" t="s">
         <v>380</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AL1" t="s">
         <v>374</v>
       </c>
-      <c r="M1" t="s">
-        <v>309</v>
-      </c>
-      <c r="N1" t="s">
-        <v>310</v>
-      </c>
-      <c r="O1" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>313</v>
-      </c>
-      <c r="R1" t="s">
-        <v>314</v>
-      </c>
-      <c r="S1" t="s">
-        <v>315</v>
-      </c>
-      <c r="T1" t="s">
-        <v>316</v>
-      </c>
-      <c r="U1" t="s">
-        <v>317</v>
-      </c>
-      <c r="V1" t="s">
-        <v>318</v>
-      </c>
-      <c r="W1" t="s">
-        <v>319</v>
-      </c>
-      <c r="X1" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>321</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AM1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>368</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>369</v>
+      </c>
+      <c r="BC1" t="s">
         <v>324</v>
       </c>
-      <c r="AC1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>351</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>354</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="BD1" t="s">
+        <v>325</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>327</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>328</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>378</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BK1" t="s">
         <v>381</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BL1" t="s">
         <v>375</v>
       </c>
-      <c r="AM1" t="s">
-        <v>355</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>356</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>358</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>360</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>368</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>369</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>370</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>325</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>326</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>327</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>328</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>329</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BI1" t="s">
+      <c r="BM1" t="s">
         <v>331</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>379</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>382</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>376</v>
-      </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>332</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>333</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>334</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>335</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>336</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>337</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>338</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>339</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>340</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>341</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>342</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>343</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>344</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>345</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>346</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2">
         <v>-2.7616936035943316E-2</v>
@@ -22453,7 +22452,7 @@
     </row>
     <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3">
         <v>0.36572065914342194</v>
@@ -22695,7 +22694,7 @@
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B4">
         <v>0.63249987889921022</v>
@@ -22937,7 +22936,7 @@
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B5">
         <v>4.5050375271087191E-2</v>
@@ -23179,7 +23178,7 @@
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6">
         <v>0.19127315884644083</v>
@@ -23421,7 +23420,7 @@
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B7">
         <v>0.52237795163905199</v>
@@ -23663,7 +23662,7 @@
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B8">
         <v>0.60648409798777547</v>
@@ -23905,7 +23904,7 @@
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B9">
         <v>4.7066360608284494</v>
@@ -24147,7 +24146,7 @@
     </row>
     <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B10">
         <v>4.5486352195460649</v>
@@ -24389,7 +24388,7 @@
     </row>
     <row r="11" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B11">
         <v>0.40359882407003134</v>
@@ -24631,7 +24630,7 @@
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B12">
         <v>6.9353846669294644E-2</v>
@@ -24873,7 +24872,7 @@
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B13">
         <v>0.25054488755056825</v>
@@ -25115,7 +25114,7 @@
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B14">
         <v>0.65086612397210797</v>
@@ -25357,7 +25356,7 @@
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B15">
         <v>1.2029721772231932</v>
@@ -25599,7 +25598,7 @@
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B16">
         <v>9.4063102729240983E-2</v>
@@ -25841,7 +25840,7 @@
     </row>
     <row r="17" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B17">
         <v>5.1828069397896019E-2</v>
@@ -26083,7 +26082,7 @@
     </row>
     <row r="18" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B18">
         <v>-4.3892655459313028E-2</v>
@@ -26325,7 +26324,7 @@
     </row>
     <row r="19" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B19">
         <v>-0.10932274568152381</v>
@@ -26567,7 +26566,7 @@
     </row>
     <row r="20" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B20">
         <v>5.0318700087640784E-2</v>
@@ -26809,7 +26808,7 @@
     </row>
     <row r="21" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B21">
         <v>-0.1958766561888905</v>
@@ -27051,7 +27050,7 @@
     </row>
     <row r="22" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B22">
         <v>-0.15028726206222104</v>
@@ -27293,7 +27292,7 @@
     </row>
     <row r="23" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B23">
         <v>-2.075337886545384E-2</v>
@@ -27535,7 +27534,7 @@
     </row>
     <row r="24" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B24">
         <v>-6.1394087335860971E-2</v>
@@ -27777,7 +27776,7 @@
     </row>
     <row r="25" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B25">
         <v>1.9097163456355717E-2</v>
@@ -28019,7 +28018,7 @@
     </row>
     <row r="26" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B26">
         <v>2.3156367556155012E-2</v>
@@ -28261,7 +28260,7 @@
     </row>
     <row r="27" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B27">
         <v>-5.0683019630344219</v>
@@ -28503,7 +28502,7 @@
     </row>
     <row r="28" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B28">
         <v>-0.19427060041754729</v>
@@ -28745,7 +28744,7 @@
     </row>
     <row r="29" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B29">
         <v>0.41033740945659852</v>
@@ -28987,7 +28986,7 @@
     </row>
     <row r="30" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B30">
         <v>0.41509811723840584</v>
@@ -29229,7 +29228,7 @@
     </row>
     <row r="31" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B31">
         <v>9.4035667733039882E-2</v>
@@ -29471,7 +29470,7 @@
     </row>
     <row r="32" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B32">
         <v>0.21808131413650544</v>
@@ -29713,7 +29712,7 @@
     </row>
     <row r="33" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B33">
         <v>0.61063844466657813</v>
@@ -29955,7 +29954,7 @@
     </row>
     <row r="34" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B34">
         <v>0.72216771794884582</v>
@@ -30197,7 +30196,7 @@
     </row>
     <row r="35" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B35">
         <v>4.6005819611151235</v>
@@ -30439,7 +30438,7 @@
     </row>
     <row r="36" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B36">
         <v>6.7710410126570704</v>
@@ -30681,7 +30680,7 @@
     </row>
     <row r="37" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B37">
         <v>2.5612786702436328</v>
@@ -30923,7 +30922,7 @@
     </row>
     <row r="38" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B38">
         <v>0.29158463003193269</v>
@@ -31165,7 +31164,7 @@
     </row>
     <row r="39" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B39">
         <v>0.5723585772773</v>
@@ -31407,7 +31406,7 @@
     </row>
     <row r="40" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B40">
         <v>0.55389710257385616</v>
@@ -31649,7 +31648,7 @@
     </row>
     <row r="41" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B41">
         <v>0.47248412475356</v>
@@ -31891,7 +31890,7 @@
     </row>
     <row r="42" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B42">
         <v>0.20046270789397441</v>
@@ -32133,7 +32132,7 @@
     </row>
     <row r="43" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B43">
         <v>-5.982223562122968E-2</v>
@@ -32375,7 +32374,7 @@
     </row>
     <row r="44" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B44">
         <v>2.788450425966656E-2</v>
@@ -32617,7 +32616,7 @@
     </row>
     <row r="45" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B45">
         <v>-0.2024158744828643</v>
@@ -32859,7 +32858,7 @@
     </row>
     <row r="46" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B46">
         <v>8.976515647364712E-2</v>
@@ -33101,7 +33100,7 @@
     </row>
     <row r="47" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B47">
         <v>-0.22431341765199117</v>
@@ -33343,7 +33342,7 @@
     </row>
     <row r="48" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B48">
         <v>-9.071014613384254E-2</v>
@@ -33585,7 +33584,7 @@
     </row>
     <row r="49" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B49">
         <v>-0.20165909911584196</v>
@@ -33827,7 +33826,7 @@
     </row>
     <row r="50" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B50">
         <v>5.2161914649696883E-2</v>
@@ -34069,7 +34068,7 @@
     </row>
     <row r="51" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B51">
         <v>-0.12347447645867128</v>
@@ -34311,7 +34310,7 @@
     </row>
     <row r="52" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B52">
         <v>0.26340465623408549</v>
@@ -34553,7 +34552,7 @@
     </row>
     <row r="53" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B53">
         <v>-6.6225720056532262</v>
@@ -34795,7 +34794,7 @@
     </row>
     <row r="54" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B54">
         <v>-0.33644637713360609</v>
@@ -35037,7 +35036,7 @@
     </row>
     <row r="55" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B55">
         <v>0.15706283607648713</v>
@@ -35279,7 +35278,7 @@
     </row>
     <row r="56" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B56">
         <v>-5.8575600742218438E-2</v>
@@ -35521,7 +35520,7 @@
     </row>
     <row r="57" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B57">
         <v>0.15454424673129313</v>
@@ -35763,7 +35762,7 @@
     </row>
     <row r="58" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B58">
         <v>0.15692009996394987</v>
@@ -36005,7 +36004,7 @@
     </row>
     <row r="59" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B59">
         <v>0.14018074080866927</v>
@@ -36247,7 +36246,7 @@
     </row>
     <row r="60" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B60">
         <v>-2.5751444609815557E-2</v>
@@ -36489,7 +36488,7 @@
     </row>
     <row r="61" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B61">
         <v>0.31668775133088661</v>
@@ -36731,7 +36730,7 @@
     </row>
     <row r="62" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B62">
         <v>2.7420880310071145</v>
@@ -36973,7 +36972,7 @@
     </row>
     <row r="63" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B63">
         <v>3.1975522647774861</v>
@@ -37215,7 +37214,7 @@
     </row>
     <row r="64" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B64">
         <v>0.29580631817527459</v>
@@ -37457,7 +37456,7 @@
     </row>
     <row r="65" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B65">
         <v>0.62620538085393518</v>
@@ -37699,7 +37698,7 @@
     </row>
     <row r="66" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B66">
         <v>0.70125323720227739</v>
@@ -37941,7 +37940,7 @@
     </row>
     <row r="67" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B67">
         <v>0.19889900775965319</v>
@@ -38183,7 +38182,7 @@
     </row>
     <row r="68" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B68">
         <v>0.12540892712839397</v>
@@ -38425,7 +38424,7 @@
     </row>
     <row r="69" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B69">
         <v>-2.3529997307720506E-2</v>
@@ -38667,7 +38666,7 @@
     </row>
     <row r="70" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B70">
         <v>-4.6636374503210218E-2</v>
@@ -38909,7 +38908,7 @@
     </row>
     <row r="71" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B71">
         <v>0.13530141963088171</v>
@@ -39151,7 +39150,7 @@
     </row>
     <row r="72" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B72">
         <v>0.13170490222608633</v>
@@ -39393,7 +39392,7 @@
     </row>
     <row r="73" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B73">
         <v>4.8176817755592301E-2</v>
@@ -39635,7 +39634,7 @@
     </row>
     <row r="74" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B74">
         <v>-5.3460760277513871E-3</v>
@@ -39877,7 +39876,7 @@
     </row>
     <row r="75" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B75">
         <v>4.9216064484720545E-2</v>
@@ -40119,7 +40118,7 @@
     </row>
     <row r="76" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B76">
         <v>5.5205410832971362E-2</v>
@@ -40361,7 +40360,7 @@
     </row>
     <row r="77" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B77">
         <v>1.0680771598910515E-2</v>
@@ -40603,7 +40602,7 @@
     </row>
     <row r="78" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B78">
         <v>6.8960412749350206E-2</v>
@@ -40845,7 +40844,7 @@
     </row>
     <row r="79" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B79">
         <v>-3.2735627176095972</v>
@@ -41129,55 +41128,55 @@
         <v>74</v>
       </c>
       <c r="J1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1" t="s">
         <v>383</v>
       </c>
-      <c r="K1" t="s">
-        <v>384</v>
-      </c>
       <c r="L1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N1" t="s">
         <v>252</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>253</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>254</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>255</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>256</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>257</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>258</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>259</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>260</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>261</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>262</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>263</v>
       </c>
-      <c r="Y1" t="s">
-        <v>264</v>
-      </c>
       <c r="Z1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AA1" t="s">
         <v>28</v>
@@ -42030,7 +42029,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B9">
         <v>-0.20462041162760941</v>
@@ -42146,7 +42145,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B10">
         <v>-1.2723230033686566</v>
@@ -42262,7 +42261,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11">
         <v>-0.23398774166299932</v>
@@ -42378,7 +42377,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B12">
         <v>0.16516844659580046</v>
@@ -42494,7 +42493,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B13">
         <v>0.27893091012436277</v>
@@ -42610,7 +42609,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B14">
         <v>0.52550538644708211</v>
@@ -42726,7 +42725,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B15">
         <v>0.59696514012270785</v>
@@ -42842,7 +42841,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B16">
         <v>0.56353713906657932</v>
@@ -42958,7 +42957,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B17">
         <v>0.30933714929870226</v>
@@ -43074,7 +43073,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B18">
         <v>0.22312300106712393</v>
@@ -43190,7 +43189,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B19">
         <v>0.19616201682020309</v>
@@ -43306,7 +43305,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B20">
         <v>0.15153975512082307</v>
@@ -43422,7 +43421,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B21">
         <v>6.5108250382756042E-2</v>
@@ -43538,7 +43537,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B22">
         <v>6.8036194293389168E-2</v>
@@ -43654,7 +43653,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B23">
         <v>7.1242830408701385E-2</v>
@@ -43770,7 +43769,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B24">
         <v>6.7698844165096403E-2</v>
@@ -43886,7 +43885,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25">
         <v>-7.2208296510200498E-2</v>
@@ -45429,7 +45428,7 @@
         <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G1" t="s">
         <v>28</v>
@@ -45638,7 +45637,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5">
         <v>0.33684642732223663</v>
@@ -46384,7 +46383,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -46393,10 +46392,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>235</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -46526,7 +46525,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
@@ -46534,7 +46533,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B15" s="8">
         <v>-0.20462040000000001</v>
@@ -46548,7 +46547,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B16" s="8">
         <v>-1.2723230000000001</v>
@@ -46582,7 +46581,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
@@ -46590,7 +46589,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19" s="8">
         <v>0.16516839999999999</v>
@@ -46604,7 +46603,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B20" s="8">
         <v>0.27893089999999998</v>
@@ -46618,7 +46617,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21" s="8">
         <v>0.52550540000000001</v>
@@ -46632,7 +46631,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B22" s="8">
         <v>0.59696510000000003</v>
@@ -46646,7 +46645,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="8">
         <v>0.56353710000000001</v>
@@ -46660,7 +46659,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B24" s="8">
         <v>0.30933709999999998</v>
@@ -46674,7 +46673,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" s="8">
         <v>0.22312299999999999</v>
@@ -46688,7 +46687,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="8">
         <v>0.196162</v>
@@ -46702,7 +46701,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" s="8">
         <v>0.1515398</v>
@@ -46716,7 +46715,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B28" s="8">
         <v>6.5108299999999994E-2</v>
@@ -46733,7 +46732,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" s="8">
         <v>6.8036200000000005E-2</v>
@@ -46747,7 +46746,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" s="8">
         <v>7.1242799999999995E-2</v>
@@ -46761,7 +46760,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B31" s="8">
         <v>6.7698800000000003E-2</v>
@@ -46814,7 +46813,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B35">
         <v>1.2788999999999999</v>
@@ -46822,7 +46821,7 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B36" s="35">
         <v>0.17829999999999999</v>
@@ -46847,12 +46846,12 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -47080,23 +47079,23 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="E2" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
       <c r="H2" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
@@ -47107,28 +47106,28 @@
         <v>2</v>
       </c>
       <c r="C3" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>235</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>236</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3" s="40" t="s">
         <v>235</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>236</v>
       </c>
       <c r="H3" s="39" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="40" t="s">
         <v>235</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -47251,7 +47250,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="8"/>
@@ -47265,7 +47264,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B10" s="42">
         <v>4.7066359999999996</v>
@@ -47297,7 +47296,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B11" s="42">
         <v>4.548635</v>
@@ -47329,7 +47328,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B12" s="42">
         <v>0.40359879999999998</v>
@@ -47503,7 +47502,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="8"/>
@@ -47517,7 +47516,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B19" s="42">
         <v>6.9353799999999993E-2</v>
@@ -47549,7 +47548,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B20" s="42">
         <v>0.25054490000000001</v>
@@ -47581,7 +47580,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B21" s="42">
         <v>0.6508661</v>
@@ -47613,7 +47612,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B22" s="42">
         <v>1.2029719999999999</v>
@@ -47681,17 +47680,17 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -48066,12 +48065,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -48080,10 +48079,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>235</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -48143,7 +48142,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
@@ -48151,7 +48150,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B10" s="8">
         <v>0.39977200000000002</v>
@@ -48165,7 +48164,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B11" s="8">
         <v>1.198202</v>
@@ -48179,7 +48178,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B12" s="8">
         <v>1.77827</v>
@@ -48257,7 +48256,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
@@ -48265,7 +48264,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19" s="8">
         <v>0.1096149</v>
@@ -48279,7 +48278,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B20" s="8">
         <v>0.19078780000000001</v>
@@ -48293,7 +48292,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21" s="8">
         <v>0.26097550000000003</v>
@@ -48307,7 +48306,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B22" s="8">
         <v>0.35086970000000001</v>
@@ -48321,7 +48320,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="8">
         <v>0.42262080000000002</v>
@@ -48335,7 +48334,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B24" s="8">
         <v>0.47204230000000003</v>
@@ -48349,7 +48348,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" s="8">
         <v>0.49925209999999998</v>
@@ -48363,7 +48362,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="8">
         <v>0.44557390000000002</v>
@@ -48377,7 +48376,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" s="8">
         <v>0.45266309999999998</v>
@@ -48391,7 +48390,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B28" s="8">
         <v>0.36086439999999997</v>
@@ -48405,7 +48404,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" s="8">
         <v>0.29054849999999999</v>
@@ -48419,7 +48418,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" s="8">
         <v>0.15634970000000001</v>
@@ -48433,7 +48432,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B31" s="8">
         <v>2.5008599999999999E-2</v>
@@ -48504,12 +48503,12 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -48694,12 +48693,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -48708,10 +48707,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>235</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -48771,7 +48770,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
@@ -48779,7 +48778,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B10" s="8">
         <v>0.25869229999999999</v>
@@ -48793,7 +48792,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B11" s="8">
         <v>1.5142500000000001</v>
@@ -48807,7 +48806,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B12" s="8">
         <v>1.8060830000000001</v>
@@ -48902,7 +48901,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="7"/>
@@ -48910,7 +48909,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B20" s="8">
         <v>0.1055987</v>
@@ -48924,7 +48923,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B21" s="8">
         <v>0.17312040000000001</v>
@@ -48938,7 +48937,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B22" s="8">
         <v>0.21609790000000001</v>
@@ -48952,7 +48951,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B23" s="8">
         <v>0.32046629999999998</v>
@@ -48966,7 +48965,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B24" s="8">
         <v>0.34158880000000003</v>
@@ -48983,7 +48982,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B25" s="8">
         <v>0.43431690000000001</v>
@@ -48997,7 +48996,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B26" s="8">
         <v>0.53355339999999996</v>
@@ -49011,7 +49010,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B27" s="8">
         <v>0.52563919999999997</v>
@@ -49025,7 +49024,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B28" s="8">
         <v>0.48333159999999997</v>
@@ -49039,7 +49038,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B29" s="8">
         <v>0.39454810000000001</v>
@@ -49053,7 +49052,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B30" s="8">
         <v>0.25491629999999998</v>
@@ -49067,7 +49066,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B31" s="8">
         <v>0.10614510000000001</v>
@@ -49081,7 +49080,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B32" s="8">
         <v>4.9113000000000004E-3</v>
@@ -49155,12 +49154,12 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -49398,12 +49397,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -49412,10 +49411,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>235</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -49481,7 +49480,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
@@ -49489,7 +49488,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B10" s="8">
         <v>-0.1346802</v>
@@ -49506,7 +49505,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B11" s="8">
         <v>1.236059</v>
@@ -49520,7 +49519,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B12" s="8">
         <v>1.2526740000000001</v>
@@ -49601,7 +49600,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
@@ -49609,7 +49608,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19" s="8">
         <v>0.47168260000000001</v>
@@ -49623,7 +49622,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B20" s="8">
         <v>0.34429749999999998</v>
@@ -49637,7 +49636,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21" s="8">
         <v>0.59245650000000005</v>
@@ -49651,7 +49650,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B22" s="8">
         <v>0.78085859999999996</v>
@@ -49665,7 +49664,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="8">
         <v>0.64115800000000001</v>
@@ -49679,7 +49678,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B24" s="8">
         <v>0.77517060000000004</v>
@@ -49693,7 +49692,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" s="8">
         <v>0.74084179999999999</v>
@@ -49707,7 +49706,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="8">
         <v>0.58973810000000004</v>
@@ -49721,7 +49720,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" s="8">
         <v>0.43628280000000003</v>
@@ -49735,7 +49734,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B28" s="8">
         <v>0.27490870000000001</v>
@@ -49749,7 +49748,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" s="8">
         <v>0.1806383</v>
@@ -49763,7 +49762,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B30" s="8">
         <v>0.16388259999999999</v>
@@ -49780,7 +49779,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B31" s="8">
         <v>-3.12103E-2</v>
@@ -49798,7 +49797,7 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D32" s="8"/>
     </row>
@@ -49863,12 +49862,12 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -50091,7 +50090,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -50099,20 +50098,20 @@
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -50652,7 +50651,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -50660,20 +50659,20 @@
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -51177,7 +51176,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -52106,7 +52105,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -53007,7 +53006,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -53029,53 +53028,53 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>235</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>236</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="46" t="s">
         <v>391</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B5" s="49">
+        <v>392</v>
+      </c>
+      <c r="B5" s="48">
         <v>0.20569999999999999</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="50">
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="49">
         <v>0.1227</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
       <c r="J5" s="24"/>
       <c r="M5" s="3"/>
     </row>
@@ -53131,7 +53130,7 @@
       <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="8">
         <v>1</v>
       </c>
     </row>
@@ -53157,11 +53156,11 @@
       <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="I9" s="53"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="7"/>
@@ -53172,7 +53171,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B11" s="42">
         <v>-1.24369</v>
@@ -53192,7 +53191,7 @@
       <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="8">
         <v>1</v>
       </c>
     </row>
@@ -53218,7 +53217,7 @@
       <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="I12" s="53"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -53265,7 +53264,7 @@
       <c r="G14" s="8">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I14" s="53"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -53329,7 +53328,7 @@
       <c r="H17" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="53"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -53460,7 +53459,7 @@
       <c r="H22" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="53"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -53487,7 +53486,7 @@
       <c r="H23" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="53"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -53514,7 +53513,7 @@
       <c r="H24" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="53">
+      <c r="I24" s="8">
         <v>1</v>
       </c>
     </row>
@@ -53576,7 +53575,7 @@
       <c r="A27" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="51">
+      <c r="B27" s="50">
         <v>-1.1280760000000001</v>
       </c>
       <c r="C27" s="33">
@@ -53585,7 +53584,7 @@
       <c r="D27" s="32">
         <v>0</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="50">
         <v>-0.26661240000000003</v>
       </c>
       <c r="F27" s="33">
@@ -53610,8 +53609,8 @@
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
-        <v>396</v>
+      <c r="A29" s="51" t="s">
+        <v>395</v>
       </c>
       <c r="B29" s="7">
         <v>0.67159999999999997</v>
@@ -53651,13 +53650,13 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="I33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M33" s="3"/>
     </row>
@@ -53737,10 +53736,10 @@
         <v>27</v>
       </c>
       <c r="F1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" t="s">
         <v>135</v>
-      </c>
-      <c r="G1" t="s">
-        <v>136</v>
       </c>
       <c r="H1" t="s">
         <v>28</v>
@@ -53958,7 +53957,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="22">
         <v>-0.30806080192628621</v>
@@ -54017,7 +54016,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="22">
         <v>-0.56764242237721185</v>
@@ -54802,7 +54801,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
         <v>80</v>
@@ -54885,7 +54884,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6">
         <v>-0.3005543</v>
@@ -55308,7 +55307,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G1" t="s">
         <v>82</v>
@@ -55320,10 +55319,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>235</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -55333,7 +55332,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B4">
         <v>0.1048</v>
@@ -55341,7 +55340,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -55372,7 +55371,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -55396,7 +55395,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H8">
         <f>EXP(SUMPRODUCT(E6:E10,B6:B10))</f>
@@ -55409,7 +55408,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B9" s="8">
         <v>1.086568</v>
@@ -55424,7 +55423,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H9">
         <f>EXP(SUMPRODUCT(E6:E10,B14:B18))</f>
@@ -55452,7 +55451,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H10">
         <f>EXP(SUMPRODUCT(E6:E10,B22:B26))</f>
@@ -55473,7 +55472,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B12" s="7">
         <v>4.0599999999999997E-2</v>
@@ -55481,7 +55480,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -55528,7 +55527,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B17" s="8">
         <v>1.4185779999999999</v>
@@ -55561,7 +55560,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B20" s="7">
         <v>2.3800000000000002E-2</v>
@@ -55569,7 +55568,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -55616,7 +55615,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B25" s="8">
         <v>16.037739999999999</v>
@@ -55652,7 +55651,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B28">
         <v>0.83089999999999997</v>
@@ -55671,12 +55670,12 @@
     <row r="30" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -55699,44 +55698,44 @@
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>235</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="47" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
       <c r="M3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N3">
         <v>-2.279099511458512</v>
@@ -55849,20 +55848,20 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>393</v>
-      </c>
-      <c r="B4" s="49">
+        <v>392</v>
+      </c>
+      <c r="B4" s="48">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48">
         <v>9.2399999999999996E-2</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
       <c r="M4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N4">
         <v>3.4147017817740473</v>
@@ -55975,12 +55974,12 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B5" s="41"/>
       <c r="E5" s="41"/>
       <c r="M5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N5">
         <v>-0.95463155922872989</v>
@@ -56093,7 +56092,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B6" s="42">
         <v>-2.2791000000000001</v>
@@ -56114,7 +56113,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N6">
         <v>2.536665772723957</v>
@@ -56248,7 +56247,7 @@
         <v>0.01</v>
       </c>
       <c r="M7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N7">
         <v>2.9444697449420563</v>
@@ -56382,7 +56381,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N8">
         <v>-0.28468345535908007</v>
@@ -56516,7 +56515,7 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="M9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N9">
         <v>-1.5326073234271591</v>
@@ -56650,7 +56649,7 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="M10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N10">
         <v>-1.7005020955485395</v>
@@ -56784,7 +56783,7 @@
         <v>0.24</v>
       </c>
       <c r="M11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N11">
         <v>-2.7083201550229439</v>
@@ -56899,7 +56898,7 @@
       <c r="A12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="50">
         <v>-1.5326070000000001</v>
       </c>
       <c r="C12" s="33">
@@ -56908,7 +56907,7 @@
       <c r="D12" s="32">
         <v>0</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="50">
         <v>-1.5855410000000001</v>
       </c>
       <c r="F12" s="33">
@@ -56918,7 +56917,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N12">
         <v>3.1615202913148099</v>
@@ -57031,18 +57030,18 @@
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="47" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
       <c r="M13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N13">
         <v>-0.1467943449023057</v>
@@ -57155,20 +57154,20 @@
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>393</v>
-      </c>
-      <c r="B14" s="50">
+        <v>392</v>
+      </c>
+      <c r="B14" s="49">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49">
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
       <c r="M14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N14">
         <v>1.1488065348112808</v>
@@ -57281,12 +57280,12 @@
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B15" s="41"/>
       <c r="E15" s="41"/>
       <c r="M15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N15">
         <v>0.75721647217066179</v>
@@ -57399,7 +57398,7 @@
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B16" s="42">
         <v>-4.2610349999999997</v>
@@ -57420,7 +57419,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N16">
         <v>-1.5855412220541378</v>
@@ -57554,7 +57553,7 @@
         <v>0.54500000000000004</v>
       </c>
       <c r="M17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N17">
         <v>-4.2610353839923469</v>
@@ -57688,7 +57687,7 @@
         <v>0.109</v>
       </c>
       <c r="M18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N18">
         <v>-0.15178347227543376</v>
@@ -57822,7 +57821,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N19">
         <v>-3.1637908276192581</v>
@@ -57956,7 +57955,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N20">
         <v>4.474571403589187</v>
@@ -58090,7 +58089,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="M21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N21">
         <v>4.2255634401222313</v>
@@ -58205,7 +58204,7 @@
       <c r="A22" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="50">
         <v>-0.78415409999999997</v>
       </c>
       <c r="C22" s="33">
@@ -58214,7 +58213,7 @@
       <c r="D22" s="32">
         <v>0</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="50">
         <v>-2.2159080000000002</v>
       </c>
       <c r="F22" s="33">
@@ -58224,7 +58223,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N22">
         <v>0.40039216889957907</v>
@@ -58337,13 +58336,13 @@
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
       <c r="M23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N23">
         <v>-0.78415414598024236</v>
@@ -58456,15 +58455,15 @@
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>393</v>
-      </c>
-      <c r="B24" s="49">
+        <v>392</v>
+      </c>
+      <c r="B24" s="48">
         <v>0.2492</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
       <c r="M24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N24">
         <v>-2.6283666776981001</v>
@@ -58577,11 +58576,11 @@
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B25" s="41"/>
       <c r="M25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N25">
         <v>0.48847662664513508</v>
@@ -58694,7 +58693,7 @@
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B26" s="42">
         <v>-4.1452429999999998</v>
@@ -58706,7 +58705,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N26">
         <v>-1.7097869765546321</v>
@@ -58831,7 +58830,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="M27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N27">
         <v>2.9819555381396472</v>
@@ -58956,7 +58955,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N28">
         <v>7.5540443516411644</v>
@@ -59081,7 +59080,7 @@
         <v>0.39100000000000001</v>
       </c>
       <c r="M29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N29">
         <v>1.4457824906690453</v>
@@ -59206,7 +59205,7 @@
         <v>0.36499999999999999</v>
       </c>
       <c r="M30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N30">
         <v>-2.2159083629661098</v>
@@ -59331,7 +59330,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N31">
         <v>-4.1452426545231829</v>
@@ -59446,7 +59445,7 @@
       <c r="A32" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="51">
+      <c r="B32" s="50">
         <v>-0.26447209999999999</v>
       </c>
       <c r="C32" s="33">
@@ -59459,7 +59458,7 @@
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
       <c r="M32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N32">
         <v>-1.3958399030347377</v>
@@ -59578,7 +59577,7 @@
         <v>2232</v>
       </c>
       <c r="M33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N33">
         <v>-1.6065604266656106</v>
@@ -59691,13 +59690,13 @@
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B34">
         <v>0.3609</v>
       </c>
       <c r="M34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N34">
         <v>-0.60559057185912357</v>
@@ -59821,7 +59820,7 @@
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
       <c r="M35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N35">
         <v>1.2132187626444682</v>
@@ -59934,7 +59933,7 @@
     </row>
     <row r="36" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N36">
         <v>3.7705987338815934</v>
@@ -60047,7 +60046,7 @@
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="M37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N37">
         <v>-0.26447207075119339</v>
@@ -60179,7 +60178,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G1" t="s">
         <v>91</v>
@@ -60779,7 +60778,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G1" t="s">
         <v>97</v>
@@ -61365,7 +61364,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -61389,7 +61388,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G1" t="s">
         <v>96</v>
@@ -62005,7 +62004,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -62521,7 +62520,7 @@
         <v>9.3399999999999997E-2</v>
       </c>
       <c r="J29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -62545,10 +62544,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -62655,12 +62654,12 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9">
         <v>0.19649249999999999</v>
@@ -63065,7 +63064,7 @@
         <v>8.3056985079833119</v>
       </c>
       <c r="K28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -63104,10 +63103,10 @@
         <v>41</v>
       </c>
       <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" t="s">
         <v>137</v>
-      </c>
-      <c r="G1" t="s">
-        <v>138</v>
       </c>
       <c r="H1" t="s">
         <v>71</v>
@@ -63122,34 +63121,34 @@
         <v>74</v>
       </c>
       <c r="L1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" t="s">
         <v>125</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>126</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>127</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>128</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>129</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>130</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>131</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>132</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>133</v>
-      </c>
-      <c r="U1" t="s">
-        <v>134</v>
       </c>
       <c r="V1" t="s">
         <v>28</v>
@@ -63493,7 +63492,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="24">
         <v>0.1601900719021731</v>
@@ -63594,7 +63593,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="24">
         <v>2.3229471366859702</v>
@@ -64099,7 +64098,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="24">
         <v>-0.37399971750669081</v>
@@ -64200,7 +64199,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="24">
         <v>-0.25815773114018498</v>
@@ -64301,7 +64300,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="24">
         <v>-0.29815573188046202</v>
@@ -64402,7 +64401,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="24">
         <v>-0.18483684669155084</v>
@@ -64503,7 +64502,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="24">
         <v>-0.21457712287264716</v>
@@ -64604,7 +64603,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="24">
         <v>-5.4475609230476056E-2</v>
@@ -64705,7 +64704,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="24">
         <v>-4.7413594948193034E-2</v>
@@ -64806,7 +64805,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" s="24">
         <v>-1.8696921028814997E-2</v>
@@ -64907,7 +64906,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="24">
         <v>5.0798830829767168E-2</v>
@@ -65008,7 +65007,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" s="24">
         <v>0.16652526368344084</v>
@@ -66354,10 +66353,10 @@
         <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H1" t="s">
         <v>71</v>
@@ -66372,34 +66371,34 @@
         <v>74</v>
       </c>
       <c r="L1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" t="s">
         <v>125</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>126</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>127</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>128</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>129</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>130</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>131</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>132</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>133</v>
-      </c>
-      <c r="U1" t="s">
-        <v>134</v>
       </c>
       <c r="V1" t="s">
         <v>28</v>
@@ -66743,7 +66742,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="24">
         <v>0.20078310903425625</v>
@@ -66844,7 +66843,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" s="24">
         <v>2.2957826542265227</v>
@@ -67349,7 +67348,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="24">
         <v>-0.25044091350790559</v>
@@ -67450,7 +67449,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="24">
         <v>-0.12123426299460913</v>
@@ -67551,7 +67550,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="24">
         <v>-0.12755578186958169</v>
@@ -67652,7 +67651,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="24">
         <v>-7.0007411433812269E-2</v>
@@ -67753,7 +67752,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="24">
         <v>-3.0087405070343565E-2</v>
@@ -67854,7 +67853,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="24">
         <v>5.8733716458895871E-2</v>
@@ -67955,7 +67954,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="24">
         <v>0.14082161444099586</v>
@@ -68056,7 +68055,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" s="24">
         <v>0.20538173166186657</v>
@@ -68157,7 +68156,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="24">
         <v>0.28946785866416352</v>
@@ -68258,7 +68257,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" s="24">
         <v>0.54244736140030814</v>
@@ -69595,123 +69594,123 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>140</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" t="s">
         <v>141</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1" t="s">
+        <v>150</v>
+      </c>
+      <c r="S1" t="s">
+        <v>151</v>
+      </c>
+      <c r="T1" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V1" t="s">
+        <v>154</v>
+      </c>
+      <c r="W1" t="s">
+        <v>155</v>
+      </c>
+      <c r="X1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y1" t="s">
         <v>397</v>
       </c>
-      <c r="G1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="Z1" t="s">
         <v>179</v>
       </c>
-      <c r="I1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M1" t="s">
-        <v>146</v>
-      </c>
-      <c r="N1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O1" t="s">
-        <v>148</v>
-      </c>
-      <c r="P1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>150</v>
-      </c>
-      <c r="R1" t="s">
-        <v>151</v>
-      </c>
-      <c r="S1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T1" t="s">
-        <v>153</v>
-      </c>
-      <c r="U1" t="s">
-        <v>154</v>
-      </c>
-      <c r="V1" t="s">
-        <v>155</v>
-      </c>
-      <c r="W1" t="s">
-        <v>156</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB1" t="s">
         <v>157</v>
       </c>
-      <c r="Y1" t="s">
-        <v>398</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>158</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>159</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>160</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>161</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>162</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>163</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>164</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>165</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>166</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>167</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>168</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>169</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2">
         <v>-0.29244798401759736</v>
@@ -69833,7 +69832,7 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3">
         <v>-0.41616940690430348</v>
@@ -69955,7 +69954,7 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4">
         <v>-0.57643692933908364</v>
@@ -70077,7 +70076,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B5">
         <v>-1.2436896081034186</v>
@@ -70199,7 +70198,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6">
         <v>2.9865055769810573</v>
@@ -70321,7 +70320,7 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7">
         <v>1.6069976785174567</v>
@@ -70443,7 +70442,7 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8">
         <v>0.25796583086770719</v>
@@ -70565,7 +70564,7 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9">
         <v>-1.977377091944358E-2</v>
@@ -70687,7 +70686,7 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10">
         <v>2.09463972061632E-2</v>
@@ -70809,7 +70808,7 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11">
         <v>0.45560998429266514</v>
@@ -70931,7 +70930,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12">
         <v>8.0781556483277991E-2</v>
@@ -71053,7 +71052,7 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13">
         <v>0.12383435653356023</v>
@@ -71175,7 +71174,7 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14">
         <v>0.76918340322218393</v>
@@ -71297,7 +71296,7 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15">
         <v>0.49319464661848322</v>
@@ -71419,7 +71418,7 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16">
         <v>0.44532597892858655</v>
@@ -71541,7 +71540,7 @@
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17">
         <v>9.2600391678924865E-2</v>
@@ -71663,7 +71662,7 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18">
         <v>0.3214229950722311</v>
@@ -71785,7 +71784,7 @@
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B19">
         <v>0.53430386376954797</v>
@@ -71907,7 +71906,7 @@
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B20">
         <v>-1.1280762424885329</v>
@@ -72029,7 +72028,7 @@
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21">
         <v>-0.38668844724378765</v>
@@ -72151,7 +72150,7 @@
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B22">
         <v>-1.1446656879502928</v>
@@ -72273,7 +72272,7 @@
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23">
         <v>-1.686923712894332</v>
@@ -72395,7 +72394,7 @@
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B24">
         <v>-2.5431662925720966</v>
@@ -72517,7 +72516,7 @@
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B25">
         <v>0.77727291590410297</v>
@@ -72639,7 +72638,7 @@
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B26">
         <v>4.1911317490832731</v>
@@ -72761,7 +72760,7 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27">
         <v>-5.6595331987209984E-3</v>
@@ -72883,7 +72882,7 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28">
         <v>-1.1558029780590628</v>
@@ -73005,7 +73004,7 @@
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B29">
         <v>-0.19688481024153945</v>
@@ -73127,7 +73126,7 @@
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B30">
         <v>-0.11824780330412493</v>
@@ -73249,7 +73248,7 @@
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31">
         <v>0.34470325261201595</v>
@@ -73371,7 +73370,7 @@
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32">
         <v>4.4366074309408379E-2</v>
@@ -73493,7 +73492,7 @@
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B33">
         <v>0.35910328127126728</v>
@@ -73615,7 +73614,7 @@
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34">
         <v>9.4013518626123393E-2</v>
@@ -73737,7 +73736,7 @@
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B35">
         <v>0.14285331556784342</v>
@@ -73859,7 +73858,7 @@
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B36">
         <v>-0.27226928164667674</v>
@@ -73981,7 +73980,7 @@
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B37">
         <v>-0.30956730529885296</v>
@@ -74103,7 +74102,7 @@
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B38">
         <v>1.6591216204051931E-2</v>
@@ -74225,7 +74224,7 @@
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B39">
         <v>-0.26661235479250373</v>
@@ -74371,13 +74370,13 @@
         <v>27</v>
       </c>
       <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
         <v>182</v>
       </c>
-      <c r="E1" t="s">
-        <v>183</v>
-      </c>
       <c r="F1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
         <v>28</v>
@@ -74474,7 +74473,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3">
         <v>1.4463432083039935</v>
@@ -74530,7 +74529,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4">
         <v>-0.30055434956842536</v>
@@ -74586,7 +74585,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5">
         <v>-0.54802780857749533</v>
@@ -75338,54 +75337,54 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" t="s">
         <v>184</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>185</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" t="s">
         <v>186</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" t="s">
         <v>404</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>171</v>
       </c>
-      <c r="H1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>189</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P1" t="s">
         <v>405</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>172</v>
-      </c>
-      <c r="M1" t="s">
-        <v>190</v>
-      </c>
-      <c r="N1" t="s">
-        <v>191</v>
-      </c>
-      <c r="O1" t="s">
-        <v>192</v>
-      </c>
-      <c r="P1" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2">
         <v>5.2525083978704208</v>
@@ -75438,7 +75437,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3">
         <v>2.3450971612842433</v>
@@ -75491,7 +75490,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4">
         <v>2.478599111642064</v>
@@ -75544,7 +75543,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B5">
         <v>1.0865680091838372</v>
@@ -75597,7 +75596,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6">
         <v>-4.7522464906945654</v>
@@ -75650,7 +75649,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7">
         <v>2.3047930230298737</v>
@@ -75703,7 +75702,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8">
         <v>5.9875545304926359</v>
@@ -75756,7 +75755,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9">
         <v>3.4235599107440509</v>
@@ -75809,7 +75808,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B10">
         <v>1.4185779996704873</v>
@@ -75862,7 +75861,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11">
         <v>-5.8893073999116368</v>
@@ -75915,7 +75914,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B12">
         <v>1.3315160663289021</v>
@@ -75968,7 +75967,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B13">
         <v>2.9986696275660165</v>
@@ -76021,7 +76020,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B14">
         <v>6.1083736884224944</v>
@@ -76074,7 +76073,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B15">
         <v>16.03774458448558</v>
@@ -76127,7 +76126,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16">
         <v>-20.810449581809735</v>
@@ -76187,7 +76186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33532568-1F0D-4AD8-9590-0BB6B83BFC96}">
   <dimension ref="A1:AK36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -76204,114 +76203,114 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" t="s">
         <v>413</v>
       </c>
-      <c r="D1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>197</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" t="s">
         <v>174</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>414</v>
       </c>
-      <c r="K1" t="s">
-        <v>198</v>
-      </c>
-      <c r="L1" t="s">
-        <v>199</v>
-      </c>
-      <c r="M1" t="s">
-        <v>200</v>
-      </c>
-      <c r="N1" t="s">
-        <v>201</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>207</v>
+      </c>
+      <c r="S1" t="s">
+        <v>208</v>
+      </c>
+      <c r="T1" t="s">
+        <v>209</v>
+      </c>
+      <c r="U1" t="s">
+        <v>210</v>
+      </c>
+      <c r="V1" t="s">
+        <v>211</v>
+      </c>
+      <c r="W1" t="s">
+        <v>212</v>
+      </c>
+      <c r="X1" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y1" t="s">
         <v>202</v>
       </c>
-      <c r="P1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>415</v>
-      </c>
-      <c r="R1" t="s">
-        <v>208</v>
-      </c>
-      <c r="S1" t="s">
-        <v>209</v>
-      </c>
-      <c r="T1" t="s">
-        <v>210</v>
-      </c>
-      <c r="U1" t="s">
-        <v>211</v>
-      </c>
-      <c r="V1" t="s">
-        <v>212</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AF1" t="s">
         <v>213</v>
       </c>
-      <c r="X1" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>214</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>215</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>216</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>217</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>218</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B2">
         <v>-2.279099511458512</v>
@@ -76424,7 +76423,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3">
         <v>3.4147017817740473</v>
@@ -76537,7 +76536,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4">
         <v>-0.95463155922872989</v>
@@ -76650,7 +76649,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5">
         <v>2.536665772723957</v>
@@ -76763,7 +76762,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6">
         <v>2.9444697449420563</v>
@@ -76876,7 +76875,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7">
         <v>-0.28468345535908007</v>
@@ -76989,7 +76988,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8">
         <v>-1.5326073234271591</v>
@@ -77102,7 +77101,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B9">
         <v>-1.7005020955485395</v>
@@ -77215,7 +77214,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B10">
         <v>-2.7083201550229439</v>
@@ -77328,7 +77327,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B11">
         <v>3.1615202913148099</v>
@@ -77441,7 +77440,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B12">
         <v>-0.1467943449023057</v>
@@ -77554,7 +77553,7 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B13">
         <v>1.1488065348112808</v>
@@ -77667,7 +77666,7 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B14">
         <v>0.75721647217066179</v>
@@ -77780,7 +77779,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15">
         <v>-1.5855412220541378</v>
@@ -77893,7 +77892,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B16">
         <v>-4.2610353839923469</v>
@@ -78006,7 +78005,7 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B17">
         <v>-0.15178347227543376</v>
@@ -78119,7 +78118,7 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B18">
         <v>-3.1637908276192581</v>
@@ -78232,7 +78231,7 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19">
         <v>4.474571403589187</v>
@@ -78345,7 +78344,7 @@
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B20">
         <v>4.2255634401222313</v>
@@ -78458,7 +78457,7 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21">
         <v>0.40039216889957907</v>
@@ -78571,7 +78570,7 @@
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B22">
         <v>-0.78415414598024236</v>
@@ -78684,7 +78683,7 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B23">
         <v>-2.6283666776981001</v>
@@ -78797,7 +78796,7 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B24">
         <v>0.48847662664513508</v>
@@ -78910,7 +78909,7 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B25">
         <v>-1.7097869765546321</v>
@@ -79023,7 +79022,7 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B26">
         <v>2.9819555381396472</v>
@@ -79136,7 +79135,7 @@
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B27">
         <v>7.5540443516411644</v>
@@ -79249,7 +79248,7 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B28">
         <v>1.4457824906690453</v>
@@ -79362,7 +79361,7 @@
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B29">
         <v>-2.2159083629661098</v>
@@ -79475,7 +79474,7 @@
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B30">
         <v>-4.1452426545231829</v>
@@ -79588,7 +79587,7 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B31">
         <v>-1.3958399030347377</v>
@@ -79701,7 +79700,7 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B32">
         <v>-1.6065604266656106</v>
@@ -79814,7 +79813,7 @@
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B33">
         <v>-0.60559057185912357</v>
@@ -79927,7 +79926,7 @@
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B34">
         <v>1.2132187626444682</v>
@@ -80040,7 +80039,7 @@
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B35">
         <v>3.7705987338815934</v>
@@ -80153,7 +80152,7 @@
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B36">
         <v>-0.26447207075119339</v>

--- a/input/reg_socialcare.xlsx
+++ b/input/reg_socialcare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88695655-2479-49A3-B118-BD522AF67ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534F022D-089D-43BA-AC2B-221F415B5823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="551" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="551" firstSheet="14" activeTab="21" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -884,9 +884,6 @@
     <t>S3e</t>
   </si>
   <si>
-    <t>Probit regression estimates for the incidence of informal care to non-partners where person is providing care to a partner</t>
-  </si>
-  <si>
     <t>care for partner (lag, Ref = no care)</t>
   </si>
   <si>
@@ -908,9 +905,6 @@
     <t>Notes: Sample limited to individuals aged 18 and over with partners to whom they provide informal care and without missing variables. Weighted estimates with robust standard errors. "lag" defined as preceding year. Regional dummy variables generally not significant, and omitted from table for brevity (available from authors upon request).</t>
   </si>
   <si>
-    <t>Probit regression estimates for the incidence of informal care to non-partners where person is not providing care to a partner</t>
-  </si>
-  <si>
     <t>Care for partner (lag, Ref = no care)</t>
   </si>
   <si>
@@ -924,9 +918,6 @@
   </si>
   <si>
     <t>distinguishes between no care provision and only provision to non-partner - used when projecting population through time</t>
-  </si>
-  <si>
-    <t>Probit regression estimates for the incidence of informal care for people who do not have a partner</t>
   </si>
   <si>
     <t>distinguishes between no care provision and only provision to non-partner - used when evaluating expectations for behaviour</t>
@@ -1326,6 +1317,15 @@
   </si>
   <si>
     <t>Model parameters governing projection of demand for social care and supply of informal care</t>
+  </si>
+  <si>
+    <t>Probit regression estimates for the incidence of informal care provision to non-partners where person is providing care to a partner</t>
+  </si>
+  <si>
+    <t>Probit regression estimates for the incidence of informal care provision to non-partners where person is not providing care to a partner</t>
+  </si>
+  <si>
+    <t>Probit regression estimates for the incidence of informal care provision for people who do not have a partner</t>
   </si>
 </sst>
 </file>
@@ -1940,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F25AC8-F3A4-45E4-B3D4-29D900575D65}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,7 +1956,7 @@
         <v>113</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
         <v>115</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B19" s="9" t="str">
         <f>'Process 3a'!A1</f>
-        <v>Probit regression estimates for the incidence of informal care to non-partners where person is providing care to a partner</v>
+        <v>Probit regression estimates for the incidence of informal care provision to non-partners where person is providing care to a partner</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B20" s="9" t="str">
         <f>'Process 3b'!A1</f>
-        <v>Probit regression estimates for the incidence of informal care to non-partners where person is not providing care to a partner</v>
+        <v>Probit regression estimates for the incidence of informal care provision to non-partners where person is not providing care to a partner</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="B21" s="9" t="str">
         <f>'Process S3c'!A1</f>
-        <v>Probit regression estimates for the incidence of informal care for people who do not have a partner</v>
+        <v>Probit regression estimates for the incidence of informal care provision for people who do not have a partner</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -9064,13 +9064,13 @@
         <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M1" t="s">
         <v>251</v>
@@ -9941,7 +9941,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B9">
         <v>-0.13468015449712439</v>
@@ -10054,7 +10054,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B10">
         <v>1.2360594696402825</v>
@@ -10167,7 +10167,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B11">
         <v>1.2526743455656943</v>
@@ -13151,13 +13151,13 @@
         <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M1" t="s">
         <v>136</v>
@@ -13202,7 +13202,7 @@
         <v>263</v>
       </c>
       <c r="AA1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AB1" t="s">
         <v>28</v>
@@ -14076,7 +14076,7 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B9">
         <v>0.25869233445896295</v>
@@ -14195,7 +14195,7 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B10">
         <v>1.5142504338202676</v>
@@ -14314,7 +14314,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B11">
         <v>1.8060831570926916</v>
@@ -17688,13 +17688,13 @@
         <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M1" t="s">
         <v>251</v>
@@ -17736,7 +17736,7 @@
         <v>263</v>
       </c>
       <c r="Z1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AA1" t="s">
         <v>28</v>
@@ -18589,7 +18589,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B9">
         <v>0.39977195757379846</v>
@@ -18705,7 +18705,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B10">
         <v>1.1982019384889886</v>
@@ -18821,7 +18821,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B11">
         <v>1.7782700768396966</v>
@@ -21974,243 +21974,243 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" t="s">
         <v>301</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>302</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>303</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>304</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>373</v>
+      </c>
+      <c r="K1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L1" t="s">
+        <v>370</v>
+      </c>
+      <c r="M1" t="s">
         <v>305</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>306</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>307</v>
       </c>
-      <c r="J1" t="s">
-        <v>376</v>
-      </c>
-      <c r="K1" t="s">
-        <v>379</v>
-      </c>
-      <c r="L1" t="s">
-        <v>373</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>308</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>309</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>310</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>311</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>312</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>313</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>314</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>315</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>316</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>317</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>318</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>319</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>320</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>364</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>365</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>366</v>
+      </c>
+      <c r="BC1" t="s">
         <v>321</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="BD1" t="s">
         <v>322</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="BE1" t="s">
         <v>323</v>
       </c>
-      <c r="AC1" t="s">
-        <v>347</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>351</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>354</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>355</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>356</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>358</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>360</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>368</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>369</v>
-      </c>
-      <c r="BC1" t="s">
+      <c r="BF1" t="s">
         <v>324</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>325</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>326</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>327</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
+        <v>375</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>378</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>372</v>
+      </c>
+      <c r="BM1" t="s">
         <v>328</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BN1" t="s">
         <v>329</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BO1" t="s">
         <v>330</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>378</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>381</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>375</v>
-      </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>331</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>332</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>333</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
         <v>334</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
         <v>335</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BU1" t="s">
         <v>336</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BV1" t="s">
         <v>337</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BW1" t="s">
         <v>338</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BX1" t="s">
         <v>339</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BY1" t="s">
         <v>340</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BZ1" t="s">
         <v>341</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CA1" t="s">
         <v>342</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CB1" t="s">
         <v>343</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>344</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>345</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B2">
         <v>-2.7616936035943316E-2</v>
@@ -22452,7 +22452,7 @@
     </row>
     <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B3">
         <v>0.36572065914342194</v>
@@ -22694,7 +22694,7 @@
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B4">
         <v>0.63249987889921022</v>
@@ -22936,7 +22936,7 @@
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B5">
         <v>4.5050375271087191E-2</v>
@@ -23178,7 +23178,7 @@
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B6">
         <v>0.19127315884644083</v>
@@ -23420,7 +23420,7 @@
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B7">
         <v>0.52237795163905199</v>
@@ -23662,7 +23662,7 @@
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B8">
         <v>0.60648409798777547</v>
@@ -23904,7 +23904,7 @@
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B9">
         <v>4.7066360608284494</v>
@@ -24146,7 +24146,7 @@
     </row>
     <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B10">
         <v>4.5486352195460649</v>
@@ -24388,7 +24388,7 @@
     </row>
     <row r="11" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B11">
         <v>0.40359882407003134</v>
@@ -24630,7 +24630,7 @@
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B12">
         <v>6.9353846669294644E-2</v>
@@ -24872,7 +24872,7 @@
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B13">
         <v>0.25054488755056825</v>
@@ -25114,7 +25114,7 @@
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B14">
         <v>0.65086612397210797</v>
@@ -25356,7 +25356,7 @@
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B15">
         <v>1.2029721772231932</v>
@@ -25598,7 +25598,7 @@
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B16">
         <v>9.4063102729240983E-2</v>
@@ -25840,7 +25840,7 @@
     </row>
     <row r="17" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B17">
         <v>5.1828069397896019E-2</v>
@@ -26082,7 +26082,7 @@
     </row>
     <row r="18" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B18">
         <v>-4.3892655459313028E-2</v>
@@ -26324,7 +26324,7 @@
     </row>
     <row r="19" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B19">
         <v>-0.10932274568152381</v>
@@ -26566,7 +26566,7 @@
     </row>
     <row r="20" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B20">
         <v>5.0318700087640784E-2</v>
@@ -26808,7 +26808,7 @@
     </row>
     <row r="21" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B21">
         <v>-0.1958766561888905</v>
@@ -27050,7 +27050,7 @@
     </row>
     <row r="22" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B22">
         <v>-0.15028726206222104</v>
@@ -27292,7 +27292,7 @@
     </row>
     <row r="23" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B23">
         <v>-2.075337886545384E-2</v>
@@ -27534,7 +27534,7 @@
     </row>
     <row r="24" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B24">
         <v>-6.1394087335860971E-2</v>
@@ -27776,7 +27776,7 @@
     </row>
     <row r="25" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B25">
         <v>1.9097163456355717E-2</v>
@@ -28018,7 +28018,7 @@
     </row>
     <row r="26" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B26">
         <v>2.3156367556155012E-2</v>
@@ -28260,7 +28260,7 @@
     </row>
     <row r="27" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B27">
         <v>-5.0683019630344219</v>
@@ -28502,7 +28502,7 @@
     </row>
     <row r="28" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B28">
         <v>-0.19427060041754729</v>
@@ -28744,7 +28744,7 @@
     </row>
     <row r="29" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B29">
         <v>0.41033740945659852</v>
@@ -28986,7 +28986,7 @@
     </row>
     <row r="30" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B30">
         <v>0.41509811723840584</v>
@@ -29228,7 +29228,7 @@
     </row>
     <row r="31" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B31">
         <v>9.4035667733039882E-2</v>
@@ -29470,7 +29470,7 @@
     </row>
     <row r="32" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B32">
         <v>0.21808131413650544</v>
@@ -29712,7 +29712,7 @@
     </row>
     <row r="33" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B33">
         <v>0.61063844466657813</v>
@@ -29954,7 +29954,7 @@
     </row>
     <row r="34" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B34">
         <v>0.72216771794884582</v>
@@ -30196,7 +30196,7 @@
     </row>
     <row r="35" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B35">
         <v>4.6005819611151235</v>
@@ -30438,7 +30438,7 @@
     </row>
     <row r="36" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B36">
         <v>6.7710410126570704</v>
@@ -30680,7 +30680,7 @@
     </row>
     <row r="37" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B37">
         <v>2.5612786702436328</v>
@@ -30922,7 +30922,7 @@
     </row>
     <row r="38" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B38">
         <v>0.29158463003193269</v>
@@ -31164,7 +31164,7 @@
     </row>
     <row r="39" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B39">
         <v>0.5723585772773</v>
@@ -31406,7 +31406,7 @@
     </row>
     <row r="40" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B40">
         <v>0.55389710257385616</v>
@@ -31648,7 +31648,7 @@
     </row>
     <row r="41" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B41">
         <v>0.47248412475356</v>
@@ -31890,7 +31890,7 @@
     </row>
     <row r="42" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B42">
         <v>0.20046270789397441</v>
@@ -32132,7 +32132,7 @@
     </row>
     <row r="43" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B43">
         <v>-5.982223562122968E-2</v>
@@ -32374,7 +32374,7 @@
     </row>
     <row r="44" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B44">
         <v>2.788450425966656E-2</v>
@@ -32616,7 +32616,7 @@
     </row>
     <row r="45" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B45">
         <v>-0.2024158744828643</v>
@@ -32858,7 +32858,7 @@
     </row>
     <row r="46" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B46">
         <v>8.976515647364712E-2</v>
@@ -33100,7 +33100,7 @@
     </row>
     <row r="47" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B47">
         <v>-0.22431341765199117</v>
@@ -33342,7 +33342,7 @@
     </row>
     <row r="48" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B48">
         <v>-9.071014613384254E-2</v>
@@ -33584,7 +33584,7 @@
     </row>
     <row r="49" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B49">
         <v>-0.20165909911584196</v>
@@ -33826,7 +33826,7 @@
     </row>
     <row r="50" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B50">
         <v>5.2161914649696883E-2</v>
@@ -34068,7 +34068,7 @@
     </row>
     <row r="51" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B51">
         <v>-0.12347447645867128</v>
@@ -34310,7 +34310,7 @@
     </row>
     <row r="52" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B52">
         <v>0.26340465623408549</v>
@@ -34552,7 +34552,7 @@
     </row>
     <row r="53" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B53">
         <v>-6.6225720056532262</v>
@@ -34794,7 +34794,7 @@
     </row>
     <row r="54" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B54">
         <v>-0.33644637713360609</v>
@@ -35036,7 +35036,7 @@
     </row>
     <row r="55" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B55">
         <v>0.15706283607648713</v>
@@ -35278,7 +35278,7 @@
     </row>
     <row r="56" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B56">
         <v>-5.8575600742218438E-2</v>
@@ -35520,7 +35520,7 @@
     </row>
     <row r="57" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B57">
         <v>0.15454424673129313</v>
@@ -35762,7 +35762,7 @@
     </row>
     <row r="58" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B58">
         <v>0.15692009996394987</v>
@@ -36004,7 +36004,7 @@
     </row>
     <row r="59" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B59">
         <v>0.14018074080866927</v>
@@ -36246,7 +36246,7 @@
     </row>
     <row r="60" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B60">
         <v>-2.5751444609815557E-2</v>
@@ -36488,7 +36488,7 @@
     </row>
     <row r="61" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B61">
         <v>0.31668775133088661</v>
@@ -36730,7 +36730,7 @@
     </row>
     <row r="62" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B62">
         <v>2.7420880310071145</v>
@@ -36972,7 +36972,7 @@
     </row>
     <row r="63" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B63">
         <v>3.1975522647774861</v>
@@ -37214,7 +37214,7 @@
     </row>
     <row r="64" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B64">
         <v>0.29580631817527459</v>
@@ -37456,7 +37456,7 @@
     </row>
     <row r="65" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B65">
         <v>0.62620538085393518</v>
@@ -37698,7 +37698,7 @@
     </row>
     <row r="66" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B66">
         <v>0.70125323720227739</v>
@@ -37940,7 +37940,7 @@
     </row>
     <row r="67" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B67">
         <v>0.19889900775965319</v>
@@ -38182,7 +38182,7 @@
     </row>
     <row r="68" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B68">
         <v>0.12540892712839397</v>
@@ -38424,7 +38424,7 @@
     </row>
     <row r="69" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B69">
         <v>-2.3529997307720506E-2</v>
@@ -38666,7 +38666,7 @@
     </row>
     <row r="70" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B70">
         <v>-4.6636374503210218E-2</v>
@@ -38908,7 +38908,7 @@
     </row>
     <row r="71" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B71">
         <v>0.13530141963088171</v>
@@ -39150,7 +39150,7 @@
     </row>
     <row r="72" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B72">
         <v>0.13170490222608633</v>
@@ -39392,7 +39392,7 @@
     </row>
     <row r="73" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B73">
         <v>4.8176817755592301E-2</v>
@@ -39634,7 +39634,7 @@
     </row>
     <row r="74" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B74">
         <v>-5.3460760277513871E-3</v>
@@ -39876,7 +39876,7 @@
     </row>
     <row r="75" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B75">
         <v>4.9216064484720545E-2</v>
@@ -40118,7 +40118,7 @@
     </row>
     <row r="76" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B76">
         <v>5.5205410832971362E-2</v>
@@ -40360,7 +40360,7 @@
     </row>
     <row r="77" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B77">
         <v>1.0680771598910515E-2</v>
@@ -40602,7 +40602,7 @@
     </row>
     <row r="78" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B78">
         <v>6.8960412749350206E-2</v>
@@ -40844,7 +40844,7 @@
     </row>
     <row r="79" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B79">
         <v>-3.2735627176095972</v>
@@ -41128,10 +41128,10 @@
         <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L1" t="s">
         <v>136</v>
@@ -42029,7 +42029,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B9">
         <v>-0.20462041162760941</v>
@@ -42145,7 +42145,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B10">
         <v>-1.2723230033686566</v>
@@ -46383,7 +46383,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -46525,7 +46525,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
@@ -46533,7 +46533,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B15" s="8">
         <v>-0.20462040000000001</v>
@@ -46547,7 +46547,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B16" s="8">
         <v>-1.2723230000000001</v>
@@ -46851,7 +46851,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -47079,23 +47079,23 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="37" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="E2" s="37" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
       <c r="H2" s="37" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
@@ -47250,7 +47250,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="8"/>
@@ -47264,7 +47264,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B10" s="42">
         <v>4.7066359999999996</v>
@@ -47296,7 +47296,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B11" s="42">
         <v>4.548635</v>
@@ -47328,7 +47328,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B12" s="42">
         <v>0.40359879999999998</v>
@@ -47502,7 +47502,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="8"/>
@@ -47516,7 +47516,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B19" s="42">
         <v>6.9353799999999993E-2</v>
@@ -47548,7 +47548,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B20" s="42">
         <v>0.25054490000000001</v>
@@ -47580,7 +47580,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B21" s="42">
         <v>0.6508661</v>
@@ -47612,7 +47612,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B22" s="42">
         <v>1.2029719999999999</v>
@@ -47680,17 +47680,17 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -48054,9 +48054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015EFB6B-7043-420F-ACC1-42287328EA5E}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -48065,12 +48063,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -48142,7 +48140,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
@@ -48150,7 +48148,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B10" s="8">
         <v>0.39977200000000002</v>
@@ -48164,7 +48162,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B11" s="8">
         <v>1.198202</v>
@@ -48178,7 +48176,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B12" s="8">
         <v>1.77827</v>
@@ -48503,12 +48501,12 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -48682,9 +48680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2B4F9D-B3E8-4A90-8B93-00EF36D5DB61}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -48693,12 +48689,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -48770,7 +48766,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
@@ -48778,7 +48774,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B10" s="8">
         <v>0.25869229999999999</v>
@@ -48792,7 +48788,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B11" s="8">
         <v>1.5142500000000001</v>
@@ -48806,7 +48802,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B12" s="8">
         <v>1.8060830000000001</v>
@@ -49066,7 +49062,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B31" s="8">
         <v>0.10614510000000001</v>
@@ -49154,12 +49150,12 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -49386,8 +49382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9104025-97C2-445F-8B24-6FDFF8620E89}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49397,12 +49393,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -49480,7 +49476,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
@@ -49488,7 +49484,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B10" s="8">
         <v>-0.1346802</v>
@@ -49505,7 +49501,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B11" s="8">
         <v>1.236059</v>
@@ -49519,7 +49515,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B12" s="8">
         <v>1.2526740000000001</v>
@@ -49762,7 +49758,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B30" s="8">
         <v>0.16388259999999999</v>
@@ -49797,7 +49793,7 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D32" s="8"/>
     </row>
@@ -49862,12 +49858,12 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -53051,19 +53047,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="46" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
       <c r="E4" s="46" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B5" s="48">
         <v>0.20569999999999999</v>
@@ -53160,7 +53156,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="7"/>
@@ -53171,7 +53167,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B11" s="42">
         <v>-1.24369</v>
@@ -53610,7 +53606,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="51" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B29" s="7">
         <v>0.67159999999999997</v>
@@ -53650,13 +53646,13 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="I33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K33" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M33" s="3"/>
     </row>
@@ -55332,7 +55328,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B4">
         <v>0.1048</v>
@@ -55340,7 +55336,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -55371,7 +55367,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -55395,7 +55391,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H8">
         <f>EXP(SUMPRODUCT(E6:E10,B6:B10))</f>
@@ -55408,7 +55404,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B9" s="8">
         <v>1.086568</v>
@@ -55423,7 +55419,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H9">
         <f>EXP(SUMPRODUCT(E6:E10,B14:B18))</f>
@@ -55451,7 +55447,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H10">
         <f>EXP(SUMPRODUCT(E6:E10,B22:B26))</f>
@@ -55472,7 +55468,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B12" s="7">
         <v>4.0599999999999997E-2</v>
@@ -55480,7 +55476,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -55527,7 +55523,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B17" s="8">
         <v>1.4185779999999999</v>
@@ -55560,7 +55556,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B20" s="7">
         <v>2.3800000000000002E-2</v>
@@ -55568,7 +55564,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -55615,7 +55611,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B25" s="8">
         <v>16.037739999999999</v>
@@ -55651,7 +55647,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B28">
         <v>0.83089999999999997</v>
@@ -55670,12 +55666,12 @@
     <row r="30" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -55735,7 +55731,7 @@
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
       <c r="M3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="N3">
         <v>-2.279099511458512</v>
@@ -55848,7 +55844,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B4" s="48">
         <v>8.2199999999999995E-2</v>
@@ -55974,7 +55970,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B5" s="41"/>
       <c r="E5" s="41"/>
@@ -56092,7 +56088,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B6" s="42">
         <v>-2.2791000000000001</v>
@@ -56649,7 +56645,7 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="M10" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="N10">
         <v>-1.7005020955485395</v>
@@ -57154,7 +57150,7 @@
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B14" s="49">
         <v>0.16400000000000001</v>
@@ -57280,7 +57276,7 @@
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B15" s="41"/>
       <c r="E15" s="41"/>
@@ -57398,7 +57394,7 @@
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B16" s="42">
         <v>-4.2610349999999997</v>
@@ -57553,7 +57549,7 @@
         <v>0.54500000000000004</v>
       </c>
       <c r="M17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N17">
         <v>-4.2610353839923469</v>
@@ -58455,7 +58451,7 @@
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B24" s="48">
         <v>0.2492</v>
@@ -58463,7 +58459,7 @@
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
       <c r="M24" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N24">
         <v>-2.6283666776981001</v>
@@ -58576,7 +58572,7 @@
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B25" s="41"/>
       <c r="M25" t="s">
@@ -58693,7 +58689,7 @@
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B26" s="42">
         <v>-4.1452429999999998</v>
@@ -59330,7 +59326,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="N31">
         <v>-4.1452426545231829</v>
@@ -59690,7 +59686,7 @@
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B34">
         <v>0.3609</v>
@@ -61364,7 +61360,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -62520,7 +62516,7 @@
         <v>9.3399999999999997E-2</v>
       </c>
       <c r="J29" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -63064,7 +63060,7 @@
         <v>8.3056985079833119</v>
       </c>
       <c r="K28" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -69603,7 +69599,7 @@
         <v>140</v>
       </c>
       <c r="F1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G1" t="s">
         <v>177</v>
@@ -69660,7 +69656,7 @@
         <v>156</v>
       </c>
       <c r="Y1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Z1" t="s">
         <v>179</v>
@@ -70076,7 +70072,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B5">
         <v>-1.2436896081034186</v>
@@ -72394,7 +72390,7 @@
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B24">
         <v>-2.5431662925720966</v>
@@ -75346,7 +75342,7 @@
         <v>185</v>
       </c>
       <c r="F1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G1" t="s">
         <v>170</v>
@@ -75361,7 +75357,7 @@
         <v>188</v>
       </c>
       <c r="K1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L1" t="s">
         <v>171</v>
@@ -75376,7 +75372,7 @@
         <v>191</v>
       </c>
       <c r="P1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q1" t="s">
         <v>172</v>
@@ -75543,7 +75539,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B5">
         <v>1.0865680091838372</v>
@@ -75808,7 +75804,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B10">
         <v>1.4185779996704873</v>
@@ -76073,7 +76069,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B15">
         <v>16.03774458448558</v>
@@ -76203,7 +76199,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D1" t="s">
         <v>192</v>
@@ -76224,7 +76220,7 @@
         <v>173</v>
       </c>
       <c r="J1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K1" t="s">
         <v>197</v>
@@ -76245,7 +76241,7 @@
         <v>174</v>
       </c>
       <c r="Q1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="R1" t="s">
         <v>207</v>
@@ -76266,7 +76262,7 @@
         <v>212</v>
       </c>
       <c r="X1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Y1" t="s">
         <v>202</v>
@@ -76287,7 +76283,7 @@
         <v>219</v>
       </c>
       <c r="AE1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AF1" t="s">
         <v>213</v>
@@ -76310,7 +76306,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B2">
         <v>-2.279099511458512</v>
@@ -77101,7 +77097,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B9">
         <v>-1.7005020955485395</v>
@@ -77892,7 +77888,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B16">
         <v>-4.2610353839923469</v>
@@ -78683,7 +78679,7 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B23">
         <v>-2.6283666776981001</v>
@@ -79474,7 +79470,7 @@
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B30">
         <v>-4.1452426545231829</v>

--- a/input/reg_socialcare.xlsx
+++ b/input/reg_socialcare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534F022D-089D-43BA-AC2B-221F415B5823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7629F9-73DB-4BC8-A96C-E640C503A17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="551" firstSheet="14" activeTab="21" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="551" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="421">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -1327,6 +1327,12 @@
   <si>
     <t>Probit regression estimates for the incidence of informal care provision for people who do not have a partner</t>
   </si>
+  <si>
+    <t>Authors:</t>
+  </si>
+  <si>
+    <t>Justin van de Ven</t>
+  </si>
 </sst>
 </file>
 
@@ -1938,10 +1944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F25AC8-F3A4-45E4-B3D4-29D900575D65}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,194 +1967,202 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>114</v>
+        <v>419</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>39</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B6" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="9" t="str">
+      <c r="B7" s="9" t="str">
         <f>'Process 1a'!A1</f>
         <v>Probit regression describing probability of receiving informal social care: under 65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="9" t="str">
+      <c r="B8" s="9" t="str">
         <f>'Process 1b'!A1</f>
         <v>Linear regression describing log hours of informal social care received: under 65</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="9" t="str">
+      <c r="B9" s="9" t="str">
         <f>'Process 2a'!A1</f>
         <v>Probit regression describing probability of needing assistance with ADLs: 65+</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="9" t="str">
+      <c r="B10" s="9" t="str">
         <f>'Process 2b'!A1</f>
         <v>Probit regression describing probability of receiving assistance with ADLs: 65+</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="9" t="str">
+      <c r="B11" s="9" t="str">
         <f>'Process 2c'!A1</f>
         <v>Multinomial logit regression describing split of population receiving social care, between only informal, informal and formal, and only formal markets: 65+</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="9" t="str">
+      <c r="B12" s="9" t="str">
         <f>'Process 2d'!A1</f>
         <v>Probit receive care from partner: 65+</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="9" t="str">
+      <c r="B13" s="9" t="str">
         <f>'Process 2e'!A1</f>
         <v>Mlogit for supplementary informal carers where partner provide care: 65+</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="9" t="str">
+      <c r="B14" s="9" t="str">
         <f>'Process 2f'!A1</f>
         <v>Mlogit for informal carers where partner not providing care: 65+</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="9" t="str">
+      <c r="B15" s="9" t="str">
         <f>'Process 2g'!A1</f>
         <v>Linear regression of log hours of care provided by partners to people aged 65+</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="9" t="str">
+      <c r="B16" s="9" t="str">
         <f>'Process 2h'!A1</f>
         <v>Linear regression of log hours of care provided by daughters to people aged 65+</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="9" t="str">
+      <c r="B17" s="9" t="str">
         <f>'Process 2i'!A1</f>
         <v>Linear regression of log hours of care provided by sons to people aged 65+</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="9" t="str">
+      <c r="B18" s="9" t="str">
         <f>'Process 2j'!A1</f>
         <v>Linear regression of log hours of care provided by others to people aged 65+</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="9" t="str">
+      <c r="B19" s="9" t="str">
         <f>'Process 2k'!A1</f>
         <v>Linear regression of log hours of formal care to people aged 65+</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B19" s="9" t="str">
+      <c r="B20" s="9" t="str">
         <f>'Process 3a'!A1</f>
         <v>Probit regression estimates for the incidence of informal care provision to non-partners where person is providing care to a partner</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B20" s="9" t="str">
+      <c r="B21" s="9" t="str">
         <f>'Process 3b'!A1</f>
         <v>Probit regression estimates for the incidence of informal care provision to non-partners where person is not providing care to a partner</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B21" s="9" t="str">
+      <c r="B22" s="9" t="str">
         <f>'Process S3c'!A1</f>
         <v>Probit regression estimates for the incidence of informal care provision for people who do not have a partner</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B22" s="9" t="str">
+      <c r="B23" s="9" t="str">
         <f>'Process S3d'!A1</f>
         <v>Multinomial logit estimates for provision of social care by people with partners (reference group does not provide care)</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B23" s="9" t="str">
+      <c r="B24" s="9" t="str">
         <f>'Process S3e'!A1</f>
         <v>Linear regression estimates of log hours informal care provided to anyone</v>
       </c>
@@ -48054,7 +48068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015EFB6B-7043-420F-ACC1-42287328EA5E}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/input/reg_socialcare.xlsx
+++ b/input/reg_socialcare.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7629F9-73DB-4BC8-A96C-E640C503A17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDD2449-354A-46F8-BFE5-4FAA42F4E017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="551" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
   </bookViews>
@@ -32,24 +32,24 @@
     <sheet name="UK_S3c" sheetId="73" r:id="rId17"/>
     <sheet name="UK_S3d" sheetId="75" r:id="rId18"/>
     <sheet name="UK_S3e" sheetId="77" r:id="rId19"/>
-    <sheet name="Process S3e" sheetId="76" r:id="rId20"/>
-    <sheet name="Process S3d" sheetId="74" r:id="rId21"/>
-    <sheet name="Process S3c" sheetId="72" r:id="rId22"/>
-    <sheet name="Process 3b" sheetId="70" r:id="rId23"/>
-    <sheet name="Process 3a" sheetId="68" r:id="rId24"/>
-    <sheet name="Process 1a" sheetId="25" r:id="rId25"/>
-    <sheet name="Process 1b" sheetId="45" r:id="rId26"/>
-    <sheet name="Process 2a" sheetId="46" r:id="rId27"/>
-    <sheet name="Process 2b" sheetId="47" r:id="rId28"/>
-    <sheet name="Process 2c" sheetId="50" r:id="rId29"/>
-    <sheet name="Process 2d" sheetId="52" r:id="rId30"/>
-    <sheet name="Process 2e" sheetId="55" r:id="rId31"/>
-    <sheet name="Process 2f" sheetId="56" r:id="rId32"/>
-    <sheet name="Process 2g" sheetId="59" r:id="rId33"/>
-    <sheet name="Process 2h" sheetId="60" r:id="rId34"/>
-    <sheet name="Process 2i" sheetId="62" r:id="rId35"/>
-    <sheet name="Process 2j" sheetId="64" r:id="rId36"/>
-    <sheet name="Process 2k" sheetId="67" r:id="rId37"/>
+    <sheet name="Process 1a" sheetId="25" r:id="rId20"/>
+    <sheet name="Process 1b" sheetId="45" r:id="rId21"/>
+    <sheet name="Process 2a" sheetId="46" r:id="rId22"/>
+    <sheet name="Process 2b" sheetId="47" r:id="rId23"/>
+    <sheet name="Process 2c" sheetId="50" r:id="rId24"/>
+    <sheet name="Process 2d" sheetId="52" r:id="rId25"/>
+    <sheet name="Process 2e" sheetId="55" r:id="rId26"/>
+    <sheet name="Process 2f" sheetId="56" r:id="rId27"/>
+    <sheet name="Process 2g" sheetId="59" r:id="rId28"/>
+    <sheet name="Process 2h" sheetId="60" r:id="rId29"/>
+    <sheet name="Process 2i" sheetId="62" r:id="rId30"/>
+    <sheet name="Process 2j" sheetId="64" r:id="rId31"/>
+    <sheet name="Process 2k" sheetId="67" r:id="rId32"/>
+    <sheet name="Process 3a" sheetId="68" r:id="rId33"/>
+    <sheet name="Process 3b" sheetId="70" r:id="rId34"/>
+    <sheet name="Process S3c" sheetId="72" r:id="rId35"/>
+    <sheet name="Process S3d" sheetId="74" r:id="rId36"/>
+    <sheet name="Process S3e" sheetId="76" r:id="rId37"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1947,7 +1947,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,7 +2177,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:V21"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3623,7 +3623,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:V21"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5069,7 +5069,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:V21"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6515,7 +6515,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7961,7 +7961,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9040,8 +9040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8712969D-410D-4B9A-B82A-F42DC1C3EB03}">
   <dimension ref="A1:AK36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AK36" sqref="AK36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13127,8 +13127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E6BDDF-7467-47CA-B8D0-BE6DACDF7002}">
   <dimension ref="A1:AM38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="K5" workbookViewId="0">
+      <selection activeCell="AM38" sqref="AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17667,8 +17667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF8EC92-ECEC-4575-BC6E-358C3350E197}">
   <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AL37" sqref="AL37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21974,8 +21974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B4EF3A-8474-4BB5-886B-464B373886CB}">
   <dimension ref="A1:CB79"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView topLeftCell="AZ43" workbookViewId="0">
+      <selection activeCell="CB79" sqref="CB79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41107,8 +41107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E2885-1496-4017-B81A-099287847BCB}">
   <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AL37" sqref="AL37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45414,7 +45414,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ED3F4A-E6FE-4140-8298-230560D8220D}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -46383,3706 +46385,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5542939-065A-4FA3-92F5-CDF246AE73E4}">
-  <dimension ref="A1:H56"/>
-  <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8">
-        <v>-0.26023269999999998</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1.7858599999999999E-2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="8">
-        <v>0.25005250000000001</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2.0829E-2</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0.52315630000000002</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2.85165E-2</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1.09119E-2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>3.2772799999999998E-2</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0.172074</v>
-      </c>
-      <c r="C11" s="7">
-        <v>3.3128900000000003E-2</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0.32923059999999998</v>
-      </c>
-      <c r="C12" s="7">
-        <v>3.6660999999999999E-2</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0.55290450000000002</v>
-      </c>
-      <c r="C13" s="7">
-        <v>4.7719900000000003E-2</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>295</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B15" s="8">
-        <v>-0.20462040000000001</v>
-      </c>
-      <c r="C15" s="7">
-        <v>5.0197899999999997E-2</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B16" s="8">
-        <v>-1.2723230000000001</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2.7765399999999999E-2</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="8">
-        <v>-0.23398769999999999</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2.1897799999999999E-2</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>236</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B19" s="8">
-        <v>0.16516839999999999</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9.1311000000000003E-2</v>
-      </c>
-      <c r="D19" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B20" s="8">
-        <v>0.27893089999999998</v>
-      </c>
-      <c r="C20" s="7">
-        <v>9.3611100000000003E-2</v>
-      </c>
-      <c r="D20" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B21" s="8">
-        <v>0.52550540000000001</v>
-      </c>
-      <c r="C21" s="7">
-        <v>9.2563400000000004E-2</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0.59696510000000003</v>
-      </c>
-      <c r="C22" s="7">
-        <v>8.8754299999999994E-2</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0.56353710000000001</v>
-      </c>
-      <c r="C23" s="7">
-        <v>8.6441799999999999E-2</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0.30933709999999998</v>
-      </c>
-      <c r="C24" s="7">
-        <v>8.3650600000000006E-2</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0.22312299999999999</v>
-      </c>
-      <c r="C25" s="7">
-        <v>8.1765599999999994E-2</v>
-      </c>
-      <c r="D25" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B26" s="8">
-        <v>0.196162</v>
-      </c>
-      <c r="C26" s="7">
-        <v>8.1108E-2</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B27" s="8">
-        <v>0.1515398</v>
-      </c>
-      <c r="C27" s="7">
-        <v>8.1153299999999998E-2</v>
-      </c>
-      <c r="D27" s="8">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B28" s="8">
-        <v>6.5108299999999994E-2</v>
-      </c>
-      <c r="C28" s="7">
-        <v>8.1995100000000001E-2</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B29" s="8">
-        <v>6.8036200000000005E-2</v>
-      </c>
-      <c r="C29" s="7">
-        <v>8.3287399999999998E-2</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0.41399999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B30" s="8">
-        <v>7.1242799999999995E-2</v>
-      </c>
-      <c r="C30" s="7">
-        <v>8.74032E-2</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0.41499999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B31" s="8">
-        <v>6.7698800000000003E-2</v>
-      </c>
-      <c r="C31" s="7">
-        <v>9.4581600000000002E-2</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0.47399999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="8">
-        <v>-7.2208300000000003E-2</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0.1085931</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0.50600000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="32">
-        <v>2.7039170000000001</v>
-      </c>
-      <c r="C33" s="33">
-        <v>9.3326900000000004E-2</v>
-      </c>
-      <c r="D33" s="32">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34">
-        <v>31490</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>267</v>
-      </c>
-      <c r="B35">
-        <v>1.2788999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="B36" s="35">
-        <v>0.17829999999999999</v>
-      </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F37">
-        <f>SUMPRODUCT(F5:F33,B5:B33)+SUMPRODUCT(F46:F56,B46:B56)</f>
-        <v>1.2077085000000001</v>
-      </c>
-      <c r="H37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F38">
-        <f>EXP(F37+(B35^2)/2)</f>
-        <v>7.5799083230749567</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46">
-        <v>0.13317979999999999</v>
-      </c>
-      <c r="C46">
-        <v>5.2629599999999999E-2</v>
-      </c>
-      <c r="D46">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47">
-        <v>6.2610399999999997E-2</v>
-      </c>
-      <c r="C47">
-        <v>4.2779400000000002E-2</v>
-      </c>
-      <c r="D47">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="E47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48">
-        <v>0.19431470000000001</v>
-      </c>
-      <c r="C48">
-        <v>4.5643900000000001E-2</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49">
-        <v>5.6789699999999999E-2</v>
-      </c>
-      <c r="C49">
-        <v>4.4573599999999998E-2</v>
-      </c>
-      <c r="D49">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="E49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50">
-        <v>-6.9861999999999997E-3</v>
-      </c>
-      <c r="C50">
-        <v>4.3840499999999998E-2</v>
-      </c>
-      <c r="D50">
-        <v>0.873</v>
-      </c>
-      <c r="E50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51">
-        <v>-0.1095428</v>
-      </c>
-      <c r="C51">
-        <v>4.37682E-2</v>
-      </c>
-      <c r="D51">
-        <v>1.2E-2</v>
-      </c>
-      <c r="E51" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52">
-        <v>-1.9930400000000001E-2</v>
-      </c>
-      <c r="C52">
-        <v>4.2103500000000002E-2</v>
-      </c>
-      <c r="D52">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="E52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53">
-        <v>-7.1125800000000003E-2</v>
-      </c>
-      <c r="C53">
-        <v>4.3929500000000003E-2</v>
-      </c>
-      <c r="D53">
-        <v>0.105</v>
-      </c>
-      <c r="E53" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54">
-        <v>0.13434779999999999</v>
-      </c>
-      <c r="C54">
-        <v>4.6925099999999997E-2</v>
-      </c>
-      <c r="D54">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E54" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55">
-        <v>0.13404630000000001</v>
-      </c>
-      <c r="C55">
-        <v>4.2746199999999998E-2</v>
-      </c>
-      <c r="D55">
-        <v>2E-3</v>
-      </c>
-      <c r="E55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56">
-        <v>0.2438448</v>
-      </c>
-      <c r="C56">
-        <v>4.6817499999999998E-2</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15E83B0-B0CF-4E41-AA76-16BCC25A8AFA}">
-  <dimension ref="A1:J40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="10" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="H4" s="41"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="42">
-        <v>-2.76169E-2</v>
-      </c>
-      <c r="C5" s="8">
-        <v>4.6156599999999999E-2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E5" s="42">
-        <v>-0.19427059999999999</v>
-      </c>
-      <c r="F5" s="8">
-        <v>7.5290899999999994E-2</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="H5" s="42">
-        <v>-0.33644639999999998</v>
-      </c>
-      <c r="I5" s="8">
-        <v>2.5690299999999999E-2</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="42">
-        <v>0.36572070000000001</v>
-      </c>
-      <c r="C7" s="8">
-        <v>5.7420699999999998E-2</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="42">
-        <v>0.41033740000000002</v>
-      </c>
-      <c r="F7" s="8">
-        <v>9.6236299999999997E-2</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="42">
-        <v>0.1570628</v>
-      </c>
-      <c r="I7" s="8">
-        <v>2.8895799999999999E-2</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="42">
-        <v>0.6324999</v>
-      </c>
-      <c r="C8" s="8">
-        <v>6.8536700000000006E-2</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="42">
-        <v>0.41509810000000003</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.1177318</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="42">
-        <v>-5.8575599999999999E-2</v>
-      </c>
-      <c r="I8" s="8">
-        <v>4.1651500000000001E-2</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="42">
-        <v>4.7066359999999996</v>
-      </c>
-      <c r="C10" s="8">
-        <v>5.4978100000000002E-2</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="42">
-        <v>4.6005820000000002</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.11022460000000001</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="42">
-        <v>0.31668780000000002</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0.13331999999999999</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" s="42">
-        <v>4.548635</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0.120467</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="42">
-        <v>6.7710410000000003</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.1341678</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="42">
-        <v>2.7420879999999999</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0.1294728</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B12" s="42">
-        <v>0.40359879999999998</v>
-      </c>
-      <c r="C12" s="8">
-        <v>9.9470299999999998E-2</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="42">
-        <v>2.5612789999999999</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.1126933</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="42">
-        <v>3.1975519999999999</v>
-      </c>
-      <c r="I12" s="8">
-        <v>2.6073099999999998E-2</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="42">
-        <v>4.5050399999999997E-2</v>
-      </c>
-      <c r="C14" s="8">
-        <v>9.3943399999999996E-2</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="E14" s="42">
-        <v>9.40357E-2</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.15747159999999999</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H14" s="42">
-        <v>0.15454419999999999</v>
-      </c>
-      <c r="I14" s="8">
-        <v>4.4809500000000002E-2</v>
-      </c>
-      <c r="J14" s="8">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="42">
-        <v>0.1912732</v>
-      </c>
-      <c r="C15" s="8">
-        <v>9.2247200000000001E-2</v>
-      </c>
-      <c r="D15" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E15" s="42">
-        <v>0.21808130000000001</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0.152062</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0.152</v>
-      </c>
-      <c r="H15" s="42">
-        <v>0.15692010000000001</v>
-      </c>
-      <c r="I15" s="8">
-        <v>4.5473899999999998E-2</v>
-      </c>
-      <c r="J15" s="8">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="42">
-        <v>0.52237800000000001</v>
-      </c>
-      <c r="C16" s="8">
-        <v>9.9234199999999995E-2</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="42">
-        <v>0.61063840000000003</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.15912119999999999</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="42">
-        <v>0.14018069999999999</v>
-      </c>
-      <c r="I16" s="8">
-        <v>5.2423999999999998E-2</v>
-      </c>
-      <c r="J16" s="8">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="42">
-        <v>0.60648409999999997</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0.1216256</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="42">
-        <v>0.72216769999999997</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.18993699999999999</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="42">
-        <v>-2.5751400000000001E-2</v>
-      </c>
-      <c r="I17" s="8">
-        <v>7.50778E-2</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0.73199999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>288</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B19" s="42">
-        <v>6.9353799999999993E-2</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0.12349010000000001</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="E19" s="42">
-        <v>0.29158460000000003</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0.21310080000000001</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="H19" s="42">
-        <v>0.29580630000000002</v>
-      </c>
-      <c r="I19" s="8">
-        <v>5.4779700000000001E-2</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B20" s="42">
-        <v>0.25054490000000001</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0.1156084</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="E20" s="42">
-        <v>0.57235860000000005</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0.1921139</v>
-      </c>
-      <c r="G20" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H20" s="42">
-        <v>0.62620540000000002</v>
-      </c>
-      <c r="I20" s="8">
-        <v>5.17052E-2</v>
-      </c>
-      <c r="J20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B21" s="42">
-        <v>0.6508661</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0.1116962</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="42">
-        <v>0.55389710000000003</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0.19174849999999999</v>
-      </c>
-      <c r="G21" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H21" s="42">
-        <v>0.70125320000000002</v>
-      </c>
-      <c r="I21" s="8">
-        <v>5.1878100000000003E-2</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B22" s="42">
-        <v>1.2029719999999999</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0.10783040000000001</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="42">
-        <v>0.47248410000000002</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0.1906709</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="H22" s="42">
-        <v>0.19889899999999999</v>
-      </c>
-      <c r="I22" s="8">
-        <v>5.2933000000000001E-2</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="43">
-        <v>-5.0683020000000001</v>
-      </c>
-      <c r="C23" s="44">
-        <v>0.1623658</v>
-      </c>
-      <c r="D23" s="44">
-        <v>0</v>
-      </c>
-      <c r="E23" s="43">
-        <v>-6.6225719999999999</v>
-      </c>
-      <c r="F23" s="44">
-        <v>0.25731320000000002</v>
-      </c>
-      <c r="G23" s="44">
-        <v>0</v>
-      </c>
-      <c r="H23" s="43">
-        <v>-3.2735629999999998</v>
-      </c>
-      <c r="I23" s="44">
-        <v>7.5760999999999995E-2</v>
-      </c>
-      <c r="J23" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30">
-        <v>9.4063099999999997E-2</v>
-      </c>
-      <c r="C30">
-        <v>0.1414598</v>
-      </c>
-      <c r="D30">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="E30">
-        <v>0.20046269999999999</v>
-      </c>
-      <c r="F30">
-        <v>0.22939319999999999</v>
-      </c>
-      <c r="G30">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="H30">
-        <v>0.12540889999999999</v>
-      </c>
-      <c r="I30">
-        <v>7.9025799999999993E-2</v>
-      </c>
-      <c r="J30">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31">
-        <v>5.1828100000000002E-2</v>
-      </c>
-      <c r="C31">
-        <v>0.1180508</v>
-      </c>
-      <c r="D31">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="E31">
-        <v>-5.9822199999999999E-2</v>
-      </c>
-      <c r="F31">
-        <v>0.19364390000000001</v>
-      </c>
-      <c r="G31">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="H31">
-        <v>-2.3529999999999999E-2</v>
-      </c>
-      <c r="I31">
-        <v>6.4963199999999999E-2</v>
-      </c>
-      <c r="J31">
-        <v>0.71699999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32">
-        <v>-4.38927E-2</v>
-      </c>
-      <c r="C32">
-        <v>0.1226054</v>
-      </c>
-      <c r="D32">
-        <v>0.72</v>
-      </c>
-      <c r="E32">
-        <v>2.78845E-2</v>
-      </c>
-      <c r="F32">
-        <v>0.2069704</v>
-      </c>
-      <c r="G32">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="H32">
-        <v>-4.6636400000000001E-2</v>
-      </c>
-      <c r="I32">
-        <v>6.6702300000000006E-2</v>
-      </c>
-      <c r="J32">
-        <v>0.48399999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33">
-        <v>-0.10932269999999999</v>
-      </c>
-      <c r="C33">
-        <v>0.12718270000000001</v>
-      </c>
-      <c r="D33">
-        <v>0.39</v>
-      </c>
-      <c r="E33">
-        <v>-0.20241590000000001</v>
-      </c>
-      <c r="F33">
-        <v>0.20679520000000001</v>
-      </c>
-      <c r="G33">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="H33">
-        <v>0.13530139999999999</v>
-      </c>
-      <c r="I33">
-        <v>6.5167100000000006E-2</v>
-      </c>
-      <c r="J33">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34">
-        <v>5.0318700000000001E-2</v>
-      </c>
-      <c r="C34">
-        <v>0.12512789999999999</v>
-      </c>
-      <c r="D34">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="E34">
-        <v>8.9765200000000003E-2</v>
-      </c>
-      <c r="F34">
-        <v>0.20777619999999999</v>
-      </c>
-      <c r="G34">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="H34">
-        <v>0.13170490000000001</v>
-      </c>
-      <c r="I34">
-        <v>6.6444299999999998E-2</v>
-      </c>
-      <c r="J34">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35">
-        <v>-0.19587669999999999</v>
-      </c>
-      <c r="C35">
-        <v>0.1249287</v>
-      </c>
-      <c r="D35">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="E35">
-        <v>-0.2243134</v>
-      </c>
-      <c r="F35">
-        <v>0.20363909999999999</v>
-      </c>
-      <c r="G35">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="H35">
-        <v>4.8176799999999999E-2</v>
-      </c>
-      <c r="I35">
-        <v>6.4847699999999994E-2</v>
-      </c>
-      <c r="J35">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36">
-        <v>-0.15028730000000001</v>
-      </c>
-      <c r="C36">
-        <v>0.1196253</v>
-      </c>
-      <c r="D36">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="E36">
-        <v>-9.0710100000000002E-2</v>
-      </c>
-      <c r="F36">
-        <v>0.1976029</v>
-      </c>
-      <c r="G36">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="H36">
-        <v>-5.3461000000000003E-3</v>
-      </c>
-      <c r="I36">
-        <v>6.07112E-2</v>
-      </c>
-      <c r="J36">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37">
-        <v>-2.0753400000000002E-2</v>
-      </c>
-      <c r="C37">
-        <v>0.1215555</v>
-      </c>
-      <c r="D37">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="E37">
-        <v>-0.20165910000000001</v>
-      </c>
-      <c r="F37">
-        <v>0.20262140000000001</v>
-      </c>
-      <c r="G37">
-        <v>0.32</v>
-      </c>
-      <c r="H37">
-        <v>4.9216099999999999E-2</v>
-      </c>
-      <c r="I37">
-        <v>6.4413799999999993E-2</v>
-      </c>
-      <c r="J37">
-        <v>0.44500000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38">
-        <v>-6.13941E-2</v>
-      </c>
-      <c r="C38">
-        <v>0.13159680000000001</v>
-      </c>
-      <c r="D38">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="E38">
-        <v>5.2161899999999997E-2</v>
-      </c>
-      <c r="F38">
-        <v>0.21033360000000001</v>
-      </c>
-      <c r="G38">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="H38">
-        <v>5.5205400000000002E-2</v>
-      </c>
-      <c r="I38">
-        <v>6.7935499999999996E-2</v>
-      </c>
-      <c r="J38">
-        <v>0.41599999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39">
-        <v>1.9097200000000002E-2</v>
-      </c>
-      <c r="C39">
-        <v>0.1239764</v>
-      </c>
-      <c r="D39">
-        <v>0.878</v>
-      </c>
-      <c r="E39">
-        <v>-0.1234745</v>
-      </c>
-      <c r="F39">
-        <v>0.20620849999999999</v>
-      </c>
-      <c r="G39">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="H39">
-        <v>1.0680800000000001E-2</v>
-      </c>
-      <c r="I39">
-        <v>6.4246899999999996E-2</v>
-      </c>
-      <c r="J39">
-        <v>0.86799999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40">
-        <v>2.3156400000000001E-2</v>
-      </c>
-      <c r="C40">
-        <v>0.130214</v>
-      </c>
-      <c r="D40">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="E40">
-        <v>0.26340469999999999</v>
-      </c>
-      <c r="F40">
-        <v>0.23669090000000001</v>
-      </c>
-      <c r="G40">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="H40">
-        <v>6.8960400000000005E-2</v>
-      </c>
-      <c r="I40">
-        <v>7.2262900000000005E-2</v>
-      </c>
-      <c r="J40">
-        <v>0.34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015EFB6B-7043-420F-ACC1-42287328EA5E}">
-  <dimension ref="A1:D54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8">
-        <v>-9.3156799999999998E-2</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1.9328700000000001E-2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="8">
-        <v>0.1085579</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2.3279299999999999E-2</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8">
-        <v>2.4801E-2</v>
-      </c>
-      <c r="C8" s="7">
-        <v>3.0833200000000002E-2</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="8">
-        <v>0.39977200000000002</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.1060787</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1.198202</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.18976190000000001</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1.77827</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2.02121E-2</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="8">
-        <v>-8.1432999999999992E-3</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3.3294799999999999E-2</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.80700000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="8">
-        <v>3.7523800000000003E-2</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3.3330600000000002E-2</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="8">
-        <v>7.5846399999999994E-2</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3.68946E-2</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="8">
-        <v>-1.1918099999999999E-2</v>
-      </c>
-      <c r="C17" s="7">
-        <v>4.4227200000000001E-2</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.78800000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>236</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B19" s="8">
-        <v>0.1096149</v>
-      </c>
-      <c r="C19" s="7">
-        <v>4.8342999999999997E-2</v>
-      </c>
-      <c r="D19" s="8">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B20" s="8">
-        <v>0.19078780000000001</v>
-      </c>
-      <c r="C20" s="7">
-        <v>5.3736100000000002E-2</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B21" s="8">
-        <v>0.26097550000000003</v>
-      </c>
-      <c r="C21" s="7">
-        <v>5.8080800000000002E-2</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0.35086970000000001</v>
-      </c>
-      <c r="C22" s="7">
-        <v>5.7757299999999998E-2</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0.42262080000000002</v>
-      </c>
-      <c r="C23" s="7">
-        <v>5.5611500000000001E-2</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0.47204230000000003</v>
-      </c>
-      <c r="C24" s="7">
-        <v>5.17016E-2</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0.49925209999999998</v>
-      </c>
-      <c r="C25" s="7">
-        <v>5.0283799999999997E-2</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B26" s="8">
-        <v>0.44557390000000002</v>
-      </c>
-      <c r="C26" s="7">
-        <v>4.9140000000000003E-2</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B27" s="8">
-        <v>0.45266309999999998</v>
-      </c>
-      <c r="C27" s="7">
-        <v>5.0972099999999999E-2</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B28" s="8">
-        <v>0.36086439999999997</v>
-      </c>
-      <c r="C28" s="7">
-        <v>5.1458999999999998E-2</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B29" s="8">
-        <v>0.29054849999999999</v>
-      </c>
-      <c r="C29" s="7">
-        <v>5.2157099999999998E-2</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B30" s="8">
-        <v>0.15634970000000001</v>
-      </c>
-      <c r="C30" s="7">
-        <v>5.6256599999999997E-2</v>
-      </c>
-      <c r="D30" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B31" s="8">
-        <v>2.5008599999999999E-2</v>
-      </c>
-      <c r="C31" s="7">
-        <v>6.0901499999999997E-2</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0.68100000000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="8">
-        <v>-0.1596716</v>
-      </c>
-      <c r="C32" s="7">
-        <v>6.8946900000000005E-2</v>
-      </c>
-      <c r="D32" s="8">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="32">
-        <v>-1.9218360000000001</v>
-      </c>
-      <c r="C33" s="33">
-        <v>5.8113900000000003E-2</v>
-      </c>
-      <c r="D33" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34">
-        <v>61235</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35">
-        <v>0.1353</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="34">
-        <v>0.29559999999999997</v>
-      </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44">
-        <v>4.2710600000000001E-2</v>
-      </c>
-      <c r="C44">
-        <v>5.33444E-2</v>
-      </c>
-      <c r="D44">
-        <v>0.42299999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45">
-        <v>5.28181E-2</v>
-      </c>
-      <c r="C45">
-        <v>4.1494400000000001E-2</v>
-      </c>
-      <c r="D45">
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46">
-        <v>4.43565E-2</v>
-      </c>
-      <c r="C46">
-        <v>4.3456399999999999E-2</v>
-      </c>
-      <c r="D46">
-        <v>0.307</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47">
-        <v>0.15371679999999999</v>
-      </c>
-      <c r="C47">
-        <v>4.5156799999999997E-2</v>
-      </c>
-      <c r="D47">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48">
-        <v>9.0351200000000007E-2</v>
-      </c>
-      <c r="C48">
-        <v>4.4474100000000003E-2</v>
-      </c>
-      <c r="D48">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49">
-        <v>4.7470999999999999E-2</v>
-      </c>
-      <c r="C49">
-        <v>4.2849199999999997E-2</v>
-      </c>
-      <c r="D49">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50">
-        <v>4.22323E-2</v>
-      </c>
-      <c r="C50">
-        <v>3.9628700000000003E-2</v>
-      </c>
-      <c r="D50">
-        <v>0.28699999999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51">
-        <v>5.83867E-2</v>
-      </c>
-      <c r="C51">
-        <v>4.3783700000000002E-2</v>
-      </c>
-      <c r="D51">
-        <v>0.182</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52">
-        <v>3.6446899999999997E-2</v>
-      </c>
-      <c r="C52">
-        <v>4.3948800000000003E-2</v>
-      </c>
-      <c r="D52">
-        <v>0.40699999999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53">
-        <v>7.4489600000000003E-2</v>
-      </c>
-      <c r="C53">
-        <v>4.0607699999999997E-2</v>
-      </c>
-      <c r="D53">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54">
-        <v>7.3078699999999996E-2</v>
-      </c>
-      <c r="C54">
-        <v>4.4184500000000002E-2</v>
-      </c>
-      <c r="D54">
-        <v>9.8000000000000004E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2B4F9D-B3E8-4A90-8B93-00EF36D5DB61}">
-  <dimension ref="A1:H58"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8">
-        <v>-0.1388664</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1.11755E-2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="8">
-        <v>9.9093700000000007E-2</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1.27589E-2</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8">
-        <v>6.6176000000000004E-3</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1.8081199999999999E-2</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.71399999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="8">
-        <v>0.25869229999999999</v>
-      </c>
-      <c r="C10" s="7">
-        <v>5.6100299999999999E-2</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1.5142500000000001</v>
-      </c>
-      <c r="C11" s="7">
-        <v>7.4399800000000002E-2</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1.8060830000000001</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1.1942100000000001E-2</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="8">
-        <v>4.34803E-2</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1.9276100000000001E-2</v>
-      </c>
-      <c r="D14" s="8">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="8">
-        <v>6.2842300000000004E-2</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1.94913E-2</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="8">
-        <v>8.2092499999999999E-2</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2.2296699999999999E-2</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="8">
-        <v>-6.8545999999999998E-3</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2.9335400000000001E-2</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.81499999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="8">
-        <v>-0.1073573</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1.23188E-2</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B20" s="8">
-        <v>0.1055987</v>
-      </c>
-      <c r="C20" s="7">
-        <v>4.7581199999999997E-2</v>
-      </c>
-      <c r="D20" s="8">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B21" s="8">
-        <v>0.17312040000000001</v>
-      </c>
-      <c r="C21" s="7">
-        <v>4.8230200000000001E-2</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0.21609790000000001</v>
-      </c>
-      <c r="C22" s="7">
-        <v>4.7504999999999999E-2</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0.32046629999999998</v>
-      </c>
-      <c r="C23" s="7">
-        <v>4.5852200000000003E-2</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0.34158880000000003</v>
-      </c>
-      <c r="C24" s="7">
-        <v>4.471E-2</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0.43431690000000001</v>
-      </c>
-      <c r="C25" s="7">
-        <v>4.3742000000000003E-2</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B26" s="8">
-        <v>0.53355339999999996</v>
-      </c>
-      <c r="C26" s="7">
-        <v>4.3319299999999998E-2</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B27" s="8">
-        <v>0.52563919999999997</v>
-      </c>
-      <c r="C27" s="7">
-        <v>4.3092699999999998E-2</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B28" s="8">
-        <v>0.48333159999999997</v>
-      </c>
-      <c r="C28" s="7">
-        <v>4.3722999999999998E-2</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B29" s="8">
-        <v>0.39454810000000001</v>
-      </c>
-      <c r="C29" s="7">
-        <v>4.3941399999999999E-2</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B30" s="8">
-        <v>0.25491629999999998</v>
-      </c>
-      <c r="C30" s="7">
-        <v>4.4834600000000002E-2</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B31" s="8">
-        <v>0.10614510000000001</v>
-      </c>
-      <c r="C31" s="7">
-        <v>4.8164400000000003E-2</v>
-      </c>
-      <c r="D31" s="8">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B32" s="8">
-        <v>4.9113000000000004E-3</v>
-      </c>
-      <c r="C32" s="7">
-        <v>5.3673899999999997E-2</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0.92700000000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="8">
-        <v>-0.18829309999999999</v>
-      </c>
-      <c r="C33" s="7">
-        <v>6.3931000000000002E-2</v>
-      </c>
-      <c r="D33" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="32">
-        <v>-1.9021159999999999</v>
-      </c>
-      <c r="C34" s="33">
-        <v>4.7251799999999997E-2</v>
-      </c>
-      <c r="D34" s="32">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35">
-        <v>167458</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36">
-        <v>0.13550000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="34">
-        <v>0.30209999999999998</v>
-      </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44">
-        <v>5.6041500000000001E-2</v>
-      </c>
-      <c r="C44">
-        <v>3.2722399999999999E-2</v>
-      </c>
-      <c r="D44">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45">
-        <v>1.9705E-2</v>
-      </c>
-      <c r="C45">
-        <v>2.6298100000000001E-2</v>
-      </c>
-      <c r="D45">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="E45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46">
-        <v>4.4558999999999996E-3</v>
-      </c>
-      <c r="C46">
-        <v>2.7182499999999998E-2</v>
-      </c>
-      <c r="D46">
-        <v>0.87</v>
-      </c>
-      <c r="E46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47">
-        <v>0.1061961</v>
-      </c>
-      <c r="C47">
-        <v>2.7306799999999999E-2</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48">
-        <v>8.2452800000000007E-2</v>
-      </c>
-      <c r="C48">
-        <v>2.7496900000000001E-2</v>
-      </c>
-      <c r="D48">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49">
-        <v>3.9996499999999997E-2</v>
-      </c>
-      <c r="C49">
-        <v>2.6432799999999999E-2</v>
-      </c>
-      <c r="D49">
-        <v>0.13</v>
-      </c>
-      <c r="E49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50">
-        <v>1.43489E-2</v>
-      </c>
-      <c r="C50">
-        <v>2.4808899999999998E-2</v>
-      </c>
-      <c r="D50">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="E50" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51">
-        <v>4.4659499999999998E-2</v>
-      </c>
-      <c r="C51">
-        <v>2.6597200000000001E-2</v>
-      </c>
-      <c r="D51">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="E51" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52">
-        <v>3.2340399999999998E-2</v>
-      </c>
-      <c r="C52">
-        <v>2.7736500000000001E-2</v>
-      </c>
-      <c r="D52">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="E52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53">
-        <v>3.4541500000000003E-2</v>
-      </c>
-      <c r="C53">
-        <v>2.6105300000000001E-2</v>
-      </c>
-      <c r="D53">
-        <v>0.186</v>
-      </c>
-      <c r="E53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54">
-        <v>5.3557199999999999E-2</v>
-      </c>
-      <c r="C54">
-        <v>2.9127400000000001E-2</v>
-      </c>
-      <c r="D54">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="E54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F56">
-        <f>SUMPRODUCT(F5:F54,B5:B54)</f>
-        <v>-1.4223931999999997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F57">
-        <f>_xlfn.NORM.DIST(F56,0,1,TRUE)</f>
-        <v>7.745606804275669E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H58">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9104025-97C2-445F-8B24-6FDFF8620E89}">
-  <dimension ref="A1:I53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8">
-        <v>-0.10000340000000001</v>
-      </c>
-      <c r="C5" s="7">
-        <v>4.6258100000000003E-2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>3.1E-2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="8">
-        <v>6.3061999999999997E-3</v>
-      </c>
-      <c r="C7" s="7">
-        <v>6.4061699999999999E-2</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0.92200000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8">
-        <v>-0.1176941</v>
-      </c>
-      <c r="C8" s="7">
-        <v>7.1483000000000005E-2</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="8">
-        <v>-0.1346802</v>
-      </c>
-      <c r="C10" s="7">
-        <v>5.6568100000000003E-2</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1.236059</v>
-      </c>
-      <c r="C11" s="7">
-        <v>6.8762699999999996E-2</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1.2526740000000001</v>
-      </c>
-      <c r="C12" s="7">
-        <v>8.9741600000000005E-2</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="8">
-        <v>6.579E-4</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.1029698</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="8">
-        <v>-5.4165999999999997E-3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>9.9144899999999994E-2</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.95599999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="8">
-        <v>-3.2713600000000002E-2</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.1009144</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.746</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="8">
-        <v>-6.6975000000000003E-3</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.1145877</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.95299999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>236</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B19" s="8">
-        <v>0.47168260000000001</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.48148229999999997</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0.32700000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B20" s="8">
-        <v>0.34429749999999998</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.2273288</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B21" s="8">
-        <v>0.59245650000000005</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.19961470000000001</v>
-      </c>
-      <c r="D21" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0.78085859999999996</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.17891180000000001</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0.64115800000000001</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0.17014180000000001</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0.77517060000000004</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.15022150000000001</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0.74084179999999999</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.143431</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B26" s="8">
-        <v>0.58973810000000004</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0.14218890000000001</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B27" s="8">
-        <v>0.43628280000000003</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0.13842199999999999</v>
-      </c>
-      <c r="D27" s="8">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B28" s="8">
-        <v>0.27490870000000001</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0.13695860000000001</v>
-      </c>
-      <c r="D28" s="8">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B29" s="8">
-        <v>0.1806383</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0.13464300000000001</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B30" s="8">
-        <v>0.16388259999999999</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0.1402226</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B31" s="8">
-        <v>-3.12103E-2</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0.1475417</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0.83199999999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="32">
-        <v>-1.3732219999999999</v>
-      </c>
-      <c r="C33" s="33">
-        <v>0.18675310000000001</v>
-      </c>
-      <c r="D33" s="32">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34">
-        <v>6355</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35">
-        <v>0.20569999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="34">
-        <v>0.21149999999999999</v>
-      </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="G37">
-        <f>SUMPRODUCT(G5:G33,B5:B33)+SUMPRODUCT(G43:G53,B43:B53)</f>
-        <v>-1.5944307</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G38">
-        <f>_xlfn.NORM.DIST(G37,0,1,TRUE)</f>
-        <v>5.5419800437120526E-2</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43">
-        <v>5.9004099999999997E-2</v>
-      </c>
-      <c r="C43">
-        <v>0.1363221</v>
-      </c>
-      <c r="D43">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="E43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44">
-        <v>-8.8169999999999998E-2</v>
-      </c>
-      <c r="C44">
-        <v>0.1154094</v>
-      </c>
-      <c r="D44">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="E44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45">
-        <v>5.2603200000000003E-2</v>
-      </c>
-      <c r="C45">
-        <v>0.12324599999999999</v>
-      </c>
-      <c r="D45">
-        <v>0.67</v>
-      </c>
-      <c r="E45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46">
-        <v>-6.7157700000000001E-2</v>
-      </c>
-      <c r="C46">
-        <v>0.12575539999999999</v>
-      </c>
-      <c r="D46">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="E46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47">
-        <v>3.75565E-2</v>
-      </c>
-      <c r="C47">
-        <v>0.1233839</v>
-      </c>
-      <c r="D47">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="E47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48">
-        <v>-2.9579000000000001E-2</v>
-      </c>
-      <c r="C48">
-        <v>0.122284</v>
-      </c>
-      <c r="D48">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="E48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49">
-        <v>1.9708E-2</v>
-      </c>
-      <c r="C49">
-        <v>0.1186659</v>
-      </c>
-      <c r="D49">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="E49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50">
-        <v>-0.10180259999999999</v>
-      </c>
-      <c r="C50">
-        <v>0.1224652</v>
-      </c>
-      <c r="D50">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="E50" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51">
-        <v>9.1220999999999997E-2</v>
-      </c>
-      <c r="C51">
-        <v>0.1240908</v>
-      </c>
-      <c r="D51">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="E51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52">
-        <v>-0.1028736</v>
-      </c>
-      <c r="C52">
-        <v>0.1229851</v>
-      </c>
-      <c r="D52">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="E52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53">
-        <v>0.1094913</v>
-      </c>
-      <c r="C53">
-        <v>0.1350374</v>
-      </c>
-      <c r="D53">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="E53" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC0DCF1-47B9-4B7D-A727-E9F8A1A3E7F0}">
   <dimension ref="A1:M26"/>
   <sheetViews>
@@ -50643,13 +46945,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E1B907-576A-4735-B84D-25B8B7D8A7B6}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -51168,7 +47468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D50934-18F5-4D4F-B4F8-D79A5CF78521}">
   <dimension ref="A1:M47"/>
   <sheetViews>
@@ -52096,7 +48396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A3850A-5E6A-4070-9B38-4660B883E8B3}">
   <dimension ref="A1:L48"/>
   <sheetViews>
@@ -53001,7 +49301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537E9139-16B4-49E6-B2EF-D0011B52F40A}">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -53719,1086 +50019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D54BEF-A785-4097-B447-1AE751D019CE}">
-  <dimension ref="A1:S18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="22">
-        <v>6.3897407071910731E-2</v>
-      </c>
-      <c r="C2">
-        <v>1.862770823170025E-6</v>
-      </c>
-      <c r="D2">
-        <v>9.6076933687227889E-7</v>
-      </c>
-      <c r="E2">
-        <v>1.0415912786023299E-7</v>
-      </c>
-      <c r="F2">
-        <v>1.9240602541214336E-7</v>
-      </c>
-      <c r="G2">
-        <v>1.0806487373358233E-7</v>
-      </c>
-      <c r="H2">
-        <v>-3.092780337648997E-8</v>
-      </c>
-      <c r="I2">
-        <v>7.5777872754771092E-8</v>
-      </c>
-      <c r="J2">
-        <v>7.1112409879679116E-8</v>
-      </c>
-      <c r="K2">
-        <v>2.1211694630674629E-7</v>
-      </c>
-      <c r="L2">
-        <v>4.1732300939156135E-7</v>
-      </c>
-      <c r="M2">
-        <v>2.491240457011373E-7</v>
-      </c>
-      <c r="N2">
-        <v>2.668856602422707E-8</v>
-      </c>
-      <c r="O2">
-        <v>-4.5360725599238713E-8</v>
-      </c>
-      <c r="P2">
-        <v>-3.165369793499524E-8</v>
-      </c>
-      <c r="Q2">
-        <v>1.2683894874653938E-7</v>
-      </c>
-      <c r="R2">
-        <v>1.1253383839028038E-7</v>
-      </c>
-      <c r="S2">
-        <v>-1.2122304242130515E-6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="22">
-        <v>7.7437484043701516E-2</v>
-      </c>
-      <c r="C3">
-        <v>9.6076933687227889E-7</v>
-      </c>
-      <c r="D3">
-        <v>3.9091838227033344E-6</v>
-      </c>
-      <c r="E3">
-        <v>-4.1086745959149779E-9</v>
-      </c>
-      <c r="F3">
-        <v>1.9506356239338519E-7</v>
-      </c>
-      <c r="G3">
-        <v>1.4367449985652038E-7</v>
-      </c>
-      <c r="H3">
-        <v>1.6751310155949572E-7</v>
-      </c>
-      <c r="I3">
-        <v>3.3918085651376162E-7</v>
-      </c>
-      <c r="J3">
-        <v>4.7989822067873306E-7</v>
-      </c>
-      <c r="K3">
-        <v>2.7888863515635101E-7</v>
-      </c>
-      <c r="L3">
-        <v>3.8930065914583788E-7</v>
-      </c>
-      <c r="M3">
-        <v>1.9060287246449038E-7</v>
-      </c>
-      <c r="N3">
-        <v>2.3447014529103629E-7</v>
-      </c>
-      <c r="O3">
-        <v>1.7506108113805736E-7</v>
-      </c>
-      <c r="P3">
-        <v>3.2344129622071935E-7</v>
-      </c>
-      <c r="Q3">
-        <v>7.2575105422355996E-9</v>
-      </c>
-      <c r="R3">
-        <v>4.1015448803103675E-7</v>
-      </c>
-      <c r="S3">
-        <v>-1.3282257155176888E-6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="22">
-        <v>-3.8814808247455285E-2</v>
-      </c>
-      <c r="C4">
-        <v>1.0415912786023299E-7</v>
-      </c>
-      <c r="D4">
-        <v>-4.1086745959149779E-9</v>
-      </c>
-      <c r="E4">
-        <v>1.6457047777429843E-6</v>
-      </c>
-      <c r="F4">
-        <v>3.7782256300556936E-7</v>
-      </c>
-      <c r="G4">
-        <v>3.4996629700225434E-7</v>
-      </c>
-      <c r="H4">
-        <v>-1.1603904092908213E-7</v>
-      </c>
-      <c r="I4">
-        <v>3.2351938373090363E-8</v>
-      </c>
-      <c r="J4">
-        <v>9.3957269066299038E-8</v>
-      </c>
-      <c r="K4">
-        <v>-1.8200066730518295E-7</v>
-      </c>
-      <c r="L4">
-        <v>-4.4288581975799633E-8</v>
-      </c>
-      <c r="M4">
-        <v>1.0303146441324531E-7</v>
-      </c>
-      <c r="N4">
-        <v>-1.6745147240348184E-7</v>
-      </c>
-      <c r="O4">
-        <v>1.438975039108626E-7</v>
-      </c>
-      <c r="P4">
-        <v>-1.5093094192675597E-7</v>
-      </c>
-      <c r="Q4">
-        <v>1.0969578845420456E-7</v>
-      </c>
-      <c r="R4">
-        <v>-1.1118677583130232E-7</v>
-      </c>
-      <c r="S4">
-        <v>-1.1057899138922592E-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="22">
-        <v>-0.30806080192628621</v>
-      </c>
-      <c r="C5">
-        <v>1.9240602541214336E-7</v>
-      </c>
-      <c r="D5">
-        <v>1.9506356239338519E-7</v>
-      </c>
-      <c r="E5">
-        <v>3.7782256300556936E-7</v>
-      </c>
-      <c r="F5">
-        <v>4.7920503104399834E-6</v>
-      </c>
-      <c r="G5">
-        <v>2.5028653823297442E-6</v>
-      </c>
-      <c r="H5">
-        <v>-3.1407401970199865E-7</v>
-      </c>
-      <c r="I5">
-        <v>-2.9614285373206149E-7</v>
-      </c>
-      <c r="J5">
-        <v>-2.1698489727404497E-7</v>
-      </c>
-      <c r="K5">
-        <v>-4.3204134957347722E-7</v>
-      </c>
-      <c r="L5">
-        <v>3.0194047693676984E-7</v>
-      </c>
-      <c r="M5">
-        <v>-3.1280078256923031E-7</v>
-      </c>
-      <c r="N5">
-        <v>-4.2575267743238044E-8</v>
-      </c>
-      <c r="O5">
-        <v>-2.3813849014880057E-7</v>
-      </c>
-      <c r="P5">
-        <v>-4.0232039289220988E-7</v>
-      </c>
-      <c r="Q5">
-        <v>-2.2254388635292432E-7</v>
-      </c>
-      <c r="R5">
-        <v>-3.1582212310927853E-7</v>
-      </c>
-      <c r="S5">
-        <v>-2.5755719574535724E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="22">
-        <v>-0.56764242237721185</v>
-      </c>
-      <c r="C6">
-        <v>1.0806487373358233E-7</v>
-      </c>
-      <c r="D6">
-        <v>1.4367449985652038E-7</v>
-      </c>
-      <c r="E6">
-        <v>3.4996629700225434E-7</v>
-      </c>
-      <c r="F6">
-        <v>2.5028653823297442E-6</v>
-      </c>
-      <c r="G6">
-        <v>3.0881698712982962E-6</v>
-      </c>
-      <c r="H6">
-        <v>-2.3040760327872116E-7</v>
-      </c>
-      <c r="I6">
-        <v>-1.5355213616527054E-7</v>
-      </c>
-      <c r="J6">
-        <v>-3.4110658873308047E-7</v>
-      </c>
-      <c r="K6">
-        <v>-4.7724622370124293E-7</v>
-      </c>
-      <c r="L6">
-        <v>9.4978778923446683E-8</v>
-      </c>
-      <c r="M6">
-        <v>-3.0196354888407941E-7</v>
-      </c>
-      <c r="N6">
-        <v>-5.4100384682388646E-8</v>
-      </c>
-      <c r="O6">
-        <v>-1.7714455470725939E-8</v>
-      </c>
-      <c r="P6">
-        <v>-3.468437310245533E-7</v>
-      </c>
-      <c r="Q6">
-        <v>1.6662644513344107E-8</v>
-      </c>
-      <c r="R6">
-        <v>-1.5293943724465399E-7</v>
-      </c>
-      <c r="S6">
-        <v>-2.5587937640725499E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="22">
-        <v>-8.3011759450724223E-3</v>
-      </c>
-      <c r="C7">
-        <v>-3.092780337648997E-8</v>
-      </c>
-      <c r="D7">
-        <v>1.6751310155949572E-7</v>
-      </c>
-      <c r="E7">
-        <v>-1.1603904092908213E-7</v>
-      </c>
-      <c r="F7">
-        <v>-3.1407401970199865E-7</v>
-      </c>
-      <c r="G7">
-        <v>-2.3040760327872116E-7</v>
-      </c>
-      <c r="H7">
-        <v>1.0275981764143769E-5</v>
-      </c>
-      <c r="I7">
-        <v>4.3975667643857517E-6</v>
-      </c>
-      <c r="J7">
-        <v>4.4015096997511961E-6</v>
-      </c>
-      <c r="K7">
-        <v>4.3981551846624888E-6</v>
-      </c>
-      <c r="L7">
-        <v>4.3489744513360154E-6</v>
-      </c>
-      <c r="M7">
-        <v>4.3820888309138218E-6</v>
-      </c>
-      <c r="N7">
-        <v>4.3773719765484053E-6</v>
-      </c>
-      <c r="O7">
-        <v>4.3874990029461031E-6</v>
-      </c>
-      <c r="P7">
-        <v>4.4070160506715386E-6</v>
-      </c>
-      <c r="Q7">
-        <v>4.3695428407652695E-6</v>
-      </c>
-      <c r="R7">
-        <v>4.3975680898766366E-6</v>
-      </c>
-      <c r="S7">
-        <v>-4.1292721390536717E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="23">
-        <v>4.6139078385844252E-2</v>
-      </c>
-      <c r="C8">
-        <v>7.5777872754771092E-8</v>
-      </c>
-      <c r="D8">
-        <v>3.3918085651376162E-7</v>
-      </c>
-      <c r="E8">
-        <v>3.2351938373090363E-8</v>
-      </c>
-      <c r="F8">
-        <v>-2.9614285373206149E-7</v>
-      </c>
-      <c r="G8">
-        <v>-1.5355213616527054E-7</v>
-      </c>
-      <c r="H8">
-        <v>4.3975667643857517E-6</v>
-      </c>
-      <c r="I8">
-        <v>7.270362980614878E-6</v>
-      </c>
-      <c r="J8">
-        <v>4.4101391325364526E-6</v>
-      </c>
-      <c r="K8">
-        <v>4.4079319674577512E-6</v>
-      </c>
-      <c r="L8">
-        <v>4.3887508425715173E-6</v>
-      </c>
-      <c r="M8">
-        <v>4.4105325299164432E-6</v>
-      </c>
-      <c r="N8">
-        <v>4.3666392732986641E-6</v>
-      </c>
-      <c r="O8">
-        <v>4.3820513265678066E-6</v>
-      </c>
-      <c r="P8">
-        <v>4.4104109909908587E-6</v>
-      </c>
-      <c r="Q8">
-        <v>4.3803627313078059E-6</v>
-      </c>
-      <c r="R8">
-        <v>4.4044218034679079E-6</v>
-      </c>
-      <c r="S8">
-        <v>-4.3240174418149673E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>6.6319226846137905E-2</v>
-      </c>
-      <c r="C9">
-        <v>7.1112409879679116E-8</v>
-      </c>
-      <c r="D9">
-        <v>4.7989822067873306E-7</v>
-      </c>
-      <c r="E9">
-        <v>9.3957269066299038E-8</v>
-      </c>
-      <c r="F9">
-        <v>-2.1698489727404497E-7</v>
-      </c>
-      <c r="G9">
-        <v>-3.4110658873308047E-7</v>
-      </c>
-      <c r="H9">
-        <v>4.4015096997511961E-6</v>
-      </c>
-      <c r="I9">
-        <v>4.4101391325364526E-6</v>
-      </c>
-      <c r="J9">
-        <v>8.8453628379659147E-6</v>
-      </c>
-      <c r="K9">
-        <v>4.4310061434607651E-6</v>
-      </c>
-      <c r="L9">
-        <v>4.389613113779637E-6</v>
-      </c>
-      <c r="M9">
-        <v>4.4289567886764683E-6</v>
-      </c>
-      <c r="N9">
-        <v>4.3738285323165931E-6</v>
-      </c>
-      <c r="O9">
-        <v>4.3920276144188104E-6</v>
-      </c>
-      <c r="P9">
-        <v>4.4228916428911655E-6</v>
-      </c>
-      <c r="Q9">
-        <v>4.3772197229211072E-6</v>
-      </c>
-      <c r="R9">
-        <v>4.4119024931193797E-6</v>
-      </c>
-      <c r="S9">
-        <v>-4.2695420117726994E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <v>-0.2020712147857377</v>
-      </c>
-      <c r="C10">
-        <v>2.1211694630674629E-7</v>
-      </c>
-      <c r="D10">
-        <v>2.7888863515635101E-7</v>
-      </c>
-      <c r="E10">
-        <v>-1.8200066730518295E-7</v>
-      </c>
-      <c r="F10">
-        <v>-4.3204134957347722E-7</v>
-      </c>
-      <c r="G10">
-        <v>-4.7724622370124293E-7</v>
-      </c>
-      <c r="H10">
-        <v>4.3981551846624888E-6</v>
-      </c>
-      <c r="I10">
-        <v>4.4079319674577512E-6</v>
-      </c>
-      <c r="J10">
-        <v>4.4310061434607651E-6</v>
-      </c>
-      <c r="K10">
-        <v>9.3107105865133305E-6</v>
-      </c>
-      <c r="L10">
-        <v>4.4038555326927488E-6</v>
-      </c>
-      <c r="M10">
-        <v>4.4256504565206979E-6</v>
-      </c>
-      <c r="N10">
-        <v>4.3864870897986635E-6</v>
-      </c>
-      <c r="O10">
-        <v>4.3801154167068319E-6</v>
-      </c>
-      <c r="P10">
-        <v>4.4153684161524743E-6</v>
-      </c>
-      <c r="Q10">
-        <v>4.3832051713068199E-6</v>
-      </c>
-      <c r="R10">
-        <v>4.4037764539994922E-6</v>
-      </c>
-      <c r="S10">
-        <v>-4.0366389378415922E-6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <v>2.2169625695426635E-2</v>
-      </c>
-      <c r="C11">
-        <v>4.1732300939156135E-7</v>
-      </c>
-      <c r="D11">
-        <v>3.8930065914583788E-7</v>
-      </c>
-      <c r="E11">
-        <v>-4.4288581975799633E-8</v>
-      </c>
-      <c r="F11">
-        <v>3.0194047693676984E-7</v>
-      </c>
-      <c r="G11">
-        <v>9.4978778923446683E-8</v>
-      </c>
-      <c r="H11">
-        <v>4.3489744513360154E-6</v>
-      </c>
-      <c r="I11">
-        <v>4.3887508425715173E-6</v>
-      </c>
-      <c r="J11">
-        <v>4.389613113779637E-6</v>
-      </c>
-      <c r="K11">
-        <v>4.4038555326927488E-6</v>
-      </c>
-      <c r="L11">
-        <v>8.9129959483429503E-6</v>
-      </c>
-      <c r="M11">
-        <v>4.4048638525416214E-6</v>
-      </c>
-      <c r="N11">
-        <v>4.3906603382455795E-6</v>
-      </c>
-      <c r="O11">
-        <v>4.3548144159520554E-6</v>
-      </c>
-      <c r="P11">
-        <v>4.3514628537993734E-6</v>
-      </c>
-      <c r="Q11">
-        <v>4.3748561225609265E-6</v>
-      </c>
-      <c r="R11">
-        <v>4.3936699301471685E-6</v>
-      </c>
-      <c r="S11">
-        <v>-4.7196393759943835E-6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12">
-        <v>-0.14826343743154238</v>
-      </c>
-      <c r="C12">
-        <v>2.491240457011373E-7</v>
-      </c>
-      <c r="D12">
-        <v>1.9060287246449038E-7</v>
-      </c>
-      <c r="E12">
-        <v>1.0303146441324531E-7</v>
-      </c>
-      <c r="F12">
-        <v>-3.1280078256923031E-7</v>
-      </c>
-      <c r="G12">
-        <v>-3.0196354888407941E-7</v>
-      </c>
-      <c r="H12">
-        <v>4.3820888309138218E-6</v>
-      </c>
-      <c r="I12">
-        <v>4.4105325299164432E-6</v>
-      </c>
-      <c r="J12">
-        <v>4.4289567886764683E-6</v>
-      </c>
-      <c r="K12">
-        <v>4.4256504565206979E-6</v>
-      </c>
-      <c r="L12">
-        <v>4.4048638525416214E-6</v>
-      </c>
-      <c r="M12">
-        <v>1.0153264425460563E-5</v>
-      </c>
-      <c r="N12">
-        <v>4.3734912605931566E-6</v>
-      </c>
-      <c r="O12">
-        <v>4.3897460514497863E-6</v>
-      </c>
-      <c r="P12">
-        <v>4.3984983697457251E-6</v>
-      </c>
-      <c r="Q12">
-        <v>4.3969269732070222E-6</v>
-      </c>
-      <c r="R12">
-        <v>4.4047378867428826E-6</v>
-      </c>
-      <c r="S12">
-        <v>-4.3316019211065574E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13">
-        <v>-0.15354005118448993</v>
-      </c>
-      <c r="C13">
-        <v>2.668856602422707E-8</v>
-      </c>
-      <c r="D13">
-        <v>2.3447014529103629E-7</v>
-      </c>
-      <c r="E13">
-        <v>-1.6745147240348184E-7</v>
-      </c>
-      <c r="F13">
-        <v>-4.2575267743238044E-8</v>
-      </c>
-      <c r="G13">
-        <v>-5.4100384682388646E-8</v>
-      </c>
-      <c r="H13">
-        <v>4.3773719765484053E-6</v>
-      </c>
-      <c r="I13">
-        <v>4.3666392732986641E-6</v>
-      </c>
-      <c r="J13">
-        <v>4.3738285323165931E-6</v>
-      </c>
-      <c r="K13">
-        <v>4.3864870897986635E-6</v>
-      </c>
-      <c r="L13">
-        <v>4.3906603382455795E-6</v>
-      </c>
-      <c r="M13">
-        <v>4.3734912605931566E-6</v>
-      </c>
-      <c r="N13">
-        <v>8.7097251153892154E-6</v>
-      </c>
-      <c r="O13">
-        <v>4.356780306112103E-6</v>
-      </c>
-      <c r="P13">
-        <v>4.3744060328067623E-6</v>
-      </c>
-      <c r="Q13">
-        <v>4.3572201841731191E-6</v>
-      </c>
-      <c r="R13">
-        <v>4.3696250684226969E-6</v>
-      </c>
-      <c r="S13">
-        <v>-4.2841783450775341E-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14">
-        <v>-0.25064996436452741</v>
-      </c>
-      <c r="C14">
-        <v>-4.5360725599238713E-8</v>
-      </c>
-      <c r="D14">
-        <v>1.7506108113805736E-7</v>
-      </c>
-      <c r="E14">
-        <v>1.438975039108626E-7</v>
-      </c>
-      <c r="F14">
-        <v>-2.3813849014880057E-7</v>
-      </c>
-      <c r="G14">
-        <v>-1.7714455470725939E-8</v>
-      </c>
-      <c r="H14">
-        <v>4.3874990029461031E-6</v>
-      </c>
-      <c r="I14">
-        <v>4.3820513265678066E-6</v>
-      </c>
-      <c r="J14">
-        <v>4.3920276144188104E-6</v>
-      </c>
-      <c r="K14">
-        <v>4.3801154167068319E-6</v>
-      </c>
-      <c r="L14">
-        <v>4.3548144159520554E-6</v>
-      </c>
-      <c r="M14">
-        <v>4.3897460514497863E-6</v>
-      </c>
-      <c r="N14">
-        <v>4.356780306112103E-6</v>
-      </c>
-      <c r="O14">
-        <v>9.6875654568972555E-6</v>
-      </c>
-      <c r="P14">
-        <v>4.3959929996261814E-6</v>
-      </c>
-      <c r="Q14">
-        <v>4.3751717281772865E-6</v>
-      </c>
-      <c r="R14">
-        <v>4.3874493421771978E-6</v>
-      </c>
-      <c r="S14">
-        <v>-4.3926177828698508E-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
-        <v>-3.2523414649333775E-2</v>
-      </c>
-      <c r="C15">
-        <v>-3.165369793499524E-8</v>
-      </c>
-      <c r="D15">
-        <v>3.2344129622071935E-7</v>
-      </c>
-      <c r="E15">
-        <v>-1.5093094192675597E-7</v>
-      </c>
-      <c r="F15">
-        <v>-4.0232039289220988E-7</v>
-      </c>
-      <c r="G15">
-        <v>-3.468437310245533E-7</v>
-      </c>
-      <c r="H15">
-        <v>4.4070160506715386E-6</v>
-      </c>
-      <c r="I15">
-        <v>4.4104109909908587E-6</v>
-      </c>
-      <c r="J15">
-        <v>4.4228916428911655E-6</v>
-      </c>
-      <c r="K15">
-        <v>4.4153684161524743E-6</v>
-      </c>
-      <c r="L15">
-        <v>4.3514628537993734E-6</v>
-      </c>
-      <c r="M15">
-        <v>4.3984983697457251E-6</v>
-      </c>
-      <c r="N15">
-        <v>4.3744060328067623E-6</v>
-      </c>
-      <c r="O15">
-        <v>4.3959929996261814E-6</v>
-      </c>
-      <c r="P15">
-        <v>1.1105444524845874E-5</v>
-      </c>
-      <c r="Q15">
-        <v>4.3718174708575458E-6</v>
-      </c>
-      <c r="R15">
-        <v>4.4081020001052945E-6</v>
-      </c>
-      <c r="S15">
-        <v>-4.0455365879647014E-6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16">
-        <v>-1.0146341325742514E-3</v>
-      </c>
-      <c r="C16">
-        <v>1.2683894874653938E-7</v>
-      </c>
-      <c r="D16">
-        <v>7.2575105422355996E-9</v>
-      </c>
-      <c r="E16">
-        <v>1.0969578845420456E-7</v>
-      </c>
-      <c r="F16">
-        <v>-2.2254388635292432E-7</v>
-      </c>
-      <c r="G16">
-        <v>1.6662644513344107E-8</v>
-      </c>
-      <c r="H16">
-        <v>4.3695428407652695E-6</v>
-      </c>
-      <c r="I16">
-        <v>4.3803627313078059E-6</v>
-      </c>
-      <c r="J16">
-        <v>4.3772197229211072E-6</v>
-      </c>
-      <c r="K16">
-        <v>4.3832051713068199E-6</v>
-      </c>
-      <c r="L16">
-        <v>4.3748561225609265E-6</v>
-      </c>
-      <c r="M16">
-        <v>4.3969269732070222E-6</v>
-      </c>
-      <c r="N16">
-        <v>4.3572201841731191E-6</v>
-      </c>
-      <c r="O16">
-        <v>4.3751717281772865E-6</v>
-      </c>
-      <c r="P16">
-        <v>4.3718174708575458E-6</v>
-      </c>
-      <c r="Q16">
-        <v>8.2328517820888556E-6</v>
-      </c>
-      <c r="R16">
-        <v>4.380917275128101E-6</v>
-      </c>
-      <c r="S16">
-        <v>-4.4614822146187775E-6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17">
-        <v>-8.5766058317511079E-2</v>
-      </c>
-      <c r="C17">
-        <v>1.1253383839028038E-7</v>
-      </c>
-      <c r="D17">
-        <v>4.1015448803103675E-7</v>
-      </c>
-      <c r="E17">
-        <v>-1.1118677583130232E-7</v>
-      </c>
-      <c r="F17">
-        <v>-3.1582212310927853E-7</v>
-      </c>
-      <c r="G17">
-        <v>-1.5293943724465399E-7</v>
-      </c>
-      <c r="H17">
-        <v>4.3975680898766366E-6</v>
-      </c>
-      <c r="I17">
-        <v>4.4044218034679079E-6</v>
-      </c>
-      <c r="J17">
-        <v>4.4119024931193797E-6</v>
-      </c>
-      <c r="K17">
-        <v>4.4037764539994922E-6</v>
-      </c>
-      <c r="L17">
-        <v>4.3936699301471685E-6</v>
-      </c>
-      <c r="M17">
-        <v>4.4047378867428826E-6</v>
-      </c>
-      <c r="N17">
-        <v>4.3696250684226969E-6</v>
-      </c>
-      <c r="O17">
-        <v>4.3874493421771978E-6</v>
-      </c>
-      <c r="P17">
-        <v>4.4081020001052945E-6</v>
-      </c>
-      <c r="Q17">
-        <v>4.380917275128101E-6</v>
-      </c>
-      <c r="R17">
-        <v>1.2217174595486808E-5</v>
-      </c>
-      <c r="S17">
-        <v>-4.2800779009465921E-6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18">
-        <v>4.2130371743711983</v>
-      </c>
-      <c r="C18">
-        <v>-1.2122304242130515E-6</v>
-      </c>
-      <c r="D18">
-        <v>-1.3282257155176888E-6</v>
-      </c>
-      <c r="E18">
-        <v>-1.1057899138922592E-6</v>
-      </c>
-      <c r="F18">
-        <v>-2.5755719574535724E-6</v>
-      </c>
-      <c r="G18">
-        <v>-2.5587937640725499E-6</v>
-      </c>
-      <c r="H18">
-        <v>-4.1292721390536717E-6</v>
-      </c>
-      <c r="I18">
-        <v>-4.3240174418149673E-6</v>
-      </c>
-      <c r="J18">
-        <v>-4.2695420117726994E-6</v>
-      </c>
-      <c r="K18">
-        <v>-4.0366389378415922E-6</v>
-      </c>
-      <c r="L18">
-        <v>-4.7196393759943835E-6</v>
-      </c>
-      <c r="M18">
-        <v>-4.3316019211065574E-6</v>
-      </c>
-      <c r="N18">
-        <v>-4.2841783450775341E-6</v>
-      </c>
-      <c r="O18">
-        <v>-4.3926177828698508E-6</v>
-      </c>
-      <c r="P18">
-        <v>-4.0455365879647014E-6</v>
-      </c>
-      <c r="Q18">
-        <v>-4.4614822146187775E-6</v>
-      </c>
-      <c r="R18">
-        <v>-4.2800779009465921E-6</v>
-      </c>
-      <c r="S18">
-        <v>7.6820782169528039E-6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE250E75-E6FA-4703-BDBC-D893F3BFA9FB}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -55302,7 +50523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6409C276-6EAC-4D5D-87D5-1148775282D6}">
   <dimension ref="A1:L33"/>
   <sheetViews>
@@ -55695,7 +50916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBA7970-4FC4-496C-9785-13DCE8D4D417}">
   <dimension ref="A1:AW37"/>
   <sheetViews>
@@ -60174,7 +55395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F239E5-E750-455C-B228-F8EEADD6B4EE}">
   <dimension ref="A1:K29"/>
   <sheetViews>
@@ -60774,7 +55995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CF04AE-B9B6-4C0A-8B62-B1CC718F9F6C}">
   <dimension ref="A1:K31"/>
   <sheetViews>
@@ -61384,7 +56605,1088 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D54BEF-A785-4097-B447-1AE751D019CE}">
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="22">
+        <v>6.3897407071910731E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.862770823170025E-6</v>
+      </c>
+      <c r="D2">
+        <v>9.6076933687227889E-7</v>
+      </c>
+      <c r="E2">
+        <v>1.0415912786023299E-7</v>
+      </c>
+      <c r="F2">
+        <v>1.9240602541214336E-7</v>
+      </c>
+      <c r="G2">
+        <v>1.0806487373358233E-7</v>
+      </c>
+      <c r="H2">
+        <v>-3.092780337648997E-8</v>
+      </c>
+      <c r="I2">
+        <v>7.5777872754771092E-8</v>
+      </c>
+      <c r="J2">
+        <v>7.1112409879679116E-8</v>
+      </c>
+      <c r="K2">
+        <v>2.1211694630674629E-7</v>
+      </c>
+      <c r="L2">
+        <v>4.1732300939156135E-7</v>
+      </c>
+      <c r="M2">
+        <v>2.491240457011373E-7</v>
+      </c>
+      <c r="N2">
+        <v>2.668856602422707E-8</v>
+      </c>
+      <c r="O2">
+        <v>-4.5360725599238713E-8</v>
+      </c>
+      <c r="P2">
+        <v>-3.165369793499524E-8</v>
+      </c>
+      <c r="Q2">
+        <v>1.2683894874653938E-7</v>
+      </c>
+      <c r="R2">
+        <v>1.1253383839028038E-7</v>
+      </c>
+      <c r="S2">
+        <v>-1.2122304242130515E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="22">
+        <v>7.7437484043701516E-2</v>
+      </c>
+      <c r="C3">
+        <v>9.6076933687227889E-7</v>
+      </c>
+      <c r="D3">
+        <v>3.9091838227033344E-6</v>
+      </c>
+      <c r="E3">
+        <v>-4.1086745959149779E-9</v>
+      </c>
+      <c r="F3">
+        <v>1.9506356239338519E-7</v>
+      </c>
+      <c r="G3">
+        <v>1.4367449985652038E-7</v>
+      </c>
+      <c r="H3">
+        <v>1.6751310155949572E-7</v>
+      </c>
+      <c r="I3">
+        <v>3.3918085651376162E-7</v>
+      </c>
+      <c r="J3">
+        <v>4.7989822067873306E-7</v>
+      </c>
+      <c r="K3">
+        <v>2.7888863515635101E-7</v>
+      </c>
+      <c r="L3">
+        <v>3.8930065914583788E-7</v>
+      </c>
+      <c r="M3">
+        <v>1.9060287246449038E-7</v>
+      </c>
+      <c r="N3">
+        <v>2.3447014529103629E-7</v>
+      </c>
+      <c r="O3">
+        <v>1.7506108113805736E-7</v>
+      </c>
+      <c r="P3">
+        <v>3.2344129622071935E-7</v>
+      </c>
+      <c r="Q3">
+        <v>7.2575105422355996E-9</v>
+      </c>
+      <c r="R3">
+        <v>4.1015448803103675E-7</v>
+      </c>
+      <c r="S3">
+        <v>-1.3282257155176888E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="22">
+        <v>-3.8814808247455285E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.0415912786023299E-7</v>
+      </c>
+      <c r="D4">
+        <v>-4.1086745959149779E-9</v>
+      </c>
+      <c r="E4">
+        <v>1.6457047777429843E-6</v>
+      </c>
+      <c r="F4">
+        <v>3.7782256300556936E-7</v>
+      </c>
+      <c r="G4">
+        <v>3.4996629700225434E-7</v>
+      </c>
+      <c r="H4">
+        <v>-1.1603904092908213E-7</v>
+      </c>
+      <c r="I4">
+        <v>3.2351938373090363E-8</v>
+      </c>
+      <c r="J4">
+        <v>9.3957269066299038E-8</v>
+      </c>
+      <c r="K4">
+        <v>-1.8200066730518295E-7</v>
+      </c>
+      <c r="L4">
+        <v>-4.4288581975799633E-8</v>
+      </c>
+      <c r="M4">
+        <v>1.0303146441324531E-7</v>
+      </c>
+      <c r="N4">
+        <v>-1.6745147240348184E-7</v>
+      </c>
+      <c r="O4">
+        <v>1.438975039108626E-7</v>
+      </c>
+      <c r="P4">
+        <v>-1.5093094192675597E-7</v>
+      </c>
+      <c r="Q4">
+        <v>1.0969578845420456E-7</v>
+      </c>
+      <c r="R4">
+        <v>-1.1118677583130232E-7</v>
+      </c>
+      <c r="S4">
+        <v>-1.1057899138922592E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="22">
+        <v>-0.30806080192628621</v>
+      </c>
+      <c r="C5">
+        <v>1.9240602541214336E-7</v>
+      </c>
+      <c r="D5">
+        <v>1.9506356239338519E-7</v>
+      </c>
+      <c r="E5">
+        <v>3.7782256300556936E-7</v>
+      </c>
+      <c r="F5">
+        <v>4.7920503104399834E-6</v>
+      </c>
+      <c r="G5">
+        <v>2.5028653823297442E-6</v>
+      </c>
+      <c r="H5">
+        <v>-3.1407401970199865E-7</v>
+      </c>
+      <c r="I5">
+        <v>-2.9614285373206149E-7</v>
+      </c>
+      <c r="J5">
+        <v>-2.1698489727404497E-7</v>
+      </c>
+      <c r="K5">
+        <v>-4.3204134957347722E-7</v>
+      </c>
+      <c r="L5">
+        <v>3.0194047693676984E-7</v>
+      </c>
+      <c r="M5">
+        <v>-3.1280078256923031E-7</v>
+      </c>
+      <c r="N5">
+        <v>-4.2575267743238044E-8</v>
+      </c>
+      <c r="O5">
+        <v>-2.3813849014880057E-7</v>
+      </c>
+      <c r="P5">
+        <v>-4.0232039289220988E-7</v>
+      </c>
+      <c r="Q5">
+        <v>-2.2254388635292432E-7</v>
+      </c>
+      <c r="R5">
+        <v>-3.1582212310927853E-7</v>
+      </c>
+      <c r="S5">
+        <v>-2.5755719574535724E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="22">
+        <v>-0.56764242237721185</v>
+      </c>
+      <c r="C6">
+        <v>1.0806487373358233E-7</v>
+      </c>
+      <c r="D6">
+        <v>1.4367449985652038E-7</v>
+      </c>
+      <c r="E6">
+        <v>3.4996629700225434E-7</v>
+      </c>
+      <c r="F6">
+        <v>2.5028653823297442E-6</v>
+      </c>
+      <c r="G6">
+        <v>3.0881698712982962E-6</v>
+      </c>
+      <c r="H6">
+        <v>-2.3040760327872116E-7</v>
+      </c>
+      <c r="I6">
+        <v>-1.5355213616527054E-7</v>
+      </c>
+      <c r="J6">
+        <v>-3.4110658873308047E-7</v>
+      </c>
+      <c r="K6">
+        <v>-4.7724622370124293E-7</v>
+      </c>
+      <c r="L6">
+        <v>9.4978778923446683E-8</v>
+      </c>
+      <c r="M6">
+        <v>-3.0196354888407941E-7</v>
+      </c>
+      <c r="N6">
+        <v>-5.4100384682388646E-8</v>
+      </c>
+      <c r="O6">
+        <v>-1.7714455470725939E-8</v>
+      </c>
+      <c r="P6">
+        <v>-3.468437310245533E-7</v>
+      </c>
+      <c r="Q6">
+        <v>1.6662644513344107E-8</v>
+      </c>
+      <c r="R6">
+        <v>-1.5293943724465399E-7</v>
+      </c>
+      <c r="S6">
+        <v>-2.5587937640725499E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="22">
+        <v>-8.3011759450724223E-3</v>
+      </c>
+      <c r="C7">
+        <v>-3.092780337648997E-8</v>
+      </c>
+      <c r="D7">
+        <v>1.6751310155949572E-7</v>
+      </c>
+      <c r="E7">
+        <v>-1.1603904092908213E-7</v>
+      </c>
+      <c r="F7">
+        <v>-3.1407401970199865E-7</v>
+      </c>
+      <c r="G7">
+        <v>-2.3040760327872116E-7</v>
+      </c>
+      <c r="H7">
+        <v>1.0275981764143769E-5</v>
+      </c>
+      <c r="I7">
+        <v>4.3975667643857517E-6</v>
+      </c>
+      <c r="J7">
+        <v>4.4015096997511961E-6</v>
+      </c>
+      <c r="K7">
+        <v>4.3981551846624888E-6</v>
+      </c>
+      <c r="L7">
+        <v>4.3489744513360154E-6</v>
+      </c>
+      <c r="M7">
+        <v>4.3820888309138218E-6</v>
+      </c>
+      <c r="N7">
+        <v>4.3773719765484053E-6</v>
+      </c>
+      <c r="O7">
+        <v>4.3874990029461031E-6</v>
+      </c>
+      <c r="P7">
+        <v>4.4070160506715386E-6</v>
+      </c>
+      <c r="Q7">
+        <v>4.3695428407652695E-6</v>
+      </c>
+      <c r="R7">
+        <v>4.3975680898766366E-6</v>
+      </c>
+      <c r="S7">
+        <v>-4.1292721390536717E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="23">
+        <v>4.6139078385844252E-2</v>
+      </c>
+      <c r="C8">
+        <v>7.5777872754771092E-8</v>
+      </c>
+      <c r="D8">
+        <v>3.3918085651376162E-7</v>
+      </c>
+      <c r="E8">
+        <v>3.2351938373090363E-8</v>
+      </c>
+      <c r="F8">
+        <v>-2.9614285373206149E-7</v>
+      </c>
+      <c r="G8">
+        <v>-1.5355213616527054E-7</v>
+      </c>
+      <c r="H8">
+        <v>4.3975667643857517E-6</v>
+      </c>
+      <c r="I8">
+        <v>7.270362980614878E-6</v>
+      </c>
+      <c r="J8">
+        <v>4.4101391325364526E-6</v>
+      </c>
+      <c r="K8">
+        <v>4.4079319674577512E-6</v>
+      </c>
+      <c r="L8">
+        <v>4.3887508425715173E-6</v>
+      </c>
+      <c r="M8">
+        <v>4.4105325299164432E-6</v>
+      </c>
+      <c r="N8">
+        <v>4.3666392732986641E-6</v>
+      </c>
+      <c r="O8">
+        <v>4.3820513265678066E-6</v>
+      </c>
+      <c r="P8">
+        <v>4.4104109909908587E-6</v>
+      </c>
+      <c r="Q8">
+        <v>4.3803627313078059E-6</v>
+      </c>
+      <c r="R8">
+        <v>4.4044218034679079E-6</v>
+      </c>
+      <c r="S8">
+        <v>-4.3240174418149673E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>6.6319226846137905E-2</v>
+      </c>
+      <c r="C9">
+        <v>7.1112409879679116E-8</v>
+      </c>
+      <c r="D9">
+        <v>4.7989822067873306E-7</v>
+      </c>
+      <c r="E9">
+        <v>9.3957269066299038E-8</v>
+      </c>
+      <c r="F9">
+        <v>-2.1698489727404497E-7</v>
+      </c>
+      <c r="G9">
+        <v>-3.4110658873308047E-7</v>
+      </c>
+      <c r="H9">
+        <v>4.4015096997511961E-6</v>
+      </c>
+      <c r="I9">
+        <v>4.4101391325364526E-6</v>
+      </c>
+      <c r="J9">
+        <v>8.8453628379659147E-6</v>
+      </c>
+      <c r="K9">
+        <v>4.4310061434607651E-6</v>
+      </c>
+      <c r="L9">
+        <v>4.389613113779637E-6</v>
+      </c>
+      <c r="M9">
+        <v>4.4289567886764683E-6</v>
+      </c>
+      <c r="N9">
+        <v>4.3738285323165931E-6</v>
+      </c>
+      <c r="O9">
+        <v>4.3920276144188104E-6</v>
+      </c>
+      <c r="P9">
+        <v>4.4228916428911655E-6</v>
+      </c>
+      <c r="Q9">
+        <v>4.3772197229211072E-6</v>
+      </c>
+      <c r="R9">
+        <v>4.4119024931193797E-6</v>
+      </c>
+      <c r="S9">
+        <v>-4.2695420117726994E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>-0.2020712147857377</v>
+      </c>
+      <c r="C10">
+        <v>2.1211694630674629E-7</v>
+      </c>
+      <c r="D10">
+        <v>2.7888863515635101E-7</v>
+      </c>
+      <c r="E10">
+        <v>-1.8200066730518295E-7</v>
+      </c>
+      <c r="F10">
+        <v>-4.3204134957347722E-7</v>
+      </c>
+      <c r="G10">
+        <v>-4.7724622370124293E-7</v>
+      </c>
+      <c r="H10">
+        <v>4.3981551846624888E-6</v>
+      </c>
+      <c r="I10">
+        <v>4.4079319674577512E-6</v>
+      </c>
+      <c r="J10">
+        <v>4.4310061434607651E-6</v>
+      </c>
+      <c r="K10">
+        <v>9.3107105865133305E-6</v>
+      </c>
+      <c r="L10">
+        <v>4.4038555326927488E-6</v>
+      </c>
+      <c r="M10">
+        <v>4.4256504565206979E-6</v>
+      </c>
+      <c r="N10">
+        <v>4.3864870897986635E-6</v>
+      </c>
+      <c r="O10">
+        <v>4.3801154167068319E-6</v>
+      </c>
+      <c r="P10">
+        <v>4.4153684161524743E-6</v>
+      </c>
+      <c r="Q10">
+        <v>4.3832051713068199E-6</v>
+      </c>
+      <c r="R10">
+        <v>4.4037764539994922E-6</v>
+      </c>
+      <c r="S10">
+        <v>-4.0366389378415922E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>2.2169625695426635E-2</v>
+      </c>
+      <c r="C11">
+        <v>4.1732300939156135E-7</v>
+      </c>
+      <c r="D11">
+        <v>3.8930065914583788E-7</v>
+      </c>
+      <c r="E11">
+        <v>-4.4288581975799633E-8</v>
+      </c>
+      <c r="F11">
+        <v>3.0194047693676984E-7</v>
+      </c>
+      <c r="G11">
+        <v>9.4978778923446683E-8</v>
+      </c>
+      <c r="H11">
+        <v>4.3489744513360154E-6</v>
+      </c>
+      <c r="I11">
+        <v>4.3887508425715173E-6</v>
+      </c>
+      <c r="J11">
+        <v>4.389613113779637E-6</v>
+      </c>
+      <c r="K11">
+        <v>4.4038555326927488E-6</v>
+      </c>
+      <c r="L11">
+        <v>8.9129959483429503E-6</v>
+      </c>
+      <c r="M11">
+        <v>4.4048638525416214E-6</v>
+      </c>
+      <c r="N11">
+        <v>4.3906603382455795E-6</v>
+      </c>
+      <c r="O11">
+        <v>4.3548144159520554E-6</v>
+      </c>
+      <c r="P11">
+        <v>4.3514628537993734E-6</v>
+      </c>
+      <c r="Q11">
+        <v>4.3748561225609265E-6</v>
+      </c>
+      <c r="R11">
+        <v>4.3936699301471685E-6</v>
+      </c>
+      <c r="S11">
+        <v>-4.7196393759943835E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>-0.14826343743154238</v>
+      </c>
+      <c r="C12">
+        <v>2.491240457011373E-7</v>
+      </c>
+      <c r="D12">
+        <v>1.9060287246449038E-7</v>
+      </c>
+      <c r="E12">
+        <v>1.0303146441324531E-7</v>
+      </c>
+      <c r="F12">
+        <v>-3.1280078256923031E-7</v>
+      </c>
+      <c r="G12">
+        <v>-3.0196354888407941E-7</v>
+      </c>
+      <c r="H12">
+        <v>4.3820888309138218E-6</v>
+      </c>
+      <c r="I12">
+        <v>4.4105325299164432E-6</v>
+      </c>
+      <c r="J12">
+        <v>4.4289567886764683E-6</v>
+      </c>
+      <c r="K12">
+        <v>4.4256504565206979E-6</v>
+      </c>
+      <c r="L12">
+        <v>4.4048638525416214E-6</v>
+      </c>
+      <c r="M12">
+        <v>1.0153264425460563E-5</v>
+      </c>
+      <c r="N12">
+        <v>4.3734912605931566E-6</v>
+      </c>
+      <c r="O12">
+        <v>4.3897460514497863E-6</v>
+      </c>
+      <c r="P12">
+        <v>4.3984983697457251E-6</v>
+      </c>
+      <c r="Q12">
+        <v>4.3969269732070222E-6</v>
+      </c>
+      <c r="R12">
+        <v>4.4047378867428826E-6</v>
+      </c>
+      <c r="S12">
+        <v>-4.3316019211065574E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>-0.15354005118448993</v>
+      </c>
+      <c r="C13">
+        <v>2.668856602422707E-8</v>
+      </c>
+      <c r="D13">
+        <v>2.3447014529103629E-7</v>
+      </c>
+      <c r="E13">
+        <v>-1.6745147240348184E-7</v>
+      </c>
+      <c r="F13">
+        <v>-4.2575267743238044E-8</v>
+      </c>
+      <c r="G13">
+        <v>-5.4100384682388646E-8</v>
+      </c>
+      <c r="H13">
+        <v>4.3773719765484053E-6</v>
+      </c>
+      <c r="I13">
+        <v>4.3666392732986641E-6</v>
+      </c>
+      <c r="J13">
+        <v>4.3738285323165931E-6</v>
+      </c>
+      <c r="K13">
+        <v>4.3864870897986635E-6</v>
+      </c>
+      <c r="L13">
+        <v>4.3906603382455795E-6</v>
+      </c>
+      <c r="M13">
+        <v>4.3734912605931566E-6</v>
+      </c>
+      <c r="N13">
+        <v>8.7097251153892154E-6</v>
+      </c>
+      <c r="O13">
+        <v>4.356780306112103E-6</v>
+      </c>
+      <c r="P13">
+        <v>4.3744060328067623E-6</v>
+      </c>
+      <c r="Q13">
+        <v>4.3572201841731191E-6</v>
+      </c>
+      <c r="R13">
+        <v>4.3696250684226969E-6</v>
+      </c>
+      <c r="S13">
+        <v>-4.2841783450775341E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>-0.25064996436452741</v>
+      </c>
+      <c r="C14">
+        <v>-4.5360725599238713E-8</v>
+      </c>
+      <c r="D14">
+        <v>1.7506108113805736E-7</v>
+      </c>
+      <c r="E14">
+        <v>1.438975039108626E-7</v>
+      </c>
+      <c r="F14">
+        <v>-2.3813849014880057E-7</v>
+      </c>
+      <c r="G14">
+        <v>-1.7714455470725939E-8</v>
+      </c>
+      <c r="H14">
+        <v>4.3874990029461031E-6</v>
+      </c>
+      <c r="I14">
+        <v>4.3820513265678066E-6</v>
+      </c>
+      <c r="J14">
+        <v>4.3920276144188104E-6</v>
+      </c>
+      <c r="K14">
+        <v>4.3801154167068319E-6</v>
+      </c>
+      <c r="L14">
+        <v>4.3548144159520554E-6</v>
+      </c>
+      <c r="M14">
+        <v>4.3897460514497863E-6</v>
+      </c>
+      <c r="N14">
+        <v>4.356780306112103E-6</v>
+      </c>
+      <c r="O14">
+        <v>9.6875654568972555E-6</v>
+      </c>
+      <c r="P14">
+        <v>4.3959929996261814E-6</v>
+      </c>
+      <c r="Q14">
+        <v>4.3751717281772865E-6</v>
+      </c>
+      <c r="R14">
+        <v>4.3874493421771978E-6</v>
+      </c>
+      <c r="S14">
+        <v>-4.3926177828698508E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>-3.2523414649333775E-2</v>
+      </c>
+      <c r="C15">
+        <v>-3.165369793499524E-8</v>
+      </c>
+      <c r="D15">
+        <v>3.2344129622071935E-7</v>
+      </c>
+      <c r="E15">
+        <v>-1.5093094192675597E-7</v>
+      </c>
+      <c r="F15">
+        <v>-4.0232039289220988E-7</v>
+      </c>
+      <c r="G15">
+        <v>-3.468437310245533E-7</v>
+      </c>
+      <c r="H15">
+        <v>4.4070160506715386E-6</v>
+      </c>
+      <c r="I15">
+        <v>4.4104109909908587E-6</v>
+      </c>
+      <c r="J15">
+        <v>4.4228916428911655E-6</v>
+      </c>
+      <c r="K15">
+        <v>4.4153684161524743E-6</v>
+      </c>
+      <c r="L15">
+        <v>4.3514628537993734E-6</v>
+      </c>
+      <c r="M15">
+        <v>4.3984983697457251E-6</v>
+      </c>
+      <c r="N15">
+        <v>4.3744060328067623E-6</v>
+      </c>
+      <c r="O15">
+        <v>4.3959929996261814E-6</v>
+      </c>
+      <c r="P15">
+        <v>1.1105444524845874E-5</v>
+      </c>
+      <c r="Q15">
+        <v>4.3718174708575458E-6</v>
+      </c>
+      <c r="R15">
+        <v>4.4081020001052945E-6</v>
+      </c>
+      <c r="S15">
+        <v>-4.0455365879647014E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>-1.0146341325742514E-3</v>
+      </c>
+      <c r="C16">
+        <v>1.2683894874653938E-7</v>
+      </c>
+      <c r="D16">
+        <v>7.2575105422355996E-9</v>
+      </c>
+      <c r="E16">
+        <v>1.0969578845420456E-7</v>
+      </c>
+      <c r="F16">
+        <v>-2.2254388635292432E-7</v>
+      </c>
+      <c r="G16">
+        <v>1.6662644513344107E-8</v>
+      </c>
+      <c r="H16">
+        <v>4.3695428407652695E-6</v>
+      </c>
+      <c r="I16">
+        <v>4.3803627313078059E-6</v>
+      </c>
+      <c r="J16">
+        <v>4.3772197229211072E-6</v>
+      </c>
+      <c r="K16">
+        <v>4.3832051713068199E-6</v>
+      </c>
+      <c r="L16">
+        <v>4.3748561225609265E-6</v>
+      </c>
+      <c r="M16">
+        <v>4.3969269732070222E-6</v>
+      </c>
+      <c r="N16">
+        <v>4.3572201841731191E-6</v>
+      </c>
+      <c r="O16">
+        <v>4.3751717281772865E-6</v>
+      </c>
+      <c r="P16">
+        <v>4.3718174708575458E-6</v>
+      </c>
+      <c r="Q16">
+        <v>8.2328517820888556E-6</v>
+      </c>
+      <c r="R16">
+        <v>4.380917275128101E-6</v>
+      </c>
+      <c r="S16">
+        <v>-4.4614822146187775E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>-8.5766058317511079E-2</v>
+      </c>
+      <c r="C17">
+        <v>1.1253383839028038E-7</v>
+      </c>
+      <c r="D17">
+        <v>4.1015448803103675E-7</v>
+      </c>
+      <c r="E17">
+        <v>-1.1118677583130232E-7</v>
+      </c>
+      <c r="F17">
+        <v>-3.1582212310927853E-7</v>
+      </c>
+      <c r="G17">
+        <v>-1.5293943724465399E-7</v>
+      </c>
+      <c r="H17">
+        <v>4.3975680898766366E-6</v>
+      </c>
+      <c r="I17">
+        <v>4.4044218034679079E-6</v>
+      </c>
+      <c r="J17">
+        <v>4.4119024931193797E-6</v>
+      </c>
+      <c r="K17">
+        <v>4.4037764539994922E-6</v>
+      </c>
+      <c r="L17">
+        <v>4.3936699301471685E-6</v>
+      </c>
+      <c r="M17">
+        <v>4.4047378867428826E-6</v>
+      </c>
+      <c r="N17">
+        <v>4.3696250684226969E-6</v>
+      </c>
+      <c r="O17">
+        <v>4.3874493421771978E-6</v>
+      </c>
+      <c r="P17">
+        <v>4.4081020001052945E-6</v>
+      </c>
+      <c r="Q17">
+        <v>4.380917275128101E-6</v>
+      </c>
+      <c r="R17">
+        <v>1.2217174595486808E-5</v>
+      </c>
+      <c r="S17">
+        <v>-4.2800779009465921E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>4.2130371743711983</v>
+      </c>
+      <c r="C18">
+        <v>-1.2122304242130515E-6</v>
+      </c>
+      <c r="D18">
+        <v>-1.3282257155176888E-6</v>
+      </c>
+      <c r="E18">
+        <v>-1.1057899138922592E-6</v>
+      </c>
+      <c r="F18">
+        <v>-2.5755719574535724E-6</v>
+      </c>
+      <c r="G18">
+        <v>-2.5587937640725499E-6</v>
+      </c>
+      <c r="H18">
+        <v>-4.1292721390536717E-6</v>
+      </c>
+      <c r="I18">
+        <v>-4.3240174418149673E-6</v>
+      </c>
+      <c r="J18">
+        <v>-4.2695420117726994E-6</v>
+      </c>
+      <c r="K18">
+        <v>-4.0366389378415922E-6</v>
+      </c>
+      <c r="L18">
+        <v>-4.7196393759943835E-6</v>
+      </c>
+      <c r="M18">
+        <v>-4.3316019211065574E-6</v>
+      </c>
+      <c r="N18">
+        <v>-4.2841783450775341E-6</v>
+      </c>
+      <c r="O18">
+        <v>-4.3926177828698508E-6</v>
+      </c>
+      <c r="P18">
+        <v>-4.0455365879647014E-6</v>
+      </c>
+      <c r="Q18">
+        <v>-4.4614822146187775E-6</v>
+      </c>
+      <c r="R18">
+        <v>-4.2800779009465921E-6</v>
+      </c>
+      <c r="S18">
+        <v>7.6820782169528039E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D7E631-7D11-438C-B1C1-8908D6712651}">
   <dimension ref="A1:L31"/>
   <sheetViews>
@@ -62000,7 +58302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597DFEA5-7D20-4D2B-8454-4155676BD29D}">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -62540,7 +58842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DC16F1-B546-4B1B-A7F9-5AE1E00B2BEA}">
   <dimension ref="A1:L28"/>
   <sheetViews>
@@ -63084,12 +59386,3712 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9104025-97C2-445F-8B24-6FDFF8620E89}">
+  <dimension ref="A1:I53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>-0.10000340000000001</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4.6258100000000003E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8">
+        <v>6.3061999999999997E-3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6.4061699999999999E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8">
+        <v>-0.1176941</v>
+      </c>
+      <c r="C8" s="7">
+        <v>7.1483000000000005E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="8">
+        <v>-0.1346802</v>
+      </c>
+      <c r="C10" s="7">
+        <v>5.6568100000000003E-2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1.236059</v>
+      </c>
+      <c r="C11" s="7">
+        <v>6.8762699999999996E-2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1.2526740000000001</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8.9741600000000005E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8">
+        <v>6.579E-4</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.1029698</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="8">
+        <v>-5.4165999999999997E-3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>9.9144899999999994E-2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="8">
+        <v>-3.2713600000000002E-2</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.1009144</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.746</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="8">
+        <v>-6.6975000000000003E-3</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.1145877</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.47168260000000001</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.48148229999999997</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.34429749999999998</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.2273288</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.59245650000000005</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.19961470000000001</v>
+      </c>
+      <c r="D21" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.78085859999999996</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.17891180000000001</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.64115800000000001</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.17014180000000001</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.77517060000000004</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.15022150000000001</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.74084179999999999</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.143431</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.58973810000000004</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.14218890000000001</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.43628280000000003</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.13842199999999999</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0.27490870000000001</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.13695860000000001</v>
+      </c>
+      <c r="D28" s="8">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.1806383</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.13464300000000001</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0.16388259999999999</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.1402226</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" s="8">
+        <v>-3.12103E-2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.1475417</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="32">
+        <v>-1.3732219999999999</v>
+      </c>
+      <c r="C33" s="33">
+        <v>0.18675310000000001</v>
+      </c>
+      <c r="D33" s="32">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34">
+        <v>6355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35">
+        <v>0.20569999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="34">
+        <v>0.21149999999999999</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="G37">
+        <f>SUMPRODUCT(G5:G33,B5:B33)+SUMPRODUCT(G43:G53,B43:B53)</f>
+        <v>-1.5944307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <f>_xlfn.NORM.DIST(G37,0,1,TRUE)</f>
+        <v>5.5419800437120526E-2</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>5.9004099999999997E-2</v>
+      </c>
+      <c r="C43">
+        <v>0.1363221</v>
+      </c>
+      <c r="D43">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>-8.8169999999999998E-2</v>
+      </c>
+      <c r="C44">
+        <v>0.1154094</v>
+      </c>
+      <c r="D44">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>5.2603200000000003E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.12324599999999999</v>
+      </c>
+      <c r="D45">
+        <v>0.67</v>
+      </c>
+      <c r="E45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>-6.7157700000000001E-2</v>
+      </c>
+      <c r="C46">
+        <v>0.12575539999999999</v>
+      </c>
+      <c r="D46">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>3.75565E-2</v>
+      </c>
+      <c r="C47">
+        <v>0.1233839</v>
+      </c>
+      <c r="D47">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>-2.9579000000000001E-2</v>
+      </c>
+      <c r="C48">
+        <v>0.122284</v>
+      </c>
+      <c r="D48">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <v>1.9708E-2</v>
+      </c>
+      <c r="C49">
+        <v>0.1186659</v>
+      </c>
+      <c r="D49">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="E49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>-0.10180259999999999</v>
+      </c>
+      <c r="C50">
+        <v>0.1224652</v>
+      </c>
+      <c r="D50">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>9.1220999999999997E-2</v>
+      </c>
+      <c r="C51">
+        <v>0.1240908</v>
+      </c>
+      <c r="D51">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="E51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>-0.1028736</v>
+      </c>
+      <c r="C52">
+        <v>0.1229851</v>
+      </c>
+      <c r="D52">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="E52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53">
+        <v>0.1094913</v>
+      </c>
+      <c r="C53">
+        <v>0.1350374</v>
+      </c>
+      <c r="D53">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="E53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2B4F9D-B3E8-4A90-8B93-00EF36D5DB61}">
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>-0.1388664</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1.11755E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8">
+        <v>9.9093700000000007E-2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1.27589E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6.6176000000000004E-3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1.8081199999999999E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.25869229999999999</v>
+      </c>
+      <c r="C10" s="7">
+        <v>5.6100299999999999E-2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1.5142500000000001</v>
+      </c>
+      <c r="C11" s="7">
+        <v>7.4399800000000002E-2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1.8060830000000001</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1.1942100000000001E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8">
+        <v>4.34803E-2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.9276100000000001E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="8">
+        <v>6.2842300000000004E-2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.94913E-2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="8">
+        <v>8.2092499999999999E-2</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2.2296699999999999E-2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="8">
+        <v>-6.8545999999999998E-3</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2.9335400000000001E-2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="8">
+        <v>-0.1073573</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.23188E-2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.1055987</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4.7581199999999997E-2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.17312040000000001</v>
+      </c>
+      <c r="C21" s="7">
+        <v>4.8230200000000001E-2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.21609790000000001</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4.7504999999999999E-2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.32046629999999998</v>
+      </c>
+      <c r="C23" s="7">
+        <v>4.5852200000000003E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.34158880000000003</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4.471E-2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.43431690000000001</v>
+      </c>
+      <c r="C25" s="7">
+        <v>4.3742000000000003E-2</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.53355339999999996</v>
+      </c>
+      <c r="C26" s="7">
+        <v>4.3319299999999998E-2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.52563919999999997</v>
+      </c>
+      <c r="C27" s="7">
+        <v>4.3092699999999998E-2</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0.48333159999999997</v>
+      </c>
+      <c r="C28" s="7">
+        <v>4.3722999999999998E-2</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.39454810000000001</v>
+      </c>
+      <c r="C29" s="7">
+        <v>4.3941399999999999E-2</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0.25491629999999998</v>
+      </c>
+      <c r="C30" s="7">
+        <v>4.4834600000000002E-2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0.10614510000000001</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4.8164400000000003E-2</v>
+      </c>
+      <c r="D31" s="8">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" s="8">
+        <v>4.9113000000000004E-3</v>
+      </c>
+      <c r="C32" s="7">
+        <v>5.3673899999999997E-2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="8">
+        <v>-0.18829309999999999</v>
+      </c>
+      <c r="C33" s="7">
+        <v>6.3931000000000002E-2</v>
+      </c>
+      <c r="D33" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="32">
+        <v>-1.9021159999999999</v>
+      </c>
+      <c r="C34" s="33">
+        <v>4.7251799999999997E-2</v>
+      </c>
+      <c r="D34" s="32">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>167458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36">
+        <v>0.13550000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="34">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>5.6041500000000001E-2</v>
+      </c>
+      <c r="C44">
+        <v>3.2722399999999999E-2</v>
+      </c>
+      <c r="D44">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45">
+        <v>1.9705E-2</v>
+      </c>
+      <c r="C45">
+        <v>2.6298100000000001E-2</v>
+      </c>
+      <c r="D45">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <v>4.4558999999999996E-3</v>
+      </c>
+      <c r="C46">
+        <v>2.7182499999999998E-2</v>
+      </c>
+      <c r="D46">
+        <v>0.87</v>
+      </c>
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>0.1061961</v>
+      </c>
+      <c r="C47">
+        <v>2.7306799999999999E-2</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48">
+        <v>8.2452800000000007E-2</v>
+      </c>
+      <c r="C48">
+        <v>2.7496900000000001E-2</v>
+      </c>
+      <c r="D48">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49">
+        <v>3.9996499999999997E-2</v>
+      </c>
+      <c r="C49">
+        <v>2.6432799999999999E-2</v>
+      </c>
+      <c r="D49">
+        <v>0.13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50">
+        <v>1.43489E-2</v>
+      </c>
+      <c r="C50">
+        <v>2.4808899999999998E-2</v>
+      </c>
+      <c r="D50">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>4.4659499999999998E-2</v>
+      </c>
+      <c r="C51">
+        <v>2.6597200000000001E-2</v>
+      </c>
+      <c r="D51">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52">
+        <v>3.2340399999999998E-2</v>
+      </c>
+      <c r="C52">
+        <v>2.7736500000000001E-2</v>
+      </c>
+      <c r="D52">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="E52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>3.4541500000000003E-2</v>
+      </c>
+      <c r="C53">
+        <v>2.6105300000000001E-2</v>
+      </c>
+      <c r="D53">
+        <v>0.186</v>
+      </c>
+      <c r="E53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54">
+        <v>5.3557199999999999E-2</v>
+      </c>
+      <c r="C54">
+        <v>2.9127400000000001E-2</v>
+      </c>
+      <c r="D54">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f>SUMPRODUCT(F5:F54,B5:B54)</f>
+        <v>-1.4223931999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f>_xlfn.NORM.DIST(F56,0,1,TRUE)</f>
+        <v>7.745606804275669E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015EFB6B-7043-420F-ACC1-42287328EA5E}">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>-9.3156799999999998E-2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1.9328700000000001E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.1085579</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2.3279299999999999E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2.4801E-2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3.0833200000000002E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.39977200000000002</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.1060787</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1.198202</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.18976190000000001</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1.77827</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2.02121E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8">
+        <v>-8.1432999999999992E-3</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3.3294799999999999E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.80700000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3.7523800000000003E-2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3.3330600000000002E-2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="8">
+        <v>7.5846399999999994E-2</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3.68946E-2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="8">
+        <v>-1.1918099999999999E-2</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4.4227200000000001E-2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.1096149</v>
+      </c>
+      <c r="C19" s="7">
+        <v>4.8342999999999997E-2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.19078780000000001</v>
+      </c>
+      <c r="C20" s="7">
+        <v>5.3736100000000002E-2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.26097550000000003</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5.8080800000000002E-2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.35086970000000001</v>
+      </c>
+      <c r="C22" s="7">
+        <v>5.7757299999999998E-2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.42262080000000002</v>
+      </c>
+      <c r="C23" s="7">
+        <v>5.5611500000000001E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.47204230000000003</v>
+      </c>
+      <c r="C24" s="7">
+        <v>5.17016E-2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.49925209999999998</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5.0283799999999997E-2</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.44557390000000002</v>
+      </c>
+      <c r="C26" s="7">
+        <v>4.9140000000000003E-2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.45266309999999998</v>
+      </c>
+      <c r="C27" s="7">
+        <v>5.0972099999999999E-2</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0.36086439999999997</v>
+      </c>
+      <c r="C28" s="7">
+        <v>5.1458999999999998E-2</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.29054849999999999</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5.2157099999999998E-2</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0.15634970000000001</v>
+      </c>
+      <c r="C30" s="7">
+        <v>5.6256599999999997E-2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2.5008599999999999E-2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>6.0901499999999997E-2</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="8">
+        <v>-0.1596716</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6.8946900000000005E-2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="32">
+        <v>-1.9218360000000001</v>
+      </c>
+      <c r="C33" s="33">
+        <v>5.8113900000000003E-2</v>
+      </c>
+      <c r="D33" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34">
+        <v>61235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35">
+        <v>0.1353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="34">
+        <v>0.29559999999999997</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>4.2710600000000001E-2</v>
+      </c>
+      <c r="C44">
+        <v>5.33444E-2</v>
+      </c>
+      <c r="D44">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45">
+        <v>5.28181E-2</v>
+      </c>
+      <c r="C45">
+        <v>4.1494400000000001E-2</v>
+      </c>
+      <c r="D45">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <v>4.43565E-2</v>
+      </c>
+      <c r="C46">
+        <v>4.3456399999999999E-2</v>
+      </c>
+      <c r="D46">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>0.15371679999999999</v>
+      </c>
+      <c r="C47">
+        <v>4.5156799999999997E-2</v>
+      </c>
+      <c r="D47">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48">
+        <v>9.0351200000000007E-2</v>
+      </c>
+      <c r="C48">
+        <v>4.4474100000000003E-2</v>
+      </c>
+      <c r="D48">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49">
+        <v>4.7470999999999999E-2</v>
+      </c>
+      <c r="C49">
+        <v>4.2849199999999997E-2</v>
+      </c>
+      <c r="D49">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50">
+        <v>4.22323E-2</v>
+      </c>
+      <c r="C50">
+        <v>3.9628700000000003E-2</v>
+      </c>
+      <c r="D50">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>5.83867E-2</v>
+      </c>
+      <c r="C51">
+        <v>4.3783700000000002E-2</v>
+      </c>
+      <c r="D51">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52">
+        <v>3.6446899999999997E-2</v>
+      </c>
+      <c r="C52">
+        <v>4.3948800000000003E-2</v>
+      </c>
+      <c r="D52">
+        <v>0.40699999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>7.4489600000000003E-2</v>
+      </c>
+      <c r="C53">
+        <v>4.0607699999999997E-2</v>
+      </c>
+      <c r="D53">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54">
+        <v>7.3078699999999996E-2</v>
+      </c>
+      <c r="C54">
+        <v>4.4184500000000002E-2</v>
+      </c>
+      <c r="D54">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15E83B0-B0CF-4E41-AA76-16BCC25A8AFA}">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="10" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="H4" s="41"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="42">
+        <v>-2.76169E-2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4.6156599999999999E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E5" s="42">
+        <v>-0.19427059999999999</v>
+      </c>
+      <c r="F5" s="8">
+        <v>7.5290899999999994E-2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="42">
+        <v>-0.33644639999999998</v>
+      </c>
+      <c r="I5" s="8">
+        <v>2.5690299999999999E-2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="42">
+        <v>0.36572070000000001</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5.7420699999999998E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="42">
+        <v>0.41033740000000002</v>
+      </c>
+      <c r="F7" s="8">
+        <v>9.6236299999999997E-2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="42">
+        <v>0.1570628</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2.8895799999999999E-2</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="42">
+        <v>0.6324999</v>
+      </c>
+      <c r="C8" s="8">
+        <v>6.8536700000000006E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="42">
+        <v>0.41509810000000003</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.1177318</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="42">
+        <v>-5.8575599999999999E-2</v>
+      </c>
+      <c r="I8" s="8">
+        <v>4.1651500000000001E-2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="42">
+        <v>4.7066359999999996</v>
+      </c>
+      <c r="C10" s="8">
+        <v>5.4978100000000002E-2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="42">
+        <v>4.6005820000000002</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.11022460000000001</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="42">
+        <v>0.31668780000000002</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.13331999999999999</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="42">
+        <v>4.548635</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.120467</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="42">
+        <v>6.7710410000000003</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.1341678</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="42">
+        <v>2.7420879999999999</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.1294728</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="42">
+        <v>0.40359879999999998</v>
+      </c>
+      <c r="C12" s="8">
+        <v>9.9470299999999998E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="42">
+        <v>2.5612789999999999</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.1126933</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="42">
+        <v>3.1975519999999999</v>
+      </c>
+      <c r="I12" s="8">
+        <v>2.6073099999999998E-2</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="42">
+        <v>4.5050399999999997E-2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>9.3943399999999996E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E14" s="42">
+        <v>9.40357E-2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.15747159999999999</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H14" s="42">
+        <v>0.15454419999999999</v>
+      </c>
+      <c r="I14" s="8">
+        <v>4.4809500000000002E-2</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="42">
+        <v>0.1912732</v>
+      </c>
+      <c r="C15" s="8">
+        <v>9.2247200000000001E-2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E15" s="42">
+        <v>0.21808130000000001</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.152062</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.152</v>
+      </c>
+      <c r="H15" s="42">
+        <v>0.15692010000000001</v>
+      </c>
+      <c r="I15" s="8">
+        <v>4.5473899999999998E-2</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="42">
+        <v>0.52237800000000001</v>
+      </c>
+      <c r="C16" s="8">
+        <v>9.9234199999999995E-2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="42">
+        <v>0.61063840000000003</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.15912119999999999</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="42">
+        <v>0.14018069999999999</v>
+      </c>
+      <c r="I16" s="8">
+        <v>5.2423999999999998E-2</v>
+      </c>
+      <c r="J16" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="42">
+        <v>0.60648409999999997</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.1216256</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="42">
+        <v>0.72216769999999997</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.18993699999999999</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="42">
+        <v>-2.5751400000000001E-2</v>
+      </c>
+      <c r="I17" s="8">
+        <v>7.50778E-2</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" s="42">
+        <v>6.9353799999999993E-2</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.12349010000000001</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="E19" s="42">
+        <v>0.29158460000000003</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.21310080000000001</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="H19" s="42">
+        <v>0.29580630000000002</v>
+      </c>
+      <c r="I19" s="8">
+        <v>5.4779700000000001E-2</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B20" s="42">
+        <v>0.25054490000000001</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.1156084</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="E20" s="42">
+        <v>0.57235860000000005</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.1921139</v>
+      </c>
+      <c r="G20" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H20" s="42">
+        <v>0.62620540000000002</v>
+      </c>
+      <c r="I20" s="8">
+        <v>5.17052E-2</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B21" s="42">
+        <v>0.6508661</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.1116962</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="42">
+        <v>0.55389710000000003</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.19174849999999999</v>
+      </c>
+      <c r="G21" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H21" s="42">
+        <v>0.70125320000000002</v>
+      </c>
+      <c r="I21" s="8">
+        <v>5.1878100000000003E-2</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" s="42">
+        <v>1.2029719999999999</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.10783040000000001</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="42">
+        <v>0.47248410000000002</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.1906709</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H22" s="42">
+        <v>0.19889899999999999</v>
+      </c>
+      <c r="I22" s="8">
+        <v>5.2933000000000001E-2</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="43">
+        <v>-5.0683020000000001</v>
+      </c>
+      <c r="C23" s="44">
+        <v>0.1623658</v>
+      </c>
+      <c r="D23" s="44">
+        <v>0</v>
+      </c>
+      <c r="E23" s="43">
+        <v>-6.6225719999999999</v>
+      </c>
+      <c r="F23" s="44">
+        <v>0.25731320000000002</v>
+      </c>
+      <c r="G23" s="44">
+        <v>0</v>
+      </c>
+      <c r="H23" s="43">
+        <v>-3.2735629999999998</v>
+      </c>
+      <c r="I23" s="44">
+        <v>7.5760999999999995E-2</v>
+      </c>
+      <c r="J23" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>9.4063099999999997E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.1414598</v>
+      </c>
+      <c r="D30">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.20046269999999999</v>
+      </c>
+      <c r="F30">
+        <v>0.22939319999999999</v>
+      </c>
+      <c r="G30">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="H30">
+        <v>0.12540889999999999</v>
+      </c>
+      <c r="I30">
+        <v>7.9025799999999993E-2</v>
+      </c>
+      <c r="J30">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>5.1828100000000002E-2</v>
+      </c>
+      <c r="C31">
+        <v>0.1180508</v>
+      </c>
+      <c r="D31">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="E31">
+        <v>-5.9822199999999999E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.19364390000000001</v>
+      </c>
+      <c r="G31">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="H31">
+        <v>-2.3529999999999999E-2</v>
+      </c>
+      <c r="I31">
+        <v>6.4963199999999999E-2</v>
+      </c>
+      <c r="J31">
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>-4.38927E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.1226054</v>
+      </c>
+      <c r="D32">
+        <v>0.72</v>
+      </c>
+      <c r="E32">
+        <v>2.78845E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.2069704</v>
+      </c>
+      <c r="G32">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="H32">
+        <v>-4.6636400000000001E-2</v>
+      </c>
+      <c r="I32">
+        <v>6.6702300000000006E-2</v>
+      </c>
+      <c r="J32">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>-0.10932269999999999</v>
+      </c>
+      <c r="C33">
+        <v>0.12718270000000001</v>
+      </c>
+      <c r="D33">
+        <v>0.39</v>
+      </c>
+      <c r="E33">
+        <v>-0.20241590000000001</v>
+      </c>
+      <c r="F33">
+        <v>0.20679520000000001</v>
+      </c>
+      <c r="G33">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="H33">
+        <v>0.13530139999999999</v>
+      </c>
+      <c r="I33">
+        <v>6.5167100000000006E-2</v>
+      </c>
+      <c r="J33">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>5.0318700000000001E-2</v>
+      </c>
+      <c r="C34">
+        <v>0.12512789999999999</v>
+      </c>
+      <c r="D34">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E34">
+        <v>8.9765200000000003E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.20777619999999999</v>
+      </c>
+      <c r="G34">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="H34">
+        <v>0.13170490000000001</v>
+      </c>
+      <c r="I34">
+        <v>6.6444299999999998E-2</v>
+      </c>
+      <c r="J34">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>-0.19587669999999999</v>
+      </c>
+      <c r="C35">
+        <v>0.1249287</v>
+      </c>
+      <c r="D35">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E35">
+        <v>-0.2243134</v>
+      </c>
+      <c r="F35">
+        <v>0.20363909999999999</v>
+      </c>
+      <c r="G35">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="H35">
+        <v>4.8176799999999999E-2</v>
+      </c>
+      <c r="I35">
+        <v>6.4847699999999994E-2</v>
+      </c>
+      <c r="J35">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>-0.15028730000000001</v>
+      </c>
+      <c r="C36">
+        <v>0.1196253</v>
+      </c>
+      <c r="D36">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E36">
+        <v>-9.0710100000000002E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.1976029</v>
+      </c>
+      <c r="G36">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="H36">
+        <v>-5.3461000000000003E-3</v>
+      </c>
+      <c r="I36">
+        <v>6.07112E-2</v>
+      </c>
+      <c r="J36">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>-2.0753400000000002E-2</v>
+      </c>
+      <c r="C37">
+        <v>0.1215555</v>
+      </c>
+      <c r="D37">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="E37">
+        <v>-0.20165910000000001</v>
+      </c>
+      <c r="F37">
+        <v>0.20262140000000001</v>
+      </c>
+      <c r="G37">
+        <v>0.32</v>
+      </c>
+      <c r="H37">
+        <v>4.9216099999999999E-2</v>
+      </c>
+      <c r="I37">
+        <v>6.4413799999999993E-2</v>
+      </c>
+      <c r="J37">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <v>-6.13941E-2</v>
+      </c>
+      <c r="C38">
+        <v>0.13159680000000001</v>
+      </c>
+      <c r="D38">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="E38">
+        <v>5.2161899999999997E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.21033360000000001</v>
+      </c>
+      <c r="G38">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="H38">
+        <v>5.5205400000000002E-2</v>
+      </c>
+      <c r="I38">
+        <v>6.7935499999999996E-2</v>
+      </c>
+      <c r="J38">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>1.9097200000000002E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.1239764</v>
+      </c>
+      <c r="D39">
+        <v>0.878</v>
+      </c>
+      <c r="E39">
+        <v>-0.1234745</v>
+      </c>
+      <c r="F39">
+        <v>0.20620849999999999</v>
+      </c>
+      <c r="G39">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="H39">
+        <v>1.0680800000000001E-2</v>
+      </c>
+      <c r="I39">
+        <v>6.4246899999999996E-2</v>
+      </c>
+      <c r="J39">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40">
+        <v>2.3156400000000001E-2</v>
+      </c>
+      <c r="C40">
+        <v>0.130214</v>
+      </c>
+      <c r="D40">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="E40">
+        <v>0.26340469999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.23669090000000001</v>
+      </c>
+      <c r="G40">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="H40">
+        <v>6.8960400000000005E-2</v>
+      </c>
+      <c r="I40">
+        <v>7.2262900000000005E-2</v>
+      </c>
+      <c r="J40">
+        <v>0.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5542939-065A-4FA3-92F5-CDF246AE73E4}">
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>-0.26023269999999998</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1.7858599999999999E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.25005250000000001</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2.0829E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.52315630000000002</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2.85165E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1.09119E-2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3.2772799999999998E-2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.172074</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3.3128900000000003E-2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.32923059999999998</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3.6660999999999999E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.55290450000000002</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4.7719900000000003E-2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" s="8">
+        <v>-0.20462040000000001</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5.0197899999999997E-2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" s="8">
+        <v>-1.2723230000000001</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2.7765399999999999E-2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="8">
+        <v>-0.23398769999999999</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2.1897799999999999E-2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.16516839999999999</v>
+      </c>
+      <c r="C19" s="7">
+        <v>9.1311000000000003E-2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.27893089999999998</v>
+      </c>
+      <c r="C20" s="7">
+        <v>9.3611100000000003E-2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.52550540000000001</v>
+      </c>
+      <c r="C21" s="7">
+        <v>9.2563400000000004E-2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.59696510000000003</v>
+      </c>
+      <c r="C22" s="7">
+        <v>8.8754299999999994E-2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.56353710000000001</v>
+      </c>
+      <c r="C23" s="7">
+        <v>8.6441799999999999E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.30933709999999998</v>
+      </c>
+      <c r="C24" s="7">
+        <v>8.3650600000000006E-2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.22312299999999999</v>
+      </c>
+      <c r="C25" s="7">
+        <v>8.1765599999999994E-2</v>
+      </c>
+      <c r="D25" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.196162</v>
+      </c>
+      <c r="C26" s="7">
+        <v>8.1108E-2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.1515398</v>
+      </c>
+      <c r="C27" s="7">
+        <v>8.1153299999999998E-2</v>
+      </c>
+      <c r="D27" s="8">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" s="8">
+        <v>6.5108299999999994E-2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>8.1995100000000001E-2</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" s="8">
+        <v>6.8036200000000005E-2</v>
+      </c>
+      <c r="C29" s="7">
+        <v>8.3287399999999998E-2</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" s="8">
+        <v>7.1242799999999995E-2</v>
+      </c>
+      <c r="C30" s="7">
+        <v>8.74032E-2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" s="8">
+        <v>6.7698800000000003E-2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>9.4581600000000002E-2</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="8">
+        <v>-7.2208300000000003E-2</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.1085931</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="32">
+        <v>2.7039170000000001</v>
+      </c>
+      <c r="C33" s="33">
+        <v>9.3326900000000004E-2</v>
+      </c>
+      <c r="D33" s="32">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34">
+        <v>31490</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35">
+        <v>1.2788999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36" s="35">
+        <v>0.17829999999999999</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f>SUMPRODUCT(F5:F33,B5:B33)+SUMPRODUCT(F46:F56,B46:B56)</f>
+        <v>1.2077085000000001</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f>EXP(F37+(B35^2)/2)</f>
+        <v>7.5799083230749567</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="27"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>0.13317979999999999</v>
+      </c>
+      <c r="C46">
+        <v>5.2629599999999999E-2</v>
+      </c>
+      <c r="D46">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>6.2610399999999997E-2</v>
+      </c>
+      <c r="C47">
+        <v>4.2779400000000002E-2</v>
+      </c>
+      <c r="D47">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>0.19431470000000001</v>
+      </c>
+      <c r="C48">
+        <v>4.5643900000000001E-2</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>5.6789699999999999E-2</v>
+      </c>
+      <c r="C49">
+        <v>4.4573599999999998E-2</v>
+      </c>
+      <c r="D49">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50">
+        <v>-6.9861999999999997E-3</v>
+      </c>
+      <c r="C50">
+        <v>4.3840499999999998E-2</v>
+      </c>
+      <c r="D50">
+        <v>0.873</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>-0.1095428</v>
+      </c>
+      <c r="C51">
+        <v>4.37682E-2</v>
+      </c>
+      <c r="D51">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52">
+        <v>-1.9930400000000001E-2</v>
+      </c>
+      <c r="C52">
+        <v>4.2103500000000002E-2</v>
+      </c>
+      <c r="D52">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53">
+        <v>-7.1125800000000003E-2</v>
+      </c>
+      <c r="C53">
+        <v>4.3929500000000003E-2</v>
+      </c>
+      <c r="D53">
+        <v>0.105</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54">
+        <v>0.13434779999999999</v>
+      </c>
+      <c r="C54">
+        <v>4.6925099999999997E-2</v>
+      </c>
+      <c r="D54">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>0.13404630000000001</v>
+      </c>
+      <c r="C55">
+        <v>4.2746199999999998E-2</v>
+      </c>
+      <c r="D55">
+        <v>2E-3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56">
+        <v>0.2438448</v>
+      </c>
+      <c r="C56">
+        <v>4.6817499999999998E-2</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1285CCF6-ED07-4956-95C1-5161D138438C}">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:AG1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AG32" sqref="AG32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66339,8 +66341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82455459-0137-4E9C-BEEC-80402726C4F7}">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AG32" sqref="AG32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -69589,8 +69591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD73DD00-3786-4325-A13B-3F1BD35C981C}">
   <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="L39" workbookViewId="0">
+      <selection activeCell="AN39" sqref="AN39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74366,7 +74368,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75333,7 +75335,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76198,8 +76200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33532568-1F0D-4AD8-9590-0BB6B83BFC96}">
   <dimension ref="A1:AK36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AK36" sqref="AK36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input/reg_socialcare.xlsx
+++ b/input/reg_socialcare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDD2449-354A-46F8-BFE5-4FAA42F4E017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3207C3-57C1-4C21-9DBE-45E863564D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="551" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="551" activeTab="3" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="421">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -1946,7 +1946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F25AC8-F3A4-45E4-B3D4-29D900575D65}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -47470,10 +47470,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D50934-18F5-4D4F-B4F8-D79A5CF78521}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:H38"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:AP35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47486,7 +47486,7 @@
     <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>117</v>
       </c>
@@ -47502,894 +47502,578 @@
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>-4.1058999999999998E-2</v>
-      </c>
-      <c r="C5">
-        <v>2.41712E-2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-1.7</v>
-      </c>
-      <c r="E5">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="F5">
-        <v>-8.8433800000000007E-2</v>
-      </c>
-      <c r="G5">
-        <v>6.3156999999999996E-3</v>
-      </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>-3.9864999999999998E-2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2.9260999999999999E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>5.8278400000000001E-2</v>
-      </c>
-      <c r="C7">
-        <v>3.1827099999999997E-2</v>
-      </c>
-      <c r="D7">
-        <v>1.83</v>
-      </c>
-      <c r="E7">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="F7">
-        <v>-4.1016999999999998E-3</v>
-      </c>
-      <c r="G7">
-        <v>0.1206584</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>7.4362499999999998E-2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4.02116E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>7.1320700000000001E-2</v>
-      </c>
-      <c r="C8">
-        <v>3.4385199999999998E-2</v>
-      </c>
-      <c r="D8">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="E8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F8">
-        <v>3.9268999999999997E-3</v>
-      </c>
-      <c r="G8">
-        <v>0.13871449999999999</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>0.17970949999999999</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4.1989400000000003E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
-      <c r="B9">
-        <v>0.1601901</v>
-      </c>
-      <c r="C9">
-        <v>2.6490099999999999E-2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6.05</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="8">
+        <v>0.21555750000000001</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3.2412900000000001E-2</v>
+      </c>
+      <c r="D9" s="8">
         <v>0</v>
       </c>
-      <c r="F9">
-        <v>0.10827050000000001</v>
-      </c>
-      <c r="G9">
-        <v>0.21210970000000001</v>
-      </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
-      <c r="B10">
-        <v>2.3229470000000001</v>
-      </c>
-      <c r="C10">
-        <v>2.5952699999999999E-2</v>
-      </c>
-      <c r="D10" s="3">
-        <v>89.51</v>
-      </c>
-      <c r="E10">
+      <c r="B10" s="8">
+        <v>2.4285749999999999</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3.4195299999999998E-2</v>
+      </c>
+      <c r="D10" s="8">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>2.272081</v>
-      </c>
-      <c r="G10">
-        <v>2.3738130000000002</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B12">
-        <v>1.62314E-2</v>
-      </c>
-      <c r="C12">
-        <v>5.5631800000000002E-2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E12">
-        <v>0.77</v>
-      </c>
-      <c r="F12">
-        <v>-9.2804899999999996E-2</v>
-      </c>
-      <c r="G12">
-        <v>0.12526770000000001</v>
-      </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <v>8.24714E-2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8.1789500000000001E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.313</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B13">
-        <v>0.20252439999999999</v>
-      </c>
-      <c r="C13">
-        <v>5.4460300000000003E-2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3.72</v>
-      </c>
-      <c r="E13">
+      <c r="B13" s="8">
+        <v>0.3946402</v>
+      </c>
+      <c r="C13" s="7">
+        <v>7.8644400000000003E-2</v>
+      </c>
+      <c r="D13" s="8">
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>9.5784099999999997E-2</v>
-      </c>
-      <c r="G13">
-        <v>0.3092647</v>
-      </c>
       <c r="H13" s="5"/>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B14">
-        <v>0.50819950000000003</v>
-      </c>
-      <c r="C14">
-        <v>5.6751999999999997E-2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="E14">
+      <c r="B14" s="8">
+        <v>0.83611049999999998</v>
+      </c>
+      <c r="C14" s="7">
+        <v>7.9554200000000005E-2</v>
+      </c>
+      <c r="D14" s="8">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>0.39696769999999998</v>
-      </c>
-      <c r="G14">
-        <v>0.61943130000000002</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B15">
-        <v>0.96523029999999999</v>
-      </c>
-      <c r="C15">
-        <v>7.2361900000000007E-2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>13.34</v>
-      </c>
-      <c r="E15">
+      <c r="B15" s="8">
+        <v>1.4035519999999999</v>
+      </c>
+      <c r="C15" s="7">
+        <v>9.0342699999999998E-2</v>
+      </c>
+      <c r="D15" s="8">
         <v>0</v>
       </c>
-      <c r="F15">
-        <v>0.82340360000000001</v>
-      </c>
-      <c r="G15">
-        <v>1.107057</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B17">
-        <v>-0.37399969999999999</v>
-      </c>
-      <c r="C17">
-        <v>4.7210099999999998E-2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-7.92</v>
-      </c>
-      <c r="E17">
+      <c r="B17" s="8">
+        <v>-0.32197239999999999</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5.7955399999999997E-2</v>
+      </c>
+      <c r="D17" s="8">
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>-0.46652979999999999</v>
-      </c>
-      <c r="G17">
-        <v>-0.28146969999999999</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B18">
-        <v>-0.25815769999999999</v>
-      </c>
-      <c r="C18">
-        <v>4.4637200000000002E-2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-5.78</v>
-      </c>
-      <c r="E18">
+      <c r="B18" s="8">
+        <v>-0.24082780000000001</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5.5408300000000001E-2</v>
+      </c>
+      <c r="D18" s="8">
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>-0.34564499999999998</v>
-      </c>
-      <c r="G18">
-        <v>-0.1706704</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B19">
-        <v>-0.29815570000000002</v>
-      </c>
-      <c r="C19">
-        <v>4.4242799999999999E-2</v>
-      </c>
-      <c r="D19">
-        <v>-6.74</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>-0.38486999999999999</v>
-      </c>
-      <c r="G19">
-        <v>-0.2114414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
+        <v>-0.1769616</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5.3816700000000002E-2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B20">
-        <v>-0.1848368</v>
-      </c>
-      <c r="C20">
-        <v>4.71508E-2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-3.92</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>-0.27725060000000001</v>
-      </c>
-      <c r="G20">
-        <v>-9.2423099999999994E-2</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
+        <v>-8.4417800000000001E-2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>5.6338199999999998E-2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B21">
-        <v>-0.21457709999999999</v>
-      </c>
-      <c r="C21">
-        <v>5.0211100000000002E-2</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-4.2699999999999996</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>-0.31298910000000002</v>
-      </c>
-      <c r="G21">
-        <v>-0.11616509999999999</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
+        <v>-3.6105699999999998E-2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5.9298200000000002E-2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B22">
-        <v>-5.4475599999999999E-2</v>
-      </c>
-      <c r="C22">
-        <v>5.2169699999999999E-2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-1.04</v>
-      </c>
-      <c r="E22">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="F22">
-        <v>-0.15672620000000001</v>
-      </c>
-      <c r="G22">
-        <v>4.7774999999999998E-2</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
+        <v>3.2269399999999997E-2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>6.2079500000000003E-2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B23">
-        <v>-4.74136E-2</v>
-      </c>
-      <c r="C23">
-        <v>5.8176499999999999E-2</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-0.81</v>
-      </c>
-      <c r="E23">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="F23">
-        <v>-0.16143750000000001</v>
-      </c>
-      <c r="G23">
-        <v>6.6610299999999997E-2</v>
-      </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
+        <v>8.2018300000000002E-2</v>
+      </c>
+      <c r="C23" s="7">
+        <v>6.61799E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.215</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B24">
-        <v>-1.8696899999999999E-2</v>
-      </c>
-      <c r="C24">
-        <v>5.9591699999999997E-2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>-0.31</v>
-      </c>
-      <c r="E24">
-        <v>0.754</v>
-      </c>
-      <c r="F24">
-        <v>-0.13549449999999999</v>
-      </c>
-      <c r="G24">
-        <v>9.8100699999999999E-2</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
+        <v>6.0530300000000002E-2</v>
+      </c>
+      <c r="C24" s="7">
+        <v>6.8052500000000002E-2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B25">
-        <v>5.0798799999999998E-2</v>
-      </c>
-      <c r="C25">
-        <v>6.1746099999999998E-2</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="E25">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="F25">
-        <v>-7.02213E-2</v>
-      </c>
-      <c r="G25">
-        <v>0.1718189</v>
-      </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="8">
+        <v>0.19366639999999999</v>
+      </c>
+      <c r="C25" s="7">
+        <v>6.8279199999999998E-2</v>
+      </c>
+      <c r="D25" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B26">
-        <v>0.16652529999999999</v>
-      </c>
-      <c r="C26">
-        <v>5.83206E-2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2.86</v>
-      </c>
-      <c r="E26">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F26">
-        <v>5.2219000000000002E-2</v>
-      </c>
-      <c r="G26">
-        <v>0.28083150000000001</v>
-      </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="8">
+        <v>0.53153519999999999</v>
+      </c>
+      <c r="C26" s="7">
+        <v>6.4653500000000003E-2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B28">
-        <v>3.9584000000000001E-2</v>
-      </c>
-      <c r="C28">
-        <v>7.6740299999999997E-2</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0.52</v>
-      </c>
-      <c r="E28">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="F28">
-        <v>-0.1108243</v>
-      </c>
-      <c r="G28">
-        <v>0.1899922</v>
+      <c r="B28" s="8">
+        <v>7.5623200000000002E-2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>9.4481899999999994E-2</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.42299999999999999</v>
       </c>
       <c r="H28" t="s">
         <v>28</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B29">
-        <v>7.1857299999999999E-2</v>
-      </c>
-      <c r="C29">
-        <v>6.2449600000000001E-2</v>
-      </c>
-      <c r="D29">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E29">
-        <v>0.25</v>
-      </c>
-      <c r="F29">
-        <v>-5.0541799999999998E-2</v>
-      </c>
-      <c r="G29">
-        <v>0.19425629999999999</v>
+      <c r="B29" s="8">
+        <v>6.3802300000000006E-2</v>
+      </c>
+      <c r="C29" s="7">
+        <v>7.58635E-2</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.4</v>
       </c>
       <c r="H29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B30">
-        <v>8.5405999999999996E-2</v>
-      </c>
-      <c r="C30">
-        <v>6.5126100000000006E-2</v>
-      </c>
-      <c r="D30">
-        <v>1.31</v>
-      </c>
-      <c r="E30">
-        <v>0.19</v>
-      </c>
-      <c r="F30">
-        <v>-4.2238699999999997E-2</v>
-      </c>
-      <c r="G30">
-        <v>0.21305080000000001</v>
+      <c r="B30" s="8">
+        <v>8.5598499999999994E-2</v>
+      </c>
+      <c r="C30" s="7">
+        <v>7.9466099999999998E-2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.28100000000000003</v>
       </c>
       <c r="H30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B31">
-        <v>4.9734599999999997E-2</v>
-      </c>
-      <c r="C31">
-        <v>6.5671199999999999E-2</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="E31">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="F31">
-        <v>-7.8978699999999999E-2</v>
-      </c>
-      <c r="G31">
-        <v>0.17844779999999999</v>
+      <c r="B31" s="8">
+        <v>0.18986430000000001</v>
+      </c>
+      <c r="C31" s="7">
+        <v>8.0646499999999996E-2</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1.9E-2</v>
       </c>
       <c r="H31" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B32">
-        <v>6.7042699999999997E-2</v>
-      </c>
-      <c r="C32">
-        <v>6.4695299999999997E-2</v>
-      </c>
-      <c r="D32">
-        <v>1.04</v>
-      </c>
-      <c r="E32">
-        <v>0.3</v>
-      </c>
-      <c r="F32">
-        <v>-5.9757699999999997E-2</v>
-      </c>
-      <c r="G32">
-        <v>0.19384309999999999</v>
+      <c r="B32" s="8">
+        <v>0.1828428</v>
+      </c>
+      <c r="C32" s="7">
+        <v>7.8774700000000003E-2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.02</v>
       </c>
       <c r="H32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B33">
-        <v>4.6867399999999997E-2</v>
-      </c>
-      <c r="C33">
-        <v>6.2240299999999998E-2</v>
-      </c>
-      <c r="D33">
-        <v>0.75</v>
-      </c>
-      <c r="E33">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="F33">
-        <v>-7.5121400000000005E-2</v>
-      </c>
-      <c r="G33">
-        <v>0.16885610000000001</v>
+      <c r="B33" s="8">
+        <v>0.15158389999999999</v>
+      </c>
+      <c r="C33" s="7">
+        <v>7.5917899999999996E-2</v>
+      </c>
+      <c r="D33" s="8">
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B34">
-        <v>-2.1463200000000002E-2</v>
-      </c>
-      <c r="C34">
-        <v>5.9965400000000002E-2</v>
-      </c>
-      <c r="D34">
-        <v>-0.36</v>
-      </c>
-      <c r="E34">
-        <v>0.72</v>
-      </c>
-      <c r="F34">
-        <v>-0.13899320000000001</v>
-      </c>
-      <c r="G34">
-        <v>9.6066700000000005E-2</v>
+      <c r="B34" s="8">
+        <v>0.1485804</v>
+      </c>
+      <c r="C34" s="7">
+        <v>7.3130399999999998E-2</v>
+      </c>
+      <c r="D34" s="8">
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="H34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B35">
-        <v>9.1913499999999995E-2</v>
-      </c>
-      <c r="C35">
-        <v>6.1827E-2</v>
-      </c>
-      <c r="D35">
-        <v>1.49</v>
-      </c>
-      <c r="E35">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="F35">
-        <v>-2.9265099999999999E-2</v>
-      </c>
-      <c r="G35">
-        <v>0.21309220000000001</v>
+      <c r="B35" s="8">
+        <v>0.12339849999999999</v>
+      </c>
+      <c r="C35" s="7">
+        <v>7.5111499999999998E-2</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.1</v>
       </c>
       <c r="H35" t="s">
         <v>35</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B36">
-        <v>0.17561570000000001</v>
-      </c>
-      <c r="C36">
-        <v>6.5276799999999996E-2</v>
-      </c>
-      <c r="D36">
-        <v>2.69</v>
-      </c>
-      <c r="E36">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F36">
-        <v>4.7675500000000003E-2</v>
-      </c>
-      <c r="G36">
-        <v>0.30355589999999999</v>
+      <c r="B36" s="8">
+        <v>0.19838790000000001</v>
+      </c>
+      <c r="C36" s="7">
+        <v>7.8206700000000004E-2</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B37">
-        <v>0.1120299</v>
-      </c>
-      <c r="C37">
-        <v>6.2846100000000002E-2</v>
-      </c>
-      <c r="D37">
-        <v>1.78</v>
-      </c>
-      <c r="E37">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F37">
-        <v>-1.11462E-2</v>
-      </c>
-      <c r="G37">
-        <v>0.235206</v>
+      <c r="B37" s="8">
+        <v>0.14959790000000001</v>
+      </c>
+      <c r="C37" s="7">
+        <v>7.6166600000000001E-2</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0.05</v>
       </c>
       <c r="H37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B38">
-        <v>0.1908406</v>
-      </c>
-      <c r="C38">
-        <v>6.5069299999999997E-2</v>
-      </c>
-      <c r="D38">
-        <v>2.93</v>
-      </c>
-      <c r="E38">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F38">
-        <v>6.3307199999999994E-2</v>
-      </c>
-      <c r="G38">
-        <v>0.31837409999999999</v>
+      <c r="B38" s="8">
+        <v>0.3538347</v>
+      </c>
+      <c r="C38" s="7">
+        <v>7.7276999999999998E-2</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0</v>
       </c>
       <c r="H38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B39">
-        <v>-1.5419890000000001</v>
-      </c>
-      <c r="C39">
-        <v>8.02065E-2</v>
-      </c>
-      <c r="D39">
-        <v>-19.23</v>
-      </c>
-      <c r="E39">
+      <c r="B39" s="32">
+        <v>-2.4411290000000001</v>
+      </c>
+      <c r="C39" s="33">
+        <v>0.1090855</v>
+      </c>
+      <c r="D39" s="32">
         <v>0</v>
       </c>
-      <c r="F39">
-        <v>-1.69919</v>
-      </c>
-      <c r="G39">
-        <v>-1.384787</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>69</v>
       </c>
       <c r="B40">
-        <v>21723</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>70</v>
       </c>
       <c r="B41">
-        <v>0.37659999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+        <v>0.29060000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B42">
-        <v>0.50629999999999997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I44">
-        <f>SUMPRODUCT(I5:I39,B5:B39)</f>
-        <v>0.9321394999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I45">
-        <f>_xlfn.NORM.DIST(I44,0,1,TRUE)</f>
-        <v>0.82436778159566793</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I47">
-        <v>5</v>
-      </c>
-    </row>
+      <c r="B42" s="34">
+        <v>0.56830000000000003</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
@@ -48400,7 +48084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A3850A-5E6A-4070-9B38-4660B883E8B3}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -63090,8 +62774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1285CCF6-ED07-4956-95C1-5161D138438C}">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AG32" sqref="AG32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63205,2121 +62889,2121 @@
       <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="24">
-        <v>-4.1059028364653367E-2</v>
+      <c r="B2">
+        <v>-3.9864974257799793E-2</v>
       </c>
       <c r="C2">
-        <v>5.8424885463472334E-4</v>
+        <v>8.5620579267233876E-4</v>
       </c>
       <c r="D2">
-        <v>7.8528917098407298E-5</v>
+        <v>1.0052502176815834E-4</v>
       </c>
       <c r="E2">
-        <v>9.9893384930646386E-5</v>
+        <v>1.3048584344062275E-4</v>
       </c>
       <c r="F2">
-        <v>-1.2128935668388404E-4</v>
+        <v>-2.0134753859836374E-4</v>
       </c>
       <c r="G2">
-        <v>2.794685225827565E-5</v>
+        <v>2.3521967795980156E-5</v>
       </c>
       <c r="H2">
-        <v>-1.9212248854283126E-5</v>
+        <v>-4.311649606717435E-5</v>
       </c>
       <c r="I2">
-        <v>-2.0515533315842181E-5</v>
+        <v>-9.3793819109666882E-5</v>
       </c>
       <c r="J2">
-        <v>-5.7947926966840092E-5</v>
+        <v>-1.3814629552065102E-4</v>
       </c>
       <c r="K2">
-        <v>-8.1536119253612709E-5</v>
+        <v>-1.3989186038697454E-4</v>
       </c>
       <c r="L2">
-        <v>4.6720057852378981E-6</v>
+        <v>1.1906564522545767E-5</v>
       </c>
       <c r="M2">
-        <v>-2.7685278212142496E-5</v>
+        <v>5.691546633354948E-6</v>
       </c>
       <c r="N2">
-        <v>-2.7379498156691641E-5</v>
+        <v>-6.3725867627385536E-5</v>
       </c>
       <c r="O2">
-        <v>-3.4221787993479546E-5</v>
+        <v>-1.3716394682581772E-5</v>
       </c>
       <c r="P2">
-        <v>-3.0600910418714902E-5</v>
+        <v>-1.5571709200524645E-5</v>
       </c>
       <c r="Q2">
-        <v>-5.2078452346120249E-5</v>
+        <v>-5.4721564449122405E-5</v>
       </c>
       <c r="R2">
-        <v>-5.8358197675698326E-5</v>
+        <v>-5.8837679058818466E-5</v>
       </c>
       <c r="S2">
-        <v>-5.4907359985541357E-5</v>
+        <v>-2.8425107991051986E-5</v>
       </c>
       <c r="T2">
-        <v>-4.7574294859760396E-5</v>
+        <v>-8.3070546634153865E-5</v>
       </c>
       <c r="U2">
-        <v>-5.0021993391974699E-5</v>
+        <v>-5.6133501893588199E-5</v>
       </c>
       <c r="V2">
-        <v>1.0446137581508267E-5</v>
+        <v>8.1825526053427486E-6</v>
       </c>
       <c r="W2">
-        <v>1.6365185304528473E-5</v>
+        <v>1.1131685644957869E-5</v>
       </c>
       <c r="X2">
-        <v>2.1525277424021474E-5</v>
+        <v>4.6729996605647142E-5</v>
       </c>
       <c r="Y2">
-        <v>-1.2205525302462169E-5</v>
+        <v>-9.2581387524120039E-6</v>
       </c>
       <c r="Z2">
-        <v>1.9227460655272808E-5</v>
+        <v>7.9685750965273873E-5</v>
       </c>
       <c r="AA2">
-        <v>6.9709542805457476E-7</v>
+        <v>3.2216122194360822E-5</v>
       </c>
       <c r="AB2">
-        <v>3.685934132564862E-5</v>
+        <v>6.3661595443494749E-5</v>
       </c>
       <c r="AC2">
-        <v>2.1807678433766471E-5</v>
+        <v>5.6498402596899076E-5</v>
       </c>
       <c r="AD2">
-        <v>-1.430465339119803E-5</v>
+        <v>-1.8806982095185865E-5</v>
       </c>
       <c r="AE2">
-        <v>-1.3946346713046516E-5</v>
+        <v>1.3156722920702231E-5</v>
       </c>
       <c r="AF2">
-        <v>-1.0197241822597412E-5</v>
+        <v>8.0907473714620119E-6</v>
       </c>
       <c r="AG2">
-        <v>-2.2163155795510727E-4</v>
+        <v>-2.6713429340740534E-4</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="24">
-        <v>5.8278350054886859E-2</v>
+      <c r="B3">
+        <v>7.4362473094254394E-2</v>
       </c>
       <c r="C3">
-        <v>7.8528917098407298E-5</v>
+        <v>1.0052502176815834E-4</v>
       </c>
       <c r="D3">
-        <v>1.012965501168091E-3</v>
+        <v>1.6169740239791017E-3</v>
       </c>
       <c r="E3">
-        <v>7.4433702945798821E-4</v>
+        <v>1.2168369125609461E-3</v>
       </c>
       <c r="F3">
-        <v>3.395980008811311E-5</v>
+        <v>9.0413042386014908E-5</v>
       </c>
       <c r="G3">
-        <v>8.0799749137970628E-7</v>
+        <v>-2.0263915912227036E-5</v>
       </c>
       <c r="H3">
-        <v>-4.6013948502350062E-5</v>
+        <v>1.8647487407739665E-4</v>
       </c>
       <c r="I3">
-        <v>-4.2290198112615136E-5</v>
+        <v>1.7718542454761365E-4</v>
       </c>
       <c r="J3">
-        <v>-4.8759781432786831E-5</v>
+        <v>1.8569495387166566E-4</v>
       </c>
       <c r="K3">
-        <v>-9.9258829510495873E-5</v>
+        <v>1.611468083778392E-4</v>
       </c>
       <c r="L3">
-        <v>-1.7442234374657228E-5</v>
+        <v>-1.8465687776127822E-5</v>
       </c>
       <c r="M3">
-        <v>-5.9258650709507938E-5</v>
+        <v>-4.6743628392368322E-5</v>
       </c>
       <c r="N3">
-        <v>-8.1050573730162627E-5</v>
+        <v>-8.5338869667591022E-5</v>
       </c>
       <c r="O3">
-        <v>-8.3427462351607533E-5</v>
+        <v>-1.096413407451799E-4</v>
       </c>
       <c r="P3">
-        <v>-8.7305281634767731E-5</v>
+        <v>-1.2802057757165482E-4</v>
       </c>
       <c r="Q3">
-        <v>-9.1094298568357272E-5</v>
+        <v>-1.2559113860570844E-4</v>
       </c>
       <c r="R3">
-        <v>-7.3747221429019784E-5</v>
+        <v>-5.6711052161943147E-5</v>
       </c>
       <c r="S3">
-        <v>-6.8321819607939879E-5</v>
+        <v>-1.3577237316406539E-4</v>
       </c>
       <c r="T3">
-        <v>-7.4865731342183179E-5</v>
+        <v>-1.3190705230741763E-4</v>
       </c>
       <c r="U3">
-        <v>-8.0887844709916625E-5</v>
+        <v>-8.5895874659048751E-5</v>
       </c>
       <c r="V3">
-        <v>-1.3473109157953792E-4</v>
+        <v>-1.4237140639013844E-4</v>
       </c>
       <c r="W3">
-        <v>-8.18022593588725E-5</v>
+        <v>-9.0056513992621881E-5</v>
       </c>
       <c r="X3">
-        <v>-7.827018472401177E-5</v>
+        <v>-6.0409996406170718E-5</v>
       </c>
       <c r="Y3">
-        <v>-9.6974345225368417E-5</v>
+        <v>-9.5066244379482485E-5</v>
       </c>
       <c r="Z3">
-        <v>-7.2824510007367426E-5</v>
+        <v>-2.9824682934376711E-5</v>
       </c>
       <c r="AA3">
-        <v>-8.0618698513512785E-5</v>
+        <v>-1.2500305197420792E-4</v>
       </c>
       <c r="AB3">
-        <v>-5.6827529115918523E-5</v>
+        <v>-1.7781280247718584E-5</v>
       </c>
       <c r="AC3">
-        <v>-6.0775177721736741E-5</v>
+        <v>-5.5965621996398394E-5</v>
       </c>
       <c r="AD3">
-        <v>-1.0382511276531433E-4</v>
+        <v>-1.1652411849475915E-4</v>
       </c>
       <c r="AE3">
-        <v>-9.4205307810888523E-5</v>
+        <v>-8.8410905481209519E-5</v>
       </c>
       <c r="AF3">
-        <v>-9.5146995492135828E-5</v>
+        <v>-7.8213921184208278E-5</v>
       </c>
       <c r="AG3">
-        <v>-6.0518804286921902E-4</v>
+        <v>-1.3280652876236244E-3</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="24">
-        <v>7.1320686410834999E-2</v>
+      <c r="B4">
+        <v>0.17970945195655313</v>
       </c>
       <c r="C4">
-        <v>9.9893384930646386E-5</v>
+        <v>1.3048584344062275E-4</v>
       </c>
       <c r="D4">
-        <v>7.4433702945798821E-4</v>
+        <v>1.2168369125609461E-3</v>
       </c>
       <c r="E4">
-        <v>1.1823444629722815E-3</v>
+        <v>1.7631097115358321E-3</v>
       </c>
       <c r="F4">
-        <v>6.221220671354661E-5</v>
+        <v>1.6579356208192673E-4</v>
       </c>
       <c r="G4">
-        <v>-2.314326614412954E-5</v>
+        <v>-2.863499488323421E-5</v>
       </c>
       <c r="H4">
-        <v>-5.1389573432005437E-5</v>
+        <v>2.1275116086482169E-4</v>
       </c>
       <c r="I4">
-        <v>-7.5445907197090677E-5</v>
+        <v>1.73348268659516E-4</v>
       </c>
       <c r="J4">
-        <v>-1.2607509746434973E-4</v>
+        <v>1.5702312465677763E-4</v>
       </c>
       <c r="K4">
-        <v>-1.810224219363038E-4</v>
+        <v>1.2067956077539742E-4</v>
       </c>
       <c r="L4">
-        <v>-2.8056777368758405E-5</v>
+        <v>-5.0540988847266495E-5</v>
       </c>
       <c r="M4">
-        <v>-9.5294502858229679E-5</v>
+        <v>-7.5304229607051819E-5</v>
       </c>
       <c r="N4">
-        <v>-1.4297940217119205E-4</v>
+        <v>-1.0461365496794455E-4</v>
       </c>
       <c r="O4">
-        <v>-1.2745207442834412E-4</v>
+        <v>-1.6010249843654575E-4</v>
       </c>
       <c r="P4">
-        <v>-1.5062554773841901E-4</v>
+        <v>-1.7089759253959195E-4</v>
       </c>
       <c r="Q4">
-        <v>-1.5822716202820193E-4</v>
+        <v>-2.2050265565096565E-4</v>
       </c>
       <c r="R4">
-        <v>-1.6524959431370094E-4</v>
+        <v>-1.5796681164157811E-4</v>
       </c>
       <c r="S4">
-        <v>-1.7565737281892451E-4</v>
+        <v>-2.4355554131875469E-4</v>
       </c>
       <c r="T4">
-        <v>-1.6878504452378659E-4</v>
+        <v>-2.0254628016456631E-4</v>
       </c>
       <c r="U4">
-        <v>-2.1640725012835008E-4</v>
+        <v>-1.9250252554437245E-4</v>
       </c>
       <c r="V4">
-        <v>-1.48976021207231E-4</v>
+        <v>-2.1121980116790286E-4</v>
       </c>
       <c r="W4">
-        <v>-1.036536704570332E-4</v>
+        <v>-1.5146993978865195E-4</v>
       </c>
       <c r="X4">
-        <v>-1.4972925435207724E-4</v>
+        <v>-1.6188517334368968E-4</v>
       </c>
       <c r="Y4">
-        <v>-1.426121820685824E-4</v>
+        <v>-1.9534077974221091E-4</v>
       </c>
       <c r="Z4">
-        <v>-1.6191975515058031E-4</v>
+        <v>-2.1094452205743438E-4</v>
       </c>
       <c r="AA4">
-        <v>-1.3069592559228696E-4</v>
+        <v>-1.8498412681453773E-4</v>
       </c>
       <c r="AB4">
-        <v>-7.8586418718866176E-5</v>
+        <v>-7.4517633647381464E-5</v>
       </c>
       <c r="AC4">
-        <v>-6.8371167427285211E-5</v>
+        <v>-9.0679957061195516E-5</v>
       </c>
       <c r="AD4">
-        <v>-1.4449230875804493E-4</v>
+        <v>-2.2973539080840843E-4</v>
       </c>
       <c r="AE4">
-        <v>-1.1038560447003908E-4</v>
+        <v>-1.614938321163176E-4</v>
       </c>
       <c r="AF4">
-        <v>-2.4046740410985817E-4</v>
+        <v>-3.0371621041702158E-4</v>
       </c>
       <c r="AG4">
-        <v>-5.2183671492064885E-4</v>
+        <v>-1.2819227387386896E-3</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="24">
-        <v>0.1601900719021731</v>
+      <c r="B5">
+        <v>0.21555754555324588</v>
       </c>
       <c r="C5">
-        <v>-1.2128935668388404E-4</v>
+        <v>-2.0134753859836374E-4</v>
       </c>
       <c r="D5">
-        <v>3.395980008811311E-5</v>
+        <v>9.0413042386014908E-5</v>
       </c>
       <c r="E5">
-        <v>6.221220671354661E-5</v>
+        <v>1.6579356208192673E-4</v>
       </c>
       <c r="F5">
-        <v>7.0172386676797891E-4</v>
+        <v>1.0505967937831078E-3</v>
       </c>
       <c r="G5">
-        <v>1.8961851335068641E-5</v>
+        <v>9.2515660143428953E-6</v>
       </c>
       <c r="H5">
-        <v>1.4526166991360802E-5</v>
+        <v>7.0176092518230324E-6</v>
       </c>
       <c r="I5">
-        <v>1.7428487688399111E-5</v>
+        <v>2.9855654658215223E-5</v>
       </c>
       <c r="J5">
-        <v>7.5915975543097551E-5</v>
+        <v>1.1964745003127178E-4</v>
       </c>
       <c r="K5">
-        <v>1.5509569090026552E-4</v>
+        <v>2.736599493912209E-4</v>
       </c>
       <c r="L5">
-        <v>-1.7149358665581831E-5</v>
+        <v>-2.4913436763152944E-5</v>
       </c>
       <c r="M5">
-        <v>2.113785102915033E-5</v>
+        <v>-1.6601160751104254E-5</v>
       </c>
       <c r="N5">
-        <v>1.0097902346299882E-5</v>
+        <v>3.4541376959748315E-5</v>
       </c>
       <c r="O5">
-        <v>2.0514031361926924E-5</v>
+        <v>-6.9404222697925898E-6</v>
       </c>
       <c r="P5">
-        <v>4.8647888760113787E-5</v>
+        <v>5.2210595370936596E-5</v>
       </c>
       <c r="Q5">
-        <v>6.2491795206490942E-5</v>
+        <v>8.0787155642006306E-5</v>
       </c>
       <c r="R5">
-        <v>6.7656630815086951E-5</v>
+        <v>6.5189159192214887E-5</v>
       </c>
       <c r="S5">
-        <v>1.2595311514179339E-4</v>
+        <v>2.2412650831256947E-4</v>
       </c>
       <c r="T5">
-        <v>1.9044516825175752E-4</v>
+        <v>2.0253041434380864E-4</v>
       </c>
       <c r="U5">
-        <v>3.5109009817683193E-4</v>
+        <v>5.1756568283041113E-4</v>
       </c>
       <c r="V5">
-        <v>1.8015557342286603E-6</v>
+        <v>-5.779144672260402E-5</v>
       </c>
       <c r="W5">
-        <v>-1.5260137320581541E-5</v>
+        <v>-1.1800457893639966E-4</v>
       </c>
       <c r="X5">
-        <v>-1.0107261105906973E-5</v>
+        <v>-7.8253746890777603E-5</v>
       </c>
       <c r="Y5">
-        <v>1.9963735796846478E-5</v>
+        <v>-1.9449093174184171E-5</v>
       </c>
       <c r="Z5">
-        <v>-2.8758829852391243E-5</v>
+        <v>-1.7750324880386336E-4</v>
       </c>
       <c r="AA5">
-        <v>-2.2539974794138687E-5</v>
+        <v>-1.4062172801952786E-4</v>
       </c>
       <c r="AB5">
-        <v>-1.2502953849130035E-5</v>
+        <v>-1.1942077033689995E-4</v>
       </c>
       <c r="AC5">
-        <v>-3.2896349974429568E-5</v>
+        <v>-1.4595953997309589E-4</v>
       </c>
       <c r="AD5">
-        <v>1.5578202649210542E-5</v>
+        <v>-9.8685818080479276E-5</v>
       </c>
       <c r="AE5">
-        <v>2.8737320847129822E-5</v>
+        <v>-5.0927236298795779E-5</v>
       </c>
       <c r="AF5">
-        <v>5.3969946210555937E-5</v>
+        <v>-1.7521734927238692E-5</v>
       </c>
       <c r="AG5">
-        <v>-5.3327727631044693E-4</v>
+        <v>-7.516497931584112E-4</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="24">
-        <v>2.3229471366859702</v>
+      <c r="B6">
+        <v>2.4285745315850775</v>
       </c>
       <c r="C6">
-        <v>2.794685225827565E-5</v>
+        <v>2.3521967795980156E-5</v>
       </c>
       <c r="D6">
-        <v>8.0799749137970628E-7</v>
+        <v>-2.0263915912227036E-5</v>
       </c>
       <c r="E6">
-        <v>-2.314326614412954E-5</v>
+        <v>-2.863499488323421E-5</v>
       </c>
       <c r="F6">
-        <v>1.8961851335068641E-5</v>
+        <v>9.2515660143428953E-6</v>
       </c>
       <c r="G6">
-        <v>6.7354277366098647E-4</v>
+        <v>1.169320645224172E-3</v>
       </c>
       <c r="H6">
-        <v>-5.1936841412507411E-6</v>
+        <v>-3.2890784693013331E-5</v>
       </c>
       <c r="I6">
-        <v>-2.1295481716678823E-5</v>
+        <v>-7.4975629154477749E-5</v>
       </c>
       <c r="J6">
-        <v>-6.5108653800878739E-5</v>
+        <v>-1.2825368780214027E-4</v>
       </c>
       <c r="K6">
-        <v>-8.5043582049596595E-5</v>
+        <v>-1.1321131058731766E-4</v>
       </c>
       <c r="L6">
-        <v>-8.6335870245049545E-5</v>
+        <v>-1.1562156478789262E-4</v>
       </c>
       <c r="M6">
-        <v>-7.9022167826637302E-5</v>
+        <v>-1.273249373053553E-4</v>
       </c>
       <c r="N6">
-        <v>-1.1331971504198693E-4</v>
+        <v>-1.4658714025035576E-4</v>
       </c>
       <c r="O6">
-        <v>-1.3760654598421443E-4</v>
+        <v>-1.5561327942465375E-4</v>
       </c>
       <c r="P6">
-        <v>-1.1630742988196669E-4</v>
+        <v>-1.0618718359007669E-4</v>
       </c>
       <c r="Q6">
-        <v>-1.4158745406009322E-4</v>
+        <v>-1.4217000936631171E-4</v>
       </c>
       <c r="R6">
-        <v>-1.5154081903865358E-4</v>
+        <v>-1.5887270633555361E-4</v>
       </c>
       <c r="S6">
-        <v>-1.7332360484820857E-4</v>
+        <v>-2.0156133050908758E-4</v>
       </c>
       <c r="T6">
-        <v>-1.64908625068729E-4</v>
+        <v>-1.1875927021311028E-4</v>
       </c>
       <c r="U6">
-        <v>-2.1556762060907556E-4</v>
+        <v>-1.9291839015464951E-4</v>
       </c>
       <c r="V6">
-        <v>-3.0065797103234137E-6</v>
+        <v>-8.3190772066330981E-6</v>
       </c>
       <c r="W6">
-        <v>1.4850474625093995E-5</v>
+        <v>4.2906166915727387E-5</v>
       </c>
       <c r="X6">
-        <v>1.1771150953658495E-5</v>
+        <v>4.1538319160386577E-5</v>
       </c>
       <c r="Y6">
-        <v>-7.0971455970326636E-6</v>
+        <v>4.176573266963097E-5</v>
       </c>
       <c r="Z6">
-        <v>-1.1829538541538809E-5</v>
+        <v>6.9067261727164653E-6</v>
       </c>
       <c r="AA6">
-        <v>2.1036518711683151E-5</v>
+        <v>1.4381097677052053E-5</v>
       </c>
       <c r="AB6">
-        <v>4.6092856152296443E-6</v>
+        <v>4.7867515300362982E-5</v>
       </c>
       <c r="AC6">
-        <v>1.2752650114867785E-6</v>
+        <v>1.290849296095476E-5</v>
       </c>
       <c r="AD6">
-        <v>2.6258115700283767E-5</v>
+        <v>1.1023942227444544E-5</v>
       </c>
       <c r="AE6">
-        <v>2.6336367497848758E-5</v>
+        <v>3.5935534878938708E-5</v>
       </c>
       <c r="AF6">
-        <v>9.9563197784754729E-6</v>
+        <v>-7.6049280244639198E-6</v>
       </c>
       <c r="AG6">
-        <v>-1.0038198328033004E-4</v>
+        <v>-8.5802853742643695E-5</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="24">
-        <v>1.6231413679591994E-2</v>
+      <c r="B7">
+        <v>8.2471357637498133E-2</v>
       </c>
       <c r="C7">
-        <v>-1.9212248854283126E-5</v>
+        <v>-4.311649606717435E-5</v>
       </c>
       <c r="D7">
-        <v>-4.6013948502350062E-5</v>
+        <v>1.8647487407739665E-4</v>
       </c>
       <c r="E7">
-        <v>-5.1389573432005437E-5</v>
+        <v>2.1275116086482169E-4</v>
       </c>
       <c r="F7">
-        <v>1.4526166991360802E-5</v>
+        <v>7.0176092518230324E-6</v>
       </c>
       <c r="G7">
-        <v>-5.1936841412507411E-6</v>
+        <v>-3.2890784693013331E-5</v>
       </c>
       <c r="H7">
-        <v>3.09489449506732E-3</v>
+        <v>6.6895224881377792E-3</v>
       </c>
       <c r="I7">
-        <v>2.6115140408198953E-3</v>
+        <v>5.6879372509717994E-3</v>
       </c>
       <c r="J7">
-        <v>2.6131986370081964E-3</v>
+        <v>5.682114318004191E-3</v>
       </c>
       <c r="K7">
-        <v>2.6154206864054557E-3</v>
+        <v>5.6994725627209034E-3</v>
       </c>
       <c r="L7">
-        <v>-3.8148544683369156E-5</v>
+        <v>-1.8669362851774814E-4</v>
       </c>
       <c r="M7">
-        <v>-5.4060940303650448E-5</v>
+        <v>-1.6001815828927627E-4</v>
       </c>
       <c r="N7">
-        <v>-2.9221169416825895E-5</v>
+        <v>-1.3362191899045153E-4</v>
       </c>
       <c r="O7">
-        <v>-4.5021147721941411E-5</v>
+        <v>-3.00477342249346E-5</v>
       </c>
       <c r="P7">
-        <v>-7.6085898437141348E-5</v>
+        <v>-7.1231508926584411E-5</v>
       </c>
       <c r="Q7">
-        <v>-9.9548505133769099E-5</v>
+        <v>-5.2735321627084926E-5</v>
       </c>
       <c r="R7">
-        <v>-1.2044638908352448E-5</v>
+        <v>-3.0414865496408792E-5</v>
       </c>
       <c r="S7">
-        <v>-1.5690095259133596E-5</v>
+        <v>-5.8774871043426342E-5</v>
       </c>
       <c r="T7">
-        <v>-1.3418401895776057E-5</v>
+        <v>-7.634496423638247E-5</v>
       </c>
       <c r="U7">
-        <v>1.008056974591688E-5</v>
+        <v>3.0566610856292732E-5</v>
       </c>
       <c r="V7">
-        <v>1.0239645759680966E-5</v>
+        <v>-1.6629130969777724E-4</v>
       </c>
       <c r="W7">
-        <v>-6.3072934553901018E-5</v>
+        <v>-7.8720854169635635E-5</v>
       </c>
       <c r="X7">
-        <v>-4.022626717941854E-5</v>
+        <v>-7.1723796837887223E-5</v>
       </c>
       <c r="Y7">
-        <v>-2.3422468560586537E-5</v>
+        <v>-8.8178992670820931E-5</v>
       </c>
       <c r="Z7">
-        <v>-5.728677341889938E-5</v>
+        <v>-6.1860882431767367E-5</v>
       </c>
       <c r="AA7">
-        <v>-5.7596139172154739E-5</v>
+        <v>-1.8714115424157333E-4</v>
       </c>
       <c r="AB7">
-        <v>-7.0358356532491213E-5</v>
+        <v>-6.1917749144756954E-5</v>
       </c>
       <c r="AC7">
-        <v>-1.6978840156711954E-5</v>
+        <v>-6.9552320356394692E-5</v>
       </c>
       <c r="AD7">
-        <v>-3.0516031830928915E-6</v>
+        <v>-4.9254679745092123E-5</v>
       </c>
       <c r="AE7">
-        <v>-3.3713802891997781E-5</v>
+        <v>-5.8980172917460442E-5</v>
       </c>
       <c r="AF7">
-        <v>-2.3499806620743899E-5</v>
+        <v>-9.2214182261063198E-5</v>
       </c>
       <c r="AG7">
-        <v>-2.4982641928659949E-3</v>
+        <v>-5.6964905574577243E-3</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="24">
-        <v>0.20252436348120501</v>
+      <c r="B8">
+        <v>0.39464022613944977</v>
       </c>
       <c r="C8">
-        <v>-2.0515533315842181E-5</v>
+        <v>-9.3793819109666882E-5</v>
       </c>
       <c r="D8">
-        <v>-4.2290198112615136E-5</v>
+        <v>1.7718542454761365E-4</v>
       </c>
       <c r="E8">
-        <v>-7.5445907197090677E-5</v>
+        <v>1.73348268659516E-4</v>
       </c>
       <c r="F8">
-        <v>1.7428487688399111E-5</v>
+        <v>2.9855654658215223E-5</v>
       </c>
       <c r="G8">
-        <v>-2.1295481716678823E-5</v>
+        <v>-7.4975629154477749E-5</v>
       </c>
       <c r="H8">
-        <v>2.6115140408198953E-3</v>
+        <v>5.6879372509717994E-3</v>
       </c>
       <c r="I8">
-        <v>2.9659289276444756E-3</v>
+        <v>6.1849434052943875E-3</v>
       </c>
       <c r="J8">
-        <v>2.6252253147041275E-3</v>
+        <v>5.6893548209016112E-3</v>
       </c>
       <c r="K8">
-        <v>2.622974970372993E-3</v>
+        <v>5.7112413802182221E-3</v>
       </c>
       <c r="L8">
-        <v>-5.8927257367992112E-5</v>
+        <v>-1.5065283322846841E-4</v>
       </c>
       <c r="M8">
-        <v>-5.3250433826681915E-5</v>
+        <v>-1.398507413158945E-4</v>
       </c>
       <c r="N8">
-        <v>-5.8303880000864402E-5</v>
+        <v>-8.3822804514661539E-5</v>
       </c>
       <c r="O8">
-        <v>-7.401517307987159E-5</v>
+        <v>-6.9400393852941207E-5</v>
       </c>
       <c r="P8">
-        <v>-9.126293097119645E-5</v>
+        <v>-4.3414384865782122E-5</v>
       </c>
       <c r="Q8">
-        <v>-1.0931363424637375E-4</v>
+        <v>-7.5981871953706643E-5</v>
       </c>
       <c r="R8">
-        <v>-6.9588833457008797E-5</v>
+        <v>-9.8183483079464402E-5</v>
       </c>
       <c r="S8">
-        <v>-7.7786318191306898E-5</v>
+        <v>-1.4302142704287969E-4</v>
       </c>
       <c r="T8">
-        <v>-7.3059198514802137E-5</v>
+        <v>-1.7102893905208191E-4</v>
       </c>
       <c r="U8">
-        <v>-1.1522779436361512E-5</v>
+        <v>1.157547420302836E-4</v>
       </c>
       <c r="V8">
-        <v>3.7055487441095113E-5</v>
+        <v>-1.3762325037704713E-4</v>
       </c>
       <c r="W8">
-        <v>-2.3923084663295385E-5</v>
+        <v>-1.8547243457408581E-5</v>
       </c>
       <c r="X8">
-        <v>-2.0556219151471626E-5</v>
+        <v>-4.3309438566647681E-5</v>
       </c>
       <c r="Y8">
-        <v>1.477690231640235E-5</v>
+        <v>2.8832850139777055E-5</v>
       </c>
       <c r="Z8">
-        <v>4.01442804911817E-6</v>
+        <v>7.539003295274193E-6</v>
       </c>
       <c r="AA8">
-        <v>-5.0864860225350011E-6</v>
+        <v>-1.2584634625080167E-4</v>
       </c>
       <c r="AB8">
-        <v>-3.3792258947239672E-5</v>
+        <v>1.0766181703331795E-5</v>
       </c>
       <c r="AC8">
-        <v>3.4319968316671307E-5</v>
+        <v>5.0927736623008774E-5</v>
       </c>
       <c r="AD8">
-        <v>7.4604213675411382E-5</v>
+        <v>7.0489349515069633E-5</v>
       </c>
       <c r="AE8">
-        <v>5.371994846314833E-5</v>
+        <v>9.3146199867288199E-5</v>
       </c>
       <c r="AF8">
-        <v>1.2049139339482748E-5</v>
+        <v>9.3100093199842415E-8</v>
       </c>
       <c r="AG8">
-        <v>-2.5196356621866017E-3</v>
+        <v>-5.7412084477508722E-3</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="24">
-        <v>0.50819948541330195</v>
+      <c r="B9">
+        <v>0.83611049847872021</v>
       </c>
       <c r="C9">
-        <v>-5.7947926966840092E-5</v>
+        <v>-1.3814629552065102E-4</v>
       </c>
       <c r="D9">
-        <v>-4.8759781432786831E-5</v>
+        <v>1.8569495387166566E-4</v>
       </c>
       <c r="E9">
-        <v>-1.2607509746434973E-4</v>
+        <v>1.5702312465677763E-4</v>
       </c>
       <c r="F9">
-        <v>7.5915975543097551E-5</v>
+        <v>1.1964745003127178E-4</v>
       </c>
       <c r="G9">
-        <v>-6.5108653800878739E-5</v>
+        <v>-1.2825368780214027E-4</v>
       </c>
       <c r="H9">
-        <v>2.6131986370081964E-3</v>
+        <v>5.682114318004191E-3</v>
       </c>
       <c r="I9">
-        <v>2.6252253147041275E-3</v>
+        <v>5.6893548209016112E-3</v>
       </c>
       <c r="J9">
-        <v>3.2207856407049009E-3</v>
+        <v>6.3288747143380193E-3</v>
       </c>
       <c r="K9">
-        <v>2.6524154271553588E-3</v>
+        <v>5.7436066839242975E-3</v>
       </c>
       <c r="L9">
-        <v>-5.4430510786648715E-5</v>
+        <v>-2.3485637161798636E-4</v>
       </c>
       <c r="M9">
-        <v>-7.7640997272107826E-5</v>
+        <v>-2.3449556458040016E-4</v>
       </c>
       <c r="N9">
-        <v>-7.7699225439470236E-5</v>
+        <v>-1.4949975088870417E-4</v>
       </c>
       <c r="O9">
-        <v>-1.0391232866115976E-4</v>
+        <v>-1.4117104303388076E-4</v>
       </c>
       <c r="P9">
-        <v>-8.3370586378376122E-5</v>
+        <v>-7.753306759475994E-5</v>
       </c>
       <c r="Q9">
-        <v>-8.3713535581010493E-5</v>
+        <v>-8.1291793862070744E-5</v>
       </c>
       <c r="R9">
-        <v>-1.0567296100907799E-4</v>
+        <v>-1.7290287392049278E-4</v>
       </c>
       <c r="S9">
-        <v>-1.0990096619186638E-4</v>
+        <v>-1.7241097944227187E-4</v>
       </c>
       <c r="T9">
-        <v>-8.0930195151338339E-5</v>
+        <v>-1.9663403573581774E-4</v>
       </c>
       <c r="U9">
-        <v>1.4885184320026328E-5</v>
+        <v>1.4001111016946621E-4</v>
       </c>
       <c r="V9">
-        <v>-3.9019122919842653E-5</v>
+        <v>-1.8359009191840276E-4</v>
       </c>
       <c r="W9">
-        <v>-6.6033076010307487E-5</v>
+        <v>-7.9261136675241178E-5</v>
       </c>
       <c r="X9">
-        <v>-2.7043851421359229E-5</v>
+        <v>-3.6954852441345226E-5</v>
       </c>
       <c r="Y9">
-        <v>-3.6436587101051302E-6</v>
+        <v>2.8730700430675297E-5</v>
       </c>
       <c r="Z9">
-        <v>-6.1439604990402331E-6</v>
+        <v>4.3934994718455422E-5</v>
       </c>
       <c r="AA9">
-        <v>-2.5725524252724662E-5</v>
+        <v>-1.0414309712390799E-4</v>
       </c>
       <c r="AB9">
-        <v>-5.5649984798459206E-5</v>
+        <v>2.5326413876627842E-5</v>
       </c>
       <c r="AC9">
-        <v>-1.5797623380247715E-5</v>
+        <v>-4.8862680682260767E-5</v>
       </c>
       <c r="AD9">
-        <v>1.0227123673073324E-5</v>
+        <v>-4.03532106488802E-5</v>
       </c>
       <c r="AE9">
-        <v>6.4991215140914119E-6</v>
+        <v>4.9785482185427544E-5</v>
       </c>
       <c r="AF9">
-        <v>-5.2302113758418214E-5</v>
+        <v>-6.097930688789624E-5</v>
       </c>
       <c r="AG9">
-        <v>-2.4770131421411952E-3</v>
+        <v>-5.7070521876217304E-3</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="24">
-        <v>0.96523027164647102</v>
+      <c r="B10">
+        <v>1.4035521904731556</v>
       </c>
       <c r="C10">
-        <v>-8.1536119253612709E-5</v>
+        <v>-1.3989186038697454E-4</v>
       </c>
       <c r="D10">
-        <v>-9.9258829510495873E-5</v>
+        <v>1.611468083778392E-4</v>
       </c>
       <c r="E10">
-        <v>-1.810224219363038E-4</v>
+        <v>1.2067956077539742E-4</v>
       </c>
       <c r="F10">
-        <v>1.5509569090026552E-4</v>
+        <v>2.736599493912209E-4</v>
       </c>
       <c r="G10">
-        <v>-8.5043582049596595E-5</v>
+        <v>-1.1321131058731766E-4</v>
       </c>
       <c r="H10">
-        <v>2.6154206864054557E-3</v>
+        <v>5.6994725627209034E-3</v>
       </c>
       <c r="I10">
-        <v>2.622974970372993E-3</v>
+        <v>5.7112413802182221E-3</v>
       </c>
       <c r="J10">
-        <v>2.6524154271553588E-3</v>
+        <v>5.7436066839242975E-3</v>
       </c>
       <c r="K10">
-        <v>5.2362402160826202E-3</v>
+        <v>8.1618073915623209E-3</v>
       </c>
       <c r="L10">
-        <v>-8.9877690432286803E-5</v>
+        <v>-2.6132781407715692E-4</v>
       </c>
       <c r="M10">
-        <v>-4.1619476696959368E-5</v>
+        <v>-2.7509975044611498E-4</v>
       </c>
       <c r="N10">
-        <v>-4.3438761668496218E-5</v>
+        <v>-2.4234782308805693E-4</v>
       </c>
       <c r="O10">
-        <v>-1.7390588050768393E-5</v>
+        <v>-8.7801284509778999E-5</v>
       </c>
       <c r="P10">
-        <v>-6.8797917300379968E-5</v>
+        <v>-7.9054724048347163E-5</v>
       </c>
       <c r="Q10">
-        <v>-8.0246377006558747E-7</v>
+        <v>-3.8613098466854954E-5</v>
       </c>
       <c r="R10">
-        <v>2.7153851080204822E-6</v>
+        <v>-1.1189843531228972E-4</v>
       </c>
       <c r="S10">
-        <v>-1.7970583161263601E-5</v>
+        <v>-1.2046061426172023E-4</v>
       </c>
       <c r="T10">
-        <v>1.7315659114657922E-4</v>
+        <v>-6.5533864683844922E-6</v>
       </c>
       <c r="U10">
-        <v>2.2418161533799448E-4</v>
+        <v>4.4784280278031222E-4</v>
       </c>
       <c r="V10">
-        <v>-7.6547519240944672E-5</v>
+        <v>-3.0619071024047366E-4</v>
       </c>
       <c r="W10">
-        <v>-7.5475632490540389E-5</v>
+        <v>-1.9226638228607429E-4</v>
       </c>
       <c r="X10">
-        <v>-7.8363824402824999E-5</v>
+        <v>-2.0158572025282895E-4</v>
       </c>
       <c r="Y10">
-        <v>1.4192019469223306E-4</v>
+        <v>1.7466117470725973E-4</v>
       </c>
       <c r="Z10">
-        <v>-1.9711260569001436E-5</v>
+        <v>-3.4181813094887091E-5</v>
       </c>
       <c r="AA10">
-        <v>1.3054191494466308E-5</v>
+        <v>-1.377965382180549E-4</v>
       </c>
       <c r="AB10">
-        <v>7.6467905794608791E-6</v>
+        <v>4.0045183443588282E-5</v>
       </c>
       <c r="AC10">
-        <v>5.1162220439239557E-5</v>
+        <v>-2.4394056045142984E-5</v>
       </c>
       <c r="AD10">
-        <v>2.9953987237010989E-5</v>
+        <v>-8.8305451065306094E-5</v>
       </c>
       <c r="AE10">
-        <v>7.2202029346558547E-5</v>
+        <v>2.403490363749386E-5</v>
       </c>
       <c r="AF10">
-        <v>2.5903759675230571E-5</v>
+        <v>-8.8135878013257188E-6</v>
       </c>
       <c r="AG10">
-        <v>-2.5686258142207817E-3</v>
+        <v>-5.8289585416432723E-3</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="24">
-        <v>-0.37399971750669081</v>
+      <c r="B11">
+        <v>-0.32197235162690535</v>
       </c>
       <c r="C11">
-        <v>4.6720057852378981E-6</v>
+        <v>1.1906564522545767E-5</v>
       </c>
       <c r="D11">
-        <v>-1.7442234374657228E-5</v>
+        <v>-1.8465687776127822E-5</v>
       </c>
       <c r="E11">
-        <v>-2.8056777368758405E-5</v>
+        <v>-5.0540988847266495E-5</v>
       </c>
       <c r="F11">
-        <v>-1.7149358665581831E-5</v>
+        <v>-2.4913436763152944E-5</v>
       </c>
       <c r="G11">
-        <v>-8.6335870245049545E-5</v>
+        <v>-1.1562156478789262E-4</v>
       </c>
       <c r="H11">
-        <v>-3.8148544683369156E-5</v>
+        <v>-1.8669362851774814E-4</v>
       </c>
       <c r="I11">
-        <v>-5.8927257367992112E-5</v>
+        <v>-1.5065283322846841E-4</v>
       </c>
       <c r="J11">
-        <v>-5.4430510786648715E-5</v>
+        <v>-2.3485637161798636E-4</v>
       </c>
       <c r="K11">
-        <v>-8.9877690432286803E-5</v>
+        <v>-2.6132781407715692E-4</v>
       </c>
       <c r="L11">
-        <v>2.2287906002053165E-3</v>
+        <v>3.3588229604706622E-3</v>
       </c>
       <c r="M11">
-        <v>9.3208307303181215E-4</v>
+        <v>1.3687927119029428E-3</v>
       </c>
       <c r="N11">
-        <v>9.3768728448227756E-4</v>
+        <v>1.3677039919404103E-3</v>
       </c>
       <c r="O11">
-        <v>9.3955660629634519E-4</v>
+        <v>1.3723549886933625E-3</v>
       </c>
       <c r="P11">
-        <v>9.3456834482249791E-4</v>
+        <v>1.3590627452691971E-3</v>
       </c>
       <c r="Q11">
-        <v>9.4146462807340495E-4</v>
+        <v>1.363333177032397E-3</v>
       </c>
       <c r="R11">
-        <v>9.4523667446177572E-4</v>
+        <v>1.3815676608080018E-3</v>
       </c>
       <c r="S11">
-        <v>9.4943278815358466E-4</v>
+        <v>1.3798112656820459E-3</v>
       </c>
       <c r="T11">
-        <v>9.4469572035285262E-4</v>
+        <v>1.3631266580385454E-3</v>
       </c>
       <c r="U11">
-        <v>9.5119588119771501E-4</v>
+        <v>1.3511012850487762E-3</v>
       </c>
       <c r="V11">
-        <v>-1.2060348544666154E-4</v>
+        <v>-2.5443839336133738E-5</v>
       </c>
       <c r="W11">
-        <v>-1.0867453617004435E-6</v>
+        <v>6.5250514588552203E-5</v>
       </c>
       <c r="X11">
-        <v>-2.5267901695931287E-5</v>
+        <v>-1.0176428174143526E-5</v>
       </c>
       <c r="Y11">
-        <v>-2.5858631692915284E-5</v>
+        <v>-1.6858494360419917E-5</v>
       </c>
       <c r="Z11">
-        <v>-5.3414411888052203E-5</v>
+        <v>2.4941696797902476E-5</v>
       </c>
       <c r="AA11">
-        <v>-2.9332832161063334E-5</v>
+        <v>4.711774896972885E-6</v>
       </c>
       <c r="AB11">
-        <v>-2.7406740747955868E-5</v>
+        <v>4.5994940840997334E-5</v>
       </c>
       <c r="AC11">
-        <v>-1.0024821551731129E-5</v>
+        <v>6.68717282916912E-5</v>
       </c>
       <c r="AD11">
-        <v>-1.6211821398602264E-5</v>
+        <v>9.2459680803821552E-5</v>
       </c>
       <c r="AE11">
-        <v>-3.723209847166615E-5</v>
+        <v>2.9328904804624576E-5</v>
       </c>
       <c r="AF11">
-        <v>-5.0282598143046179E-5</v>
+        <v>-7.0742164753286908E-6</v>
       </c>
       <c r="AG11">
-        <v>-8.0135240370181413E-4</v>
+        <v>-1.1308431813230862E-3</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="24">
-        <v>-0.25815773114018498</v>
+      <c r="B12">
+        <v>-0.24082780914188948</v>
       </c>
       <c r="C12">
-        <v>-2.7685278212142496E-5</v>
+        <v>5.691546633354948E-6</v>
       </c>
       <c r="D12">
-        <v>-5.9258650709507938E-5</v>
+        <v>-4.6743628392368322E-5</v>
       </c>
       <c r="E12">
-        <v>-9.5294502858229679E-5</v>
+        <v>-7.5304229607051819E-5</v>
       </c>
       <c r="F12">
-        <v>2.113785102915033E-5</v>
+        <v>-1.6601160751104254E-5</v>
       </c>
       <c r="G12">
-        <v>-7.9022167826637302E-5</v>
+        <v>-1.273249373053553E-4</v>
       </c>
       <c r="H12">
-        <v>-5.4060940303650448E-5</v>
+        <v>-1.6001815828927627E-4</v>
       </c>
       <c r="I12">
-        <v>-5.3250433826681915E-5</v>
+        <v>-1.398507413158945E-4</v>
       </c>
       <c r="J12">
-        <v>-7.7640997272107826E-5</v>
+        <v>-2.3449556458040016E-4</v>
       </c>
       <c r="K12">
-        <v>-4.1619476696959368E-5</v>
+        <v>-2.7509975044611498E-4</v>
       </c>
       <c r="L12">
-        <v>9.3208307303181215E-4</v>
+        <v>1.3687927119029428E-3</v>
       </c>
       <c r="M12">
-        <v>1.9924801755303425E-3</v>
+        <v>3.070081525025789E-3</v>
       </c>
       <c r="N12">
-        <v>9.4378341417688312E-4</v>
+        <v>1.3685875181391471E-3</v>
       </c>
       <c r="O12">
-        <v>9.5072893380686915E-4</v>
+        <v>1.3749272556235748E-3</v>
       </c>
       <c r="P12">
-        <v>9.4752780719234517E-4</v>
+        <v>1.3614099609716231E-3</v>
       </c>
       <c r="Q12">
-        <v>9.5309127607800636E-4</v>
+        <v>1.3647060331891574E-3</v>
       </c>
       <c r="R12">
-        <v>9.5962391504568695E-4</v>
+        <v>1.3816970774046767E-3</v>
       </c>
       <c r="S12">
-        <v>9.6540078228711588E-4</v>
+        <v>1.381883539772228E-3</v>
       </c>
       <c r="T12">
-        <v>9.6570694408966581E-4</v>
+        <v>1.3641541148704235E-3</v>
       </c>
       <c r="U12">
-        <v>9.7841662427119763E-4</v>
+        <v>1.3571567554807767E-3</v>
       </c>
       <c r="V12">
-        <v>-6.4676209661989324E-5</v>
+        <v>-1.0436694309873029E-4</v>
       </c>
       <c r="W12">
-        <v>-2.2982453715741035E-5</v>
+        <v>-3.81733548705924E-5</v>
       </c>
       <c r="X12">
-        <v>-3.2506903277755724E-5</v>
+        <v>-5.2587306450350003E-5</v>
       </c>
       <c r="Y12">
-        <v>-2.4615078758741032E-6</v>
+        <v>-5.853265799378118E-5</v>
       </c>
       <c r="Z12">
-        <v>-4.5804828453237961E-5</v>
+        <v>-3.3489898879327678E-5</v>
       </c>
       <c r="AA12">
-        <v>-3.8795651155146943E-5</v>
+        <v>-8.9138892344744537E-5</v>
       </c>
       <c r="AB12">
-        <v>-4.2821003659272716E-5</v>
+        <v>-4.0170205494168899E-5</v>
       </c>
       <c r="AC12">
-        <v>-3.5153587679283553E-5</v>
+        <v>-4.7704440682625783E-5</v>
       </c>
       <c r="AD12">
-        <v>-1.0185052397468212E-5</v>
+        <v>1.7631483642836657E-5</v>
       </c>
       <c r="AE12">
-        <v>-1.5306589970091205E-5</v>
+        <v>-6.0996952798118408E-5</v>
       </c>
       <c r="AF12">
-        <v>-2.5868776246911872E-6</v>
+        <v>-4.7940506207622266E-5</v>
       </c>
       <c r="AG12">
-        <v>-7.7300098980663035E-4</v>
+        <v>-1.0451317077455637E-3</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="24">
-        <v>-0.29815573188046202</v>
+      <c r="B13">
+        <v>-0.17696164373374584</v>
       </c>
       <c r="C13">
-        <v>-2.7379498156691641E-5</v>
+        <v>-6.3725867627385536E-5</v>
       </c>
       <c r="D13">
-        <v>-8.1050573730162627E-5</v>
+        <v>-8.5338869667591022E-5</v>
       </c>
       <c r="E13">
-        <v>-1.4297940217119205E-4</v>
+        <v>-1.0461365496794455E-4</v>
       </c>
       <c r="F13">
-        <v>1.0097902346299882E-5</v>
+        <v>3.4541376959748315E-5</v>
       </c>
       <c r="G13">
-        <v>-1.1331971504198693E-4</v>
+        <v>-1.4658714025035576E-4</v>
       </c>
       <c r="H13">
-        <v>-2.9221169416825895E-5</v>
+        <v>-1.3362191899045153E-4</v>
       </c>
       <c r="I13">
-        <v>-5.8303880000864402E-5</v>
+        <v>-8.3822804514661539E-5</v>
       </c>
       <c r="J13">
-        <v>-7.7699225439470236E-5</v>
+        <v>-1.4949975088870417E-4</v>
       </c>
       <c r="K13">
-        <v>-4.3438761668496218E-5</v>
+        <v>-2.4234782308805693E-4</v>
       </c>
       <c r="L13">
-        <v>9.3768728448227756E-4</v>
+        <v>1.3677039919404103E-3</v>
       </c>
       <c r="M13">
-        <v>9.4378341417688312E-4</v>
+        <v>1.3685875181391471E-3</v>
       </c>
       <c r="N13">
-        <v>1.9574255681595871E-3</v>
+        <v>2.8962389762304821E-3</v>
       </c>
       <c r="O13">
-        <v>9.6639863609009372E-4</v>
+        <v>1.3739778318654955E-3</v>
       </c>
       <c r="P13">
-        <v>9.6008579520893338E-4</v>
+        <v>1.3568377445631226E-3</v>
       </c>
       <c r="Q13">
-        <v>9.644639274857253E-4</v>
+        <v>1.3601722065843158E-3</v>
       </c>
       <c r="R13">
-        <v>9.7595034835632377E-4</v>
+        <v>1.3770280642564983E-3</v>
       </c>
       <c r="S13">
-        <v>9.8211072423787585E-4</v>
+        <v>1.3890060722052842E-3</v>
       </c>
       <c r="T13">
-        <v>9.8302348657680985E-4</v>
+        <v>1.3632195497115098E-3</v>
       </c>
       <c r="U13">
-        <v>1.0027489332398232E-3</v>
+        <v>1.3742507030039049E-3</v>
       </c>
       <c r="V13">
-        <v>-3.4560274832609844E-5</v>
+        <v>-5.9914997149127912E-5</v>
       </c>
       <c r="W13">
-        <v>-3.8959870297707033E-5</v>
+        <v>-8.3456662630891978E-5</v>
       </c>
       <c r="X13">
-        <v>-3.1218945626333597E-5</v>
+        <v>-1.4380573271406899E-4</v>
       </c>
       <c r="Y13">
-        <v>-1.7238852469032796E-5</v>
+        <v>-1.7003849811713935E-4</v>
       </c>
       <c r="Z13">
-        <v>-2.2965274849062354E-5</v>
+        <v>-6.5099493656971524E-5</v>
       </c>
       <c r="AA13">
-        <v>3.3689587517992097E-6</v>
+        <v>-6.492164436558461E-5</v>
       </c>
       <c r="AB13">
-        <v>-2.8257208124423034E-5</v>
+        <v>-9.9069228676183969E-5</v>
       </c>
       <c r="AC13">
-        <v>2.5293437580786726E-6</v>
+        <v>-7.1544417912026699E-5</v>
       </c>
       <c r="AD13">
-        <v>9.2675284183275182E-6</v>
+        <v>-3.6635293294325815E-5</v>
       </c>
       <c r="AE13">
-        <v>-1.1126356783185327E-5</v>
+        <v>-1.457835297886895E-4</v>
       </c>
       <c r="AF13">
-        <v>1.1619596107442743E-5</v>
+        <v>-8.2745672978359842E-5</v>
       </c>
       <c r="AG13">
-        <v>-7.5591325135327563E-4</v>
+        <v>-1.0238598804479502E-3</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="24">
-        <v>-0.18483684669155084</v>
+      <c r="B14">
+        <v>-8.4417801245858876E-2</v>
       </c>
       <c r="C14">
-        <v>-3.4221787993479546E-5</v>
+        <v>-1.3716394682581772E-5</v>
       </c>
       <c r="D14">
-        <v>-8.3427462351607533E-5</v>
+        <v>-1.096413407451799E-4</v>
       </c>
       <c r="E14">
-        <v>-1.2745207442834412E-4</v>
+        <v>-1.6010249843654575E-4</v>
       </c>
       <c r="F14">
-        <v>2.0514031361926924E-5</v>
+        <v>-6.9404222697925898E-6</v>
       </c>
       <c r="G14">
-        <v>-1.3760654598421443E-4</v>
+        <v>-1.5561327942465375E-4</v>
       </c>
       <c r="H14">
-        <v>-4.5021147721941411E-5</v>
+        <v>-3.00477342249346E-5</v>
       </c>
       <c r="I14">
-        <v>-7.401517307987159E-5</v>
+        <v>-6.9400393852941207E-5</v>
       </c>
       <c r="J14">
-        <v>-1.0391232866115976E-4</v>
+        <v>-1.4117104303388076E-4</v>
       </c>
       <c r="K14">
-        <v>-1.7390588050768393E-5</v>
+        <v>-8.7801284509778999E-5</v>
       </c>
       <c r="L14">
-        <v>9.3955660629634519E-4</v>
+        <v>1.3723549886933625E-3</v>
       </c>
       <c r="M14">
-        <v>9.5072893380686915E-4</v>
+        <v>1.3749272556235748E-3</v>
       </c>
       <c r="N14">
-        <v>9.6639863609009372E-4</v>
+        <v>1.3739778318654955E-3</v>
       </c>
       <c r="O14">
-        <v>2.2231935162421632E-3</v>
+        <v>3.1739918798489872E-3</v>
       </c>
       <c r="P14">
-        <v>9.6729334253351439E-4</v>
+        <v>1.369946391475748E-3</v>
       </c>
       <c r="Q14">
-        <v>9.7125798967245857E-4</v>
+        <v>1.3759566735788715E-3</v>
       </c>
       <c r="R14">
-        <v>9.8176301618116695E-4</v>
+        <v>1.3908470023010992E-3</v>
       </c>
       <c r="S14">
-        <v>9.9737940789105845E-4</v>
+        <v>1.4056623884284327E-3</v>
       </c>
       <c r="T14">
-        <v>9.9157338003964769E-4</v>
+        <v>1.3779367934428489E-3</v>
       </c>
       <c r="U14">
-        <v>1.0139144682867415E-3</v>
+        <v>1.3834135236603328E-3</v>
       </c>
       <c r="V14">
-        <v>-1.0745906343783215E-4</v>
+        <v>1.1662381679440574E-4</v>
       </c>
       <c r="W14">
-        <v>-1.594768471425308E-4</v>
+        <v>-8.7575537374038389E-5</v>
       </c>
       <c r="X14">
-        <v>-1.4858568072542976E-4</v>
+        <v>-8.2917684880510817E-5</v>
       </c>
       <c r="Y14">
-        <v>-1.2940910271291313E-4</v>
+        <v>-1.1699547347130589E-4</v>
       </c>
       <c r="Z14">
-        <v>-1.4770791502588347E-4</v>
+        <v>1.7006565381361268E-6</v>
       </c>
       <c r="AA14">
-        <v>-1.3392824459800148E-4</v>
+        <v>-5.6743740050307218E-5</v>
       </c>
       <c r="AB14">
-        <v>-1.6742322541628176E-4</v>
+        <v>-6.9490978121675791E-5</v>
       </c>
       <c r="AC14">
-        <v>-1.2157591815679675E-4</v>
+        <v>9.6902632839500043E-6</v>
       </c>
       <c r="AD14">
-        <v>-1.3202199701981346E-4</v>
+        <v>-6.7022473276418621E-5</v>
       </c>
       <c r="AE14">
-        <v>-1.1456550698121782E-4</v>
+        <v>-1.0446219494287471E-4</v>
       </c>
       <c r="AF14">
-        <v>-1.170171332470259E-4</v>
+        <v>-5.1773071590439923E-5</v>
       </c>
       <c r="AG14">
-        <v>-6.3726544544427514E-4</v>
+        <v>-1.0786762231643297E-3</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="24">
-        <v>-0.21457712287264716</v>
+      <c r="B15">
+        <v>-3.6105717668256675E-2</v>
       </c>
       <c r="C15">
-        <v>-3.0600910418714902E-5</v>
+        <v>-1.5571709200524645E-5</v>
       </c>
       <c r="D15">
-        <v>-8.7305281634767731E-5</v>
+        <v>-1.2802057757165482E-4</v>
       </c>
       <c r="E15">
-        <v>-1.5062554773841901E-4</v>
+        <v>-1.7089759253959195E-4</v>
       </c>
       <c r="F15">
-        <v>4.8647888760113787E-5</v>
+        <v>5.2210595370936596E-5</v>
       </c>
       <c r="G15">
-        <v>-1.1630742988196669E-4</v>
+        <v>-1.0618718359007669E-4</v>
       </c>
       <c r="H15">
-        <v>-7.6085898437141348E-5</v>
+        <v>-7.1231508926584411E-5</v>
       </c>
       <c r="I15">
-        <v>-9.126293097119645E-5</v>
+        <v>-4.3414384865782122E-5</v>
       </c>
       <c r="J15">
-        <v>-8.3370586378376122E-5</v>
+        <v>-7.753306759475994E-5</v>
       </c>
       <c r="K15">
-        <v>-6.8797917300379968E-5</v>
+        <v>-7.9054724048347163E-5</v>
       </c>
       <c r="L15">
-        <v>9.3456834482249791E-4</v>
+        <v>1.3590627452691971E-3</v>
       </c>
       <c r="M15">
-        <v>9.4752780719234517E-4</v>
+        <v>1.3614099609716231E-3</v>
       </c>
       <c r="N15">
-        <v>9.6008579520893338E-4</v>
+        <v>1.3568377445631226E-3</v>
       </c>
       <c r="O15">
-        <v>9.6729334253351439E-4</v>
+        <v>1.369946391475748E-3</v>
       </c>
       <c r="P15">
-        <v>2.5211562529741422E-3</v>
+        <v>3.5162779835758067E-3</v>
       </c>
       <c r="Q15">
-        <v>9.7024523482105854E-4</v>
+        <v>1.3683716335956696E-3</v>
       </c>
       <c r="R15">
-        <v>9.8216745700723169E-4</v>
+        <v>1.3764760074735452E-3</v>
       </c>
       <c r="S15">
-        <v>9.9602449909893978E-4</v>
+        <v>1.3943732796319734E-3</v>
       </c>
       <c r="T15">
-        <v>9.959881041558716E-4</v>
+        <v>1.375238493008875E-3</v>
       </c>
       <c r="U15">
-        <v>1.0245581326862019E-3</v>
+        <v>1.3982934640075016E-3</v>
       </c>
       <c r="V15">
-        <v>2.1385434165877796E-5</v>
+        <v>5.0474270939576335E-6</v>
       </c>
       <c r="W15">
-        <v>-8.7140768115357542E-6</v>
+        <v>-6.9695247802229734E-6</v>
       </c>
       <c r="X15">
-        <v>-5.1220898605512633E-5</v>
+        <v>-5.8925952298363466E-5</v>
       </c>
       <c r="Y15">
-        <v>-7.7612519889356949E-6</v>
+        <v>-1.9325064498099402E-5</v>
       </c>
       <c r="Z15">
-        <v>-5.4818326955113472E-5</v>
+        <v>-6.8064647000054611E-6</v>
       </c>
       <c r="AA15">
-        <v>-3.0051791268720157E-5</v>
+        <v>-2.8985420515781411E-5</v>
       </c>
       <c r="AB15">
-        <v>-8.7953926214788178E-5</v>
+        <v>-6.8091598202187921E-5</v>
       </c>
       <c r="AC15">
-        <v>5.0970817667414037E-7</v>
+        <v>3.3261096117420479E-5</v>
       </c>
       <c r="AD15">
-        <v>-4.3193476903411908E-5</v>
+        <v>-1.6745505199413421E-5</v>
       </c>
       <c r="AE15">
-        <v>-6.7000334727063343E-5</v>
+        <v>-1.0189198433132728E-4</v>
       </c>
       <c r="AF15">
-        <v>-1.4030629859070011E-5</v>
+        <v>-2.8302008404987441E-5</v>
       </c>
       <c r="AG15">
-        <v>-7.3395585003391782E-4</v>
+        <v>-1.1508959774299739E-3</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="24">
-        <v>-5.4475609230476056E-2</v>
+      <c r="B16">
+        <v>3.2269391160588481E-2</v>
       </c>
       <c r="C16">
-        <v>-5.2078452346120249E-5</v>
+        <v>-5.4721564449122405E-5</v>
       </c>
       <c r="D16">
-        <v>-9.1094298568357272E-5</v>
+        <v>-1.2559113860570844E-4</v>
       </c>
       <c r="E16">
-        <v>-1.5822716202820193E-4</v>
+        <v>-2.2050265565096565E-4</v>
       </c>
       <c r="F16">
-        <v>6.2491795206490942E-5</v>
+        <v>8.0787155642006306E-5</v>
       </c>
       <c r="G16">
-        <v>-1.4158745406009322E-4</v>
+        <v>-1.4217000936631171E-4</v>
       </c>
       <c r="H16">
-        <v>-9.9548505133769099E-5</v>
+        <v>-5.2735321627084926E-5</v>
       </c>
       <c r="I16">
-        <v>-1.0931363424637375E-4</v>
+        <v>-7.5981871953706643E-5</v>
       </c>
       <c r="J16">
-        <v>-8.3713535581010493E-5</v>
+        <v>-8.1291793862070744E-5</v>
       </c>
       <c r="K16">
-        <v>-8.0246377006558747E-7</v>
+        <v>-3.8613098466854954E-5</v>
       </c>
       <c r="L16">
-        <v>9.4146462807340495E-4</v>
+        <v>1.363333177032397E-3</v>
       </c>
       <c r="M16">
-        <v>9.5309127607800636E-4</v>
+        <v>1.3647060331891574E-3</v>
       </c>
       <c r="N16">
-        <v>9.644639274857253E-4</v>
+        <v>1.3601722065843158E-3</v>
       </c>
       <c r="O16">
-        <v>9.7125798967245857E-4</v>
+        <v>1.3759566735788715E-3</v>
       </c>
       <c r="P16">
-        <v>9.7024523482105854E-4</v>
+        <v>1.3683716335956696E-3</v>
       </c>
       <c r="Q16">
-        <v>2.7216726129924902E-3</v>
+        <v>3.8538624538914041E-3</v>
       </c>
       <c r="R16">
-        <v>9.9143239176088891E-4</v>
+        <v>1.3922028442973683E-3</v>
       </c>
       <c r="S16">
-        <v>1.0015362333564697E-3</v>
+        <v>1.414406802488025E-3</v>
       </c>
       <c r="T16">
-        <v>1.011485276405797E-3</v>
+        <v>1.401376951673874E-3</v>
       </c>
       <c r="U16">
-        <v>1.0426608374918592E-3</v>
+        <v>1.4365907796422739E-3</v>
       </c>
       <c r="V16">
-        <v>1.7831285644756111E-5</v>
+        <v>1.7597068379848874E-4</v>
       </c>
       <c r="W16">
-        <v>4.8929250045473386E-5</v>
+        <v>1.6754440574932893E-4</v>
       </c>
       <c r="X16">
-        <v>2.3077088582803239E-5</v>
+        <v>7.0549311137727987E-5</v>
       </c>
       <c r="Y16">
-        <v>7.2305080380713688E-5</v>
+        <v>1.7591925141856044E-4</v>
       </c>
       <c r="Z16">
-        <v>2.1239045145443147E-5</v>
+        <v>1.7685042585483145E-4</v>
       </c>
       <c r="AA16">
-        <v>-1.5144804790475611E-5</v>
+        <v>5.8856702651915527E-5</v>
       </c>
       <c r="AB16">
-        <v>3.0508329393965446E-5</v>
+        <v>1.3710290720653445E-4</v>
       </c>
       <c r="AC16">
-        <v>2.6083658215217669E-5</v>
+        <v>1.2122215476226945E-4</v>
       </c>
       <c r="AD16">
-        <v>2.7422473631955198E-5</v>
+        <v>9.4111609820708274E-5</v>
       </c>
       <c r="AE16">
-        <v>4.0212618057499684E-5</v>
+        <v>1.2403364969225113E-4</v>
       </c>
       <c r="AF16">
-        <v>4.7637270951522617E-5</v>
+        <v>1.2557621608802146E-4</v>
       </c>
       <c r="AG16">
-        <v>-7.7931007620991096E-4</v>
+        <v>-1.2716205117746686E-3</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="24">
-        <v>-4.7413594948193034E-2</v>
+      <c r="B17">
+        <v>8.2018330144665225E-2</v>
       </c>
       <c r="C17">
-        <v>-5.8358197675698326E-5</v>
+        <v>-5.8837679058818466E-5</v>
       </c>
       <c r="D17">
-        <v>-7.3747221429019784E-5</v>
+        <v>-5.6711052161943147E-5</v>
       </c>
       <c r="E17">
-        <v>-1.6524959431370094E-4</v>
+        <v>-1.5796681164157811E-4</v>
       </c>
       <c r="F17">
-        <v>6.7656630815086951E-5</v>
+        <v>6.5189159192214887E-5</v>
       </c>
       <c r="G17">
-        <v>-1.5154081903865358E-4</v>
+        <v>-1.5887270633555361E-4</v>
       </c>
       <c r="H17">
-        <v>-1.2044638908352448E-5</v>
+        <v>-3.0414865496408792E-5</v>
       </c>
       <c r="I17">
-        <v>-6.9588833457008797E-5</v>
+        <v>-9.8183483079464402E-5</v>
       </c>
       <c r="J17">
-        <v>-1.0567296100907799E-4</v>
+        <v>-1.7290287392049278E-4</v>
       </c>
       <c r="K17">
-        <v>2.7153851080204822E-6</v>
+        <v>-1.1189843531228972E-4</v>
       </c>
       <c r="L17">
-        <v>9.4523667446177572E-4</v>
+        <v>1.3815676608080018E-3</v>
       </c>
       <c r="M17">
-        <v>9.5962391504568695E-4</v>
+        <v>1.3816970774046767E-3</v>
       </c>
       <c r="N17">
-        <v>9.7595034835632377E-4</v>
+        <v>1.3770280642564983E-3</v>
       </c>
       <c r="O17">
-        <v>9.8176301618116695E-4</v>
+        <v>1.3908470023010992E-3</v>
       </c>
       <c r="P17">
-        <v>9.8216745700723169E-4</v>
+        <v>1.3764760074735452E-3</v>
       </c>
       <c r="Q17">
-        <v>9.9143239176088891E-4</v>
+        <v>1.3922028442973683E-3</v>
       </c>
       <c r="R17">
-        <v>3.3845088901789449E-3</v>
+        <v>4.3797786802223003E-3</v>
       </c>
       <c r="S17">
-        <v>1.0214314909049729E-3</v>
+        <v>1.4277481700782357E-3</v>
       </c>
       <c r="T17">
-        <v>1.021960939649512E-3</v>
+        <v>1.3981690279898152E-3</v>
       </c>
       <c r="U17">
-        <v>1.0581161332253164E-3</v>
+        <v>1.4286362228811799E-3</v>
       </c>
       <c r="V17">
-        <v>-7.0904488238087218E-5</v>
+        <v>-5.7753366773584825E-7</v>
       </c>
       <c r="W17">
-        <v>-7.1014659747748452E-5</v>
+        <v>8.453211808286202E-5</v>
       </c>
       <c r="X17">
-        <v>-4.4586715158074629E-5</v>
+        <v>-3.1866170227844539E-5</v>
       </c>
       <c r="Y17">
-        <v>-1.6344791509846331E-5</v>
+        <v>3.5398304551801383E-5</v>
       </c>
       <c r="Z17">
-        <v>-3.1507845422781811E-5</v>
+        <v>8.0523584119770444E-5</v>
       </c>
       <c r="AA17">
-        <v>-4.4267445576260691E-5</v>
+        <v>-4.2467199536489028E-6</v>
       </c>
       <c r="AB17">
-        <v>-5.8082038327751445E-5</v>
+        <v>-1.6320841644444845E-5</v>
       </c>
       <c r="AC17">
-        <v>-6.4871897885707553E-5</v>
+        <v>2.4448777622528809E-5</v>
       </c>
       <c r="AD17">
-        <v>-8.0572183436251974E-6</v>
+        <v>1.0636275335978995E-4</v>
       </c>
       <c r="AE17">
-        <v>-7.7966137886549243E-5</v>
+        <v>-5.1928894861791568E-5</v>
       </c>
       <c r="AF17">
-        <v>-6.2680353761346893E-5</v>
+        <v>-1.7860176855418949E-5</v>
       </c>
       <c r="AG17">
-        <v>-7.5028369040536463E-4</v>
+        <v>-1.1810917620538985E-3</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="24">
-        <v>-1.8696921028814997E-2</v>
+      <c r="B18">
+        <v>6.0530252862410663E-2</v>
       </c>
       <c r="C18">
-        <v>-5.4907359985541357E-5</v>
+        <v>-2.8425107991051986E-5</v>
       </c>
       <c r="D18">
-        <v>-6.8321819607939879E-5</v>
+        <v>-1.3577237316406539E-4</v>
       </c>
       <c r="E18">
-        <v>-1.7565737281892451E-4</v>
+        <v>-2.4355554131875469E-4</v>
       </c>
       <c r="F18">
-        <v>1.2595311514179339E-4</v>
+        <v>2.2412650831256947E-4</v>
       </c>
       <c r="G18">
-        <v>-1.7332360484820857E-4</v>
+        <v>-2.0156133050908758E-4</v>
       </c>
       <c r="H18">
-        <v>-1.5690095259133596E-5</v>
+        <v>-5.8774871043426342E-5</v>
       </c>
       <c r="I18">
-        <v>-7.7786318191306898E-5</v>
+        <v>-1.4302142704287969E-4</v>
       </c>
       <c r="J18">
-        <v>-1.0990096619186638E-4</v>
+        <v>-1.7241097944227187E-4</v>
       </c>
       <c r="K18">
-        <v>-1.7970583161263601E-5</v>
+        <v>-1.2046061426172023E-4</v>
       </c>
       <c r="L18">
-        <v>9.4943278815358466E-4</v>
+        <v>1.3798112656820459E-3</v>
       </c>
       <c r="M18">
-        <v>9.6540078228711588E-4</v>
+        <v>1.381883539772228E-3</v>
       </c>
       <c r="N18">
-        <v>9.8211072423787585E-4</v>
+        <v>1.3890060722052842E-3</v>
       </c>
       <c r="O18">
-        <v>9.9737940789105845E-4</v>
+        <v>1.4056623884284327E-3</v>
       </c>
       <c r="P18">
-        <v>9.9602449909893978E-4</v>
+        <v>1.3943732796319734E-3</v>
       </c>
       <c r="Q18">
-        <v>1.0015362333564697E-3</v>
+        <v>1.414406802488025E-3</v>
       </c>
       <c r="R18">
-        <v>1.0214314909049729E-3</v>
+        <v>1.4277481700782357E-3</v>
       </c>
       <c r="S18">
-        <v>3.5511716001592579E-3</v>
+        <v>4.6311401468760189E-3</v>
       </c>
       <c r="T18">
-        <v>1.0517571062919715E-3</v>
+        <v>1.4512274265244239E-3</v>
       </c>
       <c r="U18">
-        <v>1.1045625809580615E-3</v>
+        <v>1.5211964756680167E-3</v>
       </c>
       <c r="V18">
-        <v>-1.1305001285389792E-5</v>
+        <v>-7.1720274410101898E-5</v>
       </c>
       <c r="W18">
-        <v>-4.5695999641604034E-5</v>
+        <v>-1.7457628123458918E-5</v>
       </c>
       <c r="X18">
-        <v>-3.7970050007026749E-5</v>
+        <v>-1.1030292812509241E-4</v>
       </c>
       <c r="Y18">
-        <v>-2.8546476933072958E-5</v>
+        <v>-9.5194417555264559E-5</v>
       </c>
       <c r="Z18">
-        <v>-4.1625240788989708E-5</v>
+        <v>-8.0773720785286404E-5</v>
       </c>
       <c r="AA18">
-        <v>-1.1219991902792955E-4</v>
+        <v>-2.6962708073695384E-5</v>
       </c>
       <c r="AB18">
-        <v>-8.9510055541255841E-5</v>
+        <v>-1.469035163070372E-4</v>
       </c>
       <c r="AC18">
-        <v>-4.6369077997624136E-5</v>
+        <v>-1.0209814408036527E-4</v>
       </c>
       <c r="AD18">
-        <v>-5.9142278936621614E-5</v>
+        <v>-4.7551034011307503E-5</v>
       </c>
       <c r="AE18">
-        <v>-6.7785546102676537E-5</v>
+        <v>-1.2974335466035207E-4</v>
       </c>
       <c r="AF18">
-        <v>-4.0943385678568391E-5</v>
+        <v>-7.2181028008298309E-5</v>
       </c>
       <c r="AG18">
-        <v>-7.783909014930947E-4</v>
+        <v>-1.1193153629858784E-3</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="24">
-        <v>5.0798830829767168E-2</v>
+      <c r="B19">
+        <v>0.193666409662478</v>
       </c>
       <c r="C19">
-        <v>-4.7574294859760396E-5</v>
+        <v>-8.3070546634153865E-5</v>
       </c>
       <c r="D19">
-        <v>-7.4865731342183179E-5</v>
+        <v>-1.3190705230741763E-4</v>
       </c>
       <c r="E19">
-        <v>-1.6878504452378659E-4</v>
+        <v>-2.0254628016456631E-4</v>
       </c>
       <c r="F19">
-        <v>1.9044516825175752E-4</v>
+        <v>2.0253041434380864E-4</v>
       </c>
       <c r="G19">
-        <v>-1.64908625068729E-4</v>
+        <v>-1.1875927021311028E-4</v>
       </c>
       <c r="H19">
-        <v>-1.3418401895776057E-5</v>
+        <v>-7.634496423638247E-5</v>
       </c>
       <c r="I19">
-        <v>-7.3059198514802137E-5</v>
+        <v>-1.7102893905208191E-4</v>
       </c>
       <c r="J19">
-        <v>-8.0930195151338339E-5</v>
+        <v>-1.9663403573581774E-4</v>
       </c>
       <c r="K19">
-        <v>1.7315659114657922E-4</v>
+        <v>-6.5533864683844922E-6</v>
       </c>
       <c r="L19">
-        <v>9.4469572035285262E-4</v>
+        <v>1.3631266580385454E-3</v>
       </c>
       <c r="M19">
-        <v>9.6570694408966581E-4</v>
+        <v>1.3641541148704235E-3</v>
       </c>
       <c r="N19">
-        <v>9.8302348657680985E-4</v>
+        <v>1.3632195497115098E-3</v>
       </c>
       <c r="O19">
-        <v>9.9157338003964769E-4</v>
+        <v>1.3779367934428489E-3</v>
       </c>
       <c r="P19">
-        <v>9.959881041558716E-4</v>
+        <v>1.375238493008875E-3</v>
       </c>
       <c r="Q19">
-        <v>1.011485276405797E-3</v>
+        <v>1.401376951673874E-3</v>
       </c>
       <c r="R19">
-        <v>1.021960939649512E-3</v>
+        <v>1.3981690279898152E-3</v>
       </c>
       <c r="S19">
-        <v>1.0517571062919715E-3</v>
+        <v>1.4512274265244239E-3</v>
       </c>
       <c r="T19">
-        <v>3.8125787263299541E-3</v>
+        <v>4.6620514498506935E-3</v>
       </c>
       <c r="U19">
-        <v>1.1259805848964279E-3</v>
+        <v>1.4870528568140964E-3</v>
       </c>
       <c r="V19">
-        <v>-1.5750698464656732E-4</v>
+        <v>8.1373567825095464E-5</v>
       </c>
       <c r="W19">
-        <v>-4.5220254529713987E-5</v>
+        <v>1.6400550163411104E-4</v>
       </c>
       <c r="X19">
-        <v>-8.5298323303298991E-5</v>
+        <v>9.2788443238617149E-5</v>
       </c>
       <c r="Y19">
-        <v>-3.670371831924617E-5</v>
+        <v>1.3238916095948921E-4</v>
       </c>
       <c r="Z19">
-        <v>-1.0975958752507776E-4</v>
+        <v>1.4638339435696533E-4</v>
       </c>
       <c r="AA19">
-        <v>-8.0987082249774458E-5</v>
+        <v>3.6576843909135359E-5</v>
       </c>
       <c r="AB19">
-        <v>-8.4752724993135842E-5</v>
+        <v>6.3373437457971734E-5</v>
       </c>
       <c r="AC19">
-        <v>-5.3734909416129531E-5</v>
+        <v>1.2241779182311309E-4</v>
       </c>
       <c r="AD19">
-        <v>-6.9427661511513696E-5</v>
+        <v>9.0194287133027896E-5</v>
       </c>
       <c r="AE19">
-        <v>-1.3183687710158188E-5</v>
+        <v>1.8463854099158127E-4</v>
       </c>
       <c r="AF19">
-        <v>-6.6164624203768601E-5</v>
+        <v>7.8030783572390549E-5</v>
       </c>
       <c r="AG19">
-        <v>-8.4639074063719343E-4</v>
+        <v>-1.2780615915527797E-3</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="24">
-        <v>0.16652526368344084</v>
+      <c r="B20">
+        <v>0.53153516511641907</v>
       </c>
       <c r="C20">
-        <v>-5.0021993391974699E-5</v>
+        <v>-5.6133501893588199E-5</v>
       </c>
       <c r="D20">
-        <v>-8.0887844709916625E-5</v>
+        <v>-8.5895874659048751E-5</v>
       </c>
       <c r="E20">
-        <v>-2.1640725012835008E-4</v>
+        <v>-1.9250252554437245E-4</v>
       </c>
       <c r="F20">
-        <v>3.5109009817683193E-4</v>
+        <v>5.1756568283041113E-4</v>
       </c>
       <c r="G20">
-        <v>-2.1556762060907556E-4</v>
+        <v>-1.9291839015464951E-4</v>
       </c>
       <c r="H20">
-        <v>1.008056974591688E-5</v>
+        <v>3.0566610856292732E-5</v>
       </c>
       <c r="I20">
-        <v>-1.1522779436361512E-5</v>
+        <v>1.157547420302836E-4</v>
       </c>
       <c r="J20">
-        <v>1.4885184320026328E-5</v>
+        <v>1.4001111016946621E-4</v>
       </c>
       <c r="K20">
-        <v>2.2418161533799448E-4</v>
+        <v>4.4784280278031222E-4</v>
       </c>
       <c r="L20">
-        <v>9.5119588119771501E-4</v>
+        <v>1.3511012850487762E-3</v>
       </c>
       <c r="M20">
-        <v>9.7841662427119763E-4</v>
+        <v>1.3571567554807767E-3</v>
       </c>
       <c r="N20">
-        <v>1.0027489332398232E-3</v>
+        <v>1.3742507030039049E-3</v>
       </c>
       <c r="O20">
-        <v>1.0139144682867415E-3</v>
+        <v>1.3834135236603328E-3</v>
       </c>
       <c r="P20">
-        <v>1.0245581326862019E-3</v>
+        <v>1.3982934640075016E-3</v>
       </c>
       <c r="Q20">
-        <v>1.0426608374918592E-3</v>
+        <v>1.4365907796422739E-3</v>
       </c>
       <c r="R20">
-        <v>1.0581161332253164E-3</v>
+        <v>1.4286362228811799E-3</v>
       </c>
       <c r="S20">
-        <v>1.1045625809580615E-3</v>
+        <v>1.5211964756680167E-3</v>
       </c>
       <c r="T20">
-        <v>1.1259805848964279E-3</v>
+        <v>1.4870528568140964E-3</v>
       </c>
       <c r="U20">
-        <v>3.4012900867843349E-3</v>
+        <v>4.1800808950591692E-3</v>
       </c>
       <c r="V20">
-        <v>-7.5659405834949687E-5</v>
+        <v>-1.9921587828043827E-4</v>
       </c>
       <c r="W20">
-        <v>-5.6553597759087006E-5</v>
+        <v>-2.0837243210423094E-4</v>
       </c>
       <c r="X20">
-        <v>-8.3280854968714561E-6</v>
+        <v>-1.4005137298779791E-4</v>
       </c>
       <c r="Y20">
-        <v>1.6749588146600363E-5</v>
+        <v>-2.3210803874241061E-5</v>
       </c>
       <c r="Z20">
-        <v>-7.8017121062272019E-5</v>
+        <v>-1.3963116371500984E-4</v>
       </c>
       <c r="AA20">
-        <v>-7.1441500397558617E-5</v>
+        <v>-1.012340009295936E-4</v>
       </c>
       <c r="AB20">
-        <v>-8.8153671180623227E-5</v>
+        <v>-1.4026545765610413E-4</v>
       </c>
       <c r="AC20">
-        <v>-5.6931185386098211E-5</v>
+        <v>-1.8947095320332938E-4</v>
       </c>
       <c r="AD20">
-        <v>-6.3479354393696863E-5</v>
+        <v>-2.036173982635696E-4</v>
       </c>
       <c r="AE20">
-        <v>-5.7937108824013912E-5</v>
+        <v>-1.84497233765668E-4</v>
       </c>
       <c r="AF20">
-        <v>-3.9224715638151416E-5</v>
+        <v>-1.3566465793327619E-4</v>
       </c>
       <c r="AG20">
-        <v>-1.0110463412513673E-3</v>
+        <v>-1.5709325266080073E-3</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="24">
-        <v>3.9583969541802287E-2</v>
+      <c r="B21">
+        <v>7.5623195300750984E-2</v>
       </c>
       <c r="C21">
-        <v>1.0446137581508267E-5</v>
+        <v>8.1825526053427486E-6</v>
       </c>
       <c r="D21">
-        <v>-1.3473109157953792E-4</v>
+        <v>-1.4237140639013844E-4</v>
       </c>
       <c r="E21">
-        <v>-1.48976021207231E-4</v>
+        <v>-2.1121980116790286E-4</v>
       </c>
       <c r="F21">
-        <v>1.8015557342286603E-6</v>
+        <v>-5.779144672260402E-5</v>
       </c>
       <c r="G21">
-        <v>-3.0065797103234137E-6</v>
+        <v>-8.3190772066330981E-6</v>
       </c>
       <c r="H21">
-        <v>1.0239645759680966E-5</v>
+        <v>-1.6629130969777724E-4</v>
       </c>
       <c r="I21">
-        <v>3.7055487441095113E-5</v>
+        <v>-1.3762325037704713E-4</v>
       </c>
       <c r="J21">
-        <v>-3.9019122919842653E-5</v>
+        <v>-1.8359009191840276E-4</v>
       </c>
       <c r="K21">
-        <v>-7.6547519240944672E-5</v>
+        <v>-3.0619071024047366E-4</v>
       </c>
       <c r="L21">
-        <v>-1.2060348544666154E-4</v>
+        <v>-2.5443839336133738E-5</v>
       </c>
       <c r="M21">
-        <v>-6.4676209661989324E-5</v>
+        <v>-1.0436694309873029E-4</v>
       </c>
       <c r="N21">
-        <v>-3.4560274832609844E-5</v>
+        <v>-5.9914997149127912E-5</v>
       </c>
       <c r="O21">
-        <v>-1.0745906343783215E-4</v>
+        <v>1.1662381679440574E-4</v>
       </c>
       <c r="P21">
-        <v>2.1385434165877796E-5</v>
+        <v>5.0474270939576335E-6</v>
       </c>
       <c r="Q21">
-        <v>1.7831285644756111E-5</v>
+        <v>1.7597068379848874E-4</v>
       </c>
       <c r="R21">
-        <v>-7.0904488238087218E-5</v>
+        <v>-5.7753366773584825E-7</v>
       </c>
       <c r="S21">
-        <v>-1.1305001285389792E-5</v>
+        <v>-7.1720274410101898E-5</v>
       </c>
       <c r="T21">
-        <v>-1.5750698464656732E-4</v>
+        <v>8.1373567825095464E-5</v>
       </c>
       <c r="U21">
-        <v>-7.5659405834949687E-5</v>
+        <v>-1.9921587828043827E-4</v>
       </c>
       <c r="V21">
-        <v>5.889075053118864E-3</v>
+        <v>8.9268222244301351E-3</v>
       </c>
       <c r="W21">
-        <v>2.587224443549075E-3</v>
+        <v>3.8596787383727788E-3</v>
       </c>
       <c r="X21">
-        <v>2.590175362219534E-3</v>
+        <v>3.8503597852017732E-3</v>
       </c>
       <c r="Y21">
-        <v>2.5794395168320127E-3</v>
+        <v>3.8331666955043618E-3</v>
       </c>
       <c r="Z21">
-        <v>2.5859879216533843E-3</v>
+        <v>3.8497536855331767E-3</v>
       </c>
       <c r="AA21">
-        <v>2.5850579242003846E-3</v>
+        <v>3.8423398390115123E-3</v>
       </c>
       <c r="AB21">
-        <v>2.5804812933145778E-3</v>
+        <v>3.8349850363914376E-3</v>
       </c>
       <c r="AC21">
-        <v>2.5794168230420947E-3</v>
+        <v>3.8322394133056261E-3</v>
       </c>
       <c r="AD21">
-        <v>2.5923429722412307E-3</v>
+        <v>3.8514657329555436E-3</v>
       </c>
       <c r="AE21">
-        <v>2.5829861032163736E-3</v>
+        <v>3.842393133686194E-3</v>
       </c>
       <c r="AF21">
-        <v>2.6002288142285574E-3</v>
+        <v>3.8539467300976694E-3</v>
       </c>
       <c r="AG21">
-        <v>-2.4232155303039122E-3</v>
+        <v>-3.4735630810238853E-3</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="24">
-        <v>7.1857271177712775E-2</v>
+      <c r="B22">
+        <v>6.3802291329298016E-2</v>
       </c>
       <c r="C22">
-        <v>1.6365185304528473E-5</v>
+        <v>1.1131685644957869E-5</v>
       </c>
       <c r="D22">
-        <v>-8.18022593588725E-5</v>
+        <v>-9.0056513992621881E-5</v>
       </c>
       <c r="E22">
-        <v>-1.036536704570332E-4</v>
+        <v>-1.5146993978865195E-4</v>
       </c>
       <c r="F22">
-        <v>-1.5260137320581541E-5</v>
+        <v>-1.1800457893639966E-4</v>
       </c>
       <c r="G22">
-        <v>1.4850474625093995E-5</v>
+        <v>4.2906166915727387E-5</v>
       </c>
       <c r="H22">
-        <v>-6.3072934553901018E-5</v>
+        <v>-7.8720854169635635E-5</v>
       </c>
       <c r="I22">
-        <v>-2.3923084663295385E-5</v>
+        <v>-1.8547243457408581E-5</v>
       </c>
       <c r="J22">
-        <v>-6.6033076010307487E-5</v>
+        <v>-7.9261136675241178E-5</v>
       </c>
       <c r="K22">
-        <v>-7.5475632490540389E-5</v>
+        <v>-1.9226638228607429E-4</v>
       </c>
       <c r="L22">
-        <v>-1.0867453617004435E-6</v>
+        <v>6.5250514588552203E-5</v>
       </c>
       <c r="M22">
-        <v>-2.2982453715741035E-5</v>
+        <v>-3.81733548705924E-5</v>
       </c>
       <c r="N22">
-        <v>-3.8959870297707033E-5</v>
+        <v>-8.3456662630891978E-5</v>
       </c>
       <c r="O22">
-        <v>-1.594768471425308E-4</v>
+        <v>-8.7575537374038389E-5</v>
       </c>
       <c r="P22">
-        <v>-8.7140768115357542E-6</v>
+        <v>-6.9695247802229734E-6</v>
       </c>
       <c r="Q22">
-        <v>4.8929250045473386E-5</v>
+        <v>1.6754440574932893E-4</v>
       </c>
       <c r="R22">
-        <v>-7.1014659747748452E-5</v>
+        <v>8.453211808286202E-5</v>
       </c>
       <c r="S22">
-        <v>-4.5695999641604034E-5</v>
+        <v>-1.7457628123458918E-5</v>
       </c>
       <c r="T22">
-        <v>-4.5220254529713987E-5</v>
+        <v>1.6400550163411104E-4</v>
       </c>
       <c r="U22">
-        <v>-5.6553597759087006E-5</v>
+        <v>-2.0837243210423094E-4</v>
       </c>
       <c r="V22">
-        <v>2.587224443549075E-3</v>
+        <v>3.8596787383727788E-3</v>
       </c>
       <c r="W22">
-        <v>3.8999563458830171E-3</v>
+        <v>5.7552671958645118E-3</v>
       </c>
       <c r="X22">
-        <v>2.5905406018295529E-3</v>
+        <v>3.8402514538299071E-3</v>
       </c>
       <c r="Y22">
-        <v>2.5833208778268326E-3</v>
+        <v>3.8376316528965426E-3</v>
       </c>
       <c r="Z22">
-        <v>2.5899541042032682E-3</v>
+        <v>3.8423116367940942E-3</v>
       </c>
       <c r="AA22">
-        <v>2.5880386159622629E-3</v>
+        <v>3.8376377788087983E-3</v>
       </c>
       <c r="AB22">
-        <v>2.585917131262919E-3</v>
+        <v>3.839323460836382E-3</v>
       </c>
       <c r="AC22">
-        <v>2.581298743248184E-3</v>
+        <v>3.8301366041852145E-3</v>
       </c>
       <c r="AD22">
-        <v>2.5904205304314839E-3</v>
+        <v>3.8502894988100755E-3</v>
       </c>
       <c r="AE22">
-        <v>2.586337153975723E-3</v>
+        <v>3.8391230277013688E-3</v>
       </c>
       <c r="AF22">
-        <v>2.5948541117634784E-3</v>
+        <v>3.8379266266759353E-3</v>
       </c>
       <c r="AG22">
-        <v>-2.4317858125598546E-3</v>
+        <v>-3.6049900537964688E-3</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
@@ -65327,100 +65011,100 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>8.5406038202114787E-2</v>
+        <v>8.5598519054121497E-2</v>
       </c>
       <c r="C23">
-        <v>2.1525277424021474E-5</v>
+        <v>4.6729996605647142E-5</v>
       </c>
       <c r="D23">
-        <v>-7.827018472401177E-5</v>
+        <v>-6.0409996406170718E-5</v>
       </c>
       <c r="E23">
-        <v>-1.4972925435207724E-4</v>
+        <v>-1.6188517334368968E-4</v>
       </c>
       <c r="F23">
-        <v>-1.0107261105906973E-5</v>
+        <v>-7.8253746890777603E-5</v>
       </c>
       <c r="G23">
-        <v>1.1771150953658495E-5</v>
+        <v>4.1538319160386577E-5</v>
       </c>
       <c r="H23">
-        <v>-4.022626717941854E-5</v>
+        <v>-7.1723796837887223E-5</v>
       </c>
       <c r="I23">
-        <v>-2.0556219151471626E-5</v>
+        <v>-4.3309438566647681E-5</v>
       </c>
       <c r="J23">
-        <v>-2.7043851421359229E-5</v>
+        <v>-3.6954852441345226E-5</v>
       </c>
       <c r="K23">
-        <v>-7.8363824402824999E-5</v>
+        <v>-2.0158572025282895E-4</v>
       </c>
       <c r="L23">
-        <v>-2.5267901695931287E-5</v>
+        <v>-1.0176428174143526E-5</v>
       </c>
       <c r="M23">
-        <v>-3.2506903277755724E-5</v>
+        <v>-5.2587306450350003E-5</v>
       </c>
       <c r="N23">
-        <v>-3.1218945626333597E-5</v>
+        <v>-1.4380573271406899E-4</v>
       </c>
       <c r="O23">
-        <v>-1.4858568072542976E-4</v>
+        <v>-8.2917684880510817E-5</v>
       </c>
       <c r="P23">
-        <v>-5.1220898605512633E-5</v>
+        <v>-5.8925952298363466E-5</v>
       </c>
       <c r="Q23">
-        <v>2.3077088582803239E-5</v>
+        <v>7.0549311137727987E-5</v>
       </c>
       <c r="R23">
-        <v>-4.4586715158074629E-5</v>
+        <v>-3.1866170227844539E-5</v>
       </c>
       <c r="S23">
-        <v>-3.7970050007026749E-5</v>
+        <v>-1.1030292812509241E-4</v>
       </c>
       <c r="T23">
-        <v>-8.5298323303298991E-5</v>
+        <v>9.2788443238617149E-5</v>
       </c>
       <c r="U23">
-        <v>-8.3280854968714561E-6</v>
+        <v>-1.4005137298779791E-4</v>
       </c>
       <c r="V23">
-        <v>2.590175362219534E-3</v>
+        <v>3.8503597852017732E-3</v>
       </c>
       <c r="W23">
-        <v>2.5905406018295529E-3</v>
+        <v>3.8402514538299071E-3</v>
       </c>
       <c r="X23">
-        <v>4.2414067552423128E-3</v>
+        <v>6.3148547303205436E-3</v>
       </c>
       <c r="Y23">
-        <v>2.5837494422590139E-3</v>
+        <v>3.8267090047174714E-3</v>
       </c>
       <c r="Z23">
-        <v>2.5889688640793294E-3</v>
+        <v>3.8390289032355896E-3</v>
       </c>
       <c r="AA23">
-        <v>2.5882360625169285E-3</v>
+        <v>3.8357113555469243E-3</v>
       </c>
       <c r="AB23">
-        <v>2.5841677747946842E-3</v>
+        <v>3.8336646168866187E-3</v>
       </c>
       <c r="AC23">
-        <v>2.5769827009343681E-3</v>
+        <v>3.8136206630570869E-3</v>
       </c>
       <c r="AD23">
-        <v>2.588888446199312E-3</v>
+        <v>3.836135865329611E-3</v>
       </c>
       <c r="AE23">
-        <v>2.5859266704520707E-3</v>
+        <v>3.8326174339707534E-3</v>
       </c>
       <c r="AF23">
-        <v>2.5983564017448119E-3</v>
+        <v>3.8344776065695326E-3</v>
       </c>
       <c r="AG23">
-        <v>-2.4308156233617435E-3</v>
+        <v>-3.6100927460924071E-3</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
@@ -65428,100 +65112,100 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>4.9734572406908602E-2</v>
+        <v>0.18986430875323418</v>
       </c>
       <c r="C24">
-        <v>-1.2205525302462169E-5</v>
+        <v>-9.2581387524120039E-6</v>
       </c>
       <c r="D24">
-        <v>-9.6974345225368417E-5</v>
+        <v>-9.5066244379482485E-5</v>
       </c>
       <c r="E24">
-        <v>-1.426121820685824E-4</v>
+        <v>-1.9534077974221091E-4</v>
       </c>
       <c r="F24">
-        <v>1.9963735796846478E-5</v>
+        <v>-1.9449093174184171E-5</v>
       </c>
       <c r="G24">
-        <v>-7.0971455970326636E-6</v>
+        <v>4.176573266963097E-5</v>
       </c>
       <c r="H24">
-        <v>-2.3422468560586537E-5</v>
+        <v>-8.8178992670820931E-5</v>
       </c>
       <c r="I24">
-        <v>1.477690231640235E-5</v>
+        <v>2.8832850139777055E-5</v>
       </c>
       <c r="J24">
-        <v>-3.6436587101051302E-6</v>
+        <v>2.8730700430675297E-5</v>
       </c>
       <c r="K24">
-        <v>1.4192019469223306E-4</v>
+        <v>1.7466117470725973E-4</v>
       </c>
       <c r="L24">
-        <v>-2.5858631692915284E-5</v>
+        <v>-1.6858494360419917E-5</v>
       </c>
       <c r="M24">
-        <v>-2.4615078758741032E-6</v>
+        <v>-5.853265799378118E-5</v>
       </c>
       <c r="N24">
-        <v>-1.7238852469032796E-5</v>
+        <v>-1.7003849811713935E-4</v>
       </c>
       <c r="O24">
-        <v>-1.2940910271291313E-4</v>
+        <v>-1.1699547347130589E-4</v>
       </c>
       <c r="P24">
-        <v>-7.7612519889356949E-6</v>
+        <v>-1.9325064498099402E-5</v>
       </c>
       <c r="Q24">
-        <v>7.2305080380713688E-5</v>
+        <v>1.7591925141856044E-4</v>
       </c>
       <c r="R24">
-        <v>-1.6344791509846331E-5</v>
+        <v>3.5398304551801383E-5</v>
       </c>
       <c r="S24">
-        <v>-2.8546476933072958E-5</v>
+        <v>-9.5194417555264559E-5</v>
       </c>
       <c r="T24">
-        <v>-3.670371831924617E-5</v>
+        <v>1.3238916095948921E-4</v>
       </c>
       <c r="U24">
-        <v>1.6749588146600363E-5</v>
+        <v>-2.3210803874241061E-5</v>
       </c>
       <c r="V24">
-        <v>2.5794395168320127E-3</v>
+        <v>3.8331666955043618E-3</v>
       </c>
       <c r="W24">
-        <v>2.5833208778268326E-3</v>
+        <v>3.8376316528965426E-3</v>
       </c>
       <c r="X24">
-        <v>2.5837494422590139E-3</v>
+        <v>3.8267090047174714E-3</v>
       </c>
       <c r="Y24">
-        <v>4.3127097049375663E-3</v>
+        <v>6.5038553685564946E-3</v>
       </c>
       <c r="Z24">
-        <v>2.5888254430141799E-3</v>
+        <v>3.8548456737525095E-3</v>
       </c>
       <c r="AA24">
-        <v>2.5830825762555003E-3</v>
+        <v>3.8418576276316135E-3</v>
       </c>
       <c r="AB24">
-        <v>2.5813525460823719E-3</v>
+        <v>3.8463282482735827E-3</v>
       </c>
       <c r="AC24">
-        <v>2.5764027219131887E-3</v>
+        <v>3.8255747250981941E-3</v>
       </c>
       <c r="AD24">
-        <v>2.5882264694285983E-3</v>
+        <v>3.8408367303549157E-3</v>
       </c>
       <c r="AE24">
-        <v>2.581578018752583E-3</v>
+        <v>3.8442112076408678E-3</v>
       </c>
       <c r="AF24">
-        <v>2.6006766207859284E-3</v>
+        <v>3.8647461162506212E-3</v>
       </c>
       <c r="AG24">
-        <v>-2.4815393988586263E-3</v>
+        <v>-3.712455024243084E-3</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
@@ -65529,100 +65213,100 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>6.7042732188120374E-2</v>
+        <v>0.18284278477745472</v>
       </c>
       <c r="C25">
-        <v>1.9227460655272808E-5</v>
+        <v>7.9685750965273873E-5</v>
       </c>
       <c r="D25">
-        <v>-7.2824510007367426E-5</v>
+        <v>-2.9824682934376711E-5</v>
       </c>
       <c r="E25">
-        <v>-1.6191975515058031E-4</v>
+        <v>-2.1094452205743438E-4</v>
       </c>
       <c r="F25">
-        <v>-2.8758829852391243E-5</v>
+        <v>-1.7750324880386336E-4</v>
       </c>
       <c r="G25">
-        <v>-1.1829538541538809E-5</v>
+        <v>6.9067261727164653E-6</v>
       </c>
       <c r="H25">
-        <v>-5.728677341889938E-5</v>
+        <v>-6.1860882431767367E-5</v>
       </c>
       <c r="I25">
-        <v>4.01442804911817E-6</v>
+        <v>7.539003295274193E-6</v>
       </c>
       <c r="J25">
-        <v>-6.1439604990402331E-6</v>
+        <v>4.3934994718455422E-5</v>
       </c>
       <c r="K25">
-        <v>-1.9711260569001436E-5</v>
+        <v>-3.4181813094887091E-5</v>
       </c>
       <c r="L25">
-        <v>-5.3414411888052203E-5</v>
+        <v>2.4941696797902476E-5</v>
       </c>
       <c r="M25">
-        <v>-4.5804828453237961E-5</v>
+        <v>-3.3489898879327678E-5</v>
       </c>
       <c r="N25">
-        <v>-2.2965274849062354E-5</v>
+        <v>-6.5099493656971524E-5</v>
       </c>
       <c r="O25">
-        <v>-1.4770791502588347E-4</v>
+        <v>1.7006565381361268E-6</v>
       </c>
       <c r="P25">
-        <v>-5.4818326955113472E-5</v>
+        <v>-6.8064647000054611E-6</v>
       </c>
       <c r="Q25">
-        <v>2.1239045145443147E-5</v>
+        <v>1.7685042585483145E-4</v>
       </c>
       <c r="R25">
-        <v>-3.1507845422781811E-5</v>
+        <v>8.0523584119770444E-5</v>
       </c>
       <c r="S25">
-        <v>-4.1625240788989708E-5</v>
+        <v>-8.0773720785286404E-5</v>
       </c>
       <c r="T25">
-        <v>-1.0975958752507776E-4</v>
+        <v>1.4638339435696533E-4</v>
       </c>
       <c r="U25">
-        <v>-7.8017121062272019E-5</v>
+        <v>-1.3963116371500984E-4</v>
       </c>
       <c r="V25">
-        <v>2.5859879216533843E-3</v>
+        <v>3.8497536855331767E-3</v>
       </c>
       <c r="W25">
-        <v>2.5899541042032682E-3</v>
+        <v>3.8423116367940942E-3</v>
       </c>
       <c r="X25">
-        <v>2.5889688640793294E-3</v>
+        <v>3.8390289032355896E-3</v>
       </c>
       <c r="Y25">
-        <v>2.5888254430141799E-3</v>
+        <v>3.8548456737525095E-3</v>
       </c>
       <c r="Z25">
-        <v>4.1854768905219024E-3</v>
+        <v>6.2054565664720592E-3</v>
       </c>
       <c r="AA25">
-        <v>2.5903132979074994E-3</v>
+        <v>3.8498325812375807E-3</v>
       </c>
       <c r="AB25">
-        <v>2.5861382067722469E-3</v>
+        <v>3.8478960123821083E-3</v>
       </c>
       <c r="AC25">
-        <v>2.5782341799685392E-3</v>
+        <v>3.8241407744624848E-3</v>
       </c>
       <c r="AD25">
-        <v>2.5893982791830301E-3</v>
+        <v>3.8407520113925495E-3</v>
       </c>
       <c r="AE25">
-        <v>2.5875537756232252E-3</v>
+        <v>3.8380305630541403E-3</v>
       </c>
       <c r="AF25">
-        <v>2.5973609177592214E-3</v>
+        <v>3.841267107037004E-3</v>
       </c>
       <c r="AG25">
-        <v>-2.4106631463485179E-3</v>
+        <v>-3.6629530494718581E-3</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
@@ -65630,100 +65314,100 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>4.6867359985858961E-2</v>
+        <v>0.15158394618369095</v>
       </c>
       <c r="C26">
-        <v>6.9709542805457476E-7</v>
+        <v>3.2216122194360822E-5</v>
       </c>
       <c r="D26">
-        <v>-8.0618698513512785E-5</v>
+        <v>-1.2500305197420792E-4</v>
       </c>
       <c r="E26">
-        <v>-1.3069592559228696E-4</v>
+        <v>-1.8498412681453773E-4</v>
       </c>
       <c r="F26">
-        <v>-2.2539974794138687E-5</v>
+        <v>-1.4062172801952786E-4</v>
       </c>
       <c r="G26">
-        <v>2.1036518711683151E-5</v>
+        <v>1.4381097677052053E-5</v>
       </c>
       <c r="H26">
-        <v>-5.7596139172154739E-5</v>
+        <v>-1.8714115424157333E-4</v>
       </c>
       <c r="I26">
-        <v>-5.0864860225350011E-6</v>
+        <v>-1.2584634625080167E-4</v>
       </c>
       <c r="J26">
-        <v>-2.5725524252724662E-5</v>
+        <v>-1.0414309712390799E-4</v>
       </c>
       <c r="K26">
-        <v>1.3054191494466308E-5</v>
+        <v>-1.377965382180549E-4</v>
       </c>
       <c r="L26">
-        <v>-2.9332832161063334E-5</v>
+        <v>4.711774896972885E-6</v>
       </c>
       <c r="M26">
-        <v>-3.8795651155146943E-5</v>
+        <v>-8.9138892344744537E-5</v>
       </c>
       <c r="N26">
-        <v>3.3689587517992097E-6</v>
+        <v>-6.492164436558461E-5</v>
       </c>
       <c r="O26">
-        <v>-1.3392824459800148E-4</v>
+        <v>-5.6743740050307218E-5</v>
       </c>
       <c r="P26">
-        <v>-3.0051791268720157E-5</v>
+        <v>-2.8985420515781411E-5</v>
       </c>
       <c r="Q26">
-        <v>-1.5144804790475611E-5</v>
+        <v>5.8856702651915527E-5</v>
       </c>
       <c r="R26">
-        <v>-4.4267445576260691E-5</v>
+        <v>-4.2467199536489028E-6</v>
       </c>
       <c r="S26">
-        <v>-1.1219991902792955E-4</v>
+        <v>-2.6962708073695384E-5</v>
       </c>
       <c r="T26">
-        <v>-8.0987082249774458E-5</v>
+        <v>3.6576843909135359E-5</v>
       </c>
       <c r="U26">
-        <v>-7.1441500397558617E-5</v>
+        <v>-1.012340009295936E-4</v>
       </c>
       <c r="V26">
-        <v>2.5850579242003846E-3</v>
+        <v>3.8423398390115123E-3</v>
       </c>
       <c r="W26">
-        <v>2.5880386159622629E-3</v>
+        <v>3.8376377788087983E-3</v>
       </c>
       <c r="X26">
-        <v>2.5882360625169285E-3</v>
+        <v>3.8357113555469243E-3</v>
       </c>
       <c r="Y26">
-        <v>2.5830825762555003E-3</v>
+        <v>3.8418576276316135E-3</v>
       </c>
       <c r="Z26">
-        <v>2.5903132979074994E-3</v>
+        <v>3.8498325812375807E-3</v>
       </c>
       <c r="AA26">
-        <v>3.8738567092699476E-3</v>
+        <v>5.7635338922229652E-3</v>
       </c>
       <c r="AB26">
-        <v>2.5850867624810305E-3</v>
+        <v>3.8425461451729701E-3</v>
       </c>
       <c r="AC26">
-        <v>2.5812303677958249E-3</v>
+        <v>3.8302416804050113E-3</v>
       </c>
       <c r="AD26">
-        <v>2.5899993600062071E-3</v>
+        <v>3.8363656260045776E-3</v>
       </c>
       <c r="AE26">
-        <v>2.5860838454474914E-3</v>
+        <v>3.8412298423423355E-3</v>
       </c>
       <c r="AF26">
-        <v>2.5962978268055121E-3</v>
+        <v>3.8351453266144623E-3</v>
       </c>
       <c r="AG26">
-        <v>-2.4257705408115824E-3</v>
+        <v>-3.4766051391160284E-3</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
@@ -65731,100 +65415,100 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>-2.1463213306506756E-2</v>
+        <v>0.14858041445436379</v>
       </c>
       <c r="C27">
-        <v>3.685934132564862E-5</v>
+        <v>6.3661595443494749E-5</v>
       </c>
       <c r="D27">
-        <v>-5.6827529115918523E-5</v>
+        <v>-1.7781280247718584E-5</v>
       </c>
       <c r="E27">
-        <v>-7.8586418718866176E-5</v>
+        <v>-7.4517633647381464E-5</v>
       </c>
       <c r="F27">
-        <v>-1.2502953849130035E-5</v>
+        <v>-1.1942077033689995E-4</v>
       </c>
       <c r="G27">
-        <v>4.6092856152296443E-6</v>
+        <v>4.7867515300362982E-5</v>
       </c>
       <c r="H27">
-        <v>-7.0358356532491213E-5</v>
+        <v>-6.1917749144756954E-5</v>
       </c>
       <c r="I27">
-        <v>-3.3792258947239672E-5</v>
+        <v>1.0766181703331795E-5</v>
       </c>
       <c r="J27">
-        <v>-5.5649984798459206E-5</v>
+        <v>2.5326413876627842E-5</v>
       </c>
       <c r="K27">
-        <v>7.6467905794608791E-6</v>
+        <v>4.0045183443588282E-5</v>
       </c>
       <c r="L27">
-        <v>-2.7406740747955868E-5</v>
+        <v>4.5994940840997334E-5</v>
       </c>
       <c r="M27">
-        <v>-4.2821003659272716E-5</v>
+        <v>-4.0170205494168899E-5</v>
       </c>
       <c r="N27">
-        <v>-2.8257208124423034E-5</v>
+        <v>-9.9069228676183969E-5</v>
       </c>
       <c r="O27">
-        <v>-1.6742322541628176E-4</v>
+        <v>-6.9490978121675791E-5</v>
       </c>
       <c r="P27">
-        <v>-8.7953926214788178E-5</v>
+        <v>-6.8091598202187921E-5</v>
       </c>
       <c r="Q27">
-        <v>3.0508329393965446E-5</v>
+        <v>1.3710290720653445E-4</v>
       </c>
       <c r="R27">
-        <v>-5.8082038327751445E-5</v>
+        <v>-1.6320841644444845E-5</v>
       </c>
       <c r="S27">
-        <v>-8.9510055541255841E-5</v>
+        <v>-1.469035163070372E-4</v>
       </c>
       <c r="T27">
-        <v>-8.4752724993135842E-5</v>
+        <v>6.3373437457971734E-5</v>
       </c>
       <c r="U27">
-        <v>-8.8153671180623227E-5</v>
+        <v>-1.4026545765610413E-4</v>
       </c>
       <c r="V27">
-        <v>2.5804812933145778E-3</v>
+        <v>3.8349850363914376E-3</v>
       </c>
       <c r="W27">
-        <v>2.585917131262919E-3</v>
+        <v>3.839323460836382E-3</v>
       </c>
       <c r="X27">
-        <v>2.5841677747946842E-3</v>
+        <v>3.8336646168866187E-3</v>
       </c>
       <c r="Y27">
-        <v>2.5813525460823719E-3</v>
+        <v>3.8463282482735827E-3</v>
       </c>
       <c r="Z27">
-        <v>2.5861382067722469E-3</v>
+        <v>3.8478960123821083E-3</v>
       </c>
       <c r="AA27">
-        <v>2.5850867624810305E-3</v>
+        <v>3.8425461451729701E-3</v>
       </c>
       <c r="AB27">
-        <v>3.5958440363864632E-3</v>
+        <v>5.3480567841748487E-3</v>
       </c>
       <c r="AC27">
-        <v>2.5799010227159263E-3</v>
+        <v>3.8339972437361619E-3</v>
       </c>
       <c r="AD27">
-        <v>2.5853961878380639E-3</v>
+        <v>3.8362573098065511E-3</v>
       </c>
       <c r="AE27">
-        <v>2.5838675712990394E-3</v>
+        <v>3.8391871856504984E-3</v>
       </c>
       <c r="AF27">
-        <v>2.58934434007969E-3</v>
+        <v>3.8344672586628492E-3</v>
       </c>
       <c r="AG27">
-        <v>-2.4385188097921732E-3</v>
+        <v>-3.7363343379921612E-3</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
@@ -65832,100 +65516,100 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>9.191352317475851E-2</v>
+        <v>0.12339849852317293</v>
       </c>
       <c r="C28">
-        <v>2.1807678433766471E-5</v>
+        <v>5.6498402596899076E-5</v>
       </c>
       <c r="D28">
-        <v>-6.0775177721736741E-5</v>
+        <v>-5.5965621996398394E-5</v>
       </c>
       <c r="E28">
-        <v>-6.8371167427285211E-5</v>
+        <v>-9.0679957061195516E-5</v>
       </c>
       <c r="F28">
-        <v>-3.2896349974429568E-5</v>
+        <v>-1.4595953997309589E-4</v>
       </c>
       <c r="G28">
-        <v>1.2752650114867785E-6</v>
+        <v>1.290849296095476E-5</v>
       </c>
       <c r="H28">
-        <v>-1.6978840156711954E-5</v>
+        <v>-6.9552320356394692E-5</v>
       </c>
       <c r="I28">
-        <v>3.4319968316671307E-5</v>
+        <v>5.0927736623008774E-5</v>
       </c>
       <c r="J28">
-        <v>-1.5797623380247715E-5</v>
+        <v>-4.8862680682260767E-5</v>
       </c>
       <c r="K28">
-        <v>5.1162220439239557E-5</v>
+        <v>-2.4394056045142984E-5</v>
       </c>
       <c r="L28">
-        <v>-1.0024821551731129E-5</v>
+        <v>6.68717282916912E-5</v>
       </c>
       <c r="M28">
-        <v>-3.5153587679283553E-5</v>
+        <v>-4.7704440682625783E-5</v>
       </c>
       <c r="N28">
-        <v>2.5293437580786726E-6</v>
+        <v>-7.1544417912026699E-5</v>
       </c>
       <c r="O28">
-        <v>-1.2157591815679675E-4</v>
+        <v>9.6902632839500043E-6</v>
       </c>
       <c r="P28">
-        <v>5.0970817667414037E-7</v>
+        <v>3.3261096117420479E-5</v>
       </c>
       <c r="Q28">
-        <v>2.6083658215217669E-5</v>
+        <v>1.2122215476226945E-4</v>
       </c>
       <c r="R28">
-        <v>-6.4871897885707553E-5</v>
+        <v>2.4448777622528809E-5</v>
       </c>
       <c r="S28">
-        <v>-4.6369077997624136E-5</v>
+        <v>-1.0209814408036527E-4</v>
       </c>
       <c r="T28">
-        <v>-5.3734909416129531E-5</v>
+        <v>1.2241779182311309E-4</v>
       </c>
       <c r="U28">
-        <v>-5.6931185386098211E-5</v>
+        <v>-1.8947095320332938E-4</v>
       </c>
       <c r="V28">
-        <v>2.5794168230420947E-3</v>
+        <v>3.8322394133056261E-3</v>
       </c>
       <c r="W28">
-        <v>2.581298743248184E-3</v>
+        <v>3.8301366041852145E-3</v>
       </c>
       <c r="X28">
-        <v>2.5769827009343681E-3</v>
+        <v>3.8136206630570869E-3</v>
       </c>
       <c r="Y28">
-        <v>2.5764027219131887E-3</v>
+        <v>3.8255747250981941E-3</v>
       </c>
       <c r="Z28">
-        <v>2.5782341799685392E-3</v>
+        <v>3.8241407744624848E-3</v>
       </c>
       <c r="AA28">
-        <v>2.5812303677958249E-3</v>
+        <v>3.8302416804050113E-3</v>
       </c>
       <c r="AB28">
-        <v>2.5799010227159263E-3</v>
+        <v>3.8339972437361619E-3</v>
       </c>
       <c r="AC28">
-        <v>3.8225757749249197E-3</v>
+        <v>5.6417421562600274E-3</v>
       </c>
       <c r="AD28">
-        <v>2.5822702787462702E-3</v>
+        <v>3.8221629637572394E-3</v>
       </c>
       <c r="AE28">
-        <v>2.5788185343738994E-3</v>
+        <v>3.8164491068122652E-3</v>
       </c>
       <c r="AF28">
-        <v>2.5795167790998979E-3</v>
+        <v>3.8116596186135382E-3</v>
       </c>
       <c r="AG28">
-        <v>-2.4905518205928594E-3</v>
+        <v>-3.667702814584904E-3</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
@@ -65933,100 +65617,100 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <v>0.17561570798011716</v>
+        <v>0.19838792068162717</v>
       </c>
       <c r="C29">
-        <v>-1.430465339119803E-5</v>
+        <v>-1.8806982095185865E-5</v>
       </c>
       <c r="D29">
-        <v>-1.0382511276531433E-4</v>
+        <v>-1.1652411849475915E-4</v>
       </c>
       <c r="E29">
-        <v>-1.4449230875804493E-4</v>
+        <v>-2.2973539080840843E-4</v>
       </c>
       <c r="F29">
-        <v>1.5578202649210542E-5</v>
+        <v>-9.8685818080479276E-5</v>
       </c>
       <c r="G29">
-        <v>2.6258115700283767E-5</v>
+        <v>1.1023942227444544E-5</v>
       </c>
       <c r="H29">
-        <v>-3.0516031830928915E-6</v>
+        <v>-4.9254679745092123E-5</v>
       </c>
       <c r="I29">
-        <v>7.4604213675411382E-5</v>
+        <v>7.0489349515069633E-5</v>
       </c>
       <c r="J29">
-        <v>1.0227123673073324E-5</v>
+        <v>-4.03532106488802E-5</v>
       </c>
       <c r="K29">
-        <v>2.9953987237010989E-5</v>
+        <v>-8.8305451065306094E-5</v>
       </c>
       <c r="L29">
-        <v>-1.6211821398602264E-5</v>
+        <v>9.2459680803821552E-5</v>
       </c>
       <c r="M29">
-        <v>-1.0185052397468212E-5</v>
+        <v>1.7631483642836657E-5</v>
       </c>
       <c r="N29">
-        <v>9.2675284183275182E-6</v>
+        <v>-3.6635293294325815E-5</v>
       </c>
       <c r="O29">
-        <v>-1.3202199701981346E-4</v>
+        <v>-6.7022473276418621E-5</v>
       </c>
       <c r="P29">
-        <v>-4.3193476903411908E-5</v>
+        <v>-1.6745505199413421E-5</v>
       </c>
       <c r="Q29">
-        <v>2.7422473631955198E-5</v>
+        <v>9.4111609820708274E-5</v>
       </c>
       <c r="R29">
-        <v>-8.0572183436251974E-6</v>
+        <v>1.0636275335978995E-4</v>
       </c>
       <c r="S29">
-        <v>-5.9142278936621614E-5</v>
+        <v>-4.7551034011307503E-5</v>
       </c>
       <c r="T29">
-        <v>-6.9427661511513696E-5</v>
+        <v>9.0194287133027896E-5</v>
       </c>
       <c r="U29">
-        <v>-6.3479354393696863E-5</v>
+        <v>-2.036173982635696E-4</v>
       </c>
       <c r="V29">
-        <v>2.5923429722412307E-3</v>
+        <v>3.8514657329555436E-3</v>
       </c>
       <c r="W29">
-        <v>2.5904205304314839E-3</v>
+        <v>3.8502894988100755E-3</v>
       </c>
       <c r="X29">
-        <v>2.588888446199312E-3</v>
+        <v>3.836135865329611E-3</v>
       </c>
       <c r="Y29">
-        <v>2.5882264694285983E-3</v>
+        <v>3.8408367303549157E-3</v>
       </c>
       <c r="Z29">
-        <v>2.5893982791830301E-3</v>
+        <v>3.8407520113925495E-3</v>
       </c>
       <c r="AA29">
-        <v>2.5899993600062071E-3</v>
+        <v>3.8363656260045776E-3</v>
       </c>
       <c r="AB29">
-        <v>2.5853961878380639E-3</v>
+        <v>3.8362573098065511E-3</v>
       </c>
       <c r="AC29">
-        <v>2.5822702787462702E-3</v>
+        <v>3.8221629637572394E-3</v>
       </c>
       <c r="AD29">
-        <v>4.2610620911239135E-3</v>
+        <v>6.1162910697958508E-3</v>
       </c>
       <c r="AE29">
-        <v>2.5925278168998918E-3</v>
+        <v>3.8346923298666928E-3</v>
       </c>
       <c r="AF29">
-        <v>2.6010706149059981E-3</v>
+        <v>3.8395442249889453E-3</v>
       </c>
       <c r="AG29">
-        <v>-2.498459470423028E-3</v>
+        <v>-3.5996830764117461E-3</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
@@ -66034,100 +65718,100 @@
         <v>37</v>
       </c>
       <c r="B30">
-        <v>0.11202987543419984</v>
+        <v>0.14959785949475435</v>
       </c>
       <c r="C30">
-        <v>-1.3946346713046516E-5</v>
+        <v>1.3156722920702231E-5</v>
       </c>
       <c r="D30">
-        <v>-9.4205307810888523E-5</v>
+        <v>-8.8410905481209519E-5</v>
       </c>
       <c r="E30">
-        <v>-1.1038560447003908E-4</v>
+        <v>-1.614938321163176E-4</v>
       </c>
       <c r="F30">
-        <v>2.8737320847129822E-5</v>
+        <v>-5.0927236298795779E-5</v>
       </c>
       <c r="G30">
-        <v>2.6336367497848758E-5</v>
+        <v>3.5935534878938708E-5</v>
       </c>
       <c r="H30">
-        <v>-3.3713802891997781E-5</v>
+        <v>-5.8980172917460442E-5</v>
       </c>
       <c r="I30">
-        <v>5.371994846314833E-5</v>
+        <v>9.3146199867288199E-5</v>
       </c>
       <c r="J30">
-        <v>6.4991215140914119E-6</v>
+        <v>4.9785482185427544E-5</v>
       </c>
       <c r="K30">
-        <v>7.2202029346558547E-5</v>
+        <v>2.403490363749386E-5</v>
       </c>
       <c r="L30">
-        <v>-3.723209847166615E-5</v>
+        <v>2.9328904804624576E-5</v>
       </c>
       <c r="M30">
-        <v>-1.5306589970091205E-5</v>
+        <v>-6.0996952798118408E-5</v>
       </c>
       <c r="N30">
-        <v>-1.1126356783185327E-5</v>
+        <v>-1.457835297886895E-4</v>
       </c>
       <c r="O30">
-        <v>-1.1456550698121782E-4</v>
+        <v>-1.0446219494287471E-4</v>
       </c>
       <c r="P30">
-        <v>-6.7000334727063343E-5</v>
+        <v>-1.0189198433132728E-4</v>
       </c>
       <c r="Q30">
-        <v>4.0212618057499684E-5</v>
+        <v>1.2403364969225113E-4</v>
       </c>
       <c r="R30">
-        <v>-7.7966137886549243E-5</v>
+        <v>-5.1928894861791568E-5</v>
       </c>
       <c r="S30">
-        <v>-6.7785546102676537E-5</v>
+        <v>-1.2974335466035207E-4</v>
       </c>
       <c r="T30">
-        <v>-1.3183687710158188E-5</v>
+        <v>1.8463854099158127E-4</v>
       </c>
       <c r="U30">
-        <v>-5.7937108824013912E-5</v>
+        <v>-1.84497233765668E-4</v>
       </c>
       <c r="V30">
-        <v>2.5829861032163736E-3</v>
+        <v>3.842393133686194E-3</v>
       </c>
       <c r="W30">
-        <v>2.586337153975723E-3</v>
+        <v>3.8391230277013688E-3</v>
       </c>
       <c r="X30">
-        <v>2.5859266704520707E-3</v>
+        <v>3.8326174339707534E-3</v>
       </c>
       <c r="Y30">
-        <v>2.581578018752583E-3</v>
+        <v>3.8442112076408678E-3</v>
       </c>
       <c r="Z30">
-        <v>2.5875537756232252E-3</v>
+        <v>3.8380305630541403E-3</v>
       </c>
       <c r="AA30">
-        <v>2.5860838454474914E-3</v>
+        <v>3.8412298423423355E-3</v>
       </c>
       <c r="AB30">
-        <v>2.5838675712990394E-3</v>
+        <v>3.8391871856504984E-3</v>
       </c>
       <c r="AC30">
-        <v>2.5788185343738994E-3</v>
+        <v>3.8164491068122652E-3</v>
       </c>
       <c r="AD30">
-        <v>2.5925278168998918E-3</v>
+        <v>3.8346923298666928E-3</v>
       </c>
       <c r="AE30">
-        <v>3.9496327108326703E-3</v>
+        <v>5.8013543010690749E-3</v>
       </c>
       <c r="AF30">
-        <v>2.5965477018434456E-3</v>
+        <v>3.8384196596794999E-3</v>
       </c>
       <c r="AG30">
-        <v>-2.5034002269902302E-3</v>
+        <v>-3.7006819620628842E-3</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
@@ -66135,100 +65819,100 @@
         <v>38</v>
       </c>
       <c r="B31">
-        <v>0.19084064288355213</v>
+        <v>0.35383465146879156</v>
       </c>
       <c r="C31">
-        <v>-1.0197241822597412E-5</v>
+        <v>8.0907473714620119E-6</v>
       </c>
       <c r="D31">
-        <v>-9.5146995492135828E-5</v>
+        <v>-7.8213921184208278E-5</v>
       </c>
       <c r="E31">
-        <v>-2.4046740410985817E-4</v>
+        <v>-3.0371621041702158E-4</v>
       </c>
       <c r="F31">
-        <v>5.3969946210555937E-5</v>
+        <v>-1.7521734927238692E-5</v>
       </c>
       <c r="G31">
-        <v>9.9563197784754729E-6</v>
+        <v>-7.6049280244639198E-6</v>
       </c>
       <c r="H31">
-        <v>-2.3499806620743899E-5</v>
+        <v>-9.2214182261063198E-5</v>
       </c>
       <c r="I31">
-        <v>1.2049139339482748E-5</v>
+        <v>9.3100093199842415E-8</v>
       </c>
       <c r="J31">
-        <v>-5.2302113758418214E-5</v>
+        <v>-6.097930688789624E-5</v>
       </c>
       <c r="K31">
-        <v>2.5903759675230571E-5</v>
+        <v>-8.8135878013257188E-6</v>
       </c>
       <c r="L31">
-        <v>-5.0282598143046179E-5</v>
+        <v>-7.0742164753286908E-6</v>
       </c>
       <c r="M31">
-        <v>-2.5868776246911872E-6</v>
+        <v>-4.7940506207622266E-5</v>
       </c>
       <c r="N31">
-        <v>1.1619596107442743E-5</v>
+        <v>-8.2745672978359842E-5</v>
       </c>
       <c r="O31">
-        <v>-1.170171332470259E-4</v>
+        <v>-5.1773071590439923E-5</v>
       </c>
       <c r="P31">
-        <v>-1.4030629859070011E-5</v>
+        <v>-2.8302008404987441E-5</v>
       </c>
       <c r="Q31">
-        <v>4.7637270951522617E-5</v>
+        <v>1.2557621608802146E-4</v>
       </c>
       <c r="R31">
-        <v>-6.2680353761346893E-5</v>
+        <v>-1.7860176855418949E-5</v>
       </c>
       <c r="S31">
-        <v>-4.0943385678568391E-5</v>
+        <v>-7.2181028008298309E-5</v>
       </c>
       <c r="T31">
-        <v>-6.6164624203768601E-5</v>
+        <v>7.8030783572390549E-5</v>
       </c>
       <c r="U31">
-        <v>-3.9224715638151416E-5</v>
+        <v>-1.3566465793327619E-4</v>
       </c>
       <c r="V31">
-        <v>2.6002288142285574E-3</v>
+        <v>3.8539467300976694E-3</v>
       </c>
       <c r="W31">
-        <v>2.5948541117634784E-3</v>
+        <v>3.8379266266759353E-3</v>
       </c>
       <c r="X31">
-        <v>2.5983564017448119E-3</v>
+        <v>3.8344776065695326E-3</v>
       </c>
       <c r="Y31">
-        <v>2.6006766207859284E-3</v>
+        <v>3.8647461162506212E-3</v>
       </c>
       <c r="Z31">
-        <v>2.5973609177592214E-3</v>
+        <v>3.841267107037004E-3</v>
       </c>
       <c r="AA31">
-        <v>2.5962978268055121E-3</v>
+        <v>3.8351453266144623E-3</v>
       </c>
       <c r="AB31">
-        <v>2.58934434007969E-3</v>
+        <v>3.8344672586628492E-3</v>
       </c>
       <c r="AC31">
-        <v>2.5795167790998979E-3</v>
+        <v>3.8116596186135382E-3</v>
       </c>
       <c r="AD31">
-        <v>2.6010706149059981E-3</v>
+        <v>3.8395442249889453E-3</v>
       </c>
       <c r="AE31">
-        <v>2.5965477018434456E-3</v>
+        <v>3.8384196596794999E-3</v>
       </c>
       <c r="AF31">
-        <v>4.2340130156854963E-3</v>
+        <v>5.9717326849914668E-3</v>
       </c>
       <c r="AG31">
-        <v>-2.4517447964769027E-3</v>
+        <v>-3.5860052619384477E-3</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
@@ -66236,100 +65920,100 @@
         <v>24</v>
       </c>
       <c r="B32">
-        <v>-1.5419885681544829</v>
+        <v>-2.4411289820602424</v>
       </c>
       <c r="C32">
-        <v>-2.2163155795510727E-4</v>
+        <v>-2.6713429340740534E-4</v>
       </c>
       <c r="D32">
-        <v>-6.0518804286921902E-4</v>
+        <v>-1.3280652876236244E-3</v>
       </c>
       <c r="E32">
-        <v>-5.2183671492064885E-4</v>
+        <v>-1.2819227387386896E-3</v>
       </c>
       <c r="F32">
-        <v>-5.3327727631044693E-4</v>
+        <v>-7.516497931584112E-4</v>
       </c>
       <c r="G32">
-        <v>-1.0038198328033004E-4</v>
+        <v>-8.5802853742643695E-5</v>
       </c>
       <c r="H32">
-        <v>-2.4982641928659949E-3</v>
+        <v>-5.6964905574577243E-3</v>
       </c>
       <c r="I32">
-        <v>-2.5196356621866017E-3</v>
+        <v>-5.7412084477508722E-3</v>
       </c>
       <c r="J32">
-        <v>-2.4770131421411952E-3</v>
+        <v>-5.7070521876217304E-3</v>
       </c>
       <c r="K32">
-        <v>-2.5686258142207817E-3</v>
+        <v>-5.8289585416432723E-3</v>
       </c>
       <c r="L32">
-        <v>-8.0135240370181413E-4</v>
+        <v>-1.1308431813230862E-3</v>
       </c>
       <c r="M32">
-        <v>-7.7300098980663035E-4</v>
+        <v>-1.0451317077455637E-3</v>
       </c>
       <c r="N32">
-        <v>-7.5591325135327563E-4</v>
+        <v>-1.0238598804479502E-3</v>
       </c>
       <c r="O32">
-        <v>-6.3726544544427514E-4</v>
+        <v>-1.0786762231643297E-3</v>
       </c>
       <c r="P32">
-        <v>-7.3395585003391782E-4</v>
+        <v>-1.1508959774299739E-3</v>
       </c>
       <c r="Q32">
-        <v>-7.7931007620991096E-4</v>
+        <v>-1.2716205117746686E-3</v>
       </c>
       <c r="R32">
-        <v>-7.5028369040536463E-4</v>
+        <v>-1.1810917620538985E-3</v>
       </c>
       <c r="S32">
-        <v>-7.783909014930947E-4</v>
+        <v>-1.1193153629858784E-3</v>
       </c>
       <c r="T32">
-        <v>-8.4639074063719343E-4</v>
+        <v>-1.2780615915527797E-3</v>
       </c>
       <c r="U32">
-        <v>-1.0110463412513673E-3</v>
+        <v>-1.5709325266080073E-3</v>
       </c>
       <c r="V32">
-        <v>-2.4232155303039122E-3</v>
+        <v>-3.4735630810238853E-3</v>
       </c>
       <c r="W32">
-        <v>-2.4317858125598546E-3</v>
+        <v>-3.6049900537964688E-3</v>
       </c>
       <c r="X32">
-        <v>-2.4308156233617435E-3</v>
+        <v>-3.6100927460924071E-3</v>
       </c>
       <c r="Y32">
-        <v>-2.4815393988586263E-3</v>
+        <v>-3.712455024243084E-3</v>
       </c>
       <c r="Z32">
-        <v>-2.4106631463485179E-3</v>
+        <v>-3.6629530494718581E-3</v>
       </c>
       <c r="AA32">
-        <v>-2.4257705408115824E-3</v>
+        <v>-3.4766051391160284E-3</v>
       </c>
       <c r="AB32">
-        <v>-2.4385188097921732E-3</v>
+        <v>-3.7363343379921612E-3</v>
       </c>
       <c r="AC32">
-        <v>-2.4905518205928594E-3</v>
+        <v>-3.667702814584904E-3</v>
       </c>
       <c r="AD32">
-        <v>-2.498459470423028E-3</v>
+        <v>-3.5996830764117461E-3</v>
       </c>
       <c r="AE32">
-        <v>-2.5034002269902302E-3</v>
+        <v>-3.7006819620628842E-3</v>
       </c>
       <c r="AF32">
-        <v>-2.4517447964769027E-3</v>
+        <v>-3.5860052619384477E-3</v>
       </c>
       <c r="AG32">
-        <v>6.4330879549118888E-3</v>
+        <v>1.1899640180462275E-2</v>
       </c>
     </row>
   </sheetData>
